--- a/Doc/Protocol/CAN总线协议.xlsx
+++ b/Doc/Protocol/CAN总线协议.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1217EBE0-18E2-454B-8055-2ABD330A9049}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24250A41-311E-4F90-939B-8C819BC5BC0D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="166">
   <si>
     <t>字节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1124,7 +1124,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1159,9 +1159,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1198,6 +1195,99 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="14" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="11" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1207,19 +1297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
@@ -1228,88 +1306,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="8" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="11" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="9" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="12" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="14" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1610,7 +1607,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F22" sqref="A1:F22"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1622,50 +1619,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="29" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="49" t="s">
+      <c r="A3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="52" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="40">
         <v>8</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="40"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -1676,172 +1673,172 @@
       <c r="N3" s="12"/>
     </row>
     <row r="4" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30">
+      <c r="A4" s="49">
         <v>0</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="58">
-        <v>1</v>
-      </c>
-      <c r="E4" s="58" t="s">
+      <c r="D4" s="45">
+        <v>1</v>
+      </c>
+      <c r="E4" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="58">
-        <v>1</v>
-      </c>
-      <c r="G4" s="22" t="s">
+      <c r="F4" s="45">
+        <v>1</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="23" t="s">
+      <c r="J4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
       <c r="G5" s="14">
         <v>0</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <v>0</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="K5" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="J5" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="30">
-        <v>1</v>
-      </c>
-      <c r="B6" s="58" t="s">
+      <c r="A6" s="49">
+        <v>1</v>
+      </c>
+      <c r="B6" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="58">
-        <v>1</v>
-      </c>
-      <c r="E6" s="58" t="s">
+      <c r="D6" s="45">
+        <v>1</v>
+      </c>
+      <c r="E6" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="58">
-        <v>1</v>
-      </c>
-      <c r="G6" s="19" t="s">
+      <c r="F6" s="45">
+        <v>1</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="N6" s="21" t="s">
+      <c r="N6" s="20" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="17" t="s">
+      <c r="A7" s="50"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="M7" s="33" t="s">
+      <c r="M7" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="N7" s="34"/>
+      <c r="N7" s="52"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>2</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="45">
         <v>0.1</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="45" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="12"/>
@@ -1857,11 +1854,11 @@
       <c r="A9" s="7">
         <v>3</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -1875,19 +1872,19 @@
       <c r="A10" s="7">
         <v>4</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="45">
         <v>0.01</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="45" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="12"/>
@@ -1903,11 +1900,11 @@
       <c r="A11" s="7">
         <v>5</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -1921,19 +1918,19 @@
       <c r="A12" s="7">
         <v>6</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="27" t="s">
         <v>119</v>
       </c>
       <c r="G12" s="12"/>
@@ -1949,65 +1946,65 @@
       <c r="A13" s="7">
         <v>7</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="44"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="48"/>
     </row>
     <row r="14" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="49" t="s">
+      <c r="A14" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="52" t="s">
+      <c r="C14" s="40"/>
+      <c r="D14" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="40">
         <v>8</v>
       </c>
-      <c r="F14" s="49"/>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>0</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="45">
         <v>1E-3</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="45" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2015,29 +2012,29 @@
       <c r="A16" s="7">
         <v>1</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>2</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="45">
         <v>1E-3</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="45" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2045,29 +2042,29 @@
       <c r="A18" s="7">
         <v>3</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>4</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="58">
+      <c r="D19" s="45">
         <v>1E-3</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="58" t="s">
+      <c r="F19" s="45" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2075,29 +2072,29 @@
       <c r="A20" s="7">
         <v>5</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>6</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="27">
         <v>0.5</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="27" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2105,34 +2102,63 @@
       <c r="A22" s="7">
         <v>7</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G22:N22"/>
@@ -2149,35 +2175,6 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2199,68 +2196,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="29" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="49" t="s">
+      <c r="A3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="40">
         <v>8</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>0</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="58">
-        <v>1</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="58" t="s">
+      <c r="D4" s="45">
+        <v>1</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="45" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2268,49 +2265,49 @@
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="58">
-        <v>1</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="58" t="s">
+      <c r="D8" s="45">
+        <v>1</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="45" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2318,65 +2315,65 @@
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="49" t="s">
+      <c r="A12" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="48" t="s">
+      <c r="C12" s="40"/>
+      <c r="D12" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="40">
         <v>8</v>
       </c>
-      <c r="F12" s="49"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>0</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="58">
-        <v>1</v>
-      </c>
-      <c r="E13" s="58" t="s">
+      <c r="D13" s="45">
+        <v>1</v>
+      </c>
+      <c r="E13" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="58" t="s">
+      <c r="F13" s="45" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2384,49 +2381,49 @@
       <c r="A14" s="7">
         <v>1</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>2</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>3</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>4</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="58">
-        <v>1</v>
-      </c>
-      <c r="E17" s="58" t="s">
+      <c r="D17" s="45">
+        <v>1</v>
+      </c>
+      <c r="E17" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="45" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2434,65 +2431,65 @@
       <c r="A18" s="7">
         <v>5</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>6</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>7</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="49" t="s">
+      <c r="A21" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="48" t="s">
+      <c r="C21" s="40"/>
+      <c r="D21" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E21" s="49">
+      <c r="E21" s="40">
         <v>8</v>
       </c>
-      <c r="F21" s="49"/>
+      <c r="F21" s="40"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>0</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="58">
-        <v>1</v>
-      </c>
-      <c r="E22" s="58" t="s">
+      <c r="D22" s="45">
+        <v>1</v>
+      </c>
+      <c r="E22" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="58" t="s">
+      <c r="F22" s="45" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2500,49 +2497,49 @@
       <c r="A23" s="7">
         <v>1</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>2</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>3</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>4</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="E26" s="58" t="s">
+      <c r="D26" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="58" t="s">
+      <c r="F26" s="45" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2550,49 +2547,44 @@
       <c r="A27" s="7">
         <v>5</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>6</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>7</v>
       </c>
-      <c r="B29" s="59"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="B4:B7"/>
@@ -2605,16 +2597,21 @@
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="F8:F11"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2642,48 +2639,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="32"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="29" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="6"/>
-      <c r="H2" s="32">
+      <c r="H2" s="55">
         <v>0</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="55" t="s">
         <v>67</v>
       </c>
       <c r="J2" s="4">
@@ -2694,23 +2691,23 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="61" t="s">
+      <c r="A3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="52" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="53">
         <v>8</v>
       </c>
-      <c r="F3" s="62"/>
+      <c r="F3" s="54"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
       <c r="J3" s="4">
         <v>1</v>
       </c>
@@ -2722,24 +2719,24 @@
       <c r="A4" s="7">
         <v>0</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="39">
-        <v>1</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="39">
+      <c r="D4" s="27">
+        <v>1</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="27">
         <v>1</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="4">
         <v>2</v>
       </c>
@@ -2751,26 +2748,26 @@
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="63">
-        <v>1</v>
-      </c>
-      <c r="E5" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="63">
+      <c r="D5" s="38">
+        <v>1</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="38">
         <v>1</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="32">
-        <v>1</v>
-      </c>
-      <c r="I5" s="32" t="s">
+      <c r="H5" s="55">
+        <v>1</v>
+      </c>
+      <c r="I5" s="55" t="s">
         <v>69</v>
       </c>
       <c r="J5" s="4">
@@ -2784,24 +2781,24 @@
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="64" t="s">
+      <c r="B6" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="39" t="s">
         <v>139</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
       <c r="J6" s="4">
         <v>1</v>
       </c>
@@ -2819,24 +2816,24 @@
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="64" t="s">
+      <c r="B7" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="39" t="s">
         <v>139</v>
       </c>
       <c r="G7" s="11"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="3">
         <v>2</v>
       </c>
@@ -2848,26 +2845,26 @@
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="E8" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="64" t="s">
+      <c r="B8" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="39" t="s">
         <v>139</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="32">
+      <c r="H8" s="55">
         <v>2</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="55" t="s">
         <v>68</v>
       </c>
       <c r="J8" s="4">
@@ -2881,24 +2878,24 @@
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" s="64" t="s">
+      <c r="B9" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="39" t="s">
         <v>139</v>
       </c>
       <c r="G9" s="11"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
       <c r="J9" s="4">
         <v>1</v>
       </c>
@@ -2910,24 +2907,24 @@
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="64" t="s">
+      <c r="B10" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="39" t="s">
         <v>139</v>
       </c>
       <c r="G10" s="11"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
       <c r="J10" s="4">
         <v>2</v>
       </c>
@@ -2939,24 +2936,24 @@
       <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" s="64" t="s">
+      <c r="B11" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="39" t="s">
         <v>139</v>
       </c>
       <c r="G11" s="11"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
       <c r="J11" s="4">
         <v>3</v>
       </c>
@@ -2972,10 +2969,10 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="32">
+      <c r="H12" s="55">
         <v>3</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="55" t="s">
         <v>70</v>
       </c>
       <c r="J12" s="4">
@@ -2987,8 +2984,8 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G13" s="6"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
       <c r="J13" s="4">
         <v>1</v>
       </c>
@@ -2998,8 +2995,8 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G14" s="6"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
       <c r="J14" s="4">
         <v>2</v>
       </c>
@@ -3009,8 +3006,8 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G15" s="6"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
       <c r="J15" s="4">
         <v>3</v>
       </c>
@@ -3020,8 +3017,8 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G16" s="6"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
       <c r="J16" s="4">
         <v>4</v>
       </c>
@@ -3056,23 +3053,23 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="F11" sqref="C6:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -3092,38 +3089,38 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="49" t="s">
+      <c r="A3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="40">
         <v>8</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>0</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="58">
-        <v>1</v>
-      </c>
-      <c r="E4" s="58" t="s">
+      <c r="D4" s="45">
+        <v>1</v>
+      </c>
+      <c r="E4" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="45" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3131,29 +3128,29 @@
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="58">
-        <v>1</v>
-      </c>
-      <c r="E6" s="58" t="s">
+      <c r="D6" s="45">
+        <v>1</v>
+      </c>
+      <c r="E6" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="45" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3161,29 +3158,29 @@
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="27">
         <v>1.29E-2</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="27" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3191,19 +3188,19 @@
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="39">
-        <v>1</v>
-      </c>
-      <c r="E9" s="39" t="s">
+      <c r="D9" s="27">
+        <v>1</v>
+      </c>
+      <c r="E9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="27" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3211,19 +3208,19 @@
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="39">
-        <v>1</v>
-      </c>
-      <c r="E10" s="39" t="s">
+      <c r="D10" s="27">
+        <v>1</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="27" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3231,29 +3228,24 @@
       <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="27">
         <v>0</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="27" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -3262,6 +3254,11 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3279,17 +3276,17 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -3309,168 +3306,163 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="49" t="s">
+      <c r="A3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="40">
         <v>8</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="25">
+      <c r="A4" s="24">
         <v>0</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="58">
-        <v>1</v>
-      </c>
-      <c r="E4" s="58" t="s">
+      <c r="D4" s="45">
+        <v>1</v>
+      </c>
+      <c r="E4" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="45" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="25">
-        <v>1</v>
-      </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
+      <c r="A5" s="24">
+        <v>1</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="25">
+      <c r="A6" s="24">
         <v>2</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="58">
-        <v>1</v>
-      </c>
-      <c r="E6" s="58" t="s">
+      <c r="D6" s="45">
+        <v>1</v>
+      </c>
+      <c r="E6" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="45" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="25">
+      <c r="A7" s="24">
         <v>3</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="25">
+      <c r="A8" s="24">
         <v>4</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="27">
         <v>1.29E-2</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="27" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="25">
+      <c r="A9" s="24">
         <v>5</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="39">
-        <v>1</v>
-      </c>
-      <c r="E9" s="39" t="s">
+      <c r="D9" s="27">
+        <v>1</v>
+      </c>
+      <c r="E9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="27" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="25">
+      <c r="A10" s="24">
         <v>6</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="39">
-        <v>1</v>
-      </c>
-      <c r="E10" s="39" t="s">
+      <c r="D10" s="27">
+        <v>1</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="27" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="25">
+      <c r="A11" s="24">
         <v>7</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="27">
         <v>0</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="27" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="A1:F1"/>
@@ -3479,6 +3471,11 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3503,112 +3500,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="29" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="49" t="s">
+      <c r="A3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="40">
         <v>8</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="27" t="s">
+      <c r="F3" s="40"/>
+      <c r="G3" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="29"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="59"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="37">
+      <c r="A4" s="60">
         <v>0</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="58">
-        <v>1</v>
-      </c>
-      <c r="E4" s="58" t="s">
+      <c r="D4" s="45">
+        <v>1</v>
+      </c>
+      <c r="E4" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="57" t="s">
+      <c r="J4" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="57" t="s">
+      <c r="L4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="57" t="s">
+      <c r="N4" s="36" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
       <c r="G5" s="7">
         <v>0</v>
       </c>
@@ -3635,76 +3632,76 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="35">
-        <v>1</v>
-      </c>
-      <c r="B6" s="58" t="s">
+      <c r="A6" s="61">
+        <v>1</v>
+      </c>
+      <c r="B6" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="58">
-        <v>1</v>
-      </c>
-      <c r="E6" s="58" t="s">
+      <c r="D6" s="45">
+        <v>1</v>
+      </c>
+      <c r="E6" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="38" t="s">
+      <c r="J6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="38" t="s">
+      <c r="N6" s="26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="55">
+      <c r="A7" s="62"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="35">
         <v>0</v>
       </c>
-      <c r="H7" s="55" t="s">
+      <c r="H7" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="I7" s="56" t="s">
+      <c r="I7" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="56"/>
-      <c r="K7" s="55" t="s">
+      <c r="J7" s="63"/>
+      <c r="K7" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="L7" s="55" t="s">
+      <c r="L7" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="M7" s="55" t="s">
+      <c r="M7" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="N7" s="55" t="s">
+      <c r="N7" s="35" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3712,19 +3709,19 @@
       <c r="A8" s="8">
         <v>2</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="45">
         <v>0.1</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="45" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3732,29 +3729,29 @@
       <c r="A9" s="8">
         <v>3</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>4</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="45">
         <v>0.01</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="45" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3762,75 +3759,75 @@
       <c r="A11" s="8">
         <v>5</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="26">
+      <c r="A12" s="25">
         <v>6</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="45">
         <v>0.01</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="45" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="26">
+      <c r="A13" s="25">
         <v>7</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="49" t="s">
+      <c r="A14" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="48" t="s">
+      <c r="C14" s="40"/>
+      <c r="D14" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="40">
         <v>8</v>
       </c>
-      <c r="F14" s="49"/>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>0</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="45">
         <v>0.01</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="45" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3838,109 +3835,109 @@
       <c r="A16" s="9">
         <v>1</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="26">
+      <c r="A17" s="25">
         <v>2</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="45">
         <v>0.01</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="45" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="26">
+      <c r="A18" s="25">
         <v>3</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="26">
+      <c r="A19" s="25">
         <v>4</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="F19" s="58" t="s">
+      <c r="F19" s="45" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="26">
+      <c r="A20" s="25">
         <v>5</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="26">
+      <c r="A21" s="25">
         <v>6</v>
       </c>
-      <c r="B21" s="39">
+      <c r="B21" s="27">
         <v>0</v>
       </c>
-      <c r="C21" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" s="39" t="s">
+      <c r="C21" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="27" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="26">
+      <c r="A22" s="25">
         <v>7</v>
       </c>
-      <c r="B22" s="39">
+      <c r="B22" s="27">
         <v>0</v>
       </c>
-      <c r="C22" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="F22" s="39" t="s">
+      <c r="C22" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="27" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4037,6 +4034,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="C19:C20"/>
@@ -4053,39 +4083,6 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="G3:N3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4104,356 +4101,357 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="29" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="49" t="s">
+      <c r="A3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="40">
         <v>8</v>
       </c>
-      <c r="F3" s="49"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="26">
+      <c r="A4" s="25">
         <v>0</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="58">
+      <c r="D4" s="45">
         <v>1E-3</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="45" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
-        <v>1</v>
-      </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
+      <c r="A5" s="25">
+        <v>1</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="26">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="45">
         <v>1E-3</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="45" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="26">
+      <c r="A7" s="25">
         <v>3</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="26">
+      <c r="A8" s="25">
         <v>4</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="45">
         <v>1E-3</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="45" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="26">
+      <c r="A9" s="25">
         <v>5</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="26">
+      <c r="A10" s="25">
         <v>6</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="45">
         <v>1E-3</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="45" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="26">
+      <c r="A11" s="25">
         <v>7</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="54" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="49" t="s">
+      <c r="A12" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="48" t="s">
+      <c r="C12" s="40"/>
+      <c r="D12" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="40">
         <v>8</v>
       </c>
-      <c r="F12" s="49"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="26">
+      <c r="A13" s="25">
         <v>0</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="39">
-        <v>1</v>
-      </c>
-      <c r="E13" s="39" t="s">
+      <c r="D13" s="27">
+        <v>1</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="26">
-        <v>1</v>
-      </c>
-      <c r="B14" s="39" t="s">
+      <c r="A14" s="25">
+        <v>1</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="39">
-        <v>1</v>
-      </c>
-      <c r="E14" s="39" t="s">
+      <c r="D14" s="27">
+        <v>1</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="26">
+      <c r="A15" s="25">
         <v>2</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="39">
-        <v>1</v>
-      </c>
-      <c r="E15" s="39" t="s">
+      <c r="D15" s="27">
+        <v>1</v>
+      </c>
+      <c r="E15" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="26">
+      <c r="A16" s="25">
         <v>3</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D16" s="39">
-        <v>1</v>
-      </c>
-      <c r="E16" s="39" t="s">
+      <c r="D16" s="27">
+        <v>1</v>
+      </c>
+      <c r="E16" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="26">
+      <c r="A17" s="25">
         <v>4</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="39">
-        <v>1</v>
-      </c>
-      <c r="E17" s="39" t="s">
+      <c r="D17" s="27">
+        <v>1</v>
+      </c>
+      <c r="E17" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="26">
+      <c r="A18" s="25">
         <v>5</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="27">
         <v>0</v>
       </c>
-      <c r="C18" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="F18" s="39" t="s">
+      <c r="C18" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="27" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="26">
+      <c r="A19" s="25">
         <v>6</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="27">
         <v>0</v>
       </c>
-      <c r="C19" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="F19" s="39" t="s">
+      <c r="C19" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="27" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="26">
+      <c r="A20" s="25">
         <v>7</v>
       </c>
-      <c r="B20" s="39">
+      <c r="B20" s="27">
         <v>0</v>
       </c>
-      <c r="C20" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="F20" s="39" t="s">
+      <c r="C20" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="27" t="s">
         <v>139</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
@@ -4464,14 +4462,13 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4496,48 +4493,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="32"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="29" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="6"/>
-      <c r="H2" s="32">
+      <c r="H2" s="55">
         <v>0</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="55" t="s">
         <v>67</v>
       </c>
       <c r="J2" s="4">
@@ -4548,23 +4545,23 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="61" t="s">
+      <c r="A3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="52" t="s">
+      <c r="C3" s="54"/>
+      <c r="D3" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="53">
         <v>8</v>
       </c>
-      <c r="F3" s="62"/>
+      <c r="F3" s="54"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
       <c r="J3" s="4">
         <v>1</v>
       </c>
@@ -4573,27 +4570,27 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26">
+      <c r="A4" s="25">
         <v>0</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="39">
-        <v>1</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="39">
+      <c r="D4" s="27">
+        <v>1</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="27">
         <v>1</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
       <c r="J4" s="4">
         <v>2</v>
       </c>
@@ -4602,29 +4599,29 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="26">
-        <v>1</v>
-      </c>
-      <c r="B5" s="63" t="s">
+      <c r="A5" s="25">
+        <v>1</v>
+      </c>
+      <c r="B5" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="63">
-        <v>1</v>
-      </c>
-      <c r="E5" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="63">
+      <c r="D5" s="38">
+        <v>1</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="38">
         <v>1</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="32">
-        <v>1</v>
-      </c>
-      <c r="I5" s="32" t="s">
+      <c r="H5" s="55">
+        <v>1</v>
+      </c>
+      <c r="I5" s="55" t="s">
         <v>69</v>
       </c>
       <c r="J5" s="4">
@@ -4635,27 +4632,27 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="26">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="64" t="s">
+      <c r="B6" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="39" t="s">
         <v>139</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
       <c r="J6" s="4">
         <v>1</v>
       </c>
@@ -4664,27 +4661,27 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="26">
+      <c r="A7" s="25">
         <v>3</v>
       </c>
-      <c r="B7" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="64" t="s">
+      <c r="B7" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="39" t="s">
         <v>139</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
       <c r="J7" s="3">
         <v>2</v>
       </c>
@@ -4693,29 +4690,29 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="26">
+      <c r="A8" s="25">
         <v>4</v>
       </c>
-      <c r="B8" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="E8" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="64" t="s">
+      <c r="B8" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="39" t="s">
         <v>139</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="32">
+      <c r="H8" s="55">
         <v>2</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="55" t="s">
         <v>68</v>
       </c>
       <c r="J8" s="4">
@@ -4726,27 +4723,27 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="26">
+      <c r="A9" s="25">
         <v>5</v>
       </c>
-      <c r="B9" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" s="64" t="s">
+      <c r="B9" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="39" t="s">
         <v>139</v>
       </c>
       <c r="G9" s="13"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
       <c r="J9" s="4">
         <v>1</v>
       </c>
@@ -4755,27 +4752,27 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="26">
+      <c r="A10" s="25">
         <v>6</v>
       </c>
-      <c r="B10" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="64" t="s">
+      <c r="B10" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="39" t="s">
         <v>139</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
       <c r="J10" s="4">
         <v>2</v>
       </c>
@@ -4784,27 +4781,27 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="26">
+      <c r="A11" s="25">
         <v>7</v>
       </c>
-      <c r="B11" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" s="64" t="s">
+      <c r="B11" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="39" t="s">
         <v>139</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
       <c r="J11" s="4">
         <v>3</v>
       </c>
@@ -4814,10 +4811,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G12" s="6"/>
-      <c r="H12" s="32">
+      <c r="H12" s="55">
         <v>3</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="55" t="s">
         <v>70</v>
       </c>
       <c r="J12" s="4">
@@ -4829,8 +4826,8 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G13" s="6"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
       <c r="J13" s="4">
         <v>1</v>
       </c>
@@ -4840,8 +4837,8 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G14" s="6"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
       <c r="J14" s="4">
         <v>2</v>
       </c>
@@ -4851,8 +4848,8 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G15" s="6"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
       <c r="J15" s="4">
         <v>3</v>
       </c>
@@ -4862,8 +4859,8 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G16" s="6"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
       <c r="J16" s="4">
         <v>4</v>
       </c>
@@ -4873,11 +4870,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="I8:I11"/>
     <mergeCell ref="H12:H16"/>
     <mergeCell ref="I12:I16"/>
     <mergeCell ref="H1:I1"/>
@@ -4886,6 +4878,11 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="I5:I7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I8:I11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/Protocol/CAN总线协议.xlsx
+++ b/Doc/Protocol/CAN总线协议.xlsx
@@ -3,19 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24250A41-311E-4F90-939B-8C819BC5BC0D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BC2527-E63E-4057-87CE-42F813867DC6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="长安控制接口(TX)" sheetId="10" r:id="rId1"/>
-    <sheet name="PID调试帧(TX)" sheetId="5" r:id="rId2"/>
-    <sheet name="系统工作模式配置(TX)" sheetId="7" r:id="rId3"/>
-    <sheet name="超声波原始数据(TX)" sheetId="13" r:id="rId4"/>
-    <sheet name="超声波原始数据(RX)" sheetId="12" r:id="rId5"/>
-    <sheet name="车身状态反馈(RX)" sheetId="2" r:id="rId6"/>
-    <sheet name="车速反馈(RX)" sheetId="4" r:id="rId7"/>
+    <sheet name="超声波原始数据(RX)" sheetId="12" r:id="rId1"/>
+    <sheet name="超声波原始数据(TX)" sheetId="13" r:id="rId2"/>
+    <sheet name="车身状态反馈(RX)" sheetId="2" r:id="rId3"/>
+    <sheet name="车身状态注入(TX)" sheetId="16" r:id="rId4"/>
+    <sheet name="长安控制接口(TX)" sheetId="10" r:id="rId5"/>
+    <sheet name="车速反馈(RX)" sheetId="4" r:id="rId6"/>
+    <sheet name="车速注入(TX)" sheetId="15" r:id="rId7"/>
     <sheet name="系统状态反馈(RX)" sheetId="9" r:id="rId8"/>
+    <sheet name="系统工作模式配置(TX)" sheetId="7" r:id="rId9"/>
+    <sheet name="车辆跟踪信息(RX)" sheetId="18" r:id="rId10"/>
+    <sheet name="应答信号(RX)" sheetId="14" r:id="rId11"/>
+    <sheet name="PID调试帧(TX)" sheetId="5" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="179">
   <si>
     <t>字节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -645,14 +649,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x521</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x522</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x530</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -674,6 +670,66 @@
   </si>
   <si>
     <t>0x500-0x50B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应答信号反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x416</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xA5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆跟踪信息反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x440</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yaw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-327,327]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-180,180]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x552</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1124,7 +1180,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1237,6 +1293,30 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="11" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1276,6 +1356,30 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1283,30 +1387,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="8" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1603,11 +1683,2156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8F34AB-C4C2-4C9E-862F-64EECBC6249B}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="F11" sqref="A1:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="48">
+        <v>8</v>
+      </c>
+      <c r="F3" s="48"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="24">
+        <v>0</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="53">
+        <v>1</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="24">
+        <v>1</v>
+      </c>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="24">
+        <v>2</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="53">
+        <v>1</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="24">
+        <v>3</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="24">
+        <v>4</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="27">
+        <v>1.29E-2</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="24">
+        <v>5</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="27">
+        <v>1</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="24">
+        <v>6</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="27">
+        <v>1</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="24">
+        <v>7</v>
+      </c>
+      <c r="B11" s="27">
+        <v>0</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035C941A-BCE1-46E3-89DE-EEDC1055935D}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="48">
+        <v>8</v>
+      </c>
+      <c r="F3" s="48"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="46">
+        <v>0</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="53">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="46">
+        <v>1</v>
+      </c>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="46">
+        <v>2</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="53">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="46">
+        <v>3</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="46">
+        <v>4</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="53">
+        <v>0.01</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="46">
+        <v>5</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="46">
+        <v>6</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="46">
+        <v>7</v>
+      </c>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987AFC64-1F61-4893-BCF1-55964C99EF0C}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="69">
+        <v>8</v>
+      </c>
+      <c r="F3" s="70"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="44">
+        <v>0</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="43">
+        <v>1</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="44">
+        <v>1</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="38">
+        <v>1</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="44">
+        <v>2</v>
+      </c>
+      <c r="B6" s="39">
+        <v>0</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="44">
+        <v>3</v>
+      </c>
+      <c r="B7" s="39">
+        <v>0</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="44">
+        <v>4</v>
+      </c>
+      <c r="B8" s="39">
+        <v>0</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="44">
+        <v>5</v>
+      </c>
+      <c r="B9" s="39">
+        <v>0</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="44">
+        <v>6</v>
+      </c>
+      <c r="B10" s="39">
+        <v>0</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="44">
+        <v>7</v>
+      </c>
+      <c r="B11" s="39">
+        <v>0</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF57E098-EEA1-4ED0-9239-EFEB3D560FCC}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="48">
+        <v>8</v>
+      </c>
+      <c r="F3" s="48"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>0</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="53">
+        <v>1</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="53">
+        <v>1</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="48">
+        <v>8</v>
+      </c>
+      <c r="F12" s="48"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>0</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="53">
+        <v>1</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>1</v>
+      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>2</v>
+      </c>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>3</v>
+      </c>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>4</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="53">
+        <v>1</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>5</v>
+      </c>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>6</v>
+      </c>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>7</v>
+      </c>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="48"/>
+      <c r="D21" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="48">
+        <v>8</v>
+      </c>
+      <c r="F21" s="48"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>0</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="53">
+        <v>1</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>1</v>
+      </c>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>2</v>
+      </c>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>3</v>
+      </c>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>4</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>5</v>
+      </c>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>6</v>
+      </c>
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>7</v>
+      </c>
+      <c r="B29" s="52"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49368B5F-FF1A-4CA0-AC71-CB4FF4B34D51}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="48">
+        <v>8</v>
+      </c>
+      <c r="F3" s="48"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>0</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="53">
+        <v>1</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="53">
+        <v>1</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="27">
+        <v>1.29E-2</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="27">
+        <v>1</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="27">
+        <v>1</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="27">
+        <v>0</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485B570D-AF19-4CD7-ADE4-FC7A998D53D9}">
+  <dimension ref="A1:N39"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F21" sqref="B14:F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.58203125" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1"/>
+    <col min="5" max="5" width="12.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="48">
+        <v>8</v>
+      </c>
+      <c r="F3" s="48"/>
+      <c r="G3" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="65"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="62">
+        <v>0</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="53">
+        <v>1</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="62"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="41">
+        <v>1</v>
+      </c>
+      <c r="B6" s="40">
+        <v>0</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>2</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>4</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="53">
+        <v>0.01</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>5</v>
+      </c>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="25">
+        <v>6</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="53">
+        <v>0.01</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="25">
+        <v>7</v>
+      </c>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="48">
+        <v>8</v>
+      </c>
+      <c r="F13" s="48"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="66">
+        <v>0</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="53">
+        <v>1</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="67"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="47">
+        <v>0</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" s="68"/>
+      <c r="K15" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="M15" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="N15" s="35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="42">
+        <v>1</v>
+      </c>
+      <c r="B16" s="40">
+        <v>0</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
+        <v>2</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="53">
+        <v>0.01</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="42">
+        <v>3</v>
+      </c>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="41">
+        <v>4</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="53">
+        <v>0.01</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="53" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="42">
+        <v>5</v>
+      </c>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="41">
+        <v>6</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="53">
+        <v>0.01</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="42">
+        <v>7</v>
+      </c>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="D17:D18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C997F42E-EA4A-4979-AA96-A392CF351B94}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F11" sqref="B4:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="48">
+        <v>8</v>
+      </c>
+      <c r="F3" s="48"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="62">
+        <v>0</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="53">
+        <v>1</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="62"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="46">
+        <v>1</v>
+      </c>
+      <c r="B6" s="45">
+        <v>0</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="46">
+        <v>2</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="46">
+        <v>3</v>
+      </c>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="46">
+        <v>4</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="53">
+        <v>0.01</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="46">
+        <v>5</v>
+      </c>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="46">
+        <v>6</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="53">
+        <v>0.01</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="46">
+        <v>7</v>
+      </c>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1A9E13-87C1-4307-9B11-1AB0387C93D9}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D19" sqref="D15:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1619,14 +3844,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
@@ -1652,17 +3877,17 @@
       <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="40"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="48">
         <v>8</v>
       </c>
-      <c r="F3" s="40"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -1673,22 +3898,22 @@
       <c r="N3" s="12"/>
     </row>
     <row r="4" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49">
-        <v>0</v>
-      </c>
-      <c r="B4" s="45" t="s">
+      <c r="A4" s="57">
+        <v>0</v>
+      </c>
+      <c r="B4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="45">
-        <v>1</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="45">
+      <c r="D4" s="53">
+        <v>1</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="53">
         <v>1</v>
       </c>
       <c r="G4" s="21" t="s">
@@ -1717,12 +3942,12 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="14">
         <v>0</v>
       </c>
@@ -1749,22 +3974,22 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="49">
-        <v>1</v>
-      </c>
-      <c r="B6" s="45" t="s">
+      <c r="A6" s="57">
+        <v>1</v>
+      </c>
+      <c r="B6" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="45">
-        <v>1</v>
-      </c>
-      <c r="E6" s="45" t="s">
+      <c r="D6" s="53">
+        <v>1</v>
+      </c>
+      <c r="E6" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="53">
         <v>1</v>
       </c>
       <c r="G6" s="18" t="s">
@@ -1793,12 +4018,12 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
       <c r="G7" s="16" t="s">
         <v>97</v>
       </c>
@@ -1817,28 +4042,28 @@
       <c r="L7" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="M7" s="51" t="s">
+      <c r="M7" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="N7" s="52"/>
+      <c r="N7" s="60"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>2</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="53">
         <v>0.1</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="53" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="12"/>
@@ -1854,11 +4079,11 @@
       <c r="A9" s="7">
         <v>3</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -1872,19 +4097,19 @@
       <c r="A10" s="7">
         <v>4</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="53">
         <v>0.01</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="53" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="12"/>
@@ -1900,11 +4125,11 @@
       <c r="A11" s="7">
         <v>5</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -1961,50 +4186,50 @@
       <c r="F13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="48"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="56"/>
     </row>
     <row r="14" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="40"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="48">
         <v>8</v>
       </c>
-      <c r="F14" s="40"/>
+      <c r="F14" s="48"/>
     </row>
     <row r="15" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>0</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="53" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2012,29 +4237,29 @@
       <c r="A16" s="7">
         <v>1</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>2</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="53" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2042,29 +4267,29 @@
       <c r="A18" s="7">
         <v>3</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>4</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="52" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="53" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2072,11 +4297,11 @@
       <c r="A20" s="7">
         <v>5</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
@@ -2117,16 +4342,16 @@
       <c r="F22" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="41" t="s">
+      <c r="G22" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="45">
@@ -2182,1933 +4407,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF57E098-EEA1-4ED0-9239-EFEB3D560FCC}">
-  <dimension ref="A1:F29"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="11.58203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="40">
-        <v>8</v>
-      </c>
-      <c r="F3" s="40"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>0</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="45">
-        <v>1</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>4</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="45">
-        <v>1</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>5</v>
-      </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>6</v>
-      </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>7</v>
-      </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="40">
-        <v>8</v>
-      </c>
-      <c r="F12" s="40"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
-        <v>0</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="45">
-        <v>1</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>1</v>
-      </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
-        <v>2</v>
-      </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>3</v>
-      </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <v>4</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="45">
-        <v>1</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="45" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>5</v>
-      </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
-        <v>6</v>
-      </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <v>7</v>
-      </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="40">
-        <v>8</v>
-      </c>
-      <c r="F21" s="40"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <v>0</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="45">
-        <v>1</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="45" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
-        <v>1</v>
-      </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
-        <v>2</v>
-      </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
-        <v>3</v>
-      </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
-        <v>4</v>
-      </c>
-      <c r="B26" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="45" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
-        <v>5</v>
-      </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="7">
-        <v>6</v>
-      </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="7">
-        <v>7</v>
-      </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-    </row>
-  </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8238FD7-9016-4AA5-B4BA-2804821B8803}">
-  <dimension ref="A1:V16"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="A1:F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="7" max="7" width="6.5" customWidth="1"/>
-    <col min="8" max="8" width="5.9140625" customWidth="1"/>
-    <col min="9" max="9" width="6.9140625" customWidth="1"/>
-    <col min="10" max="10" width="6.08203125" customWidth="1"/>
-    <col min="11" max="11" width="16.75" customWidth="1"/>
-    <col min="12" max="12" width="7.75" customWidth="1"/>
-    <col min="18" max="18" width="16.83203125" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="55"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="55">
-        <v>0</v>
-      </c>
-      <c r="I2" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="53">
-        <v>8</v>
-      </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>0</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="27">
-        <v>1</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="27">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="4">
-        <v>2</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="38">
-        <v>1</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="38">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="55">
-        <v>1</v>
-      </c>
-      <c r="I5" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="4">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="3">
-        <v>2</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>4</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="55">
-        <v>2</v>
-      </c>
-      <c r="I8" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>5</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>6</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="4">
-        <v>2</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>7</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="4">
-        <v>3</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="55">
-        <v>3</v>
-      </c>
-      <c r="I12" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="G13" s="6"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="4">
-        <v>1</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="G14" s="6"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="4">
-        <v>2</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="G15" s="6"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="4">
-        <v>3</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="G16" s="6"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="4">
-        <v>4</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="H8:H11"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49368B5F-FF1A-4CA0-AC71-CB4FF4B34D51}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="F11" sqref="C6:F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="40">
-        <v>8</v>
-      </c>
-      <c r="F3" s="40"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>0</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="45">
-        <v>1</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="45">
-        <v>1</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>4</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="27">
-        <v>1.29E-2</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>5</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="27">
-        <v>1</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
-        <v>6</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="27">
-        <v>1</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
-        <v>7</v>
-      </c>
-      <c r="B11" s="27">
-        <v>0</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8F34AB-C4C2-4C9E-862F-64EECBC6249B}">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="F11" sqref="A1:F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="40">
-        <v>8</v>
-      </c>
-      <c r="F3" s="40"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="24">
-        <v>0</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="45">
-        <v>1</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="24">
-        <v>1</v>
-      </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="24">
-        <v>2</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="45">
-        <v>1</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="24">
-        <v>3</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="24">
-        <v>4</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="27">
-        <v>1.29E-2</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="24">
-        <v>5</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="27">
-        <v>1</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="24">
-        <v>6</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="27">
-        <v>1</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="24">
-        <v>7</v>
-      </c>
-      <c r="B11" s="27">
-        <v>0</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485B570D-AF19-4CD7-ADE4-FC7A998D53D9}">
-  <dimension ref="A1:N39"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="15.58203125" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1"/>
-    <col min="5" max="5" width="12.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="40">
-        <v>8</v>
-      </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="59"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="60">
-        <v>0</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="45">
-        <v>1</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="61">
-        <v>1</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="45">
-        <v>1</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="35">
-        <v>0</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="I7" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7" s="63"/>
-      <c r="K7" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="M7" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="N7" s="35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>2</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>3</v>
-      </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>4</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="45">
-        <v>0.01</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>5</v>
-      </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="25">
-        <v>6</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="45">
-        <v>0.01</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="25">
-        <v>7</v>
-      </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="40">
-        <v>8</v>
-      </c>
-      <c r="F14" s="40"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>0</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="45">
-        <v>0.01</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="45" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>1</v>
-      </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="25">
-        <v>2</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="45">
-        <v>0.01</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="45" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="25">
-        <v>3</v>
-      </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="25">
-        <v>4</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="F19" s="45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="25">
-        <v>5</v>
-      </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="25">
-        <v>6</v>
-      </c>
-      <c r="B21" s="27">
-        <v>0</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="25">
-        <v>7</v>
-      </c>
-      <c r="B22" s="27">
-        <v>0</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="G3:N3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463BA18B-2D3A-456D-9F28-7C418F14B21B}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+      <selection activeCell="F10" sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -4134,35 +4451,35 @@
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="40"/>
+      <c r="B3" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="48"/>
       <c r="D3" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="48">
         <v>8</v>
       </c>
-      <c r="F3" s="40"/>
+      <c r="F3" s="48"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="25">
         <v>0</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="53" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4170,29 +4487,29 @@
       <c r="A5" s="25">
         <v>1</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="53" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4200,29 +4517,29 @@
       <c r="A7" s="25">
         <v>3</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="25">
         <v>4</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="53" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4230,29 +4547,29 @@
       <c r="A9" s="25">
         <v>5</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="25">
         <v>6</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="53" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4260,27 +4577,27 @@
       <c r="A11" s="25">
         <v>7</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="40"/>
+      <c r="B12" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="48"/>
       <c r="D12" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="48">
         <v>8</v>
       </c>
-      <c r="F12" s="40"/>
+      <c r="F12" s="48"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="25">
@@ -4476,12 +4793,219 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB929CCD-EAD6-49C1-9276-8C20926B9FAC}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="48">
+        <v>8</v>
+      </c>
+      <c r="F3" s="48"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="46">
+        <v>0</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="46">
+        <v>1</v>
+      </c>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="46">
+        <v>2</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="46">
+        <v>3</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="46">
+        <v>4</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="46">
+        <v>5</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="46">
+        <v>6</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="53">
+        <v>1E-3</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="46">
+        <v>7</v>
+      </c>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE35949F-52DF-467A-B667-225AF803A301}">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F11" sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4493,23 +5017,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="A1" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55" t="s">
+      <c r="I1" s="71"/>
+      <c r="J1" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="55"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
@@ -4531,10 +5055,10 @@
         <v>17</v>
       </c>
       <c r="G2" s="6"/>
-      <c r="H2" s="55">
-        <v>0</v>
-      </c>
-      <c r="I2" s="55" t="s">
+      <c r="H2" s="71">
+        <v>0</v>
+      </c>
+      <c r="I2" s="71" t="s">
         <v>67</v>
       </c>
       <c r="J2" s="4">
@@ -4548,20 +5072,20 @@
       <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="54"/>
+      <c r="B3" s="69" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="70"/>
       <c r="D3" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="69">
         <v>8</v>
       </c>
-      <c r="F3" s="54"/>
+      <c r="F3" s="70"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
       <c r="J3" s="4">
         <v>1</v>
       </c>
@@ -4589,8 +5113,8 @@
         <v>1</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
       <c r="J4" s="4">
         <v>2</v>
       </c>
@@ -4618,10 +5142,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="55">
-        <v>1</v>
-      </c>
-      <c r="I5" s="55" t="s">
+      <c r="H5" s="71">
+        <v>1</v>
+      </c>
+      <c r="I5" s="71" t="s">
         <v>69</v>
       </c>
       <c r="J5" s="4">
@@ -4651,8 +5175,8 @@
         <v>139</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
       <c r="J6" s="4">
         <v>1</v>
       </c>
@@ -4680,8 +5204,8 @@
         <v>139</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
       <c r="J7" s="3">
         <v>2</v>
       </c>
@@ -4709,10 +5233,10 @@
         <v>139</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="55">
+      <c r="H8" s="71">
         <v>2</v>
       </c>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="71" t="s">
         <v>68</v>
       </c>
       <c r="J8" s="4">
@@ -4742,8 +5266,8 @@
         <v>139</v>
       </c>
       <c r="G9" s="13"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
       <c r="J9" s="4">
         <v>1</v>
       </c>
@@ -4771,8 +5295,8 @@
         <v>139</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
       <c r="J10" s="4">
         <v>2</v>
       </c>
@@ -4800,8 +5324,8 @@
         <v>139</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
       <c r="J11" s="4">
         <v>3</v>
       </c>
@@ -4811,10 +5335,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G12" s="6"/>
-      <c r="H12" s="55">
+      <c r="H12" s="71">
         <v>3</v>
       </c>
-      <c r="I12" s="55" t="s">
+      <c r="I12" s="71" t="s">
         <v>70</v>
       </c>
       <c r="J12" s="4">
@@ -4826,8 +5350,8 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G13" s="6"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
       <c r="J13" s="4">
         <v>1</v>
       </c>
@@ -4837,8 +5361,8 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G14" s="6"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
       <c r="J14" s="4">
         <v>2</v>
       </c>
@@ -4848,8 +5372,8 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G15" s="6"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
       <c r="J15" s="4">
         <v>3</v>
       </c>
@@ -4859,8 +5383,8 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G16" s="6"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
       <c r="J16" s="4">
         <v>4</v>
       </c>
@@ -4888,4 +5412,433 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8238FD7-9016-4AA5-B4BA-2804821B8803}">
+  <dimension ref="A1:V16"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F11" sqref="A1:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="6.5" customWidth="1"/>
+    <col min="8" max="8" width="5.9140625" customWidth="1"/>
+    <col min="9" max="9" width="6.9140625" customWidth="1"/>
+    <col min="10" max="10" width="6.08203125" customWidth="1"/>
+    <col min="11" max="11" width="16.75" customWidth="1"/>
+    <col min="12" max="12" width="7.75" customWidth="1"/>
+    <col min="18" max="18" width="16.83203125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="71"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="71">
+        <v>0</v>
+      </c>
+      <c r="I2" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="69">
+        <v>8</v>
+      </c>
+      <c r="F3" s="70"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>0</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="27">
+        <v>1</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="27">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="4">
+        <v>2</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="38">
+        <v>1</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="38">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="71">
+        <v>1</v>
+      </c>
+      <c r="I5" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="3">
+        <v>2</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="71">
+        <v>2</v>
+      </c>
+      <c r="I8" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>5</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>6</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="4">
+        <v>2</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>7</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="4">
+        <v>3</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="71">
+        <v>3</v>
+      </c>
+      <c r="I12" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="G13" s="6"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="G14" s="6"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="4">
+        <v>2</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="G15" s="6"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="4">
+        <v>3</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="G16" s="6"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="4">
+        <v>4</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Doc/Protocol/CAN总线协议.xlsx
+++ b/Doc/Protocol/CAN总线协议.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BC2527-E63E-4057-87CE-42F813867DC6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F1A068-9D90-43AB-A2C9-934310CC8F67}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="超声波原始数据(RX)" sheetId="12" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="系统状态反馈(RX)" sheetId="9" r:id="rId8"/>
     <sheet name="系统工作模式配置(TX)" sheetId="7" r:id="rId9"/>
     <sheet name="车辆跟踪信息(RX)" sheetId="18" r:id="rId10"/>
-    <sheet name="应答信号(RX)" sheetId="14" r:id="rId11"/>
-    <sheet name="PID调试帧(TX)" sheetId="5" r:id="rId12"/>
+    <sheet name="车位信息(TX)" sheetId="19" r:id="rId11"/>
+    <sheet name="应答信号(RX)" sheetId="14" r:id="rId12"/>
+    <sheet name="PID调试帧(TX)" sheetId="5" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="212">
   <si>
     <t>字节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -665,10 +666,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x430</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x500-0x50B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -689,10 +686,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>车辆跟踪信息反馈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x440</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -730,6 +723,146 @@
   </si>
   <si>
     <t>0x552</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x540</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x541</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侧移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车位长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车位宽度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车前余量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车后余量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x431</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x531</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x441</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前向试验车辆位置状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆实时位置跟踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后向试验车辆位置状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x442</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车位信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据保存时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x443</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试验次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车位检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轨迹规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆初始位置(可测量值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始车辆位置信息(车辆中心点)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x444</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进库点车辆位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x445</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泊车有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0;0x5A]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1180,7 +1313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1317,67 +1450,85 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="11" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="9" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="8" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="11" applyBorder="1" applyAlignment="1">
@@ -1385,9 +1536,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -1693,14 +1841,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
@@ -1726,35 +1874,35 @@
       <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="53">
         <v>8</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="24">
         <v>0</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="53">
-        <v>1</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="53" t="s">
+      <c r="D4" s="55">
+        <v>1</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="55" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1762,29 +1910,29 @@
       <c r="A5" s="24">
         <v>1</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="24">
         <v>2</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="53">
-        <v>1</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="53" t="s">
+      <c r="D6" s="55">
+        <v>1</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="55" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1792,11 +1940,11 @@
       <c r="A7" s="24">
         <v>3</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="24">
@@ -1880,6 +2028,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="A1:F1"/>
@@ -1888,11 +2041,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1902,23 +2050,1076 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035C941A-BCE1-46E3-89DE-EEDC1055935D}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B9"/>
+    <sheetView topLeftCell="A46" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="53"/>
+      <c r="D2" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="53">
+        <v>8</v>
+      </c>
+      <c r="F2" s="53"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="49">
+        <v>0</v>
+      </c>
+      <c r="B3" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="C3" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="49">
+        <v>1</v>
+      </c>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="49">
+        <v>2</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="49">
+        <v>3</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="49">
+        <v>4</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="49">
+        <v>5</v>
+      </c>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="49">
+        <v>6</v>
+      </c>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="49">
+        <v>7</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="53">
+        <v>8</v>
+      </c>
+      <c r="F12" s="53"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="52">
+        <v>0</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="55">
+        <v>1E-3</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="52">
+        <v>1</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="52">
+        <v>2</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="55">
+        <v>1E-3</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="52">
+        <v>3</v>
+      </c>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="52">
+        <v>4</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="55">
+        <v>1E-3</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="52">
+        <v>5</v>
+      </c>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="52">
+        <v>6</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="55">
+        <v>1E-3</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="52">
+        <v>7</v>
+      </c>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="53"/>
+      <c r="D23" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="53">
+        <v>8</v>
+      </c>
+      <c r="F23" s="53"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="46">
+        <v>0</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E24" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="46">
+        <v>1</v>
+      </c>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="46">
+        <v>2</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E26" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="46">
+        <v>3</v>
+      </c>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="46">
+        <v>4</v>
+      </c>
+      <c r="B28" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E28" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F28" s="55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="46">
+        <v>5</v>
+      </c>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="46">
+        <v>6</v>
+      </c>
+      <c r="B30" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="46">
+        <v>7</v>
+      </c>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" s="53"/>
+      <c r="D33" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="53">
+        <v>8</v>
+      </c>
+      <c r="F33" s="53"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="49">
+        <v>0</v>
+      </c>
+      <c r="B34" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E34" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="49">
+        <v>1</v>
+      </c>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="49">
+        <v>2</v>
+      </c>
+      <c r="B36" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E36" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="49">
+        <v>3</v>
+      </c>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="49">
+        <v>4</v>
+      </c>
+      <c r="B38" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E38" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F38" s="55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="49">
+        <v>5</v>
+      </c>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="49">
+        <v>6</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" s="48">
+        <v>1</v>
+      </c>
+      <c r="E40" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="F40" s="48" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="49">
+        <v>7</v>
+      </c>
+      <c r="B41" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="C43" s="53"/>
+      <c r="D43" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="53">
+        <v>8</v>
+      </c>
+      <c r="F43" s="53"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="49">
+        <v>0</v>
+      </c>
+      <c r="B44" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E44" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F44" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="49">
+        <v>1</v>
+      </c>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="49">
+        <v>2</v>
+      </c>
+      <c r="B46" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="C46" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E46" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F46" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="49">
+        <v>3</v>
+      </c>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="49">
+        <v>4</v>
+      </c>
+      <c r="B48" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E48" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F48" s="55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="49">
+        <v>5</v>
+      </c>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="49">
+        <v>6</v>
+      </c>
+      <c r="B50" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" s="48">
+        <v>1</v>
+      </c>
+      <c r="E50" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="F50" s="48" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="49">
+        <v>7</v>
+      </c>
+      <c r="B51" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="63" t="s">
+        <v>208</v>
+      </c>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="C53" s="53"/>
+      <c r="D53" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E53" s="53">
+        <v>8</v>
+      </c>
+      <c r="F53" s="53"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="52">
+        <v>0</v>
+      </c>
+      <c r="B54" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E54" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F54" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="52">
+        <v>1</v>
+      </c>
+      <c r="B55" s="55"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="52">
+        <v>2</v>
+      </c>
+      <c r="B56" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E56" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F56" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="52">
+        <v>3</v>
+      </c>
+      <c r="B57" s="55"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="52">
+        <v>4</v>
+      </c>
+      <c r="B58" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E58" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F58" s="55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="52">
+        <v>5</v>
+      </c>
+      <c r="B59" s="55"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="52">
+        <v>6</v>
+      </c>
+      <c r="B60" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="C60" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="51">
+        <v>1</v>
+      </c>
+      <c r="E60" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="F60" s="51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="52">
+        <v>7</v>
+      </c>
+      <c r="B61" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="C61" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" s="51">
+        <v>1</v>
+      </c>
+      <c r="E61" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="F61" s="51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="118">
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3B3C39-6194-4D88-96DE-4A9D4173FD26}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F20" sqref="A12:F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -1944,140 +3145,324 @@
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="48"/>
+      <c r="B3" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="53"/>
       <c r="D3" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="53">
         <v>8</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="46">
+      <c r="A4" s="49">
         <v>0</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="49">
+        <v>1</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="49">
+        <v>2</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="49">
+        <v>3</v>
+      </c>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="49">
+        <v>4</v>
+      </c>
+      <c r="B8" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C8" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D8" s="55">
         <v>0.01</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E8" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="F4" s="53" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="46">
-        <v>1</v>
-      </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="46">
+      <c r="F8" s="55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="49">
+        <v>5</v>
+      </c>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="49">
+        <v>6</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="49">
+        <v>7</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="53"/>
+      <c r="D13" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="53">
+        <v>8</v>
+      </c>
+      <c r="F13" s="53"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="49">
+        <v>0</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="55">
+        <v>1E-3</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="49">
+        <v>1</v>
+      </c>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="49">
         <v>2</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="53">
-        <v>0.01</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="46">
+      <c r="B16" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="55">
+        <v>1E-3</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="49">
         <v>3</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="46">
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="49">
         <v>4</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B18" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="55">
+        <v>1E-3</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="53">
-        <v>0.01</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="46">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="49">
         <v>5</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="46">
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="49">
         <v>6</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="46">
+      <c r="B20" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="55">
+        <v>1E-3</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="49">
         <v>7</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="46">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -2086,21 +3471,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2108,7 +3478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987AFC64-1F61-4893-BCF1-55964C99EF0C}">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -2119,14 +3489,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="A1" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
@@ -2152,17 +3522,17 @@
       <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="69" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="70"/>
+      <c r="B3" s="75" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="76"/>
       <c r="D3" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="69">
+      <c r="E3" s="75">
         <v>8</v>
       </c>
-      <c r="F3" s="70"/>
+      <c r="F3" s="76"/>
     </row>
     <row r="4" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="44">
@@ -2189,7 +3559,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>114</v>
@@ -2336,11 +3706,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF57E098-EEA1-4ED0-9239-EFEB3D560FCC}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:B7"/>
     </sheetView>
   </sheetViews>
@@ -2350,14 +3720,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -2383,35 +3753,35 @@
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="48"/>
+      <c r="B3" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="53"/>
       <c r="D3" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="53">
         <v>8</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>0</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="53">
-        <v>1</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="53" t="s">
+      <c r="D4" s="55">
+        <v>1</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="55" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2419,49 +3789,49 @@
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="53">
-        <v>1</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="53" t="s">
+      <c r="D8" s="55">
+        <v>1</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="55" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2469,65 +3839,65 @@
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" s="48"/>
+      <c r="B12" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="53"/>
       <c r="D12" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="53">
         <v>8</v>
       </c>
-      <c r="F12" s="48"/>
+      <c r="F12" s="53"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>0</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="53">
-        <v>1</v>
-      </c>
-      <c r="E13" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="53" t="s">
+      <c r="D13" s="55">
+        <v>1</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="55" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2535,49 +3905,49 @@
       <c r="A14" s="7">
         <v>1</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>2</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>3</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>4</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="53">
-        <v>1</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="53" t="s">
+      <c r="D17" s="55">
+        <v>1</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="55" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2585,65 +3955,65 @@
       <c r="A18" s="7">
         <v>5</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>6</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>7</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="C21" s="48"/>
+      <c r="B21" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="53"/>
       <c r="D21" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="53">
         <v>8</v>
       </c>
-      <c r="F21" s="48"/>
+      <c r="F21" s="53"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>0</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="53">
-        <v>1</v>
-      </c>
-      <c r="E22" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="53" t="s">
+      <c r="D22" s="55">
+        <v>1</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="55" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2651,49 +4021,49 @@
       <c r="A23" s="7">
         <v>1</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>2</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>3</v>
       </c>
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>4</v>
       </c>
-      <c r="B26" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="E26" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="53" t="s">
+      <c r="B26" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="55" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2701,39 +4071,50 @@
       <c r="A27" s="7">
         <v>5</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>6</v>
       </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>7</v>
       </c>
-      <c r="B29" s="52"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -2750,22 +4131,11 @@
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="F4:F7"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2777,21 +4147,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49368B5F-FF1A-4CA0-AC71-CB4FF4B34D51}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F11"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
@@ -2817,35 +4187,35 @@
       <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="48"/>
+      <c r="B3" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="53"/>
       <c r="D3" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="53">
         <v>8</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>0</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="53">
-        <v>1</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="53" t="s">
+      <c r="D4" s="55">
+        <v>1</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="55" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2853,29 +4223,29 @@
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="53">
-        <v>1</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="53" t="s">
+      <c r="D6" s="55">
+        <v>1</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="55" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2883,11 +4253,11 @@
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
@@ -2971,6 +4341,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -2979,11 +4354,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3007,14 +4377,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -3040,45 +4410,45 @@
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="53">
         <v>8</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="63" t="s">
+      <c r="F3" s="53"/>
+      <c r="G3" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="65"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="62"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="62">
+      <c r="A4" s="59">
         <v>0</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="53">
-        <v>1</v>
-      </c>
-      <c r="E4" s="53" t="s">
+      <c r="D4" s="55">
+        <v>1</v>
+      </c>
+      <c r="E4" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="55" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="36" t="s">
@@ -3107,12 +4477,12 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
       <c r="G5" s="7">
         <v>0</v>
       </c>
@@ -3162,19 +4532,19 @@
       <c r="A7" s="8">
         <v>2</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="55">
         <v>0.1</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="55" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3182,29 +4552,29 @@
       <c r="A8" s="8">
         <v>3</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>4</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="55">
         <v>0.01</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="55" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3212,29 +4582,29 @@
       <c r="A10" s="8">
         <v>5</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="25">
         <v>6</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="55">
         <v>0.01</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="55" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3242,45 +4612,45 @@
       <c r="A12" s="25">
         <v>7</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="48"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="53">
         <v>8</v>
       </c>
-      <c r="F13" s="48"/>
+      <c r="F13" s="53"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="66">
+      <c r="A14" s="56">
         <v>0</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="53">
-        <v>1</v>
-      </c>
-      <c r="E14" s="53" t="s">
+      <c r="D14" s="55">
+        <v>1</v>
+      </c>
+      <c r="E14" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="55" t="s">
         <v>45</v>
       </c>
       <c r="G14" s="26" t="s">
@@ -3309,22 +4679,22 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="67"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
       <c r="G15" s="47">
         <v>0</v>
       </c>
       <c r="H15" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="68" t="s">
+      <c r="I15" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="J15" s="68"/>
+      <c r="J15" s="58"/>
       <c r="K15" s="47" t="s">
         <v>145</v>
       </c>
@@ -3362,19 +4732,19 @@
       <c r="A17" s="9">
         <v>2</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="55">
         <v>0.01</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="55" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3382,29 +4752,29 @@
       <c r="A18" s="42">
         <v>3</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <v>4</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="55">
         <v>0.01</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="55" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3412,29 +4782,29 @@
       <c r="A20" s="42">
         <v>5</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <v>6</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="53">
+      <c r="D21" s="55">
         <v>0.01</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="55" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3442,11 +4812,11 @@
       <c r="A22" s="42">
         <v>7</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
@@ -3541,21 +4911,19 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D11:D12"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="G3:N3"/>
     <mergeCell ref="B11:B12"/>
@@ -3570,26 +4938,28 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="D17:D18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3602,7 +4972,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F11" sqref="B4:F12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3611,14 +4981,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -3644,83 +5014,83 @@
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" s="48"/>
+      <c r="B3" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="53"/>
       <c r="D3" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="53">
         <v>8</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="62">
+      <c r="A4" s="59">
         <v>0</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="53">
-        <v>1</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="53" t="s">
+      <c r="D4" s="55">
+        <v>1</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="55" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="62"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="46">
         <v>1</v>
       </c>
-      <c r="B6" s="45">
-        <v>0</v>
+      <c r="B6" s="45" t="s">
+        <v>193</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>18</v>
+        <v>114</v>
+      </c>
+      <c r="D6" s="45">
+        <v>1</v>
       </c>
       <c r="E6" s="45" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="46">
         <v>2</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="55">
         <v>0.1</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="55" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3728,29 +5098,29 @@
       <c r="A8" s="46">
         <v>3</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="46">
         <v>4</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="55">
         <v>0.01</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="55" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3758,29 +5128,29 @@
       <c r="A10" s="46">
         <v>5</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="46">
         <v>6</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="55">
         <v>0.01</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="55" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3788,14 +5158,29 @@
       <c r="A12" s="46">
         <v>7</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -3805,21 +5190,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3832,7 +5202,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D19" sqref="D15:D20"/>
+      <selection activeCell="K7" sqref="H7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3844,14 +5214,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
@@ -3877,17 +5247,17 @@
       <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="53">
         <v>8</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -3898,22 +5268,22 @@
       <c r="N3" s="12"/>
     </row>
     <row r="4" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57">
+      <c r="A4" s="67">
         <v>0</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="53">
-        <v>1</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="53">
+      <c r="D4" s="55">
+        <v>1</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="55">
         <v>1</v>
       </c>
       <c r="G4" s="21" t="s">
@@ -3942,12 +5312,12 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
       <c r="G5" s="14">
         <v>0</v>
       </c>
@@ -3974,22 +5344,22 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="57">
-        <v>1</v>
-      </c>
-      <c r="B6" s="53" t="s">
+      <c r="A6" s="67">
+        <v>1</v>
+      </c>
+      <c r="B6" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="53">
-        <v>1</v>
-      </c>
-      <c r="E6" s="53" t="s">
+      <c r="D6" s="55">
+        <v>1</v>
+      </c>
+      <c r="E6" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="55">
         <v>1</v>
       </c>
       <c r="G6" s="18" t="s">
@@ -4018,12 +5388,12 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="58"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
       <c r="G7" s="16" t="s">
         <v>97</v>
       </c>
@@ -4042,28 +5412,28 @@
       <c r="L7" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="M7" s="59" t="s">
+      <c r="M7" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="N7" s="60"/>
+      <c r="N7" s="70"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>2</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="55">
         <v>0.1</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="55" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="12"/>
@@ -4079,11 +5449,11 @@
       <c r="A9" s="7">
         <v>3</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -4097,19 +5467,19 @@
       <c r="A10" s="7">
         <v>4</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="55">
         <v>0.01</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="55" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="12"/>
@@ -4125,11 +5495,11 @@
       <c r="A11" s="7">
         <v>5</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -4186,50 +5556,50 @@
       <c r="F13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="54" t="s">
+      <c r="G13" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="56"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="66"/>
     </row>
     <row r="14" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="48"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="53">
         <v>8</v>
       </c>
-      <c r="F14" s="48"/>
+      <c r="F14" s="53"/>
     </row>
     <row r="15" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>0</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="55">
         <v>1E-3</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="55" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4237,29 +5607,29 @@
       <c r="A16" s="7">
         <v>1</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>2</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="55">
         <v>1E-3</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="55" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4267,29 +5637,29 @@
       <c r="A18" s="7">
         <v>3</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>4</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="55">
         <v>1E-3</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="55" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4297,11 +5667,11 @@
       <c r="A20" s="7">
         <v>5</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
@@ -4342,19 +5712,48 @@
       <c r="F22" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="49" t="s">
+      <c r="G22" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G22:N22"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="G13:N13"/>
@@ -4371,35 +5770,6 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G22:N22"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4418,14 +5788,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -4451,35 +5821,35 @@
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="53">
         <v>8</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="25">
         <v>0</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="55">
         <v>1E-3</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="55" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4487,29 +5857,29 @@
       <c r="A5" s="25">
         <v>1</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="55">
         <v>1E-3</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="55" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4517,29 +5887,29 @@
       <c r="A7" s="25">
         <v>3</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="25">
         <v>4</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="55">
         <v>1E-3</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="55" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4547,29 +5917,29 @@
       <c r="A9" s="25">
         <v>5</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="25">
         <v>6</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="55">
         <v>1E-3</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="55" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4577,27 +5947,27 @@
       <c r="A11" s="25">
         <v>7</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="53">
         <v>8</v>
       </c>
-      <c r="F12" s="48"/>
+      <c r="F12" s="53"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="25">
@@ -4761,14 +6131,13 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
@@ -4779,13 +6148,14 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4797,21 +6167,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB929CCD-EAD6-49C1-9276-8C20926B9FAC}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E11"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -4837,35 +6207,35 @@
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="53">
         <v>8</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="46">
         <v>0</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="55">
         <v>1E-3</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="55" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4873,29 +6243,29 @@
       <c r="A5" s="46">
         <v>1</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="46">
         <v>2</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="55">
         <v>1E-3</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="55" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4903,29 +6273,29 @@
       <c r="A7" s="46">
         <v>3</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="46">
         <v>4</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="55">
         <v>1E-3</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="55" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4933,29 +6303,29 @@
       <c r="A9" s="46">
         <v>5</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="46">
         <v>6</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="55">
         <v>1E-3</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="55" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4963,14 +6333,29 @@
       <c r="A11" s="46">
         <v>7</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -4979,21 +6364,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5005,7 +6375,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F11" sqref="A1:F11"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5017,23 +6387,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71" t="s">
+      <c r="I1" s="74"/>
+      <c r="J1" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="71"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
@@ -5055,10 +6425,10 @@
         <v>17</v>
       </c>
       <c r="G2" s="6"/>
-      <c r="H2" s="71">
+      <c r="H2" s="74">
         <v>0</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="74" t="s">
         <v>67</v>
       </c>
       <c r="J2" s="4">
@@ -5072,20 +6442,20 @@
       <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="69" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="70"/>
+      <c r="B3" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="76"/>
       <c r="D3" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="69">
+      <c r="E3" s="75">
         <v>8</v>
       </c>
-      <c r="F3" s="70"/>
+      <c r="F3" s="76"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
       <c r="J3" s="4">
         <v>1</v>
       </c>
@@ -5113,8 +6483,8 @@
         <v>1</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
       <c r="J4" s="4">
         <v>2</v>
       </c>
@@ -5142,10 +6512,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="71">
-        <v>1</v>
-      </c>
-      <c r="I5" s="71" t="s">
+      <c r="H5" s="74">
+        <v>1</v>
+      </c>
+      <c r="I5" s="74" t="s">
         <v>69</v>
       </c>
       <c r="J5" s="4">
@@ -5175,8 +6545,8 @@
         <v>139</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
       <c r="J6" s="4">
         <v>1</v>
       </c>
@@ -5204,8 +6574,8 @@
         <v>139</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
       <c r="J7" s="3">
         <v>2</v>
       </c>
@@ -5233,10 +6603,10 @@
         <v>139</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="71">
+      <c r="H8" s="74">
         <v>2</v>
       </c>
-      <c r="I8" s="71" t="s">
+      <c r="I8" s="74" t="s">
         <v>68</v>
       </c>
       <c r="J8" s="4">
@@ -5266,8 +6636,8 @@
         <v>139</v>
       </c>
       <c r="G9" s="13"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
       <c r="J9" s="4">
         <v>1</v>
       </c>
@@ -5295,8 +6665,8 @@
         <v>139</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
       <c r="J10" s="4">
         <v>2</v>
       </c>
@@ -5324,8 +6694,8 @@
         <v>139</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
       <c r="J11" s="4">
         <v>3</v>
       </c>
@@ -5335,10 +6705,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G12" s="6"/>
-      <c r="H12" s="71">
+      <c r="H12" s="74">
         <v>3</v>
       </c>
-      <c r="I12" s="71" t="s">
+      <c r="I12" s="74" t="s">
         <v>70</v>
       </c>
       <c r="J12" s="4">
@@ -5350,8 +6720,8 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G13" s="6"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
       <c r="J13" s="4">
         <v>1</v>
       </c>
@@ -5361,8 +6731,8 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G14" s="6"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
       <c r="J14" s="4">
         <v>2</v>
       </c>
@@ -5372,8 +6742,8 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G15" s="6"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
       <c r="J15" s="4">
         <v>3</v>
       </c>
@@ -5383,8 +6753,8 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G16" s="6"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
       <c r="J16" s="4">
         <v>4</v>
       </c>
@@ -5394,6 +6764,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I8:I11"/>
     <mergeCell ref="H12:H16"/>
     <mergeCell ref="I12:I16"/>
     <mergeCell ref="H1:I1"/>
@@ -5402,11 +6777,6 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="I5:I7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="I8:I11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5416,17 +6786,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8238FD7-9016-4AA5-B4BA-2804821B8803}">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="A1:F11"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="6.5" customWidth="1"/>
     <col min="8" max="8" width="5.9140625" customWidth="1"/>
-    <col min="9" max="9" width="6.9140625" customWidth="1"/>
+    <col min="9" max="9" width="8.58203125" customWidth="1"/>
     <col min="10" max="10" width="6.08203125" customWidth="1"/>
     <col min="11" max="11" width="16.75" customWidth="1"/>
     <col min="12" max="12" width="7.75" customWidth="1"/>
@@ -5434,23 +6804,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="71"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
@@ -5471,105 +6832,76 @@
       <c r="F2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="71">
-        <v>0</v>
-      </c>
-      <c r="I2" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="3" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="75" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="70"/>
+      <c r="C3" s="76"/>
       <c r="D3" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="69">
+      <c r="E3" s="75">
         <v>8</v>
       </c>
-      <c r="F3" s="70"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="F3" s="76"/>
     </row>
     <row r="4" spans="1:22" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>0</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="27">
-        <v>1</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="27">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="4">
-        <v>2</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>84</v>
+      <c r="D4" s="48">
+        <v>1</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="48">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I4" t="s">
+        <v>201</v>
+      </c>
+      <c r="J4" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="38">
-        <v>1</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="38">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="71">
-        <v>1</v>
-      </c>
-      <c r="I5" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>72</v>
+      <c r="B5" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J5" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -5577,28 +6909,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="4">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -5612,28 +6935,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="3">
-        <v>2</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -5641,32 +6955,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="71">
-        <v>2</v>
-      </c>
-      <c r="I8" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -5674,28 +6975,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -5703,28 +6995,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="4">
-        <v>2</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -5732,110 +7015,394 @@
         <v>7</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="76"/>
+      <c r="D12" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="75">
+        <v>8</v>
+      </c>
+      <c r="F12" s="76"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="74"/>
+    </row>
+    <row r="13" spans="1:22" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>0</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="27">
+        <v>1</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="27">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="74">
+        <v>0</v>
+      </c>
+      <c r="I13" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>1</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="38">
+        <v>1</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="38">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>2</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="4">
+        <v>2</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
         <v>3</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="B16" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="74">
+        <v>1</v>
+      </c>
+      <c r="I16" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>4</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="4">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>5</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="3">
+        <v>2</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>6</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="74">
+        <v>2</v>
+      </c>
+      <c r="I19" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>7</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="4">
+        <v>2</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G22" s="11"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="4">
+        <v>3</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="71">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G23" s="6"/>
+      <c r="H23" s="74">
         <v>3</v>
       </c>
-      <c r="I12" s="71" t="s">
+      <c r="I23" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J23" s="4">
         <v>0</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K23" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="G13" s="6"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="4">
-        <v>1</v>
-      </c>
-      <c r="K13" s="4" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G24" s="6"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="G14" s="6"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="4">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G25" s="6"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="4">
         <v>2</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K25" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="G15" s="6"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G26" s="6"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="4">
         <v>3</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K26" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="G16" s="6"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="4">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G27" s="6"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="4">
         <v>4</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K27" s="4" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H22"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="H8:H11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/Protocol/CAN总线协议.xlsx
+++ b/Doc/Protocol/CAN总线协议.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F1A068-9D90-43AB-A2C9-934310CC8F67}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81280C30-A3ED-4B92-8A4E-40C4AA777ACB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="超声波原始数据(RX)" sheetId="12" r:id="rId1"/>
@@ -16,9 +16,9 @@
     <sheet name="车速反馈(RX)" sheetId="4" r:id="rId6"/>
     <sheet name="车速注入(TX)" sheetId="15" r:id="rId7"/>
     <sheet name="系统状态反馈(RX)" sheetId="9" r:id="rId8"/>
-    <sheet name="系统工作模式配置(TX)" sheetId="7" r:id="rId9"/>
-    <sheet name="车辆跟踪信息(RX)" sheetId="18" r:id="rId10"/>
-    <sheet name="车位信息(TX)" sheetId="19" r:id="rId11"/>
+    <sheet name="车位信息(TX)" sheetId="19" r:id="rId9"/>
+    <sheet name="系统工作模式配置(TX)" sheetId="7" r:id="rId10"/>
+    <sheet name="车辆跟踪信息(RX)" sheetId="18" r:id="rId11"/>
     <sheet name="应答信号(RX)" sheetId="14" r:id="rId12"/>
     <sheet name="PID调试帧(TX)" sheetId="5" r:id="rId13"/>
   </sheets>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="215">
   <si>
     <t>字节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -863,6 +863,18 @@
   </si>
   <si>
     <t>[0;0x5A]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1457,46 +1469,46 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="11" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="11" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="8" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="9" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2049,1051 +2061,624 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035C941A-BCE1-46E3-89DE-EEDC1055935D}">
-  <dimension ref="A1:F61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8238FD7-9016-4AA5-B4BA-2804821B8803}">
+  <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="6.5" customWidth="1"/>
+    <col min="8" max="8" width="5.9140625" customWidth="1"/>
+    <col min="9" max="9" width="8.58203125" customWidth="1"/>
+    <col min="10" max="10" width="6.08203125" customWidth="1"/>
+    <col min="11" max="11" width="16.75" customWidth="1"/>
+    <col min="12" max="12" width="7.75" customWidth="1"/>
+    <col min="18" max="18" width="16.83203125" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="30" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+    </row>
+    <row r="3" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="76"/>
+      <c r="D3" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E3" s="75">
         <v>8</v>
       </c>
-      <c r="F2" s="53"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="49">
+      <c r="F3" s="76"/>
+    </row>
+    <row r="4" spans="1:22" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
         <v>0</v>
       </c>
-      <c r="B3" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F3" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="49">
-        <v>1</v>
-      </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="49">
+      <c r="B4" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="48">
+        <v>1</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="48">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I4" t="s">
+        <v>201</v>
+      </c>
+      <c r="J4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="49">
+      <c r="B6" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="49">
+      <c r="B7" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="F7" s="55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="49">
+      <c r="B8" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="49">
+      <c r="B9" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="49">
+      <c r="B10" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-    </row>
-    <row r="11" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="63" t="s">
-        <v>192</v>
-      </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="30" t="s">
+      <c r="B11" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="76"/>
+      <c r="D12" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="53">
+      <c r="E12" s="75">
         <v>8</v>
       </c>
-      <c r="F12" s="53"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="52">
+      <c r="F12" s="76"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="74"/>
+    </row>
+    <row r="13" spans="1:22" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
         <v>0</v>
       </c>
-      <c r="B13" s="55" t="s">
-        <v>180</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="55">
-        <v>1E-3</v>
-      </c>
-      <c r="E13" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F13" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="52">
-        <v>1</v>
-      </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="52">
+      <c r="B13" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="27">
+        <v>1</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="27">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="74">
+        <v>0</v>
+      </c>
+      <c r="I13" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>1</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="38">
+        <v>1</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="38">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
         <v>2</v>
       </c>
-      <c r="B15" s="55" t="s">
-        <v>181</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="55">
-        <v>1E-3</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="52">
+      <c r="B15" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="4">
+        <v>2</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
         <v>3</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="52">
+      <c r="B16" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="74">
+        <v>1</v>
+      </c>
+      <c r="I16" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
         <v>4</v>
       </c>
-      <c r="B17" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="55">
-        <v>1E-3</v>
-      </c>
-      <c r="E17" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F17" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="52">
+      <c r="B17" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="4">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
         <v>5</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="52">
+      <c r="B18" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="3">
+        <v>2</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
         <v>6</v>
       </c>
-      <c r="B19" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="55">
-        <v>1E-3</v>
-      </c>
-      <c r="E19" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F19" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="52">
+      <c r="B19" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="74">
+        <v>2</v>
+      </c>
+      <c r="I19" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
         <v>7</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-    </row>
-    <row r="21" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
+      <c r="B20" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="4">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="4">
+        <v>2</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G22" s="11"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="4">
+        <v>3</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G23" s="6"/>
+      <c r="H23" s="74">
+        <v>3</v>
+      </c>
+      <c r="I23" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" s="4">
         <v>0</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="53">
-        <v>8</v>
-      </c>
-      <c r="F23" s="53"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="46">
-        <v>0</v>
-      </c>
-      <c r="B24" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="C24" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E24" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F24" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="46">
-        <v>1</v>
-      </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="46">
+      <c r="K23" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G24" s="6"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G25" s="6"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="4">
         <v>2</v>
       </c>
-      <c r="B26" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="C26" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E26" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F26" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="46">
+      <c r="K25" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G26" s="6"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="4">
         <v>3</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="46">
+      <c r="K26" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G27" s="6"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="4">
         <v>4</v>
       </c>
-      <c r="B28" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E28" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="F28" s="55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="46">
-        <v>5</v>
-      </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="46">
-        <v>6</v>
-      </c>
-      <c r="B30" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="46">
-        <v>7</v>
-      </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="63" t="s">
-        <v>188</v>
-      </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E33" s="53">
-        <v>8</v>
-      </c>
-      <c r="F33" s="53"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="49">
-        <v>0</v>
-      </c>
-      <c r="B34" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="C34" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E34" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F34" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="49">
-        <v>1</v>
-      </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="49">
-        <v>2</v>
-      </c>
-      <c r="B36" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="C36" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E36" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F36" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="49">
-        <v>3</v>
-      </c>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="49">
-        <v>4</v>
-      </c>
-      <c r="B38" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="C38" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E38" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="F38" s="55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="49">
-        <v>5</v>
-      </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="49">
-        <v>6</v>
-      </c>
-      <c r="B40" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="C40" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="D40" s="48">
-        <v>1</v>
-      </c>
-      <c r="E40" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="F40" s="48" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="49">
-        <v>7</v>
-      </c>
-      <c r="B41" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="48" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="B42" s="63"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="53" t="s">
-        <v>207</v>
-      </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E43" s="53">
-        <v>8</v>
-      </c>
-      <c r="F43" s="53"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="49">
-        <v>0</v>
-      </c>
-      <c r="B44" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="C44" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E44" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F44" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="49">
-        <v>1</v>
-      </c>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="49">
-        <v>2</v>
-      </c>
-      <c r="B46" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="C46" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E46" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F46" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="49">
-        <v>3</v>
-      </c>
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="49">
-        <v>4</v>
-      </c>
-      <c r="B48" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="C48" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E48" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="F48" s="55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="49">
-        <v>5</v>
-      </c>
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="49">
-        <v>6</v>
-      </c>
-      <c r="B50" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="C50" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="D50" s="48">
-        <v>1</v>
-      </c>
-      <c r="E50" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="F50" s="48" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="49">
-        <v>7</v>
-      </c>
-      <c r="B51" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="48" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="63" t="s">
-        <v>208</v>
-      </c>
-      <c r="B52" s="63"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="53" t="s">
-        <v>209</v>
-      </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E53" s="53">
-        <v>8</v>
-      </c>
-      <c r="F53" s="53"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="52">
-        <v>0</v>
-      </c>
-      <c r="B54" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="C54" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E54" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F54" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="52">
-        <v>1</v>
-      </c>
-      <c r="B55" s="55"/>
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="52">
-        <v>2</v>
-      </c>
-      <c r="B56" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="C56" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E56" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F56" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="52">
-        <v>3</v>
-      </c>
-      <c r="B57" s="55"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="52">
-        <v>4</v>
-      </c>
-      <c r="B58" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="C58" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D58" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E58" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="F58" s="55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="52">
-        <v>5</v>
-      </c>
-      <c r="B59" s="55"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="55"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="52">
-        <v>6</v>
-      </c>
-      <c r="B60" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="C60" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="D60" s="51">
-        <v>1</v>
-      </c>
-      <c r="E60" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="F60" s="51" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="52">
-        <v>7</v>
-      </c>
-      <c r="B61" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="C61" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="D61" s="51">
-        <v>1</v>
-      </c>
-      <c r="E61" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="F61" s="51" t="s">
-        <v>18</v>
+      <c r="K27" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="118">
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A11:F11"/>
+  <mergeCells count="15">
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3102,51 +2687,51 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3B3C39-6194-4D88-96DE-4A9D4173FD26}">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035C941A-BCE1-46E3-89DE-EEDC1055935D}">
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F20" sqref="A12:F21"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
-        <v>205</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D1" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C3" s="53"/>
       <c r="D3" s="30" t="s">
@@ -3251,48 +2836,48 @@
       <c r="A10" s="49">
         <v>6</v>
       </c>
-      <c r="B10" s="55" t="s">
-        <v>179</v>
-      </c>
-      <c r="C10" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E10" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F10" s="55" t="s">
-        <v>172</v>
+      <c r="B10" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="52">
+        <v>1</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" s="52">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="49">
         <v>7</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
     </row>
     <row r="12" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="62" t="s">
         <v>192</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C13" s="53"/>
       <c r="D13" s="30" t="s">
@@ -3304,7 +2889,7 @@
       <c r="F13" s="53"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="49">
+      <c r="A14" s="51">
         <v>0</v>
       </c>
       <c r="B14" s="55" t="s">
@@ -3324,7 +2909,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="49">
+      <c r="A15" s="51">
         <v>1</v>
       </c>
       <c r="B15" s="55"/>
@@ -3334,7 +2919,7 @@
       <c r="F15" s="55"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="49">
+      <c r="A16" s="51">
         <v>2</v>
       </c>
       <c r="B16" s="55" t="s">
@@ -3354,7 +2939,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="49">
+      <c r="A17" s="51">
         <v>3</v>
       </c>
       <c r="B17" s="55"/>
@@ -3364,7 +2949,7 @@
       <c r="F17" s="55"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="49">
+      <c r="A18" s="51">
         <v>4</v>
       </c>
       <c r="B18" s="55" t="s">
@@ -3384,7 +2969,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="49">
+      <c r="A19" s="51">
         <v>5</v>
       </c>
       <c r="B19" s="55"/>
@@ -3394,7 +2979,7 @@
       <c r="F19" s="55"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="49">
+      <c r="A20" s="51">
         <v>6</v>
       </c>
       <c r="B20" s="55" t="s">
@@ -3414,7 +2999,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="49">
+      <c r="A21" s="51">
         <v>7</v>
       </c>
       <c r="B21" s="55"/>
@@ -3423,47 +3008,705 @@
       <c r="E21" s="55"/>
       <c r="F21" s="55"/>
     </row>
+    <row r="22" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="62" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="53"/>
+      <c r="D24" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="53">
+        <v>8</v>
+      </c>
+      <c r="F24" s="53"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="46">
+        <v>0</v>
+      </c>
+      <c r="B25" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E25" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="46">
+        <v>1</v>
+      </c>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="46">
+        <v>2</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E27" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="46">
+        <v>3</v>
+      </c>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="46">
+        <v>4</v>
+      </c>
+      <c r="B29" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E29" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29" s="55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="46">
+        <v>5</v>
+      </c>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="46">
+        <v>6</v>
+      </c>
+      <c r="B31" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="46">
+        <v>7</v>
+      </c>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="53"/>
+      <c r="D34" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="53">
+        <v>8</v>
+      </c>
+      <c r="F34" s="53"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="49">
+        <v>0</v>
+      </c>
+      <c r="B35" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E35" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="49">
+        <v>1</v>
+      </c>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="49">
+        <v>2</v>
+      </c>
+      <c r="B37" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E37" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="49">
+        <v>3</v>
+      </c>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="49">
+        <v>4</v>
+      </c>
+      <c r="B39" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E39" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F39" s="55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="49">
+        <v>5</v>
+      </c>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="49">
+        <v>6</v>
+      </c>
+      <c r="B41" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="C41" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="D41" s="48">
+        <v>1</v>
+      </c>
+      <c r="E41" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="F41" s="48" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="49">
+        <v>7</v>
+      </c>
+      <c r="B42" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="C44" s="53"/>
+      <c r="D44" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" s="53">
+        <v>8</v>
+      </c>
+      <c r="F44" s="53"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="49">
+        <v>0</v>
+      </c>
+      <c r="B45" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E45" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F45" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="49">
+        <v>1</v>
+      </c>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="49">
+        <v>2</v>
+      </c>
+      <c r="B47" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E47" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F47" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="49">
+        <v>3</v>
+      </c>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="49">
+        <v>4</v>
+      </c>
+      <c r="B49" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E49" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F49" s="55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="49">
+        <v>5</v>
+      </c>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="49">
+        <v>6</v>
+      </c>
+      <c r="B51" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="C51" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" s="48">
+        <v>1</v>
+      </c>
+      <c r="E51" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="F51" s="48" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="49">
+        <v>7</v>
+      </c>
+      <c r="B52" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="B53" s="62"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="C54" s="53"/>
+      <c r="D54" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="53">
+        <v>8</v>
+      </c>
+      <c r="F54" s="53"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="51">
+        <v>0</v>
+      </c>
+      <c r="B55" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E55" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F55" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="51">
+        <v>1</v>
+      </c>
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="51">
+        <v>2</v>
+      </c>
+      <c r="B57" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E57" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F57" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="51">
+        <v>3</v>
+      </c>
+      <c r="B58" s="55"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="51">
+        <v>4</v>
+      </c>
+      <c r="B59" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E59" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F59" s="55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="51">
+        <v>5</v>
+      </c>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="51">
+        <v>6</v>
+      </c>
+      <c r="B61" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="C61" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" s="50">
+        <v>1</v>
+      </c>
+      <c r="E61" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="F61" s="50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="51">
+        <v>7</v>
+      </c>
+      <c r="B62" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="C62" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D62" s="50">
+        <v>1</v>
+      </c>
+      <c r="E62" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="F62" s="50" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="B13:C13"/>
+  <mergeCells count="118">
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="B4:B5"/>
@@ -3471,6 +3714,54 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3489,14 +3780,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
@@ -3720,14 +4011,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -4377,14 +4668,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -4421,19 +4712,19 @@
         <v>8</v>
       </c>
       <c r="F3" s="53"/>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="62"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="61"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="59">
+      <c r="A4" s="63">
         <v>0</v>
       </c>
       <c r="B4" s="55" t="s">
@@ -4477,7 +4768,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
       <c r="D5" s="55"/>
@@ -4925,6 +5216,8 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="G3:N3"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="F19:F20"/>
@@ -4940,9 +5233,7 @@
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F4:F5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C4:C5"/>
@@ -4981,14 +5272,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -5027,7 +5318,7 @@
       <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="59">
+      <c r="A4" s="63">
         <v>0</v>
       </c>
       <c r="B4" s="55" t="s">
@@ -5047,7 +5338,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="55"/>
       <c r="C5" s="55"/>
       <c r="D5" s="55"/>
@@ -5214,14 +5505,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
@@ -5788,14 +6079,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -6174,14 +6465,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -6387,14 +6678,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
       <c r="G1" s="6"/>
       <c r="H1" s="74" t="s">
         <v>66</v>
@@ -6785,624 +7076,375 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8238FD7-9016-4AA5-B4BA-2804821B8803}">
-  <dimension ref="A1:V27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3B3C39-6194-4D88-96DE-4A9D4173FD26}">
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:J5"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="7" max="7" width="6.5" customWidth="1"/>
-    <col min="8" max="8" width="5.9140625" customWidth="1"/>
-    <col min="9" max="9" width="8.58203125" customWidth="1"/>
-    <col min="10" max="10" width="6.08203125" customWidth="1"/>
-    <col min="11" max="11" width="16.75" customWidth="1"/>
-    <col min="12" max="12" width="7.75" customWidth="1"/>
-    <col min="18" max="18" width="16.83203125" style="2" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D1" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="75" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="32" t="s">
+    <row r="2" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="75">
+      <c r="E3" s="53">
         <v>8</v>
       </c>
-      <c r="F3" s="76"/>
-    </row>
-    <row r="4" spans="1:22" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="F3" s="53"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="49">
         <v>0</v>
       </c>
-      <c r="B4" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="48">
-        <v>1</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="48">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>200</v>
-      </c>
-      <c r="I4" t="s">
-        <v>201</v>
-      </c>
-      <c r="J4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="B4" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="49">
+        <v>1</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="49">
         <v>2</v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="B6" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="49">
         <v>3</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="49">
         <v>4</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="B8" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="49">
         <v>5</v>
       </c>
-      <c r="B9" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="49">
         <v>6</v>
       </c>
-      <c r="B10" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="B10" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="55">
+        <v>0.01</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="49">
         <v>7</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="75" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="32" t="s">
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="53"/>
+      <c r="D13" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="75">
+      <c r="E13" s="53">
         <v>8</v>
       </c>
-      <c r="F12" s="76"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="74"/>
-    </row>
-    <row r="13" spans="1:22" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+      <c r="F13" s="53"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="49">
         <v>0</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="27">
-        <v>1</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="27">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="74">
-        <v>0</v>
-      </c>
-      <c r="I13" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>1</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="38">
-        <v>1</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14" s="38">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="4">
-        <v>1</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+      <c r="B14" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="55">
+        <v>1E-3</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="49">
+        <v>1</v>
+      </c>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="49">
         <v>2</v>
       </c>
-      <c r="B15" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="4">
-        <v>2</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+      <c r="B16" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="55">
+        <v>1E-3</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="49">
         <v>3</v>
       </c>
-      <c r="B16" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="74">
-        <v>1</v>
-      </c>
-      <c r="I16" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="49">
         <v>4</v>
       </c>
-      <c r="B17" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="4">
-        <v>1</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
+      <c r="B18" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="55">
+        <v>1E-3</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="49">
         <v>5</v>
       </c>
-      <c r="B18" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="3">
-        <v>2</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="7">
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="49">
         <v>6</v>
       </c>
-      <c r="B19" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="74">
-        <v>2</v>
-      </c>
-      <c r="I19" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+      <c r="B20" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="55">
+        <v>1E-3</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="49">
         <v>7</v>
       </c>
-      <c r="B20" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="F20" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="4">
-        <v>1</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="4">
-        <v>2</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G22" s="11"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="4">
-        <v>3</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G23" s="6"/>
-      <c r="H23" s="74">
-        <v>3</v>
-      </c>
-      <c r="I23" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G24" s="6"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="4">
-        <v>1</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G25" s="6"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="4">
-        <v>2</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G26" s="6"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="4">
-        <v>3</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G27" s="6"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="4">
-        <v>4</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>82</v>
-      </c>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="I23:I27"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H19:H22"/>
+  <mergeCells count="46">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A2:F2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/Protocol/CAN总线协议.xlsx
+++ b/Doc/Protocol/CAN总线协议.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81280C30-A3ED-4B92-8A4E-40C4AA777ACB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E5C33C-9F4A-4B52-A50E-B1FB0F4FB5E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="237">
   <si>
     <t>字节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -392,10 +392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发动机扭矩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[0,100]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -626,10 +622,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[0，100]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[0,60]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -875,6 +867,100 @@
   </si>
   <si>
     <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转向点坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x446</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转向角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-450,450]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标速度</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>挡位信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.30]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x447</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车库中心点坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平行泊车状态信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泊车状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x448</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -882,7 +968,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -987,6 +1073,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1056,7 +1151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1278,8 +1373,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1324,8 +1484,11 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1438,63 +1601,96 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="16" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="11" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="11" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="8" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1504,10 +1700,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="21" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="9" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="13" applyBorder="1" applyAlignment="1">
@@ -1525,12 +1736,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1549,8 +1754,17 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="22" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="23" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="17">
     <cellStyle name="20% - 着色 2" xfId="13" builtinId="34"/>
     <cellStyle name="20% - 着色 5" xfId="6" builtinId="46"/>
     <cellStyle name="20% - 着色 6" xfId="7" builtinId="50"/>
@@ -1563,6 +1777,7 @@
     <cellStyle name="常规 4" xfId="1" xr:uid="{3CA91245-A3AE-4F33-BCDD-7C88ADA2EE7C}"/>
     <cellStyle name="好" xfId="2" builtinId="26"/>
     <cellStyle name="计算" xfId="11" builtinId="22"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24"/>
     <cellStyle name="适中" xfId="4" builtinId="28"/>
     <cellStyle name="输入" xfId="10" builtinId="20"/>
@@ -1853,14 +2068,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="A1" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
@@ -1886,96 +2101,96 @@
       <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="63"/>
+      <c r="D3" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="53">
+      <c r="E3" s="63">
         <v>8</v>
       </c>
-      <c r="F3" s="53"/>
+      <c r="F3" s="63"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="24">
         <v>0</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="65">
+        <v>1</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="65" t="s">
         <v>127</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="55">
-        <v>1</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="24">
         <v>1</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="24">
         <v>2</v>
       </c>
-      <c r="B6" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="55" t="s">
+      <c r="B6" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="55">
-        <v>1</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>128</v>
+      <c r="D6" s="65">
+        <v>1</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="24">
         <v>3</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="24">
         <v>4</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="27">
         <v>1.29E-2</v>
       </c>
       <c r="E8" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="27" t="s">
         <v>132</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1983,10 +2198,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" s="27">
         <v>1</v>
@@ -1995,7 +2210,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2003,10 +2218,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="27">
         <v>1</v>
@@ -2064,7 +2279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8238FD7-9016-4AA5-B4BA-2804821B8803}">
   <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="I4" sqref="I4:J5"/>
     </sheetView>
   </sheetViews>
@@ -2100,58 +2315,58 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+      <c r="A2" s="77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="75" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="76"/>
+      <c r="B3" s="89" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="90"/>
       <c r="D3" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="75">
+        <v>135</v>
+      </c>
+      <c r="E3" s="89">
         <v>8</v>
       </c>
-      <c r="F3" s="76"/>
+      <c r="F3" s="90"/>
     </row>
     <row r="4" spans="1:22" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>0</v>
       </c>
-      <c r="B4" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="48">
-        <v>1</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="48">
+      <c r="B4" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="47">
+        <v>1</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="47">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -2174,10 +2389,10 @@
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -2310,26 +2525,26 @@
       <c r="A12" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="75" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" s="76"/>
+      <c r="B12" s="89" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="90"/>
       <c r="D12" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="75">
+        <v>135</v>
+      </c>
+      <c r="E12" s="89">
         <v>8</v>
       </c>
-      <c r="F12" s="76"/>
+      <c r="F12" s="90"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="74" t="s">
+      <c r="H12" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74" t="s">
+      <c r="I12" s="88"/>
+      <c r="J12" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="74"/>
+      <c r="K12" s="88"/>
     </row>
     <row r="13" spans="1:22" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
@@ -2339,22 +2554,22 @@
         <v>64</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D13" s="27">
         <v>1</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F13" s="27">
         <v>1</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="74">
+      <c r="H13" s="88">
         <v>0</v>
       </c>
-      <c r="I13" s="74" t="s">
+      <c r="I13" s="88" t="s">
         <v>67</v>
       </c>
       <c r="J13" s="4">
@@ -2372,20 +2587,20 @@
         <v>86</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14" s="38">
         <v>1</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F14" s="38">
         <v>1</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
       <c r="J14" s="4">
         <v>1</v>
       </c>
@@ -2398,23 +2613,23 @@
         <v>2</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
       <c r="J15" s="4">
         <v>2</v>
       </c>
@@ -2427,25 +2642,25 @@
         <v>3</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="74">
-        <v>1</v>
-      </c>
-      <c r="I16" s="74" t="s">
+      <c r="H16" s="88">
+        <v>1</v>
+      </c>
+      <c r="I16" s="88" t="s">
         <v>69</v>
       </c>
       <c r="J16" s="4">
@@ -2460,23 +2675,23 @@
         <v>4</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
       <c r="J17" s="4">
         <v>1</v>
       </c>
@@ -2489,23 +2704,23 @@
         <v>5</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G18" s="11"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
       <c r="J18" s="3">
         <v>2</v>
       </c>
@@ -2518,25 +2733,25 @@
         <v>6</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D19" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G19" s="11"/>
-      <c r="H19" s="74">
+      <c r="H19" s="88">
         <v>2</v>
       </c>
-      <c r="I19" s="74" t="s">
+      <c r="I19" s="88" t="s">
         <v>68</v>
       </c>
       <c r="J19" s="4">
@@ -2551,23 +2766,23 @@
         <v>7</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C20" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F20" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G20" s="11"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
       <c r="J20" s="4">
         <v>1</v>
       </c>
@@ -2583,8 +2798,8 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
       <c r="J21" s="4">
         <v>2</v>
       </c>
@@ -2594,8 +2809,8 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G22" s="11"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
       <c r="J22" s="4">
         <v>3</v>
       </c>
@@ -2605,10 +2820,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G23" s="6"/>
-      <c r="H23" s="74">
+      <c r="H23" s="88">
         <v>3</v>
       </c>
-      <c r="I23" s="74" t="s">
+      <c r="I23" s="88" t="s">
         <v>70</v>
       </c>
       <c r="J23" s="4">
@@ -2620,8 +2835,8 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G24" s="6"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
       <c r="J24" s="4">
         <v>1</v>
       </c>
@@ -2631,8 +2846,8 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
       <c r="J25" s="4">
         <v>2</v>
       </c>
@@ -2642,8 +2857,8 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G26" s="6"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
       <c r="J26" s="4">
         <v>3</v>
       </c>
@@ -2653,8 +2868,8 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G27" s="6"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
       <c r="J27" s="4">
         <v>4</v>
       </c>
@@ -2688,15 +2903,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035C941A-BCE1-46E3-89DE-EEDC1055935D}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -2716,991 +2931,1438 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="s">
+    <row r="2" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="63"/>
+      <c r="D3" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="63">
+        <v>8</v>
+      </c>
+      <c r="F3" s="63"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="48">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="65">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="48">
+        <v>1</v>
+      </c>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="48">
+        <v>2</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="65">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="48">
+        <v>3</v>
+      </c>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="48">
+        <v>4</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="65">
+        <v>0.01</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="48">
+        <v>5</v>
+      </c>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="66">
+        <v>6</v>
+      </c>
+      <c r="B10" s="78" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="73">
+        <v>1</v>
+      </c>
+      <c r="E10" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="F10" s="91">
+        <v>1</v>
+      </c>
+      <c r="G10" s="57">
+        <v>0</v>
+      </c>
+      <c r="H10" s="57">
+        <v>1</v>
+      </c>
+      <c r="I10" s="57">
+        <v>2</v>
+      </c>
+      <c r="J10" s="57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="67"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="H11" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="I11" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="J11" s="57" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="48">
+        <v>7</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="63"/>
+      <c r="D14" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="63">
+        <v>8</v>
+      </c>
+      <c r="F14" s="63"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="50">
+        <v>0</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="65">
+        <v>1E-3</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="50">
+        <v>1</v>
+      </c>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="50">
+        <v>2</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="65">
+        <v>1E-3</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="50">
+        <v>3</v>
+      </c>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="50">
+        <v>4</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="65">
+        <v>1E-3</v>
+      </c>
+      <c r="E19" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="50">
+        <v>5</v>
+      </c>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="50">
+        <v>6</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="65">
+        <v>1E-3</v>
+      </c>
+      <c r="E21" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="50">
+        <v>7</v>
+      </c>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="77" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="63"/>
+      <c r="D25" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="63">
+        <v>8</v>
+      </c>
+      <c r="F25" s="63"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="45">
+        <v>0</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="65">
+        <v>0.01</v>
+      </c>
+      <c r="E26" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="45">
+        <v>1</v>
+      </c>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="45">
+        <v>2</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="65">
+        <v>0.01</v>
+      </c>
+      <c r="E28" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="45">
+        <v>3</v>
+      </c>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="45">
+        <v>4</v>
+      </c>
+      <c r="B30" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="65">
+        <v>0.01</v>
+      </c>
+      <c r="E30" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" s="65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="45">
+        <v>5</v>
+      </c>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="45">
+        <v>6</v>
+      </c>
+      <c r="B32" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="45">
+        <v>7</v>
+      </c>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" s="63"/>
+      <c r="D35" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="63">
+        <v>8</v>
+      </c>
+      <c r="F35" s="63"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="48">
+        <v>0</v>
+      </c>
+      <c r="B36" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="65">
+        <v>0.01</v>
+      </c>
+      <c r="E36" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" s="65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="48">
+        <v>1</v>
+      </c>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="48">
+        <v>2</v>
+      </c>
+      <c r="B38" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="65">
+        <v>0.01</v>
+      </c>
+      <c r="E38" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" s="65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="48">
+        <v>3</v>
+      </c>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="48">
+        <v>4</v>
+      </c>
+      <c r="B40" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="65">
+        <v>0.01</v>
+      </c>
+      <c r="E40" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="F40" s="65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="48">
+        <v>5</v>
+      </c>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="48">
+        <v>6</v>
+      </c>
+      <c r="B42" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="D42" s="47">
+        <v>1</v>
+      </c>
+      <c r="E42" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="F42" s="47" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="48">
+        <v>7</v>
+      </c>
+      <c r="B43" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" s="77"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="C45" s="63"/>
+      <c r="D45" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" s="63">
+        <v>8</v>
+      </c>
+      <c r="F45" s="63"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="48">
+        <v>0</v>
+      </c>
+      <c r="B46" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="65">
+        <v>0.01</v>
+      </c>
+      <c r="E46" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46" s="65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="48">
+        <v>1</v>
+      </c>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="48">
+        <v>2</v>
+      </c>
+      <c r="B48" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="65">
+        <v>0.01</v>
+      </c>
+      <c r="E48" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" s="65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="48">
+        <v>3</v>
+      </c>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="48">
+        <v>4</v>
+      </c>
+      <c r="B50" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="65">
+        <v>0.01</v>
+      </c>
+      <c r="E50" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="F50" s="65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="48">
+        <v>5</v>
+      </c>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="48">
+        <v>6</v>
+      </c>
+      <c r="B52" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="D52" s="47">
+        <v>1</v>
+      </c>
+      <c r="E52" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="F52" s="47" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="48">
+        <v>7</v>
+      </c>
+      <c r="B53" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="77" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="53" t="s">
+      <c r="B54" s="77"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" s="63"/>
+      <c r="D55" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E55" s="63">
+        <v>8</v>
+      </c>
+      <c r="F55" s="63"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="50">
+        <v>0</v>
+      </c>
+      <c r="B56" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="65">
+        <v>0.01</v>
+      </c>
+      <c r="E56" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="F56" s="65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="50">
+        <v>1</v>
+      </c>
+      <c r="B57" s="65"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="50">
+        <v>2</v>
+      </c>
+      <c r="B58" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="53">
+      <c r="C58" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="65">
+        <v>0.01</v>
+      </c>
+      <c r="E58" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="F58" s="65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="50">
+        <v>3</v>
+      </c>
+      <c r="B59" s="65"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="50">
+        <v>4</v>
+      </c>
+      <c r="B60" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="65">
+        <v>0.01</v>
+      </c>
+      <c r="E60" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="F60" s="65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="50">
+        <v>5</v>
+      </c>
+      <c r="B61" s="65"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="50">
+        <v>6</v>
+      </c>
+      <c r="B62" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62" s="49">
+        <v>1</v>
+      </c>
+      <c r="E62" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="F62" s="49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="50">
+        <v>7</v>
+      </c>
+      <c r="B63" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="C63" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" s="49">
+        <v>1</v>
+      </c>
+      <c r="E63" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="F63" s="49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="B64" s="77"/>
+      <c r="C64" s="77"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="C65" s="63"/>
+      <c r="D65" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65" s="63">
         <v>8</v>
       </c>
-      <c r="F3" s="53"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="49">
+      <c r="F65" s="63"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="52">
         <v>0</v>
       </c>
-      <c r="B4" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="55" t="s">
+      <c r="B66" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C66" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D66" s="65">
         <v>0.01</v>
       </c>
-      <c r="E4" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="49">
-        <v>1</v>
-      </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="49">
+      <c r="E66" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="F66" s="65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="52">
+        <v>1</v>
+      </c>
+      <c r="B67" s="65"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="65"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="52">
         <v>2</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B68" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C68" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="65">
+        <v>0.01</v>
+      </c>
+      <c r="E68" s="65" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="F68" s="65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="52">
+        <v>3</v>
+      </c>
+      <c r="B69" s="65"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="65"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="52">
+        <v>4</v>
+      </c>
+      <c r="B70" s="65" t="s">
+        <v>219</v>
+      </c>
+      <c r="C70" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D70" s="65">
+        <v>0.1</v>
+      </c>
+      <c r="E70" s="65" t="s">
+        <v>220</v>
+      </c>
+      <c r="F70" s="65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="52">
+        <v>5</v>
+      </c>
+      <c r="B71" s="65"/>
+      <c r="C71" s="65"/>
+      <c r="D71" s="65"/>
+      <c r="E71" s="65"/>
+      <c r="F71" s="65"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="52">
+        <v>6</v>
+      </c>
+      <c r="B72" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="C72" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="D72" s="51">
+        <v>1</v>
+      </c>
+      <c r="E72" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="F72" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="52">
+        <v>7</v>
+      </c>
+      <c r="B73" s="51"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="51"/>
+    </row>
+    <row r="74" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="77" t="s">
+        <v>231</v>
+      </c>
+      <c r="B74" s="77"/>
+      <c r="C74" s="77"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="77"/>
+      <c r="F74" s="77"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="63" t="s">
+        <v>230</v>
+      </c>
+      <c r="C75" s="63"/>
+      <c r="D75" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E75" s="63">
+        <v>8</v>
+      </c>
+      <c r="F75" s="63"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="60">
+        <v>0</v>
+      </c>
+      <c r="B76" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" s="65">
         <v>0.01</v>
       </c>
-      <c r="E6" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="49">
+      <c r="E76" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="F76" s="65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="60">
+        <v>1</v>
+      </c>
+      <c r="B77" s="65"/>
+      <c r="C77" s="65"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="65"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="60">
+        <v>2</v>
+      </c>
+      <c r="B78" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C78" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="65">
+        <v>0.01</v>
+      </c>
+      <c r="E78" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="F78" s="65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="60">
         <v>3</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="49">
+      <c r="B79" s="65"/>
+      <c r="C79" s="65"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="65"/>
+      <c r="F79" s="65"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="60">
         <v>4</v>
       </c>
-      <c r="B8" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="49">
+      <c r="B80" s="65"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="65"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="60">
         <v>5</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="49">
+      <c r="B81" s="65"/>
+      <c r="C81" s="65"/>
+      <c r="D81" s="65"/>
+      <c r="E81" s="65"/>
+      <c r="F81" s="65"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="60">
         <v>6</v>
       </c>
-      <c r="B10" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="D10" s="52">
-        <v>1</v>
-      </c>
-      <c r="E10" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="F10" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="49">
+      <c r="B82" s="59"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="59"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="60">
         <v>7</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-    </row>
-    <row r="12" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="53" t="s">
-        <v>187</v>
-      </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="53">
+      <c r="B83" s="59"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="59"/>
+      <c r="E83" s="59"/>
+      <c r="F83" s="59"/>
+    </row>
+    <row r="84" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="77" t="s">
+        <v>232</v>
+      </c>
+      <c r="B84" s="77"/>
+      <c r="C84" s="77"/>
+      <c r="D84" s="77"/>
+      <c r="E84" s="77"/>
+      <c r="F84" s="77"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="63" t="s">
+        <v>236</v>
+      </c>
+      <c r="C85" s="63"/>
+      <c r="D85" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E85" s="63">
         <v>8</v>
       </c>
-      <c r="F13" s="53"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="51">
+      <c r="F85" s="63"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="62">
         <v>0</v>
       </c>
-      <c r="B14" s="55" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="55">
-        <v>1E-3</v>
-      </c>
-      <c r="E14" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F14" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="51">
-        <v>1</v>
-      </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="51">
+      <c r="B86" s="61" t="s">
+        <v>233</v>
+      </c>
+      <c r="C86" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="D86" s="61">
+        <v>1</v>
+      </c>
+      <c r="E86" s="61" t="s">
+        <v>235</v>
+      </c>
+      <c r="F86" s="61" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="62">
+        <v>1</v>
+      </c>
+      <c r="B87" s="93"/>
+      <c r="C87" s="93"/>
+      <c r="D87" s="93"/>
+      <c r="E87" s="93"/>
+      <c r="F87" s="93"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="62">
         <v>2</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="55">
-        <v>1E-3</v>
-      </c>
-      <c r="E16" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F16" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="51">
+      <c r="B88" s="93"/>
+      <c r="C88" s="93"/>
+      <c r="D88" s="93"/>
+      <c r="E88" s="93"/>
+      <c r="F88" s="93"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="62">
         <v>3</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="51">
+      <c r="B89" s="93"/>
+      <c r="C89" s="93"/>
+      <c r="D89" s="93"/>
+      <c r="E89" s="93"/>
+      <c r="F89" s="93"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="62">
         <v>4</v>
       </c>
-      <c r="B18" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="55">
-        <v>1E-3</v>
-      </c>
-      <c r="E18" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F18" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="51">
+      <c r="B90" s="93"/>
+      <c r="C90" s="93"/>
+      <c r="D90" s="93"/>
+      <c r="E90" s="93"/>
+      <c r="F90" s="93"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="62">
         <v>5</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="51">
+      <c r="B91" s="93"/>
+      <c r="C91" s="93"/>
+      <c r="D91" s="93"/>
+      <c r="E91" s="93"/>
+      <c r="F91" s="93"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="62">
         <v>6</v>
       </c>
-      <c r="B20" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="55">
-        <v>1E-3</v>
-      </c>
-      <c r="E20" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F20" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="51">
+      <c r="B92" s="61"/>
+      <c r="C92" s="61"/>
+      <c r="D92" s="61"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="61"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="62">
         <v>7</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-    </row>
-    <row r="22" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E24" s="53">
-        <v>8</v>
-      </c>
-      <c r="F24" s="53"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="46">
-        <v>0</v>
-      </c>
-      <c r="B25" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E25" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F25" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="46">
-        <v>1</v>
-      </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="46">
-        <v>2</v>
-      </c>
-      <c r="B27" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="C27" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E27" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F27" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="46">
-        <v>3</v>
-      </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="46">
-        <v>4</v>
-      </c>
-      <c r="B29" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E29" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="F29" s="55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="46">
-        <v>5</v>
-      </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="46">
-        <v>6</v>
-      </c>
-      <c r="B31" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="46">
-        <v>7</v>
-      </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="53" t="s">
-        <v>195</v>
-      </c>
-      <c r="C34" s="53"/>
-      <c r="D34" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E34" s="53">
-        <v>8</v>
-      </c>
-      <c r="F34" s="53"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="49">
-        <v>0</v>
-      </c>
-      <c r="B35" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="C35" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E35" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F35" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="49">
-        <v>1</v>
-      </c>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="49">
-        <v>2</v>
-      </c>
-      <c r="B37" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="C37" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E37" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F37" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="49">
-        <v>3</v>
-      </c>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="49">
-        <v>4</v>
-      </c>
-      <c r="B39" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="C39" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E39" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="F39" s="55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="49">
-        <v>5</v>
-      </c>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="49">
-        <v>6</v>
-      </c>
-      <c r="B41" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="C41" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="D41" s="48">
-        <v>1</v>
-      </c>
-      <c r="E41" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="F41" s="48" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="49">
-        <v>7</v>
-      </c>
-      <c r="B42" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="48" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="53" t="s">
-        <v>207</v>
-      </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E44" s="53">
-        <v>8</v>
-      </c>
-      <c r="F44" s="53"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="49">
-        <v>0</v>
-      </c>
-      <c r="B45" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="C45" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E45" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F45" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="49">
-        <v>1</v>
-      </c>
-      <c r="B46" s="55"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="49">
-        <v>2</v>
-      </c>
-      <c r="B47" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="C47" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E47" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F47" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="49">
-        <v>3</v>
-      </c>
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="49">
-        <v>4</v>
-      </c>
-      <c r="B49" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="C49" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E49" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="F49" s="55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="49">
-        <v>5</v>
-      </c>
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="49">
-        <v>6</v>
-      </c>
-      <c r="B51" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="C51" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="D51" s="48">
-        <v>1</v>
-      </c>
-      <c r="E51" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="F51" s="48" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="49">
-        <v>7</v>
-      </c>
-      <c r="B52" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" s="48" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="62" t="s">
-        <v>208</v>
-      </c>
-      <c r="B53" s="62"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B54" s="53" t="s">
-        <v>209</v>
-      </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E54" s="53">
-        <v>8</v>
-      </c>
-      <c r="F54" s="53"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="51">
-        <v>0</v>
-      </c>
-      <c r="B55" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="C55" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E55" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F55" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="51">
-        <v>1</v>
-      </c>
-      <c r="B56" s="55"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="51">
-        <v>2</v>
-      </c>
-      <c r="B57" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="C57" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E57" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F57" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="51">
-        <v>3</v>
-      </c>
-      <c r="B58" s="55"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="51">
-        <v>4</v>
-      </c>
-      <c r="B59" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="C59" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E59" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="F59" s="55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="51">
-        <v>5</v>
-      </c>
-      <c r="B60" s="55"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="51">
-        <v>6</v>
-      </c>
-      <c r="B61" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="C61" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="D61" s="50">
-        <v>1</v>
-      </c>
-      <c r="E61" s="50" t="s">
-        <v>198</v>
-      </c>
-      <c r="F61" s="50" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="51">
-        <v>7</v>
-      </c>
-      <c r="B62" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="C62" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="D62" s="50">
-        <v>1</v>
-      </c>
-      <c r="E62" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="F62" s="50" t="s">
-        <v>18</v>
-      </c>
+      <c r="B93" s="61"/>
+      <c r="C93" s="61"/>
+      <c r="D93" s="61"/>
+      <c r="E93" s="61"/>
+      <c r="F93" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="118">
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
+  <mergeCells count="163">
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
@@ -3714,54 +4376,72 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3780,14 +4460,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="A1" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
@@ -3813,47 +4493,47 @@
       <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="75" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="76"/>
+      <c r="B3" s="89" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="90"/>
       <c r="D3" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="75">
+        <v>135</v>
+      </c>
+      <c r="E3" s="89">
         <v>8</v>
       </c>
-      <c r="F3" s="76"/>
+      <c r="F3" s="90"/>
     </row>
     <row r="4" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44">
+      <c r="A4" s="43">
         <v>0</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="43">
-        <v>1</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="43">
+      <c r="B4" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="42">
+        <v>1</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="44">
+      <c r="A5" s="43">
         <v>1</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" s="38">
         <v>1</v>
@@ -3866,7 +4546,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="44">
+      <c r="A6" s="43">
         <v>2</v>
       </c>
       <c r="B6" s="39">
@@ -3886,7 +4566,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="44">
+      <c r="A7" s="43">
         <v>3</v>
       </c>
       <c r="B7" s="39">
@@ -3906,7 +4586,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="44">
+      <c r="A8" s="43">
         <v>4</v>
       </c>
       <c r="B8" s="39">
@@ -3926,7 +4606,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="44">
+      <c r="A9" s="43">
         <v>5</v>
       </c>
       <c r="B9" s="39">
@@ -3946,7 +4626,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="44">
+      <c r="A10" s="43">
         <v>6</v>
       </c>
       <c r="B10" s="39">
@@ -3966,7 +4646,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="44">
+      <c r="A11" s="43">
         <v>7</v>
       </c>
       <c r="B11" s="39">
@@ -4011,14 +4691,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="A1" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -4044,349 +4724,349 @@
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="53"/>
+      <c r="B3" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="63"/>
       <c r="D3" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="53">
+        <v>135</v>
+      </c>
+      <c r="E3" s="63">
         <v>8</v>
       </c>
-      <c r="F3" s="53"/>
+      <c r="F3" s="63"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>0</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="55">
-        <v>1</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>139</v>
+      <c r="D4" s="65">
+        <v>1</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="55">
-        <v>1</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>139</v>
+      <c r="D8" s="65">
+        <v>1</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="53"/>
+      <c r="B12" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="63"/>
       <c r="D12" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="53">
+        <v>135</v>
+      </c>
+      <c r="E12" s="63">
         <v>8</v>
       </c>
-      <c r="F12" s="53"/>
+      <c r="F12" s="63"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>0</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="55">
-        <v>1</v>
-      </c>
-      <c r="E13" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="55" t="s">
-        <v>139</v>
+      <c r="D13" s="65">
+        <v>1</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="65" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>1</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>2</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>3</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>4</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="55">
-        <v>1</v>
-      </c>
-      <c r="E17" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="55" t="s">
-        <v>139</v>
+      <c r="D17" s="65">
+        <v>1</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="65" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>5</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>6</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>7</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="53" t="s">
-        <v>176</v>
-      </c>
-      <c r="C21" s="53"/>
+      <c r="B21" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="63"/>
       <c r="D21" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="53">
+        <v>135</v>
+      </c>
+      <c r="E21" s="63">
         <v>8</v>
       </c>
-      <c r="F21" s="53"/>
+      <c r="F21" s="63"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>0</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="55">
-        <v>1</v>
-      </c>
-      <c r="E22" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="55" t="s">
-        <v>139</v>
+      <c r="D22" s="65">
+        <v>1</v>
+      </c>
+      <c r="E22" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="65" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>1</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>2</v>
       </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>3</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>4</v>
       </c>
-      <c r="B26" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="E26" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="55" t="s">
-        <v>139</v>
+      <c r="B26" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="65" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>5</v>
       </c>
-      <c r="B27" s="71"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>6</v>
       </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>7</v>
       </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -4445,14 +5125,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="A1" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
@@ -4478,96 +5158,96 @@
       <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="53"/>
+      <c r="B3" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="63"/>
       <c r="D3" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="53">
+        <v>135</v>
+      </c>
+      <c r="E3" s="63">
         <v>8</v>
       </c>
-      <c r="F3" s="53"/>
+      <c r="F3" s="63"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>0</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="65">
+        <v>1</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="65" t="s">
         <v>127</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="55">
-        <v>1</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="55" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="55" t="s">
+      <c r="B6" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="55">
-        <v>1</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>128</v>
+      <c r="D6" s="65">
+        <v>1</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>4</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="27">
         <v>1.29E-2</v>
       </c>
       <c r="E8" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="27" t="s">
         <v>132</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -4575,10 +5255,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" s="27">
         <v>1</v>
@@ -4587,7 +5267,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -4595,10 +5275,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="27">
         <v>1</v>
@@ -4653,10 +5333,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485B570D-AF19-4CD7-ADE4-FC7A998D53D9}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F21" sqref="B14:F22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4668,14 +5348,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="A1" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -4701,45 +5381,45 @@
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="53"/>
+      <c r="B3" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="63"/>
       <c r="D3" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="53">
+        <v>135</v>
+      </c>
+      <c r="E3" s="63">
         <v>8</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="59" t="s">
+      <c r="F3" s="63"/>
+      <c r="G3" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="61"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="72"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="63">
+      <c r="A4" s="69">
         <v>0</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="55">
-        <v>1</v>
-      </c>
-      <c r="E4" s="55" t="s">
+      <c r="C4" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="65">
+        <v>1</v>
+      </c>
+      <c r="E4" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="65" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="36" t="s">
@@ -4768,12 +5448,12 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="63"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="7">
         <v>0</v>
       </c>
@@ -4800,42 +5480,42 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
-        <v>1</v>
-      </c>
-      <c r="B6" s="40">
+      <c r="A6" s="53">
+        <v>1</v>
+      </c>
+      <c r="B6" s="56">
         <v>0</v>
       </c>
-      <c r="C6" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>18</v>
+      <c r="C6" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>2</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="65">
         <v>0.1</v>
       </c>
-      <c r="E7" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" s="55" t="s">
+      <c r="E7" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="65" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4843,29 +5523,29 @@
       <c r="A8" s="8">
         <v>3</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>4</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="65">
         <v>0.01</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="65" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4873,75 +5553,75 @@
       <c r="A10" s="8">
         <v>5</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="25">
         <v>6</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="65">
         <v>0.01</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="65" t="s">
         <v>140</v>
-      </c>
-      <c r="F11" s="55" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="25">
         <v>7</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" s="53"/>
+      <c r="B13" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="63"/>
       <c r="D13" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="53">
+        <v>135</v>
+      </c>
+      <c r="E13" s="63">
         <v>8</v>
       </c>
-      <c r="F13" s="53"/>
+      <c r="F13" s="63"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="56">
+      <c r="A14" s="66">
         <v>0</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="55">
-        <v>1</v>
-      </c>
-      <c r="E14" s="55" t="s">
+      <c r="C14" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="65">
+        <v>1</v>
+      </c>
+      <c r="E14" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="65" t="s">
         <v>45</v>
       </c>
       <c r="G14" s="26" t="s">
@@ -4970,27 +5650,27 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="57"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="47">
+      <c r="A15" s="67"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="46">
         <v>0</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" s="68"/>
+      <c r="K15" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" s="35" t="s">
         <v>93</v>
-      </c>
-      <c r="J15" s="58"/>
-      <c r="K15" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="L15" s="35" t="s">
-        <v>94</v>
       </c>
       <c r="M15" s="35" t="s">
         <v>90</v>
@@ -5000,124 +5680,170 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="42">
-        <v>1</v>
-      </c>
-      <c r="B16" s="40">
-        <v>0</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="A16" s="66">
+        <v>1</v>
+      </c>
+      <c r="B16" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="N16" s="55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="67"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="M17" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="N17" s="76"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
         <v>2</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B18" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="65">
+        <v>0.01</v>
+      </c>
+      <c r="E18" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="55" t="s">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="41">
+        <v>3</v>
+      </c>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="40">
+        <v>4</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="55">
+      <c r="D20" s="65">
         <v>0.01</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E20" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="55" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="42">
-        <v>3</v>
-      </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="41">
-        <v>4</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="55">
+      <c r="F20" s="65" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="41">
+        <v>5</v>
+      </c>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="40">
+        <v>6</v>
+      </c>
+      <c r="B22" s="65" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="D22" s="65">
         <v>0.01</v>
       </c>
-      <c r="E19" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="55" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="42">
-        <v>5</v>
-      </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="41">
-        <v>6</v>
-      </c>
-      <c r="B21" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E21" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="F21" s="55" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="42">
+      <c r="E22" s="65" t="s">
+        <v>227</v>
+      </c>
+      <c r="F22" s="65" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="41">
         <v>7</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -5125,42 +5851,45 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -5200,27 +5929,36 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="56">
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="D11:D12"/>
-    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G3:N3"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F20:F21"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="C7:C8"/>
@@ -5231,8 +5969,8 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B7:B8"/>
@@ -5241,16 +5979,19 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="F17:F18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5272,14 +6013,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="A1" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -5305,155 +6046,155 @@
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="53"/>
+      <c r="B3" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="63"/>
       <c r="D3" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="53">
+        <v>135</v>
+      </c>
+      <c r="E3" s="63">
         <v>8</v>
       </c>
-      <c r="F3" s="53"/>
+      <c r="F3" s="63"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="63">
+      <c r="A4" s="69">
         <v>0</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="65">
+        <v>1</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="69"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="45">
+        <v>1</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="55">
-        <v>1</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="63"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="46">
-        <v>1</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="45">
-        <v>1</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>194</v>
+      <c r="D6" s="44">
+        <v>1</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="46">
+      <c r="A7" s="45">
         <v>2</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="65">
         <v>0.1</v>
       </c>
-      <c r="E7" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" s="55" t="s">
+      <c r="E7" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="65" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="46">
+      <c r="A8" s="45">
         <v>3</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="46">
+      <c r="A9" s="45">
         <v>4</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="65">
         <v>0.01</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="65" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="46">
+      <c r="A10" s="45">
         <v>5</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="46">
+      <c r="A11" s="45">
         <v>6</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="65">
         <v>0.01</v>
       </c>
-      <c r="E11" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="F11" s="55" t="s">
+      <c r="E11" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="65" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="46">
+      <c r="A12" s="45">
         <v>7</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -5493,7 +6234,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K7" sqref="H7:K7"/>
+      <selection activeCell="B19" sqref="B19:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5505,14 +6246,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="A1" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
@@ -5538,17 +6279,17 @@
       <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="53"/>
+      <c r="B3" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="63"/>
       <c r="D3" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="53">
+        <v>135</v>
+      </c>
+      <c r="E3" s="63">
         <v>8</v>
       </c>
-      <c r="F3" s="53"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -5559,22 +6300,22 @@
       <c r="N3" s="12"/>
     </row>
     <row r="4" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67">
+      <c r="A4" s="83">
         <v>0</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="55">
-        <v>1</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="55">
+      <c r="C4" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="65">
+        <v>1</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="65">
         <v>1</v>
       </c>
       <c r="G4" s="21" t="s">
@@ -5603,12 +6344,12 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="68"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
       <c r="G5" s="14">
         <v>0</v>
       </c>
@@ -5616,13 +6357,13 @@
         <v>0</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L5" s="14" t="s">
         <v>16</v>
@@ -5635,96 +6376,96 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="67">
-        <v>1</v>
-      </c>
-      <c r="B6" s="55" t="s">
+      <c r="A6" s="83">
+        <v>1</v>
+      </c>
+      <c r="B6" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="55">
-        <v>1</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" s="55">
+      <c r="C6" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="65">
+        <v>1</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="65">
         <v>1</v>
       </c>
       <c r="G6" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="84"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H7" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I7" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J7" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="K6" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="68"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" s="17" t="s">
+      <c r="K7" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="L7" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="M7" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="M7" s="69" t="s">
-        <v>106</v>
-      </c>
-      <c r="N7" s="70"/>
+      <c r="N7" s="76"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>2</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="65">
         <v>0.1</v>
       </c>
-      <c r="E8" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="55" t="s">
+      <c r="E8" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="65" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="12"/>
@@ -5740,11 +6481,11 @@
       <c r="A9" s="7">
         <v>3</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -5758,19 +6499,19 @@
       <c r="A10" s="7">
         <v>4</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="65">
         <v>0.01</v>
       </c>
-      <c r="E10" s="55" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="55" t="s">
+      <c r="E10" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="65" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="12"/>
@@ -5786,11 +6527,11 @@
       <c r="A11" s="7">
         <v>5</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -5805,19 +6546,19 @@
         <v>6</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -5833,13 +6574,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E13" s="27" t="s">
         <v>18</v>
@@ -5847,50 +6588,50 @@
       <c r="F13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="66"/>
+      <c r="G13" s="80" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="82"/>
     </row>
     <row r="14" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="53"/>
+      <c r="B14" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="63"/>
       <c r="D14" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="53">
+        <v>135</v>
+      </c>
+      <c r="E14" s="63">
         <v>8</v>
       </c>
-      <c r="F14" s="53"/>
+      <c r="F14" s="63"/>
     </row>
     <row r="15" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>0</v>
       </c>
-      <c r="B15" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="55" t="s">
+      <c r="B15" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="65">
         <v>1E-3</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="65" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5898,29 +6639,29 @@
       <c r="A16" s="7">
         <v>1</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>2</v>
       </c>
-      <c r="B17" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="55" t="s">
+      <c r="B17" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="55">
+      <c r="D17" s="65">
         <v>1E-3</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="65" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5928,29 +6669,29 @@
       <c r="A18" s="7">
         <v>3</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>4</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="65">
+        <v>1E-3</v>
+      </c>
+      <c r="E19" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="C19" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="55">
-        <v>1E-3</v>
-      </c>
-      <c r="E19" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" s="55" t="s">
+      <c r="F19" s="65" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5958,27 +6699,27 @@
       <c r="A20" s="7">
         <v>5</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>6</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D21" s="27">
         <v>0.5</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F21" s="27" t="s">
         <v>19</v>
@@ -5989,10 +6730,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D22" s="27" t="s">
         <v>18</v>
@@ -6003,16 +6744,16 @@
       <c r="F22" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
+      <c r="G22" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="45">
@@ -6072,21 +6813,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{463BA18B-2D3A-456D-9F28-7C418F14B21B}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F10" sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="A1" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -6112,35 +6853,35 @@
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="53"/>
+      <c r="B3" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="63"/>
       <c r="D3" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="53">
+        <v>135</v>
+      </c>
+      <c r="E3" s="63">
         <v>8</v>
       </c>
-      <c r="F3" s="53"/>
+      <c r="F3" s="63"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="25">
         <v>0</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="65">
         <v>1E-3</v>
       </c>
-      <c r="E4" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F4" s="55" t="s">
+      <c r="E4" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="65" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6148,29 +6889,29 @@
       <c r="A5" s="25">
         <v>1</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
         <v>2</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="65">
         <v>1E-3</v>
       </c>
-      <c r="E6" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F6" s="55" t="s">
+      <c r="E6" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="65" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6178,29 +6919,29 @@
       <c r="A7" s="25">
         <v>3</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="25">
         <v>4</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="65">
         <v>1E-3</v>
       </c>
-      <c r="E8" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F8" s="55" t="s">
+      <c r="E8" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="65" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6208,29 +6949,29 @@
       <c r="A9" s="25">
         <v>5</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="25">
         <v>6</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="65">
         <v>1E-3</v>
       </c>
-      <c r="E10" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" s="55" t="s">
+      <c r="E10" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="65" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6238,27 +6979,27 @@
       <c r="A11" s="25">
         <v>7</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="53"/>
+      <c r="B12" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="63"/>
       <c r="D12" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="53">
+        <v>135</v>
+      </c>
+      <c r="E12" s="63">
         <v>8</v>
       </c>
-      <c r="F12" s="53"/>
+      <c r="F12" s="63"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="25">
@@ -6268,7 +7009,7 @@
         <v>51</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D13" s="27">
         <v>1</v>
@@ -6288,7 +7029,7 @@
         <v>52</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14" s="27">
         <v>1</v>
@@ -6308,7 +7049,7 @@
         <v>53</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D15" s="27">
         <v>1</v>
@@ -6328,7 +7069,7 @@
         <v>54</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" s="27">
         <v>1</v>
@@ -6348,7 +7089,7 @@
         <v>61</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D17" s="27">
         <v>1</v>
@@ -6368,16 +7109,16 @@
         <v>0</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -6388,16 +7129,16 @@
         <v>0</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -6408,16 +7149,16 @@
         <v>0</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -6458,21 +7199,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB929CCD-EAD6-49C1-9276-8C20926B9FAC}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="A1" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -6498,137 +7239,137 @@
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="53"/>
+      <c r="B3" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="63"/>
       <c r="D3" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="53">
+        <v>135</v>
+      </c>
+      <c r="E3" s="63">
         <v>8</v>
       </c>
-      <c r="F3" s="53"/>
+      <c r="F3" s="63"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="46">
+      <c r="A4" s="45">
         <v>0</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="65">
         <v>1E-3</v>
       </c>
-      <c r="E4" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F4" s="55" t="s">
+      <c r="E4" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="65" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="46">
-        <v>1</v>
-      </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="A5" s="45">
+        <v>1</v>
+      </c>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="46">
+      <c r="A6" s="45">
         <v>2</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="65">
         <v>1E-3</v>
       </c>
-      <c r="E6" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F6" s="55" t="s">
+      <c r="E6" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="65" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="46">
+      <c r="A7" s="45">
         <v>3</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="46">
+      <c r="A8" s="45">
         <v>4</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="65">
         <v>1E-3</v>
       </c>
-      <c r="E8" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F8" s="55" t="s">
+      <c r="E8" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="65" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="46">
+      <c r="A9" s="45">
         <v>5</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="46">
+      <c r="A10" s="45">
         <v>6</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="65">
         <v>1E-3</v>
       </c>
-      <c r="E10" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" s="55" t="s">
+      <c r="E10" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="65" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="46">
+      <c r="A11" s="45">
         <v>7</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -6665,7 +7406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE35949F-52DF-467A-B667-225AF803A301}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
@@ -6678,23 +7419,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="A1" s="77" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74" t="s">
+      <c r="I1" s="88"/>
+      <c r="J1" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="74"/>
+      <c r="K1" s="88"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
@@ -6716,10 +7457,10 @@
         <v>17</v>
       </c>
       <c r="G2" s="6"/>
-      <c r="H2" s="74">
+      <c r="H2" s="88">
         <v>0</v>
       </c>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="88" t="s">
         <v>67</v>
       </c>
       <c r="J2" s="4">
@@ -6733,20 +7474,20 @@
       <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="75" t="s">
-        <v>184</v>
-      </c>
-      <c r="C3" s="76"/>
+      <c r="B3" s="89" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="90"/>
       <c r="D3" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="75">
+        <v>135</v>
+      </c>
+      <c r="E3" s="89">
         <v>8</v>
       </c>
-      <c r="F3" s="76"/>
+      <c r="F3" s="90"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
       <c r="J3" s="4">
         <v>1</v>
       </c>
@@ -6762,20 +7503,20 @@
         <v>64</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="27">
         <v>1</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F4" s="27">
         <v>1</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
       <c r="J4" s="4">
         <v>2</v>
       </c>
@@ -6791,22 +7532,22 @@
         <v>86</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" s="38">
         <v>1</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F5" s="38">
         <v>1</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="74">
-        <v>1</v>
-      </c>
-      <c r="I5" s="74" t="s">
+      <c r="H5" s="88">
+        <v>1</v>
+      </c>
+      <c r="I5" s="88" t="s">
         <v>69</v>
       </c>
       <c r="J5" s="4">
@@ -6821,23 +7562,23 @@
         <v>2</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
       <c r="J6" s="4">
         <v>1</v>
       </c>
@@ -6850,23 +7591,23 @@
         <v>3</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
       <c r="J7" s="3">
         <v>2</v>
       </c>
@@ -6879,25 +7620,25 @@
         <v>4</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="74">
+      <c r="H8" s="88">
         <v>2</v>
       </c>
-      <c r="I8" s="74" t="s">
+      <c r="I8" s="88" t="s">
         <v>68</v>
       </c>
       <c r="J8" s="4">
@@ -6912,23 +7653,23 @@
         <v>5</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G9" s="13"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
       <c r="J9" s="4">
         <v>1</v>
       </c>
@@ -6941,23 +7682,23 @@
         <v>6</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
       <c r="J10" s="4">
         <v>2</v>
       </c>
@@ -6970,23 +7711,23 @@
         <v>7</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
       <c r="J11" s="4">
         <v>3</v>
       </c>
@@ -6996,10 +7737,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G12" s="6"/>
-      <c r="H12" s="74">
+      <c r="H12" s="88">
         <v>3</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="88" t="s">
         <v>70</v>
       </c>
       <c r="J12" s="4">
@@ -7011,8 +7752,8 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G13" s="6"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
       <c r="J13" s="4">
         <v>1</v>
       </c>
@@ -7022,8 +7763,8 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G14" s="6"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
       <c r="J14" s="4">
         <v>2</v>
       </c>
@@ -7033,8 +7774,8 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G15" s="6"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
       <c r="J15" s="4">
         <v>3</v>
       </c>
@@ -7044,8 +7785,8 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G16" s="6"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
       <c r="J16" s="4">
         <v>4</v>
       </c>
@@ -7079,7 +7820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3B3C39-6194-4D88-96DE-4A9D4173FD26}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
@@ -7106,296 +7847,296 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="62" t="s">
-        <v>205</v>
-      </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
+      <c r="A2" s="77" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="63"/>
+      <c r="D3" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="63">
+        <v>8</v>
+      </c>
+      <c r="F3" s="63"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="48">
+        <v>0</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="65">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="48">
+        <v>1</v>
+      </c>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="48">
+        <v>2</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="65">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="48">
+        <v>3</v>
+      </c>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="48">
+        <v>4</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="65">
+        <v>0.01</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="48">
+        <v>5</v>
+      </c>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="48">
+        <v>6</v>
+      </c>
+      <c r="B10" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="53">
-        <v>8</v>
-      </c>
-      <c r="F3" s="53"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="49">
-        <v>0</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="55" t="s">
+      <c r="C10" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D10" s="65">
         <v>0.01</v>
       </c>
-      <c r="E4" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="49">
-        <v>1</v>
-      </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="49">
-        <v>2</v>
-      </c>
-      <c r="B6" s="55" t="s">
+      <c r="E10" s="65" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="49">
-        <v>3</v>
-      </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="49">
-        <v>4</v>
-      </c>
-      <c r="B8" s="55" t="s">
+      <c r="F10" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="49">
-        <v>5</v>
-      </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="49">
-        <v>6</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>179</v>
-      </c>
-      <c r="C10" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="55">
-        <v>0.01</v>
-      </c>
-      <c r="E10" s="55" t="s">
-        <v>171</v>
-      </c>
-      <c r="F10" s="55" t="s">
-        <v>172</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="49">
+      <c r="A11" s="48">
         <v>7</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
     </row>
     <row r="12" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="62" t="s">
-        <v>192</v>
-      </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
+      <c r="A12" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="63"/>
+      <c r="D13" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="63">
+        <v>8</v>
+      </c>
+      <c r="F13" s="63"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="48">
+        <v>0</v>
+      </c>
+      <c r="B14" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="53">
-        <v>8</v>
-      </c>
-      <c r="F13" s="53"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="49">
-        <v>0</v>
-      </c>
-      <c r="B14" s="55" t="s">
+      <c r="C14" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="65">
+        <v>1E-3</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="48">
+        <v>1</v>
+      </c>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="48">
+        <v>2</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="65">
+        <v>1E-3</v>
+      </c>
+      <c r="E16" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="48">
+        <v>3</v>
+      </c>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="48">
+        <v>4</v>
+      </c>
+      <c r="B18" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C18" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D18" s="65">
         <v>1E-3</v>
       </c>
-      <c r="E14" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F14" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="49">
-        <v>1</v>
-      </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="49">
-        <v>2</v>
-      </c>
-      <c r="B16" s="55" t="s">
+      <c r="E18" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18" s="65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="48">
+        <v>5</v>
+      </c>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="48">
+        <v>6</v>
+      </c>
+      <c r="B20" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C20" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D20" s="65">
         <v>1E-3</v>
       </c>
-      <c r="E16" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F16" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="49">
-        <v>3</v>
-      </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="49">
-        <v>4</v>
-      </c>
-      <c r="B18" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="55">
-        <v>1E-3</v>
-      </c>
-      <c r="E18" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F18" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="49">
-        <v>5</v>
-      </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="49">
-        <v>6</v>
-      </c>
-      <c r="B20" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="55">
-        <v>1E-3</v>
-      </c>
-      <c r="E20" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F20" s="55" t="s">
-        <v>172</v>
+      <c r="E20" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="65" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="49">
+      <c r="A21" s="48">
         <v>7</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="46">

--- a/Doc/Protocol/CAN总线协议.xlsx
+++ b/Doc/Protocol/CAN总线协议.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A5498F-3915-41D5-B1AC-13EEC0A9BF61}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659C4AC2-846B-40E8-8FC4-11465F8FE5A2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="超声波原始数据(RX)" sheetId="12" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="应答信号(RX)" sheetId="14" r:id="rId12"/>
     <sheet name="PID调试帧(TX)" sheetId="5" r:id="rId13"/>
     <sheet name="参数配置" sheetId="20" r:id="rId14"/>
+    <sheet name="三角定位超声数据(RX)" sheetId="22" r:id="rId15"/>
+    <sheet name="障碍物的车体坐标系(RX)" sheetId="23" r:id="rId16"/>
+    <sheet name="障碍物的地面坐标系(RX)" sheetId="24" r:id="rId17"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="301">
   <si>
     <t>字节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1118,6 +1121,106 @@
   </si>
   <si>
     <t>[-3.14,3.14]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超声波定位原始数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x470-0x47B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-32,32]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x480-0x48B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x48C-0x48F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接测量障碍物坐标(车体坐标系)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角定位障碍物坐标(车体坐标系)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x490-0x49B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x49C-0x49F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接测量障碍物坐标(地面坐标系)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角定位障碍物坐标(地面坐标系)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博瑞控制接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x518</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[-500,500]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刹停距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,25]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挡位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,1023]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA使能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1739,7 +1842,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1979,6 +2082,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="23" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2281,8 +2396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8F34AB-C4C2-4C9E-862F-64EECBC6249B}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:F22"/>
+    <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2698,7 +2813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035C941A-BCE1-46E3-89DE-EEDC1055935D}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A94" sqref="A94:XFD102"/>
     </sheetView>
   </sheetViews>
@@ -4354,8 +4469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3B3C39-6194-4D88-96DE-4A9D4173FD26}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:F11"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4735,7 +4850,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F11" sqref="A1:F11"/>
+      <selection activeCell="B3" sqref="B3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4962,7 +5077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF57E098-EEA1-4ED0-9239-EFEB3D560FCC}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:B7"/>
     </sheetView>
   </sheetViews>
@@ -5399,8 +5514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF75A6AD-0D78-4613-9133-B84271B515E8}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="B3:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5623,11 +5738,983 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB32C13-F014-4BAD-8D29-14060EB92853}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F11" sqref="A1:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="44" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="45">
+        <v>8</v>
+      </c>
+      <c r="F3" s="45"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>0</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="43">
+        <v>1</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="43">
+        <v>1</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1.29E-2</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="19">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="19">
+        <v>1</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D5D82E-74E2-4723-8B23-97E8BE9DA0AB}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F21" sqref="A1:F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="45">
+        <v>8</v>
+      </c>
+      <c r="F3" s="45"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>0</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+    </row>
+    <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="45">
+        <v>8</v>
+      </c>
+      <c r="F14" s="45"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>0</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>6</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>7</v>
+      </c>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C0E048-0823-40A4-ACA6-C3E1EA2483CF}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F21" sqref="A12:F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="45">
+        <v>8</v>
+      </c>
+      <c r="F3" s="45"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>0</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>7</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+    </row>
+    <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="45">
+        <v>8</v>
+      </c>
+      <c r="F14" s="45"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>0</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>2</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>5</v>
+      </c>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>6</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>7</v>
+      </c>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49368B5F-FF1A-4CA0-AC71-CB4FF4B34D51}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -6734,10 +7821,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1A9E13-87C1-4307-9B11-1AB0387C93D9}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:F20"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -7210,8 +8297,329 @@
       <c r="M22" s="61"/>
       <c r="N22" s="61"/>
     </row>
+    <row r="23" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+    </row>
+    <row r="24" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="C25" s="45"/>
+      <c r="D25" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="45">
+        <v>8</v>
+      </c>
+      <c r="F25" s="45"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>0</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="43">
+        <v>0.1</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>1</v>
+      </c>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>2</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="19">
+        <v>4</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>3</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>4</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>5</v>
+      </c>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="49">
+        <v>6</v>
+      </c>
+      <c r="B32" s="83" t="s">
+        <v>296</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="55">
+        <v>1</v>
+      </c>
+      <c r="E32" s="55" t="s">
+        <v>297</v>
+      </c>
+      <c r="F32" s="55">
+        <v>1</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="50"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="I33" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="J33" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="K33" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M33" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="N33" s="47"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="49">
+        <v>7</v>
+      </c>
+      <c r="B34" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="55">
+        <v>1</v>
+      </c>
+      <c r="E34" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="F34" s="55">
+        <v>1</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N34" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="50"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="8">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8">
+        <v>0</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0</v>
+      </c>
+      <c r="J35" s="8">
+        <v>0</v>
+      </c>
+      <c r="K35" s="8">
+        <v>0</v>
+      </c>
+      <c r="L35" s="8">
+        <v>0</v>
+      </c>
+      <c r="M35" s="85" t="s">
+        <v>300</v>
+      </c>
+      <c r="N35" s="85"/>
+    </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="72">
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="G13:N13"/>

--- a/Doc/Protocol/CAN总线协议.xlsx
+++ b/Doc/Protocol/CAN总线协议.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659C4AC2-846B-40E8-8FC4-11465F8FE5A2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA79D6F-6142-47B3-8510-709BFAC16E53}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="超声波原始数据(RX)" sheetId="12" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="302">
   <si>
     <t>字节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1124,10 +1124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>超声波定位原始数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x470-0x47B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1144,26 +1140,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>X2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x480-0x48B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x48C-0x48F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接测量障碍物坐标(车体坐标系)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三角定位障碍物坐标(车体坐标系)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1172,14 +1152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x49C-0x49F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接测量障碍物坐标(地面坐标系)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三角定位障碍物坐标(地面坐标系)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1221,6 +1193,38 @@
   </si>
   <si>
     <t>APA使能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超声波短距离三角定位原始数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每3个一组，共4组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0,1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标有效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1842,7 +1846,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1964,28 +1968,40 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="10" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="11" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="11" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="9" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="21" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
@@ -2000,29 +2016,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="21" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="13" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2039,14 +2049,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="13" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2084,16 +2103,10 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="23" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2403,14 +2416,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -2452,19 +2465,19 @@
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="43">
-        <v>1</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="43" t="s">
+      <c r="D4" s="47">
+        <v>1</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="47" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2472,29 +2485,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="43">
-        <v>1</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="43" t="s">
+      <c r="D6" s="47">
+        <v>1</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="47" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2502,11 +2515,11 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
@@ -2589,14 +2602,14 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
     </row>
     <row r="13" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
@@ -2638,19 +2651,19 @@
       <c r="A15" s="5">
         <v>0</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="47">
         <v>0.01</v>
       </c>
-      <c r="E15" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="43" t="s">
+      <c r="E15" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="47" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2658,29 +2671,29 @@
       <c r="A16" s="5">
         <v>1</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="47" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="47">
         <v>0.01</v>
       </c>
-      <c r="E17" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="43" t="s">
+      <c r="E17" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="47" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2688,11 +2701,11 @@
       <c r="A18" s="5">
         <v>3</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
@@ -2776,6 +2789,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="A1:F1"/>
@@ -2784,24 +2815,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2840,14 +2853,14 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -2869,19 +2882,19 @@
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="47">
         <v>0.01</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="47" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2889,29 +2902,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="47">
         <v>0.01</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="47" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2919,29 +2932,29 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="47">
         <v>0.01</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="47" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2949,29 +2962,29 @@
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="49">
+      <c r="A10" s="48">
         <v>6</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="D10" s="55">
-        <v>1</v>
-      </c>
-      <c r="E10" s="55" t="s">
+      <c r="D10" s="51">
+        <v>1</v>
+      </c>
+      <c r="E10" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="F10" s="81">
+      <c r="F10" s="86">
         <v>1</v>
       </c>
       <c r="G10" s="35">
@@ -2988,12 +3001,12 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="82"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="87"/>
       <c r="G11" s="35" t="s">
         <v>210</v>
       </c>
@@ -3018,14 +3031,14 @@
       <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
@@ -3047,19 +3060,19 @@
       <c r="A15" s="5">
         <v>0</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="47">
         <v>1E-3</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="47" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3067,29 +3080,29 @@
       <c r="A16" s="5">
         <v>1</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="47">
         <v>1E-3</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="47" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3097,29 +3110,29 @@
       <c r="A18" s="5">
         <v>3</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>4</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="43">
+      <c r="D19" s="47">
         <v>1E-3</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="47" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3127,29 +3140,29 @@
       <c r="A20" s="5">
         <v>5</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>6</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="43">
+      <c r="D21" s="47">
         <v>1E-3</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="47" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3157,21 +3170,21 @@
       <c r="A22" s="5">
         <v>7</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
     </row>
     <row r="23" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
@@ -3213,19 +3226,19 @@
       <c r="A26" s="5">
         <v>0</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="43">
+      <c r="D26" s="47">
         <v>0.01</v>
       </c>
-      <c r="E26" s="43" t="s">
+      <c r="E26" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F26" s="43" t="s">
+      <c r="F26" s="47" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3233,29 +3246,29 @@
       <c r="A27" s="5">
         <v>1</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>2</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="43">
+      <c r="D28" s="47">
         <v>0.01</v>
       </c>
-      <c r="E28" s="43" t="s">
+      <c r="E28" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="47" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3263,29 +3276,29 @@
       <c r="A29" s="5">
         <v>3</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>4</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="47">
         <v>0.01</v>
       </c>
-      <c r="E30" s="43" t="s">
+      <c r="E30" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="47" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3293,29 +3306,29 @@
       <c r="A31" s="5">
         <v>5</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>6</v>
       </c>
-      <c r="B32" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="43" t="s">
+      <c r="B32" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="47" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3323,21 +3336,21 @@
       <c r="A33" s="5">
         <v>7</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
     </row>
     <row r="34" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
@@ -3359,19 +3372,19 @@
       <c r="A36" s="5">
         <v>0</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="43">
+      <c r="D36" s="47">
         <v>0.01</v>
       </c>
-      <c r="E36" s="43" t="s">
+      <c r="E36" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F36" s="43" t="s">
+      <c r="F36" s="47" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3379,29 +3392,29 @@
       <c r="A37" s="5">
         <v>1</v>
       </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>2</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="43">
+      <c r="D38" s="47">
         <v>0.01</v>
       </c>
-      <c r="E38" s="43" t="s">
+      <c r="E38" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F38" s="43" t="s">
+      <c r="F38" s="47" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3409,29 +3422,29 @@
       <c r="A39" s="5">
         <v>3</v>
       </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>4</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="43">
+      <c r="D40" s="47">
         <v>0.01</v>
       </c>
-      <c r="E40" s="43" t="s">
+      <c r="E40" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="F40" s="43" t="s">
+      <c r="F40" s="47" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3439,11 +3452,11 @@
       <c r="A41" s="5">
         <v>5</v>
       </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
@@ -3486,14 +3499,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="48" t="s">
+      <c r="A44" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
@@ -3515,19 +3528,19 @@
       <c r="A46" s="5">
         <v>0</v>
       </c>
-      <c r="B46" s="43" t="s">
+      <c r="B46" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="C46" s="43" t="s">
+      <c r="C46" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="43">
+      <c r="D46" s="47">
         <v>0.01</v>
       </c>
-      <c r="E46" s="43" t="s">
+      <c r="E46" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F46" s="43" t="s">
+      <c r="F46" s="47" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3535,29 +3548,29 @@
       <c r="A47" s="5">
         <v>1</v>
       </c>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>2</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="C48" s="43" t="s">
+      <c r="C48" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="43">
+      <c r="D48" s="47">
         <v>0.01</v>
       </c>
-      <c r="E48" s="43" t="s">
+      <c r="E48" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F48" s="43" t="s">
+      <c r="F48" s="47" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3565,29 +3578,29 @@
       <c r="A49" s="5">
         <v>3</v>
       </c>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>4</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="C50" s="43" t="s">
+      <c r="C50" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="43">
+      <c r="D50" s="47">
         <v>0.01</v>
       </c>
-      <c r="E50" s="43" t="s">
+      <c r="E50" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="F50" s="43" t="s">
+      <c r="F50" s="47" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3595,11 +3608,11 @@
       <c r="A51" s="5">
         <v>5</v>
       </c>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
@@ -3642,14 +3655,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="48" t="s">
+      <c r="A54" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="48"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
@@ -3671,19 +3684,19 @@
       <c r="A56" s="5">
         <v>0</v>
       </c>
-      <c r="B56" s="43" t="s">
+      <c r="B56" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="C56" s="43" t="s">
+      <c r="C56" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="43">
+      <c r="D56" s="47">
         <v>0.01</v>
       </c>
-      <c r="E56" s="43" t="s">
+      <c r="E56" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F56" s="43" t="s">
+      <c r="F56" s="47" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3691,29 +3704,29 @@
       <c r="A57" s="5">
         <v>1</v>
       </c>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>2</v>
       </c>
-      <c r="B58" s="43" t="s">
+      <c r="B58" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="C58" s="43" t="s">
+      <c r="C58" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="43">
+      <c r="D58" s="47">
         <v>0.01</v>
       </c>
-      <c r="E58" s="43" t="s">
+      <c r="E58" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F58" s="43" t="s">
+      <c r="F58" s="47" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3721,29 +3734,29 @@
       <c r="A59" s="5">
         <v>3</v>
       </c>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>4</v>
       </c>
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="C60" s="43" t="s">
+      <c r="C60" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="43">
+      <c r="D60" s="47">
         <v>0.01</v>
       </c>
-      <c r="E60" s="43" t="s">
+      <c r="E60" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="F60" s="43" t="s">
+      <c r="F60" s="47" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3751,11 +3764,11 @@
       <c r="A61" s="5">
         <v>5</v>
       </c>
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
@@ -3798,14 +3811,14 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="48" t="s">
+      <c r="A64" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="B64" s="48"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
@@ -3827,19 +3840,19 @@
       <c r="A66" s="5">
         <v>0</v>
       </c>
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="C66" s="43" t="s">
+      <c r="C66" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="43">
+      <c r="D66" s="47">
         <v>0.01</v>
       </c>
-      <c r="E66" s="43" t="s">
+      <c r="E66" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F66" s="43" t="s">
+      <c r="F66" s="47" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3847,29 +3860,29 @@
       <c r="A67" s="5">
         <v>1</v>
       </c>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>2</v>
       </c>
-      <c r="B68" s="43" t="s">
+      <c r="B68" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="C68" s="43" t="s">
+      <c r="C68" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="43">
+      <c r="D68" s="47">
         <v>0.01</v>
       </c>
-      <c r="E68" s="43" t="s">
+      <c r="E68" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F68" s="43" t="s">
+      <c r="F68" s="47" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3877,29 +3890,29 @@
       <c r="A69" s="5">
         <v>3</v>
       </c>
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="43"/>
-      <c r="F69" s="43"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>4</v>
       </c>
-      <c r="B70" s="43" t="s">
+      <c r="B70" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="C70" s="43" t="s">
+      <c r="C70" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="43">
+      <c r="D70" s="47">
         <v>0.1</v>
       </c>
-      <c r="E70" s="43" t="s">
+      <c r="E70" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="F70" s="43" t="s">
+      <c r="F70" s="47" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3907,11 +3920,11 @@
       <c r="A71" s="5">
         <v>5</v>
       </c>
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="47"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
@@ -3944,14 +3957,14 @@
       <c r="F73" s="19"/>
     </row>
     <row r="74" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="48" t="s">
+      <c r="A74" s="61" t="s">
         <v>227</v>
       </c>
-      <c r="B74" s="48"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="48"/>
-      <c r="E74" s="48"/>
-      <c r="F74" s="48"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="61"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="26" t="s">
@@ -3973,19 +3986,19 @@
       <c r="A76" s="5">
         <v>0</v>
       </c>
-      <c r="B76" s="43" t="s">
+      <c r="B76" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="C76" s="43" t="s">
+      <c r="C76" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D76" s="43">
+      <c r="D76" s="47">
         <v>0.01</v>
       </c>
-      <c r="E76" s="43" t="s">
+      <c r="E76" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F76" s="43" t="s">
+      <c r="F76" s="47" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3993,29 +4006,29 @@
       <c r="A77" s="5">
         <v>1</v>
       </c>
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="47"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>2</v>
       </c>
-      <c r="B78" s="43" t="s">
+      <c r="B78" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="C78" s="43" t="s">
+      <c r="C78" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="43">
+      <c r="D78" s="47">
         <v>0.01</v>
       </c>
-      <c r="E78" s="43" t="s">
+      <c r="E78" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F78" s="43" t="s">
+      <c r="F78" s="47" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4023,31 +4036,31 @@
       <c r="A79" s="5">
         <v>3</v>
       </c>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="43"/>
-      <c r="F79" s="43"/>
+      <c r="B79" s="47"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="47"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>4</v>
       </c>
-      <c r="B80" s="43"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
+      <c r="B80" s="47"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="47"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>5</v>
       </c>
-      <c r="B81" s="43"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="43"/>
-      <c r="F81" s="43"/>
+      <c r="B81" s="47"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="47"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
@@ -4070,14 +4083,14 @@
       <c r="F83" s="19"/>
     </row>
     <row r="84" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="48" t="s">
+      <c r="A84" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="B84" s="48"/>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
+      <c r="B84" s="61"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="26" t="s">
@@ -4189,17 +4202,17 @@
       <c r="A94" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B94" s="68" t="s">
+      <c r="B94" s="74" t="s">
         <v>232</v>
       </c>
-      <c r="C94" s="69"/>
+      <c r="C94" s="75"/>
       <c r="D94" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E94" s="68">
+      <c r="E94" s="74">
         <v>8</v>
       </c>
-      <c r="F94" s="69"/>
+      <c r="F94" s="75"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
@@ -4293,6 +4306,147 @@
     </row>
   </sheetData>
   <mergeCells count="165">
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="D78:D79"/>
     <mergeCell ref="E78:E79"/>
@@ -4317,147 +4471,6 @@
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="B78:B79"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4499,14 +4512,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -4528,19 +4541,19 @@
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="47">
         <v>0.01</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="47" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4548,29 +4561,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="47">
         <v>0.01</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="47" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4578,29 +4591,29 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="47">
         <v>0.01</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="47" t="s">
         <v>274</v>
       </c>
     </row>
@@ -4608,29 +4621,29 @@
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="47">
         <v>0.01</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="47" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4638,21 +4651,21 @@
       <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
@@ -4674,19 +4687,19 @@
       <c r="A14" s="5">
         <v>0</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="43">
+      <c r="D14" s="47">
         <v>1E-3</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="47" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4694,29 +4707,29 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="43">
+      <c r="D16" s="47">
         <v>1E-3</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F16" s="47" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4724,29 +4737,29 @@
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="47">
         <v>1E-3</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="47" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4754,29 +4767,29 @@
       <c r="A19" s="5">
         <v>5</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>6</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="43">
+      <c r="D20" s="47">
         <v>1E-3</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="47" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4784,23 +4797,35 @@
       <c r="A21" s="5">
         <v>7</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="B14:B15"/>
@@ -4817,27 +4842,15 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4856,14 +4869,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="61" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
@@ -4889,17 +4902,17 @@
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="69"/>
+      <c r="C3" s="75"/>
       <c r="D3" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="74">
         <v>8</v>
       </c>
-      <c r="F3" s="69"/>
+      <c r="F3" s="75"/>
     </row>
     <row r="4" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -5087,14 +5100,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -5136,19 +5149,19 @@
       <c r="A4" s="4">
         <v>0</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="43">
-        <v>1</v>
-      </c>
-      <c r="E4" s="43" t="s">
+      <c r="D4" s="47">
+        <v>1</v>
+      </c>
+      <c r="E4" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="47" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5156,49 +5169,49 @@
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="43">
-        <v>1</v>
-      </c>
-      <c r="E8" s="43" t="s">
+      <c r="D8" s="47">
+        <v>1</v>
+      </c>
+      <c r="E8" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="47" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5206,31 +5219,31 @@
       <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
@@ -5252,19 +5265,19 @@
       <c r="A13" s="4">
         <v>0</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="43">
-        <v>1</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="43" t="s">
+      <c r="D13" s="47">
+        <v>1</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="47" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5272,49 +5285,49 @@
       <c r="A14" s="4">
         <v>1</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>3</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>4</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="43">
-        <v>1</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="43" t="s">
+      <c r="D17" s="47">
+        <v>1</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="47" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5322,31 +5335,31 @@
       <c r="A18" s="4">
         <v>5</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>6</v>
       </c>
-      <c r="B19" s="62"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>7</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
@@ -5368,19 +5381,19 @@
       <c r="A22" s="4">
         <v>0</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="43">
-        <v>1</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="43" t="s">
+      <c r="D22" s="47">
+        <v>1</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="47" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5388,49 +5401,49 @@
       <c r="A23" s="4">
         <v>1</v>
       </c>
-      <c r="B23" s="62"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>2</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>4</v>
       </c>
-      <c r="B26" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="43" t="s">
+      <c r="B26" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="E26" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="43" t="s">
+      <c r="E26" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="47" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5438,39 +5451,50 @@
       <c r="A27" s="4">
         <v>5</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>6</v>
       </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>7</v>
       </c>
-      <c r="B29" s="62"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -5487,22 +5511,11 @@
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="F4:F7"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5521,14 +5534,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="61" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
@@ -5554,17 +5567,17 @@
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="74" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="69"/>
+      <c r="C3" s="75"/>
       <c r="D3" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="74">
         <v>8</v>
       </c>
-      <c r="F3" s="69"/>
+      <c r="F3" s="75"/>
     </row>
     <row r="4" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -5740,23 +5753,23 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB32C13-F014-4BAD-8D29-14060EB92853}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F11" sqref="A1:F11"/>
+    <sheetView topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
-        <v>276</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="A1" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -5783,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C3" s="45"/>
       <c r="D3" s="22" t="s">
@@ -5798,19 +5811,19 @@
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="43">
-        <v>1</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="43" t="s">
+      <c r="D4" s="47">
+        <v>1</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="47" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5818,29 +5831,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="43">
-        <v>1</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="43" t="s">
+      <c r="D6" s="47">
+        <v>1</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="47" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5848,11 +5861,11 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
@@ -5915,27 +5928,246 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="33">
         <v>7</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="30">
         <v>0</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>18</v>
-      </c>
+      <c r="C11" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="88" t="s">
+        <v>295</v>
+      </c>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D5D82E-74E2-4723-8B23-97E8BE9DA0AB}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H12" sqref="A11:H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="45">
+        <v>8</v>
+      </c>
+      <c r="F3" s="45"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>0</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="47">
+        <v>1E-3</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="47">
+        <v>1E-3</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="55">
+        <v>7</v>
+      </c>
+      <c r="B11" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="C11" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="89">
+        <v>1</v>
+      </c>
+      <c r="E11" s="89" t="s">
+        <v>298</v>
+      </c>
+      <c r="F11" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="55"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -5949,6 +6181,12 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5956,27 +6194,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D5D82E-74E2-4723-8B23-97E8BE9DA0AB}">
-  <dimension ref="A1:F22"/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C0E048-0823-40A4-ACA6-C3E1EA2483CF}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F21" sqref="A1:F22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
-        <v>285</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="46" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
@@ -5996,12 +6234,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C3" s="45"/>
       <c r="D3" s="22" t="s">
@@ -6012,297 +6250,138 @@
       </c>
       <c r="F3" s="45"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>279</v>
-      </c>
-      <c r="C4" s="43" t="s">
+      <c r="B4" s="47" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="43">
-        <v>1E-3</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>278</v>
-      </c>
-      <c r="F4" s="43" t="s">
+      <c r="D4" s="47">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" s="47" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="C6" s="43" t="s">
+      <c r="B6" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="43">
-        <v>1E-3</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>278</v>
-      </c>
-      <c r="F6" s="43" t="s">
+      <c r="D6" s="47">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="F6" s="47" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="33">
         <v>6</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="55">
         <v>7</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-    </row>
-    <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="44" t="s">
-        <v>286</v>
-      </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-    </row>
-    <row r="13" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="B11" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="C11" s="89" t="s">
+        <v>297</v>
+      </c>
+      <c r="D11" s="89">
+        <v>1</v>
+      </c>
+      <c r="E11" s="89" t="s">
+        <v>298</v>
+      </c>
+      <c r="F11" s="89" t="s">
+        <v>299</v>
+      </c>
+      <c r="G11" s="4">
         <v>0</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" s="45">
-        <v>8</v>
-      </c>
-      <c r="F14" s="45"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>0</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>279</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="43">
-        <v>1E-3</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>278</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>1</v>
-      </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>2</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="43">
-        <v>1E-3</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>278</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>3</v>
-      </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>4</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>281</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="43">
-        <v>1E-3</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>278</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>5</v>
-      </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>6</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="43">
-        <v>1E-3</v>
-      </c>
-      <c r="E21" s="43" t="s">
-        <v>278</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>7</v>
-      </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="55"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>301</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
+  <mergeCells count="19">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -6316,393 +6395,12 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C0E048-0823-40A4-ACA6-C3E1EA2483CF}">
-  <dimension ref="A1:F22"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F21" sqref="A12:F22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
-        <v>289</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>287</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="45">
-        <v>8</v>
-      </c>
-      <c r="F3" s="45"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>0</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>279</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="43">
-        <v>1E-3</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>278</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>2</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="43">
-        <v>1E-3</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>278</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>3</v>
-      </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>4</v>
-      </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>5</v>
-      </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>6</v>
-      </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>7</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-    </row>
-    <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-    </row>
-    <row r="13" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>288</v>
-      </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" s="45">
-        <v>8</v>
-      </c>
-      <c r="F14" s="45"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>0</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>279</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="43">
-        <v>1E-3</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>278</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>1</v>
-      </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>2</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="43">
-        <v>1E-3</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>278</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>3</v>
-      </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>4</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>281</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="43">
-        <v>1E-3</v>
-      </c>
-      <c r="E19" s="43" t="s">
-        <v>278</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>5</v>
-      </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>6</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="43">
-        <v>1E-3</v>
-      </c>
-      <c r="E21" s="43" t="s">
-        <v>278</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>7</v>
-      </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-    </row>
-  </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6721,14 +6419,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -6770,19 +6468,19 @@
       <c r="A4" s="4">
         <v>0</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="43">
-        <v>1</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="43" t="s">
+      <c r="D4" s="47">
+        <v>1</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="47" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6790,29 +6488,29 @@
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="43">
-        <v>1</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="43" t="s">
+      <c r="D6" s="47">
+        <v>1</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="47" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6820,11 +6518,11 @@
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -6908,6 +6606,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -6916,11 +6619,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6944,14 +6642,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -6988,34 +6686,34 @@
         <v>8</v>
       </c>
       <c r="F3" s="45"/>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="54"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="51">
+      <c r="A4" s="55">
         <v>0</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="43">
-        <v>1</v>
-      </c>
-      <c r="E4" s="43" t="s">
+      <c r="D4" s="47">
+        <v>1</v>
+      </c>
+      <c r="E4" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="47" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="28" t="s">
@@ -7044,12 +6742,12 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
       <c r="G5" s="4">
         <v>0</v>
       </c>
@@ -7099,19 +6797,19 @@
       <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="47">
         <v>0.1</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="47" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7119,29 +6817,29 @@
       <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="47">
         <v>0.01</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="47" t="s">
         <v>44</v>
       </c>
     </row>
@@ -7149,29 +6847,29 @@
       <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>6</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="47">
         <v>0.01</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="47" t="s">
         <v>140</v>
       </c>
     </row>
@@ -7179,11 +6877,11 @@
       <c r="A12" s="5">
         <v>7</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
@@ -7202,22 +6900,22 @@
       <c r="F13" s="45"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="49">
+      <c r="A14" s="48">
         <v>0</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="43">
-        <v>1</v>
-      </c>
-      <c r="E14" s="43" t="s">
+      <c r="D14" s="47">
+        <v>1</v>
+      </c>
+      <c r="E14" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="47" t="s">
         <v>45</v>
       </c>
       <c r="G14" s="18" t="s">
@@ -7246,22 +6944,22 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
       <c r="G15" s="27">
         <v>0</v>
       </c>
       <c r="H15" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="I15" s="59" t="s">
+      <c r="I15" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="J15" s="59"/>
+      <c r="J15" s="50"/>
       <c r="K15" s="27" t="s">
         <v>144</v>
       </c>
@@ -7276,22 +6974,22 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="49">
-        <v>1</v>
-      </c>
-      <c r="B16" s="57" t="s">
+      <c r="A16" s="48">
+        <v>1</v>
+      </c>
+      <c r="B16" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="55" t="s">
+      <c r="D16" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="51" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="12" t="s">
@@ -7320,12 +7018,12 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="10" t="s">
         <v>96</v>
       </c>
@@ -7344,28 +7042,28 @@
       <c r="L17" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="M17" s="46" t="s">
+      <c r="M17" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="N17" s="47"/>
+      <c r="N17" s="60"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>2</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="47">
         <v>0.01</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="47" t="s">
         <v>142</v>
       </c>
     </row>
@@ -7373,29 +7071,29 @@
       <c r="A19" s="32">
         <v>3</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>4</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="43">
+      <c r="D20" s="47">
         <v>0.01</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="47" t="s">
         <v>142</v>
       </c>
     </row>
@@ -7403,29 +7101,29 @@
       <c r="A21" s="32">
         <v>5</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>6</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="47">
         <v>0.01</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="47" t="s">
         <v>221</v>
       </c>
     </row>
@@ -7433,11 +7131,11 @@
       <c r="A23" s="32">
         <v>7</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
@@ -7526,30 +7224,22 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G3:N3"/>
@@ -7566,22 +7256,30 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7603,14 +7301,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -7649,32 +7347,32 @@
       <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="51">
+      <c r="A4" s="55">
         <v>0</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="43">
-        <v>1</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="43" t="s">
+      <c r="D4" s="47">
+        <v>1</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="47" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
@@ -7700,19 +7398,19 @@
       <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="47">
         <v>0.1</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="47" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7720,29 +7418,29 @@
       <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="47">
         <v>0.01</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="47" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7750,29 +7448,29 @@
       <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>6</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="47">
         <v>0.01</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="47" t="s">
         <v>43</v>
       </c>
     </row>
@@ -7780,14 +7478,29 @@
       <c r="A12" s="5">
         <v>7</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -7797,21 +7510,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7823,7 +7521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1A9E13-87C1-4307-9B11-1AB0387C93D9}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="D25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
@@ -7836,14 +7534,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
@@ -7882,22 +7580,22 @@
       <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66">
+      <c r="A4" s="68">
         <v>0</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="43">
-        <v>1</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="43">
+      <c r="D4" s="47">
+        <v>1</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="47">
         <v>1</v>
       </c>
       <c r="G4" s="15" t="s">
@@ -7926,12 +7624,12 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
       <c r="G5" s="8">
         <v>0</v>
       </c>
@@ -7958,22 +7656,22 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="66">
-        <v>1</v>
-      </c>
-      <c r="B6" s="43" t="s">
+      <c r="A6" s="68">
+        <v>1</v>
+      </c>
+      <c r="B6" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="43">
-        <v>1</v>
-      </c>
-      <c r="E6" s="43" t="s">
+      <c r="D6" s="47">
+        <v>1</v>
+      </c>
+      <c r="E6" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="47">
         <v>1</v>
       </c>
       <c r="G6" s="12" t="s">
@@ -8002,12 +7700,12 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="67"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
       <c r="G7" s="10" t="s">
         <v>96</v>
       </c>
@@ -8026,28 +7724,28 @@
       <c r="L7" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="M7" s="46" t="s">
+      <c r="M7" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="N7" s="47"/>
+      <c r="N7" s="60"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="47">
         <v>0.1</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="47" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8055,29 +7753,29 @@
       <c r="A9" s="4">
         <v>3</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>4</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="47">
         <v>0.01</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="47" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8085,11 +7783,11 @@
       <c r="A11" s="4">
         <v>5</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
@@ -8130,16 +7828,16 @@
       <c r="F13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="63" t="s">
+      <c r="G13" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="65"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="67"/>
     </row>
     <row r="14" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
@@ -8161,19 +7859,19 @@
       <c r="A15" s="4">
         <v>0</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="47">
         <v>1E-3</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8181,29 +7879,29 @@
       <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="47">
         <v>1E-3</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="47" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8211,29 +7909,29 @@
       <c r="A18" s="4">
         <v>3</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>4</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="70" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="43">
+      <c r="D19" s="47">
         <v>1E-3</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="47" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8241,11 +7939,11 @@
       <c r="A20" s="4">
         <v>5</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
@@ -8286,26 +7984,26 @@
       <c r="F22" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="60" t="s">
+      <c r="G22" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
     </row>
     <row r="23" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
+      <c r="A23" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
     </row>
     <row r="24" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
@@ -8332,7 +8030,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C25" s="45"/>
       <c r="D25" s="22" t="s">
@@ -8347,19 +8045,19 @@
       <c r="A26" s="5">
         <v>0</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="43">
+      <c r="D26" s="47">
         <v>0.1</v>
       </c>
-      <c r="E26" s="43" t="s">
-        <v>293</v>
-      </c>
-      <c r="F26" s="43" t="s">
+      <c r="E26" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="F26" s="47" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8367,11 +8065,11 @@
       <c r="A27" s="5">
         <v>1</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
@@ -8387,7 +8085,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>29</v>
@@ -8407,7 +8105,7 @@
         <v>0.1</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>60</v>
@@ -8417,19 +8115,19 @@
       <c r="A30" s="5">
         <v>4</v>
       </c>
-      <c r="B30" s="43" t="s">
-        <v>294</v>
-      </c>
-      <c r="C30" s="43" t="s">
+      <c r="B30" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="C30" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="47">
         <v>1E-3</v>
       </c>
-      <c r="E30" s="43" t="s">
-        <v>278</v>
-      </c>
-      <c r="F30" s="43" t="s">
+      <c r="E30" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="F30" s="47" t="s">
         <v>170</v>
       </c>
     </row>
@@ -8437,29 +8135,29 @@
       <c r="A31" s="5">
         <v>5</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="49">
+      <c r="A32" s="48">
         <v>6</v>
       </c>
-      <c r="B32" s="83" t="s">
-        <v>296</v>
-      </c>
-      <c r="C32" s="55" t="s">
+      <c r="B32" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="C32" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="55">
-        <v>1</v>
-      </c>
-      <c r="E32" s="55" t="s">
-        <v>297</v>
-      </c>
-      <c r="F32" s="55">
+      <c r="D32" s="51">
+        <v>1</v>
+      </c>
+      <c r="E32" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="F32" s="51">
         <v>1</v>
       </c>
       <c r="G32" s="12" t="s">
@@ -8488,52 +8186,52 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="50"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="86" t="s">
+      <c r="A33" s="49"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="H33" s="86" t="s">
+      <c r="H33" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="I33" s="86" t="s">
+      <c r="I33" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="J33" s="86" t="s">
+      <c r="J33" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="K33" s="86" t="s">
+      <c r="K33" s="43" t="s">
         <v>103</v>
       </c>
       <c r="L33" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="M33" s="46" t="s">
+      <c r="M33" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="N33" s="47"/>
+      <c r="N33" s="60"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="49">
+      <c r="A34" s="48">
         <v>7</v>
       </c>
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="D34" s="55">
-        <v>1</v>
-      </c>
-      <c r="E34" s="55" t="s">
-        <v>298</v>
-      </c>
-      <c r="F34" s="55">
+      <c r="D34" s="51">
+        <v>1</v>
+      </c>
+      <c r="E34" s="51" t="s">
+        <v>291</v>
+      </c>
+      <c r="F34" s="51">
         <v>1</v>
       </c>
       <c r="G34" s="15" t="s">
@@ -8562,12 +8260,12 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="50"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
       <c r="G35" s="8">
         <v>0</v>
       </c>
@@ -8586,40 +8284,42 @@
       <c r="L35" s="8">
         <v>0</v>
       </c>
-      <c r="M35" s="85" t="s">
-        <v>300</v>
-      </c>
-      <c r="N35" s="85"/>
+      <c r="M35" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="N35" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G22:N22"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="G13:N13"/>
@@ -8636,35 +8336,33 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G22:N22"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B32:B33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8683,14 +8381,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -8732,19 +8430,19 @@
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="47">
         <v>1E-3</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="47" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8752,29 +8450,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="47">
         <v>1E-3</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="47" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8782,29 +8480,29 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="47">
         <v>1E-3</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="47" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8812,29 +8510,29 @@
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="47">
         <v>1E-3</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="47" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8842,11 +8540,11 @@
       <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
@@ -9026,14 +8724,13 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
@@ -9044,13 +8741,14 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9069,14 +8767,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -9118,19 +8816,19 @@
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="47">
         <v>1E-3</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="47" t="s">
         <v>60</v>
       </c>
     </row>
@@ -9138,29 +8836,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="47">
         <v>1E-3</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="47" t="s">
         <v>60</v>
       </c>
     </row>
@@ -9168,29 +8866,29 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="47">
         <v>1E-3</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="47" t="s">
         <v>60</v>
       </c>
     </row>
@@ -9198,29 +8896,29 @@
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="47">
         <v>1E-3</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="47" t="s">
         <v>60</v>
       </c>
     </row>
@@ -9228,14 +8926,29 @@
       <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -9244,21 +8957,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9282,23 +8980,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70" t="s">
+      <c r="I1" s="73"/>
+      <c r="J1" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="70"/>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
@@ -9320,10 +9018,10 @@
         <v>17</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="70">
+      <c r="H2" s="73">
         <v>0</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="73" t="s">
         <v>67</v>
       </c>
       <c r="J2" s="2">
@@ -9337,20 +9035,20 @@
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="74" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="69"/>
+      <c r="C3" s="75"/>
       <c r="D3" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="74">
         <v>8</v>
       </c>
-      <c r="F3" s="69"/>
+      <c r="F3" s="75"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
       <c r="J3" s="2">
         <v>1</v>
       </c>
@@ -9378,8 +9076,8 @@
         <v>1</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
       <c r="J4" s="2">
         <v>2</v>
       </c>
@@ -9407,10 +9105,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="70">
-        <v>1</v>
-      </c>
-      <c r="I5" s="70" t="s">
+      <c r="H5" s="73">
+        <v>1</v>
+      </c>
+      <c r="I5" s="73" t="s">
         <v>69</v>
       </c>
       <c r="J5" s="2">
@@ -9440,8 +9138,8 @@
         <v>138</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
       <c r="J6" s="2">
         <v>1</v>
       </c>
@@ -9469,8 +9167,8 @@
         <v>138</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
       <c r="J7" s="2">
         <v>2</v>
       </c>
@@ -9498,10 +9196,10 @@
         <v>138</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="70">
+      <c r="H8" s="73">
         <v>2</v>
       </c>
-      <c r="I8" s="70" t="s">
+      <c r="I8" s="73" t="s">
         <v>68</v>
       </c>
       <c r="J8" s="2">
@@ -9531,8 +9229,8 @@
         <v>138</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="2">
         <v>1</v>
       </c>
@@ -9560,8 +9258,8 @@
         <v>138</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
       <c r="J10" s="2">
         <v>2</v>
       </c>
@@ -9589,8 +9287,8 @@
         <v>138</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
       <c r="J11" s="2">
         <v>3</v>
       </c>
@@ -9600,10 +9298,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G12" s="3"/>
-      <c r="H12" s="70">
+      <c r="H12" s="73">
         <v>3</v>
       </c>
-      <c r="I12" s="70" t="s">
+      <c r="I12" s="73" t="s">
         <v>70</v>
       </c>
       <c r="J12" s="2">
@@ -9615,8 +9313,8 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G13" s="3"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
       <c r="J13" s="2">
         <v>1</v>
       </c>
@@ -9626,8 +9324,8 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G14" s="3"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
       <c r="J14" s="2">
         <v>2</v>
       </c>
@@ -9637,8 +9335,8 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G15" s="3"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
       <c r="J15" s="2">
         <v>3</v>
       </c>
@@ -9648,8 +9346,8 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G16" s="3"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
       <c r="J16" s="2">
         <v>4</v>
       </c>
@@ -9659,6 +9357,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I8:I11"/>
     <mergeCell ref="H12:H16"/>
     <mergeCell ref="I12:I16"/>
     <mergeCell ref="H1:I1"/>
@@ -9667,11 +9370,6 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="I5:I7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="I8:I11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9719,30 +9417,30 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="74" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="69"/>
+      <c r="C3" s="75"/>
       <c r="D3" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="74">
         <v>8</v>
       </c>
-      <c r="F3" s="69"/>
+      <c r="F3" s="75"/>
     </row>
     <row r="4" spans="1:22" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
@@ -9763,7 +9461,7 @@
       <c r="F4" s="19">
         <v>1</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="73" t="s">
         <v>198</v>
       </c>
       <c r="I4" s="37" t="s">
@@ -9792,7 +9490,7 @@
       <c r="F5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="70"/>
+      <c r="H5" s="73"/>
       <c r="I5" s="37" t="s">
         <v>260</v>
       </c>
@@ -9819,7 +9517,7 @@
       <c r="F6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="70"/>
+      <c r="H6" s="73"/>
       <c r="I6" s="37" t="s">
         <v>233</v>
       </c>
@@ -9852,7 +9550,7 @@
       <c r="F7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="70"/>
+      <c r="H7" s="73"/>
       <c r="I7" s="37" t="s">
         <v>234</v>
       </c>
@@ -9879,7 +9577,7 @@
       <c r="F8" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="70"/>
+      <c r="H8" s="73"/>
       <c r="I8" s="37" t="s">
         <v>240</v>
       </c>
@@ -9957,17 +9655,17 @@
       <c r="A12" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="C12" s="69"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="74">
         <v>8</v>
       </c>
-      <c r="F12" s="69"/>
+      <c r="F12" s="75"/>
       <c r="G12" s="3"/>
       <c r="H12" s="2" t="s">
         <v>66</v>
@@ -9994,7 +9692,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="70">
+      <c r="H13" s="73">
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
@@ -10025,8 +9723,8 @@
         <v>1</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70" t="s">
+      <c r="H14" s="73"/>
+      <c r="I14" s="73" t="s">
         <v>67</v>
       </c>
       <c r="J14" s="2">
@@ -10056,8 +9754,8 @@
         <v>138</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
       <c r="J15" s="2">
         <v>1</v>
       </c>
@@ -10085,10 +9783,10 @@
         <v>138</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="70">
-        <v>1</v>
-      </c>
-      <c r="I16" s="70"/>
+      <c r="H16" s="73">
+        <v>1</v>
+      </c>
+      <c r="I16" s="73"/>
       <c r="J16" s="2">
         <v>2</v>
       </c>
@@ -10116,8 +9814,8 @@
         <v>138</v>
       </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70" t="s">
+      <c r="H17" s="73"/>
+      <c r="I17" s="73" t="s">
         <v>69</v>
       </c>
       <c r="J17" s="2">
@@ -10147,8 +9845,8 @@
         <v>138</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
       <c r="J18" s="2">
         <v>1</v>
       </c>
@@ -10176,10 +9874,10 @@
         <v>138</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="70">
+      <c r="H19" s="73">
         <v>2</v>
       </c>
-      <c r="I19" s="70"/>
+      <c r="I19" s="73"/>
       <c r="J19" s="2">
         <v>2</v>
       </c>
@@ -10207,8 +9905,8 @@
         <v>138</v>
       </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70" t="s">
+      <c r="H20" s="73"/>
+      <c r="I20" s="73" t="s">
         <v>68</v>
       </c>
       <c r="J20" s="2">
@@ -10219,17 +9917,17 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="61" t="s">
         <v>239</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
       <c r="J21" s="2">
         <v>1</v>
       </c>
@@ -10241,20 +9939,20 @@
       <c r="A22" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="68" t="s">
+      <c r="B22" s="74" t="s">
         <v>238</v>
       </c>
-      <c r="C22" s="69"/>
+      <c r="C22" s="75"/>
       <c r="D22" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="68">
+      <c r="E22" s="74">
         <v>8</v>
       </c>
-      <c r="F22" s="69"/>
+      <c r="F22" s="75"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
       <c r="J22" s="2">
         <v>2</v>
       </c>
@@ -10282,10 +9980,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="70">
+      <c r="H23" s="73">
         <v>3</v>
       </c>
-      <c r="I23" s="70"/>
+      <c r="I23" s="73"/>
       <c r="J23" s="2">
         <v>3</v>
       </c>
@@ -10313,8 +10011,8 @@
         <v>18</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70" t="s">
+      <c r="H24" s="73"/>
+      <c r="I24" s="73" t="s">
         <v>70</v>
       </c>
       <c r="J24" s="2">
@@ -10344,8 +10042,8 @@
         <v>18</v>
       </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
       <c r="J25" s="2">
         <v>1</v>
       </c>
@@ -10373,8 +10071,8 @@
         <v>18</v>
       </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
       <c r="J26" s="2">
         <v>2</v>
       </c>
@@ -10402,8 +10100,8 @@
         <v>18</v>
       </c>
       <c r="G27" s="3"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
       <c r="J27" s="2">
         <v>3</v>
       </c>
@@ -10430,7 +10128,7 @@
       <c r="F28" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="70"/>
+      <c r="I28" s="73"/>
       <c r="J28" s="2">
         <v>4</v>
       </c>
@@ -10476,13 +10174,13 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="71" t="s">
+      <c r="A31" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="B31" s="73" t="s">
+      <c r="B31" s="78" t="s">
         <v>253</v>
       </c>
-      <c r="C31" s="74"/>
+      <c r="C31" s="79"/>
       <c r="D31" s="39" t="s">
         <v>245</v>
       </c>
@@ -10490,11 +10188,11 @@
       <c r="F31" s="38"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="72"/>
-      <c r="B32" s="75" t="s">
+      <c r="A32" s="77"/>
+      <c r="B32" s="80" t="s">
         <v>251</v>
       </c>
-      <c r="C32" s="76"/>
+      <c r="C32" s="81"/>
       <c r="D32" s="40" t="s">
         <v>246</v>
       </c>
@@ -10502,11 +10200,11 @@
       <c r="F32" s="38"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="72"/>
-      <c r="B33" s="75" t="s">
+      <c r="A33" s="77"/>
+      <c r="B33" s="80" t="s">
         <v>252</v>
       </c>
-      <c r="C33" s="76"/>
+      <c r="C33" s="81"/>
       <c r="D33" s="40" t="s">
         <v>250</v>
       </c>
@@ -10514,11 +10212,11 @@
       <c r="F33" s="38"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="72"/>
-      <c r="B34" s="77" t="s">
+      <c r="A34" s="77"/>
+      <c r="B34" s="82" t="s">
         <v>248</v>
       </c>
-      <c r="C34" s="78"/>
+      <c r="C34" s="83"/>
       <c r="D34" s="41" t="s">
         <v>247</v>
       </c>
@@ -10526,11 +10224,11 @@
       <c r="F34" s="38"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="72"/>
-      <c r="B35" s="77" t="s">
+      <c r="A35" s="77"/>
+      <c r="B35" s="82" t="s">
         <v>255</v>
       </c>
-      <c r="C35" s="78"/>
+      <c r="C35" s="83"/>
       <c r="D35" s="41" t="s">
         <v>254</v>
       </c>
@@ -10538,11 +10236,11 @@
       <c r="F35" s="38"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="72"/>
-      <c r="B36" s="79" t="s">
+      <c r="A36" s="77"/>
+      <c r="B36" s="84" t="s">
         <v>256</v>
       </c>
-      <c r="C36" s="80"/>
+      <c r="C36" s="85"/>
       <c r="D36" s="42" t="s">
         <v>249</v>
       </c>
@@ -10551,19 +10249,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H19:H22"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="B12:C12"/>
@@ -10575,6 +10260,19 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="H4:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/Protocol/CAN总线协议.xlsx
+++ b/Doc/Protocol/CAN总线协议.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA79D6F-6142-47B3-8510-709BFAC16E53}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C895E3B0-A74A-4264-BE36-F74579C5D4A2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="303">
   <si>
     <t>字节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1220,11 +1220,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>坐标无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐标有效</t>
+    <t>盲区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>噪声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超探测范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1974,34 +1978,28 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="10" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="11" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="11" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="21" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
@@ -2016,23 +2014,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="21" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="13" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2049,16 +2053,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="13" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="11" applyBorder="1" applyAlignment="1">
@@ -2066,6 +2067,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2449,35 +2453,35 @@
       <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="47">
         <v>8</v>
       </c>
-      <c r="F3" s="45"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="47">
-        <v>1</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="47" t="s">
+      <c r="D4" s="45">
+        <v>1</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="45" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2485,29 +2489,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="47">
-        <v>1</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="47" t="s">
+      <c r="D6" s="45">
+        <v>1</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="45" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2515,11 +2519,11 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
@@ -2635,35 +2639,35 @@
       <c r="A14" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="45"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="47">
         <v>8</v>
       </c>
-      <c r="F14" s="45"/>
+      <c r="F14" s="47"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>0</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="45">
         <v>0.01</v>
       </c>
-      <c r="E15" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="47" t="s">
+      <c r="E15" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="45" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2671,29 +2675,29 @@
       <c r="A16" s="5">
         <v>1</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="45">
         <v>0.01</v>
       </c>
-      <c r="E17" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="47" t="s">
+      <c r="E17" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="45" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2701,11 +2705,11 @@
       <c r="A18" s="5">
         <v>3</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
@@ -2789,11 +2793,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="E14:F14"/>
@@ -2802,19 +2814,11 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2853,48 +2857,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="47">
         <v>8</v>
       </c>
-      <c r="F3" s="45"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="45">
         <v>0.01</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="45" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2902,29 +2906,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="45">
         <v>0.01</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="45" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2932,29 +2936,29 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="45">
         <v>0.01</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="45" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2962,26 +2966,26 @@
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="48">
+      <c r="A10" s="51">
         <v>6</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="D10" s="51">
-        <v>1</v>
-      </c>
-      <c r="E10" s="51" t="s">
+      <c r="D10" s="57">
+        <v>1</v>
+      </c>
+      <c r="E10" s="57" t="s">
         <v>208</v>
       </c>
       <c r="F10" s="86">
@@ -3001,11 +3005,11 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="87"/>
       <c r="G11" s="35" t="s">
         <v>210</v>
@@ -3031,48 +3035,48 @@
       <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="45"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="47">
         <v>8</v>
       </c>
-      <c r="F14" s="45"/>
+      <c r="F14" s="47"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>0</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="45">
         <v>1E-3</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="45" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3080,29 +3084,29 @@
       <c r="A16" s="5">
         <v>1</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="45">
         <v>1E-3</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="45" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3110,29 +3114,29 @@
       <c r="A18" s="5">
         <v>3</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>4</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="45">
         <v>1E-3</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="45" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3140,29 +3144,29 @@
       <c r="A20" s="5">
         <v>5</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>6</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="47">
+      <c r="D21" s="45">
         <v>1E-3</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="45" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3170,21 +3174,21 @@
       <c r="A22" s="5">
         <v>7</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
     </row>
     <row r="23" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
@@ -3210,35 +3214,35 @@
       <c r="A25" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="C25" s="45"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E25" s="47">
         <v>8</v>
       </c>
-      <c r="F25" s="45"/>
+      <c r="F25" s="47"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>0</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="47">
+      <c r="D26" s="45">
         <v>0.01</v>
       </c>
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="F26" s="47" t="s">
+      <c r="F26" s="45" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3246,29 +3250,29 @@
       <c r="A27" s="5">
         <v>1</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>2</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C28" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="47">
+      <c r="D28" s="45">
         <v>0.01</v>
       </c>
-      <c r="E28" s="47" t="s">
+      <c r="E28" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="F28" s="47" t="s">
+      <c r="F28" s="45" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3276,29 +3280,29 @@
       <c r="A29" s="5">
         <v>3</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>4</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="47">
+      <c r="D30" s="45">
         <v>0.01</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="45" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3306,29 +3310,29 @@
       <c r="A31" s="5">
         <v>5</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>6</v>
       </c>
-      <c r="B32" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="47" t="s">
+      <c r="B32" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="45" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3336,55 +3340,55 @@
       <c r="A33" s="5">
         <v>7</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
     </row>
     <row r="34" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="C35" s="45"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E35" s="45">
+      <c r="E35" s="47">
         <v>8</v>
       </c>
-      <c r="F35" s="45"/>
+      <c r="F35" s="47"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>0</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="47">
+      <c r="D36" s="45">
         <v>0.01</v>
       </c>
-      <c r="E36" s="47" t="s">
+      <c r="E36" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="F36" s="47" t="s">
+      <c r="F36" s="45" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3392,29 +3396,29 @@
       <c r="A37" s="5">
         <v>1</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>2</v>
       </c>
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="47">
+      <c r="D38" s="45">
         <v>0.01</v>
       </c>
-      <c r="E38" s="47" t="s">
+      <c r="E38" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="F38" s="47" t="s">
+      <c r="F38" s="45" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3422,29 +3426,29 @@
       <c r="A39" s="5">
         <v>3</v>
       </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>4</v>
       </c>
-      <c r="B40" s="47" t="s">
+      <c r="B40" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="47" t="s">
+      <c r="C40" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="47">
+      <c r="D40" s="45">
         <v>0.01</v>
       </c>
-      <c r="E40" s="47" t="s">
+      <c r="E40" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="F40" s="47" t="s">
+      <c r="F40" s="45" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3452,11 +3456,11 @@
       <c r="A41" s="5">
         <v>5</v>
       </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
@@ -3499,48 +3503,48 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="61" t="s">
+      <c r="A44" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="C45" s="45"/>
+      <c r="C45" s="47"/>
       <c r="D45" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E45" s="45">
+      <c r="E45" s="47">
         <v>8</v>
       </c>
-      <c r="F45" s="45"/>
+      <c r="F45" s="47"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>0</v>
       </c>
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="C46" s="47" t="s">
+      <c r="C46" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="47">
+      <c r="D46" s="45">
         <v>0.01</v>
       </c>
-      <c r="E46" s="47" t="s">
+      <c r="E46" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="F46" s="47" t="s">
+      <c r="F46" s="45" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3548,29 +3552,29 @@
       <c r="A47" s="5">
         <v>1</v>
       </c>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>2</v>
       </c>
-      <c r="B48" s="47" t="s">
+      <c r="B48" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="C48" s="47" t="s">
+      <c r="C48" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="47">
+      <c r="D48" s="45">
         <v>0.01</v>
       </c>
-      <c r="E48" s="47" t="s">
+      <c r="E48" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="F48" s="47" t="s">
+      <c r="F48" s="45" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3578,29 +3582,29 @@
       <c r="A49" s="5">
         <v>3</v>
       </c>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>4</v>
       </c>
-      <c r="B50" s="47" t="s">
+      <c r="B50" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="C50" s="47" t="s">
+      <c r="C50" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="47">
+      <c r="D50" s="45">
         <v>0.01</v>
       </c>
-      <c r="E50" s="47" t="s">
+      <c r="E50" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="F50" s="47" t="s">
+      <c r="F50" s="45" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3608,11 +3612,11 @@
       <c r="A51" s="5">
         <v>5</v>
       </c>
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
@@ -3655,48 +3659,48 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="61" t="s">
+      <c r="A54" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="B54" s="61"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="C55" s="45"/>
+      <c r="C55" s="47"/>
       <c r="D55" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E55" s="45">
+      <c r="E55" s="47">
         <v>8</v>
       </c>
-      <c r="F55" s="45"/>
+      <c r="F55" s="47"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>0</v>
       </c>
-      <c r="B56" s="47" t="s">
+      <c r="B56" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="C56" s="47" t="s">
+      <c r="C56" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="47">
+      <c r="D56" s="45">
         <v>0.01</v>
       </c>
-      <c r="E56" s="47" t="s">
+      <c r="E56" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="F56" s="47" t="s">
+      <c r="F56" s="45" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3704,29 +3708,29 @@
       <c r="A57" s="5">
         <v>1</v>
       </c>
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>2</v>
       </c>
-      <c r="B58" s="47" t="s">
+      <c r="B58" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="C58" s="47" t="s">
+      <c r="C58" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="47">
+      <c r="D58" s="45">
         <v>0.01</v>
       </c>
-      <c r="E58" s="47" t="s">
+      <c r="E58" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="F58" s="47" t="s">
+      <c r="F58" s="45" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3734,29 +3738,29 @@
       <c r="A59" s="5">
         <v>3</v>
       </c>
-      <c r="B59" s="47"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>4</v>
       </c>
-      <c r="B60" s="47" t="s">
+      <c r="B60" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="C60" s="47" t="s">
+      <c r="C60" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="47">
+      <c r="D60" s="45">
         <v>0.01</v>
       </c>
-      <c r="E60" s="47" t="s">
+      <c r="E60" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="F60" s="47" t="s">
+      <c r="F60" s="45" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3764,11 +3768,11 @@
       <c r="A61" s="5">
         <v>5</v>
       </c>
-      <c r="B61" s="47"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
@@ -3811,48 +3815,48 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="61" t="s">
+      <c r="A64" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="B64" s="61"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="45" t="s">
+      <c r="B65" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="C65" s="45"/>
+      <c r="C65" s="47"/>
       <c r="D65" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E65" s="45">
+      <c r="E65" s="47">
         <v>8</v>
       </c>
-      <c r="F65" s="45"/>
+      <c r="F65" s="47"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>0</v>
       </c>
-      <c r="B66" s="47" t="s">
+      <c r="B66" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="C66" s="47" t="s">
+      <c r="C66" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="47">
+      <c r="D66" s="45">
         <v>0.01</v>
       </c>
-      <c r="E66" s="47" t="s">
+      <c r="E66" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="F66" s="47" t="s">
+      <c r="F66" s="45" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3860,29 +3864,29 @@
       <c r="A67" s="5">
         <v>1</v>
       </c>
-      <c r="B67" s="47"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>2</v>
       </c>
-      <c r="B68" s="47" t="s">
+      <c r="B68" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="C68" s="47" t="s">
+      <c r="C68" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="47">
+      <c r="D68" s="45">
         <v>0.01</v>
       </c>
-      <c r="E68" s="47" t="s">
+      <c r="E68" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="F68" s="47" t="s">
+      <c r="F68" s="45" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3890,29 +3894,29 @@
       <c r="A69" s="5">
         <v>3</v>
       </c>
-      <c r="B69" s="47"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>4</v>
       </c>
-      <c r="B70" s="47" t="s">
+      <c r="B70" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="C70" s="47" t="s">
+      <c r="C70" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="47">
+      <c r="D70" s="45">
         <v>0.1</v>
       </c>
-      <c r="E70" s="47" t="s">
+      <c r="E70" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="F70" s="47" t="s">
+      <c r="F70" s="45" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3920,11 +3924,11 @@
       <c r="A71" s="5">
         <v>5</v>
       </c>
-      <c r="B71" s="47"/>
-      <c r="C71" s="47"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="47"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="45"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
@@ -3957,48 +3961,48 @@
       <c r="F73" s="19"/>
     </row>
     <row r="74" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="61" t="s">
+      <c r="A74" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="B74" s="61"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="61"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="50"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="45" t="s">
+      <c r="B75" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="C75" s="45"/>
+      <c r="C75" s="47"/>
       <c r="D75" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E75" s="45">
+      <c r="E75" s="47">
         <v>8</v>
       </c>
-      <c r="F75" s="45"/>
+      <c r="F75" s="47"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>0</v>
       </c>
-      <c r="B76" s="47" t="s">
+      <c r="B76" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="C76" s="47" t="s">
+      <c r="C76" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D76" s="47">
+      <c r="D76" s="45">
         <v>0.01</v>
       </c>
-      <c r="E76" s="47" t="s">
+      <c r="E76" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="F76" s="47" t="s">
+      <c r="F76" s="45" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4006,29 +4010,29 @@
       <c r="A77" s="5">
         <v>1</v>
       </c>
-      <c r="B77" s="47"/>
-      <c r="C77" s="47"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="47"/>
-      <c r="F77" s="47"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="45"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>2</v>
       </c>
-      <c r="B78" s="47" t="s">
+      <c r="B78" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="C78" s="47" t="s">
+      <c r="C78" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="47">
+      <c r="D78" s="45">
         <v>0.01</v>
       </c>
-      <c r="E78" s="47" t="s">
+      <c r="E78" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="F78" s="47" t="s">
+      <c r="F78" s="45" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4036,31 +4040,31 @@
       <c r="A79" s="5">
         <v>3</v>
       </c>
-      <c r="B79" s="47"/>
-      <c r="C79" s="47"/>
-      <c r="D79" s="47"/>
-      <c r="E79" s="47"/>
-      <c r="F79" s="47"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="45"/>
+      <c r="F79" s="45"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>4</v>
       </c>
-      <c r="B80" s="47"/>
-      <c r="C80" s="47"/>
-      <c r="D80" s="47"/>
-      <c r="E80" s="47"/>
-      <c r="F80" s="47"/>
+      <c r="B80" s="45"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="45"/>
+      <c r="F80" s="45"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>5</v>
       </c>
-      <c r="B81" s="47"/>
-      <c r="C81" s="47"/>
-      <c r="D81" s="47"/>
-      <c r="E81" s="47"/>
-      <c r="F81" s="47"/>
+      <c r="B81" s="45"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="45"/>
+      <c r="E81" s="45"/>
+      <c r="F81" s="45"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
@@ -4083,30 +4087,30 @@
       <c r="F83" s="19"/>
     </row>
     <row r="84" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="61" t="s">
+      <c r="A84" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="B84" s="61"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61"/>
+      <c r="B84" s="50"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="50"/>
+      <c r="E84" s="50"/>
+      <c r="F84" s="50"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="45" t="s">
+      <c r="B85" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="C85" s="45"/>
+      <c r="C85" s="47"/>
       <c r="D85" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E85" s="45">
+      <c r="E85" s="47">
         <v>8</v>
       </c>
-      <c r="F85" s="45"/>
+      <c r="F85" s="47"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
@@ -4202,17 +4206,17 @@
       <c r="A94" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B94" s="74" t="s">
+      <c r="B94" s="73" t="s">
         <v>232</v>
       </c>
-      <c r="C94" s="75"/>
+      <c r="C94" s="74"/>
       <c r="D94" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E94" s="74">
+      <c r="E94" s="73">
         <v>8</v>
       </c>
-      <c r="F94" s="75"/>
+      <c r="F94" s="74"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
@@ -4306,6 +4310,147 @@
     </row>
   </sheetData>
   <mergeCells count="165">
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
     <mergeCell ref="B94:C94"/>
     <mergeCell ref="E94:F94"/>
     <mergeCell ref="A84:F84"/>
@@ -4330,147 +4475,6 @@
     <mergeCell ref="E76:E77"/>
     <mergeCell ref="F76:F77"/>
     <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4512,48 +4516,48 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="47">
         <v>8</v>
       </c>
-      <c r="F3" s="45"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="45">
         <v>0.01</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="45" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4561,29 +4565,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="45">
         <v>0.01</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="45" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4591,29 +4595,29 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="45">
         <v>0.01</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="45" t="s">
         <v>275</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="45" t="s">
         <v>274</v>
       </c>
     </row>
@@ -4621,29 +4625,29 @@
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="45">
         <v>0.01</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="45" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4651,55 +4655,55 @@
       <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="C13" s="45"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="47">
         <v>8</v>
       </c>
-      <c r="F13" s="45"/>
+      <c r="F13" s="47"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>0</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="45">
         <v>1E-3</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="45" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4707,29 +4711,29 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="45">
         <v>1E-3</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="45" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4737,29 +4741,29 @@
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D18" s="45">
         <v>1E-3</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="45" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4767,29 +4771,29 @@
       <c r="A19" s="5">
         <v>5</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>6</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="45">
         <v>1E-3</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="F20" s="47" t="s">
+      <c r="F20" s="45" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4797,19 +4801,39 @@
       <c r="A21" s="5">
         <v>7</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="B20:B21"/>
@@ -4826,31 +4850,11 @@
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4869,14 +4873,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
@@ -4902,17 +4906,17 @@
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="75"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="74">
+      <c r="E3" s="73">
         <v>8</v>
       </c>
-      <c r="F3" s="75"/>
+      <c r="F3" s="74"/>
     </row>
     <row r="4" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -5100,14 +5104,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -5133,35 +5137,35 @@
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="47">
         <v>8</v>
       </c>
-      <c r="F3" s="45"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>0</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="47">
-        <v>1</v>
-      </c>
-      <c r="E4" s="47" t="s">
+      <c r="D4" s="45">
+        <v>1</v>
+      </c>
+      <c r="E4" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="45" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5169,49 +5173,49 @@
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="47">
-        <v>1</v>
-      </c>
-      <c r="E8" s="47" t="s">
+      <c r="D8" s="45">
+        <v>1</v>
+      </c>
+      <c r="E8" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="45" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5219,65 +5223,65 @@
       <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="C12" s="45"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="47">
         <v>8</v>
       </c>
-      <c r="F12" s="45"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>0</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="47">
-        <v>1</v>
-      </c>
-      <c r="E13" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="47" t="s">
+      <c r="D13" s="45">
+        <v>1</v>
+      </c>
+      <c r="E13" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="45" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5285,49 +5289,49 @@
       <c r="A14" s="4">
         <v>1</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>3</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>4</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="47">
-        <v>1</v>
-      </c>
-      <c r="E17" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="47" t="s">
+      <c r="D17" s="45">
+        <v>1</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="45" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5335,65 +5339,65 @@
       <c r="A18" s="4">
         <v>5</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>6</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>7</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="45"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E21" s="45">
+      <c r="E21" s="47">
         <v>8</v>
       </c>
-      <c r="F21" s="45"/>
+      <c r="F21" s="47"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>0</v>
       </c>
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="47">
-        <v>1</v>
-      </c>
-      <c r="E22" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="47" t="s">
+      <c r="D22" s="45">
+        <v>1</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="45" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5401,49 +5405,49 @@
       <c r="A23" s="4">
         <v>1</v>
       </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>2</v>
       </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="70"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>4</v>
       </c>
-      <c r="B26" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="47" t="s">
+      <c r="B26" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="E26" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="47" t="s">
+      <c r="E26" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="45" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5451,50 +5455,39 @@
       <c r="A27" s="4">
         <v>5</v>
       </c>
-      <c r="B27" s="70"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>6</v>
       </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>7</v>
       </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -5511,11 +5504,22 @@
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="F4:F7"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5534,14 +5538,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
@@ -5567,17 +5571,17 @@
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="73" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="75"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="74">
+      <c r="E3" s="73">
         <v>8</v>
       </c>
-      <c r="F3" s="75"/>
+      <c r="F3" s="74"/>
     </row>
     <row r="4" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -5755,7 +5759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB32C13-F014-4BAD-8D29-14060EB92853}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:F12"/>
     </sheetView>
   </sheetViews>
@@ -5795,35 +5799,35 @@
       <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="47">
         <v>8</v>
       </c>
-      <c r="F3" s="45"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="47">
-        <v>1</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="47" t="s">
+      <c r="D4" s="45">
+        <v>1</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="45" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5831,29 +5835,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="47">
-        <v>1</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="47" t="s">
+      <c r="D6" s="45">
+        <v>1</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="45" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5861,11 +5865,11 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
@@ -5959,7 +5963,236 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="A12:F12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D5D82E-74E2-4723-8B23-97E8BE9DA0AB}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="46" t="s">
+        <v>281</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="47">
+        <v>8</v>
+      </c>
+      <c r="F3" s="47"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>0</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="45">
+        <v>1E-3</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="45">
+        <v>1E-3</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>5</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>6</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="53">
+        <v>7</v>
+      </c>
+      <c r="B11" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="C11" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="89">
+        <v>1</v>
+      </c>
+      <c r="E11" s="89" t="s">
+        <v>298</v>
+      </c>
+      <c r="F11" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2</v>
+      </c>
+      <c r="J11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="53"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
@@ -5980,19 +6213,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D5D82E-74E2-4723-8B23-97E8BE9DA0AB}">
-  <dimension ref="A1:H12"/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C0E048-0823-40A4-ACA6-C3E1EA2483CF}">
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H12" sqref="A11:H12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="46" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="46"/>
@@ -6000,7 +6236,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
     </row>
-    <row r="2" spans="1:8" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
@@ -6020,83 +6256,83 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="C3" s="45"/>
+      <c r="B3" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" s="47"/>
       <c r="D3" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="47">
         <v>8</v>
       </c>
-      <c r="F3" s="45"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F3" s="47"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="47">
-        <v>1E-3</v>
-      </c>
-      <c r="E4" s="47" t="s">
+      <c r="D4" s="45">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="45" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="45" t="s">
         <v>279</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="47">
-        <v>1E-3</v>
-      </c>
-      <c r="E6" s="47" t="s">
+      <c r="D6" s="45">
+        <v>0.01</v>
+      </c>
+      <c r="E6" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="45" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -6106,7 +6342,7 @@
       <c r="E8" s="36"/>
       <c r="F8" s="36"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -6116,25 +6352,25 @@
       <c r="E9" s="36"/>
       <c r="F9" s="36"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="33">
         <v>6</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="55">
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="53">
         <v>7</v>
       </c>
       <c r="B11" s="89" t="s">
         <v>296</v>
       </c>
       <c r="C11" s="89" t="s">
-        <v>113</v>
+        <v>297</v>
       </c>
       <c r="D11" s="89">
         <v>1</v>
@@ -6143,7 +6379,7 @@
         <v>298</v>
       </c>
       <c r="F11" s="89" t="s">
-        <v>18</v>
+        <v>299</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -6151,23 +6387,46 @@
       <c r="H11" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
+      <c r="I11" s="4">
+        <v>2</v>
+      </c>
+      <c r="J11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="53"/>
       <c r="B12" s="89"/>
       <c r="C12" s="89"/>
       <c r="D12" s="89"/>
       <c r="E12" s="89"/>
       <c r="F12" s="89"/>
       <c r="G12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>301</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -6176,231 +6435,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C0E048-0823-40A4-ACA6-C3E1EA2483CF}">
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="46" t="s">
-        <v>283</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>282</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="45">
-        <v>8</v>
-      </c>
-      <c r="F3" s="45"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>0</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="47">
-        <v>0.01</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>277</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>2</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="47">
-        <v>0.01</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>277</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>3</v>
-      </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>4</v>
-      </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>5</v>
-      </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="33">
-        <v>6</v>
-      </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="55">
-        <v>7</v>
-      </c>
-      <c r="B11" s="89" t="s">
-        <v>296</v>
-      </c>
-      <c r="C11" s="89" t="s">
-        <v>297</v>
-      </c>
-      <c r="D11" s="89">
-        <v>1</v>
-      </c>
-      <c r="E11" s="89" t="s">
-        <v>298</v>
-      </c>
-      <c r="F11" s="89" t="s">
-        <v>299</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6452,35 +6486,35 @@
       <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="47">
         <v>8</v>
       </c>
-      <c r="F3" s="45"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>0</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="47">
-        <v>1</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="47" t="s">
+      <c r="D4" s="45">
+        <v>1</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="45" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6488,29 +6522,29 @@
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="47">
-        <v>1</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="47" t="s">
+      <c r="D6" s="45">
+        <v>1</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="45" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6518,11 +6552,11 @@
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -6606,11 +6640,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -6619,6 +6648,11 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6642,14 +6676,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -6675,45 +6709,45 @@
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="47">
         <v>8</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="56" t="s">
+      <c r="F3" s="47"/>
+      <c r="G3" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="56"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="55">
+      <c r="A4" s="53">
         <v>0</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="47">
-        <v>1</v>
-      </c>
-      <c r="E4" s="47" t="s">
+      <c r="D4" s="45">
+        <v>1</v>
+      </c>
+      <c r="E4" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="45" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="28" t="s">
@@ -6742,12 +6776,12 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="55"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
       <c r="G5" s="4">
         <v>0</v>
       </c>
@@ -6797,19 +6831,19 @@
       <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="45">
         <v>0.1</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="45" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6817,29 +6851,29 @@
       <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="45">
         <v>0.01</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="45" t="s">
         <v>44</v>
       </c>
     </row>
@@ -6847,29 +6881,29 @@
       <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>6</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="45">
         <v>0.01</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="45" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6877,45 +6911,45 @@
       <c r="A12" s="5">
         <v>7</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="C13" s="45"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="47">
         <v>8</v>
       </c>
-      <c r="F13" s="45"/>
+      <c r="F13" s="47"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="48">
+      <c r="A14" s="51">
         <v>0</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="47">
-        <v>1</v>
-      </c>
-      <c r="E14" s="47" t="s">
+      <c r="D14" s="45">
+        <v>1</v>
+      </c>
+      <c r="E14" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="45" t="s">
         <v>45</v>
       </c>
       <c r="G14" s="18" t="s">
@@ -6944,22 +6978,22 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="27">
         <v>0</v>
       </c>
       <c r="H15" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="I15" s="50" t="s">
+      <c r="I15" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="J15" s="50"/>
+      <c r="J15" s="61"/>
       <c r="K15" s="27" t="s">
         <v>144</v>
       </c>
@@ -6974,22 +7008,22 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="48">
-        <v>1</v>
-      </c>
-      <c r="B16" s="53" t="s">
+      <c r="A16" s="51">
+        <v>1</v>
+      </c>
+      <c r="B16" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="51" t="s">
+      <c r="D16" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="57" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="12" t="s">
@@ -7018,12 +7052,12 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="49"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="10" t="s">
         <v>96</v>
       </c>
@@ -7042,28 +7076,28 @@
       <c r="L17" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="M17" s="59" t="s">
+      <c r="M17" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="N17" s="60"/>
+      <c r="N17" s="49"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>2</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="47">
+      <c r="D18" s="45">
         <v>0.01</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="45" t="s">
         <v>142</v>
       </c>
     </row>
@@ -7071,29 +7105,29 @@
       <c r="A19" s="32">
         <v>3</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>4</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="47" t="s">
+      <c r="C20" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="45">
         <v>0.01</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="47" t="s">
+      <c r="F20" s="45" t="s">
         <v>142</v>
       </c>
     </row>
@@ -7101,29 +7135,29 @@
       <c r="A21" s="32">
         <v>5</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>6</v>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="D22" s="47">
+      <c r="D22" s="45">
         <v>0.01</v>
       </c>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="45" t="s">
         <v>223</v>
       </c>
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="45" t="s">
         <v>221</v>
       </c>
     </row>
@@ -7131,11 +7165,11 @@
       <c r="A23" s="32">
         <v>7</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
@@ -7224,6 +7258,46 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="C22:C23"/>
@@ -7240,46 +7314,6 @@
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G3:N3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7301,14 +7335,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -7334,45 +7368,45 @@
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="47">
         <v>8</v>
       </c>
-      <c r="F3" s="45"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="55">
+      <c r="A4" s="53">
         <v>0</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="47">
-        <v>1</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="47" t="s">
+      <c r="D4" s="45">
+        <v>1</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="45" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="55"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
@@ -7398,19 +7432,19 @@
       <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="45">
         <v>0.1</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="45" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7418,29 +7452,29 @@
       <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="45">
         <v>0.01</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="45" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7448,29 +7482,29 @@
       <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>6</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="47">
+      <c r="D11" s="45">
         <v>0.01</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="45" t="s">
         <v>43</v>
       </c>
     </row>
@@ -7478,29 +7512,14 @@
       <c r="A12" s="5">
         <v>7</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -7510,6 +7529,21 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7534,14 +7568,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
@@ -7567,35 +7601,35 @@
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="47">
         <v>8</v>
       </c>
-      <c r="F3" s="45"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="68">
         <v>0</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="47">
-        <v>1</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="47">
+      <c r="D4" s="45">
+        <v>1</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="45">
         <v>1</v>
       </c>
       <c r="G4" s="15" t="s">
@@ -7625,11 +7659,11 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="69"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
       <c r="G5" s="8">
         <v>0</v>
       </c>
@@ -7659,19 +7693,19 @@
       <c r="A6" s="68">
         <v>1</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="47">
-        <v>1</v>
-      </c>
-      <c r="E6" s="47" t="s">
+      <c r="D6" s="45">
+        <v>1</v>
+      </c>
+      <c r="E6" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="45">
         <v>1</v>
       </c>
       <c r="G6" s="12" t="s">
@@ -7701,11 +7735,11 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="69"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="10" t="s">
         <v>96</v>
       </c>
@@ -7724,28 +7758,28 @@
       <c r="L7" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="M7" s="59" t="s">
+      <c r="M7" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="N7" s="60"/>
+      <c r="N7" s="49"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="45">
         <v>0.1</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="45" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7753,29 +7787,29 @@
       <c r="A9" s="4">
         <v>3</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>4</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="45">
         <v>0.01</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="45" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7783,11 +7817,11 @@
       <c r="A11" s="4">
         <v>5</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
@@ -7843,35 +7877,35 @@
       <c r="A14" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="45"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="47">
         <v>8</v>
       </c>
-      <c r="F14" s="45"/>
+      <c r="F14" s="47"/>
     </row>
     <row r="15" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>0</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="45">
         <v>1E-3</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="45" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7879,29 +7913,29 @@
       <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C17" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="45">
         <v>1E-3</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="45" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7909,29 +7943,29 @@
       <c r="A18" s="4">
         <v>3</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>4</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="45">
         <v>1E-3</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="45" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7939,11 +7973,11 @@
       <c r="A20" s="4">
         <v>5</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
@@ -7984,16 +8018,16 @@
       <c r="F22" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="71" t="s">
+      <c r="G22" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
     </row>
     <row r="23" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="46" t="s">
@@ -8029,35 +8063,35 @@
       <c r="A25" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="C25" s="45"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E25" s="47">
         <v>8</v>
       </c>
-      <c r="F25" s="45"/>
+      <c r="F25" s="47"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>0</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="47">
+      <c r="D26" s="45">
         <v>0.1</v>
       </c>
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="45" t="s">
         <v>286</v>
       </c>
-      <c r="F26" s="47" t="s">
+      <c r="F26" s="45" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8065,11 +8099,11 @@
       <c r="A27" s="5">
         <v>1</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
@@ -8115,19 +8149,19 @@
       <c r="A30" s="5">
         <v>4</v>
       </c>
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="45" t="s">
         <v>287</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="47">
+      <c r="D30" s="45">
         <v>1E-3</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="F30" s="47" t="s">
+      <c r="F30" s="45" t="s">
         <v>170</v>
       </c>
     </row>
@@ -8135,29 +8169,29 @@
       <c r="A31" s="5">
         <v>5</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="48">
+      <c r="A32" s="51">
         <v>6</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="70" t="s">
         <v>289</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D32" s="51">
-        <v>1</v>
-      </c>
-      <c r="E32" s="51" t="s">
+      <c r="D32" s="57">
+        <v>1</v>
+      </c>
+      <c r="E32" s="57" t="s">
         <v>290</v>
       </c>
-      <c r="F32" s="51">
+      <c r="F32" s="57">
         <v>1</v>
       </c>
       <c r="G32" s="12" t="s">
@@ -8186,12 +8220,12 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="49"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
       <c r="G33" s="43" t="s">
         <v>96</v>
       </c>
@@ -8210,28 +8244,28 @@
       <c r="L33" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="M33" s="59" t="s">
+      <c r="M33" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="N33" s="60"/>
+      <c r="N33" s="49"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="48">
+      <c r="A34" s="51">
         <v>7</v>
       </c>
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D34" s="51">
-        <v>1</v>
-      </c>
-      <c r="E34" s="51" t="s">
+      <c r="D34" s="57">
+        <v>1</v>
+      </c>
+      <c r="E34" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="F34" s="51">
+      <c r="F34" s="57">
         <v>1</v>
       </c>
       <c r="G34" s="15" t="s">
@@ -8260,12 +8294,12 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="49"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
       <c r="G35" s="8">
         <v>0</v>
       </c>
@@ -8284,13 +8318,69 @@
       <c r="L35" s="8">
         <v>0</v>
       </c>
-      <c r="M35" s="64" t="s">
+      <c r="M35" s="72" t="s">
         <v>293</v>
       </c>
-      <c r="N35" s="64"/>
+      <c r="N35" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G22:N22"/>
@@ -8307,62 +8397,6 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="B32:B33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8381,14 +8415,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -8414,35 +8448,35 @@
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="47">
         <v>8</v>
       </c>
-      <c r="F3" s="45"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="45">
         <v>1E-3</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="45" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8450,29 +8484,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="45">
         <v>1E-3</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="45" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8480,29 +8514,29 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="45">
         <v>1E-3</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="45" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8510,29 +8544,29 @@
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="45">
         <v>1E-3</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="45" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8540,27 +8574,27 @@
       <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="C12" s="45"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="47">
         <v>8</v>
       </c>
-      <c r="F12" s="45"/>
+      <c r="F12" s="47"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
@@ -8724,13 +8758,14 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
@@ -8741,14 +8776,13 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8767,14 +8801,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -8800,35 +8834,35 @@
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="47">
         <v>8</v>
       </c>
-      <c r="F3" s="45"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="45">
         <v>1E-3</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="45" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8836,29 +8870,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="45">
         <v>1E-3</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="45" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8866,29 +8900,29 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="45">
         <v>1E-3</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="45" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8896,29 +8930,29 @@
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="45">
         <v>1E-3</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="45" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8926,29 +8960,14 @@
       <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -8957,6 +8976,21 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8980,23 +9014,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73" t="s">
+      <c r="I1" s="75"/>
+      <c r="J1" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="73"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
@@ -9018,10 +9052,10 @@
         <v>17</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="73">
+      <c r="H2" s="75">
         <v>0</v>
       </c>
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="75" t="s">
         <v>67</v>
       </c>
       <c r="J2" s="2">
@@ -9035,20 +9069,20 @@
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="73" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="75"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="74">
+      <c r="E3" s="73">
         <v>8</v>
       </c>
-      <c r="F3" s="75"/>
+      <c r="F3" s="74"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
       <c r="J3" s="2">
         <v>1</v>
       </c>
@@ -9076,8 +9110,8 @@
         <v>1</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
       <c r="J4" s="2">
         <v>2</v>
       </c>
@@ -9105,10 +9139,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="73">
-        <v>1</v>
-      </c>
-      <c r="I5" s="73" t="s">
+      <c r="H5" s="75">
+        <v>1</v>
+      </c>
+      <c r="I5" s="75" t="s">
         <v>69</v>
       </c>
       <c r="J5" s="2">
@@ -9138,8 +9172,8 @@
         <v>138</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
       <c r="J6" s="2">
         <v>1</v>
       </c>
@@ -9167,8 +9201,8 @@
         <v>138</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
       <c r="J7" s="2">
         <v>2</v>
       </c>
@@ -9196,10 +9230,10 @@
         <v>138</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="73">
+      <c r="H8" s="75">
         <v>2</v>
       </c>
-      <c r="I8" s="73" t="s">
+      <c r="I8" s="75" t="s">
         <v>68</v>
       </c>
       <c r="J8" s="2">
@@ -9229,8 +9263,8 @@
         <v>138</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
       <c r="J9" s="2">
         <v>1</v>
       </c>
@@ -9258,8 +9292,8 @@
         <v>138</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
       <c r="J10" s="2">
         <v>2</v>
       </c>
@@ -9287,8 +9321,8 @@
         <v>138</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
       <c r="J11" s="2">
         <v>3</v>
       </c>
@@ -9298,10 +9332,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G12" s="3"/>
-      <c r="H12" s="73">
+      <c r="H12" s="75">
         <v>3</v>
       </c>
-      <c r="I12" s="73" t="s">
+      <c r="I12" s="75" t="s">
         <v>70</v>
       </c>
       <c r="J12" s="2">
@@ -9313,8 +9347,8 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G13" s="3"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
       <c r="J13" s="2">
         <v>1</v>
       </c>
@@ -9324,8 +9358,8 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G14" s="3"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
       <c r="J14" s="2">
         <v>2</v>
       </c>
@@ -9335,8 +9369,8 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G15" s="3"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
       <c r="J15" s="2">
         <v>3</v>
       </c>
@@ -9346,8 +9380,8 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G16" s="3"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
       <c r="J16" s="2">
         <v>4</v>
       </c>
@@ -9357,11 +9391,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="I8:I11"/>
     <mergeCell ref="H12:H16"/>
     <mergeCell ref="I12:I16"/>
     <mergeCell ref="H1:I1"/>
@@ -9370,6 +9399,11 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="I5:I7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I8:I11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9417,30 +9451,30 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="75"/>
+      <c r="C3" s="74"/>
       <c r="D3" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="74">
+      <c r="E3" s="73">
         <v>8</v>
       </c>
-      <c r="F3" s="75"/>
+      <c r="F3" s="74"/>
     </row>
     <row r="4" spans="1:22" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
@@ -9461,7 +9495,7 @@
       <c r="F4" s="19">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="75" t="s">
         <v>198</v>
       </c>
       <c r="I4" s="37" t="s">
@@ -9490,7 +9524,7 @@
       <c r="F5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="73"/>
+      <c r="H5" s="75"/>
       <c r="I5" s="37" t="s">
         <v>260</v>
       </c>
@@ -9517,7 +9551,7 @@
       <c r="F6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="73"/>
+      <c r="H6" s="75"/>
       <c r="I6" s="37" t="s">
         <v>233</v>
       </c>
@@ -9550,7 +9584,7 @@
       <c r="F7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="73"/>
+      <c r="H7" s="75"/>
       <c r="I7" s="37" t="s">
         <v>234</v>
       </c>
@@ -9577,7 +9611,7 @@
       <c r="F8" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="73"/>
+      <c r="H8" s="75"/>
       <c r="I8" s="37" t="s">
         <v>240</v>
       </c>
@@ -9655,17 +9689,17 @@
       <c r="A12" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="C12" s="75"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="74">
+      <c r="E12" s="73">
         <v>8</v>
       </c>
-      <c r="F12" s="75"/>
+      <c r="F12" s="74"/>
       <c r="G12" s="3"/>
       <c r="H12" s="2" t="s">
         <v>66</v>
@@ -9692,7 +9726,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="73">
+      <c r="H13" s="75">
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
@@ -9723,8 +9757,8 @@
         <v>1</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73" t="s">
+      <c r="H14" s="75"/>
+      <c r="I14" s="75" t="s">
         <v>67</v>
       </c>
       <c r="J14" s="2">
@@ -9754,8 +9788,8 @@
         <v>138</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
       <c r="J15" s="2">
         <v>1</v>
       </c>
@@ -9783,10 +9817,10 @@
         <v>138</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="73">
-        <v>1</v>
-      </c>
-      <c r="I16" s="73"/>
+      <c r="H16" s="75">
+        <v>1</v>
+      </c>
+      <c r="I16" s="75"/>
       <c r="J16" s="2">
         <v>2</v>
       </c>
@@ -9814,8 +9848,8 @@
         <v>138</v>
       </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73" t="s">
+      <c r="H17" s="75"/>
+      <c r="I17" s="75" t="s">
         <v>69</v>
       </c>
       <c r="J17" s="2">
@@ -9845,8 +9879,8 @@
         <v>138</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
       <c r="J18" s="2">
         <v>1</v>
       </c>
@@ -9874,10 +9908,10 @@
         <v>138</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="73">
+      <c r="H19" s="75">
         <v>2</v>
       </c>
-      <c r="I19" s="73"/>
+      <c r="I19" s="75"/>
       <c r="J19" s="2">
         <v>2</v>
       </c>
@@ -9905,8 +9939,8 @@
         <v>138</v>
       </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73" t="s">
+      <c r="H20" s="75"/>
+      <c r="I20" s="75" t="s">
         <v>68</v>
       </c>
       <c r="J20" s="2">
@@ -9917,17 +9951,17 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
       <c r="J21" s="2">
         <v>1</v>
       </c>
@@ -9939,20 +9973,20 @@
       <c r="A22" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="73" t="s">
         <v>238</v>
       </c>
-      <c r="C22" s="75"/>
+      <c r="C22" s="74"/>
       <c r="D22" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="74">
+      <c r="E22" s="73">
         <v>8</v>
       </c>
-      <c r="F22" s="75"/>
+      <c r="F22" s="74"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
       <c r="J22" s="2">
         <v>2</v>
       </c>
@@ -9980,10 +10014,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="73">
+      <c r="H23" s="75">
         <v>3</v>
       </c>
-      <c r="I23" s="73"/>
+      <c r="I23" s="75"/>
       <c r="J23" s="2">
         <v>3</v>
       </c>
@@ -10011,8 +10045,8 @@
         <v>18</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73" t="s">
+      <c r="H24" s="75"/>
+      <c r="I24" s="75" t="s">
         <v>70</v>
       </c>
       <c r="J24" s="2">
@@ -10042,8 +10076,8 @@
         <v>18</v>
       </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
       <c r="J25" s="2">
         <v>1</v>
       </c>
@@ -10071,8 +10105,8 @@
         <v>18</v>
       </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
       <c r="J26" s="2">
         <v>2</v>
       </c>
@@ -10100,8 +10134,8 @@
         <v>18</v>
       </c>
       <c r="G27" s="3"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
       <c r="J27" s="2">
         <v>3</v>
       </c>
@@ -10128,7 +10162,7 @@
       <c r="F28" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="73"/>
+      <c r="I28" s="75"/>
       <c r="J28" s="2">
         <v>4</v>
       </c>
@@ -10249,6 +10283,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H22"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="B12:C12"/>
@@ -10260,19 +10307,6 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="H4:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/Protocol/CAN总线协议.xlsx
+++ b/Doc/Protocol/CAN总线协议.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83863722-14B9-4A08-A4FC-2E47B53751FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2032E574-0C63-4379-B512-442B651BCD93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="超声波原始数据(RX)" sheetId="12" r:id="rId1"/>
     <sheet name="超声波原始数据(TX)" sheetId="13" r:id="rId2"/>
     <sheet name="车身状态反馈(RX)" sheetId="2" r:id="rId3"/>
     <sheet name="车身状态注入(TX)" sheetId="16" r:id="rId4"/>
-    <sheet name="长安控制接口(TX)" sheetId="10" r:id="rId5"/>
+    <sheet name="车辆控制接口(TX)" sheetId="10" r:id="rId5"/>
     <sheet name="车速反馈(RX)" sheetId="4" r:id="rId6"/>
     <sheet name="车速注入(TX)" sheetId="15" r:id="rId7"/>
     <sheet name="系统状态反馈(RX)" sheetId="9" r:id="rId8"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="307">
   <si>
     <t>字节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1148,18 +1148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>挡位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0,4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0,1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[0,1023]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1245,6 +1233,18 @@
   </si>
   <si>
     <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,255]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使能/挡位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1252,7 +1252,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1366,8 +1366,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1446,8 +1455,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1632,15 +1647,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1845,8 +1851,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1900,8 +1926,14 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1988,7 +2020,7 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
@@ -2023,7 +2055,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="10" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="10" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
@@ -2038,14 +2070,59 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="11" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="30" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="31" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="9" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2053,150 +2130,123 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="21" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="22" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="17" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="21" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="9" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="13" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="25" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="26" xfId="17" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="27" xfId="17" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="29" xfId="13" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="27" xfId="18" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="28" xfId="18" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="29" xfId="18" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="29" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="22" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="23" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="11" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="33" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="19" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="31" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="32" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="21">
     <cellStyle name="20% - 着色 1" xfId="17" builtinId="30"/>
     <cellStyle name="20% - 着色 2" xfId="13" builtinId="34"/>
     <cellStyle name="20% - 着色 3" xfId="18" builtinId="38"/>
+    <cellStyle name="20% - 着色 4" xfId="20" builtinId="42"/>
     <cellStyle name="20% - 着色 5" xfId="6" builtinId="46"/>
     <cellStyle name="20% - 着色 6" xfId="7" builtinId="50"/>
     <cellStyle name="60% - 着色 4" xfId="14" builtinId="44"/>
     <cellStyle name="60% - 着色 6" xfId="15" builtinId="52"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
     <cellStyle name="标题 2" xfId="8" builtinId="17"/>
     <cellStyle name="标题 3" xfId="9" builtinId="18"/>
     <cellStyle name="差" xfId="3" builtinId="27"/>
@@ -2489,20 +2539,20 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:F22"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -2528,35 +2578,35 @@
       <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="55">
         <v>8</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="50">
-        <v>1</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="50" t="s">
+      <c r="D4" s="53">
+        <v>1</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="53" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2564,29 +2614,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="50">
-        <v>1</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="50" t="s">
+      <c r="D6" s="53">
+        <v>1</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2594,11 +2644,11 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
@@ -2681,14 +2731,14 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
     </row>
     <row r="13" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
@@ -2714,35 +2764,35 @@
       <c r="A14" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="48"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="55">
         <v>8</v>
       </c>
-      <c r="F14" s="48"/>
+      <c r="F14" s="55"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>0</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="53">
         <v>0.01</v>
       </c>
-      <c r="E15" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="50" t="s">
+      <c r="E15" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2750,29 +2800,29 @@
       <c r="A16" s="5">
         <v>1</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="53" t="s">
         <v>252</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="53">
         <v>0.01</v>
       </c>
-      <c r="E17" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="50" t="s">
+      <c r="E17" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2780,11 +2830,11 @@
       <c r="A18" s="5">
         <v>3</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
@@ -2850,29 +2900,37 @@
       <c r="A22" s="5">
         <v>7</v>
       </c>
-      <c r="B22" s="19">
-        <v>0</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>18</v>
+      <c r="B22" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="19">
+        <v>5</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>18</v>
+        <v>305</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>18</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="E14:F14"/>
@@ -2881,19 +2939,11 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2945,35 +2995,35 @@
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="55">
         <v>8</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="53">
         <v>0.01</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2981,29 +3031,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="53">
         <v>0.01</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3011,29 +3061,29 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="53">
         <v>0.01</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="53" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3041,29 +3091,29 @@
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="51">
+      <c r="A10" s="66">
         <v>6</v>
       </c>
       <c r="B10" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="D10" s="54">
-        <v>1</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>305</v>
-      </c>
-      <c r="F10" s="89">
+      <c r="D10" s="59">
+        <v>1</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="F10" s="74">
         <v>1</v>
       </c>
       <c r="G10" s="34">
@@ -3080,12 +3130,12 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="90"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="75"/>
       <c r="G11" s="34" t="s">
         <v>204</v>
       </c>
@@ -3123,35 +3173,35 @@
       <c r="A14" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="48"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="55">
         <v>8</v>
       </c>
-      <c r="F14" s="48"/>
+      <c r="F14" s="55"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>0</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3159,29 +3209,29 @@
       <c r="A16" s="5">
         <v>1</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3189,29 +3239,29 @@
       <c r="A18" s="5">
         <v>3</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>4</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3219,29 +3269,29 @@
       <c r="A20" s="5">
         <v>5</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>6</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3249,11 +3299,11 @@
       <c r="A22" s="5">
         <v>7</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
     </row>
     <row r="23" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="64" t="s">
@@ -3289,35 +3339,35 @@
       <c r="A25" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="C25" s="48"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E25" s="48">
+      <c r="E25" s="55">
         <v>8</v>
       </c>
-      <c r="F25" s="48"/>
+      <c r="F25" s="55"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>0</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="53">
         <v>0.01</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E26" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="F26" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3325,29 +3375,29 @@
       <c r="A27" s="5">
         <v>1</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>2</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="50">
+      <c r="D28" s="53">
         <v>0.01</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="F28" s="50" t="s">
+      <c r="F28" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3355,29 +3405,29 @@
       <c r="A29" s="5">
         <v>3</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>4</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="50">
+      <c r="D30" s="53">
         <v>0.01</v>
       </c>
-      <c r="E30" s="50" t="s">
+      <c r="E30" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="F30" s="50" t="s">
+      <c r="F30" s="53" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3385,29 +3435,29 @@
       <c r="A31" s="5">
         <v>5</v>
       </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>6</v>
       </c>
-      <c r="B32" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="50" t="s">
+      <c r="B32" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="53" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3415,11 +3465,11 @@
       <c r="A33" s="5">
         <v>7</v>
       </c>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
     </row>
     <row r="34" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="64" t="s">
@@ -3435,35 +3485,35 @@
       <c r="A35" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="C35" s="48"/>
+      <c r="C35" s="55"/>
       <c r="D35" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E35" s="48">
+      <c r="E35" s="55">
         <v>8</v>
       </c>
-      <c r="F35" s="48"/>
+      <c r="F35" s="55"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>0</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="50">
+      <c r="D36" s="53">
         <v>0.01</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="E36" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="50" t="s">
+      <c r="F36" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3471,29 +3521,29 @@
       <c r="A37" s="5">
         <v>1</v>
       </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>2</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="50">
+      <c r="D38" s="53">
         <v>0.01</v>
       </c>
-      <c r="E38" s="50" t="s">
+      <c r="E38" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="F38" s="50" t="s">
+      <c r="F38" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3501,29 +3551,29 @@
       <c r="A39" s="5">
         <v>3</v>
       </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>4</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="50">
+      <c r="D40" s="53">
         <v>0.01</v>
       </c>
-      <c r="E40" s="50" t="s">
+      <c r="E40" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="F40" s="50" t="s">
+      <c r="F40" s="53" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3531,11 +3581,11 @@
       <c r="A41" s="5">
         <v>5</v>
       </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
@@ -3591,35 +3641,35 @@
       <c r="A45" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="C45" s="48"/>
+      <c r="C45" s="55"/>
       <c r="D45" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E45" s="48">
+      <c r="E45" s="55">
         <v>8</v>
       </c>
-      <c r="F45" s="48"/>
+      <c r="F45" s="55"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>0</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="C46" s="50" t="s">
+      <c r="C46" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="50">
+      <c r="D46" s="53">
         <v>0.01</v>
       </c>
-      <c r="E46" s="50" t="s">
+      <c r="E46" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="F46" s="50" t="s">
+      <c r="F46" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3627,29 +3677,29 @@
       <c r="A47" s="5">
         <v>1</v>
       </c>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>2</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="C48" s="50" t="s">
+      <c r="C48" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="50">
+      <c r="D48" s="53">
         <v>0.01</v>
       </c>
-      <c r="E48" s="50" t="s">
+      <c r="E48" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="F48" s="50" t="s">
+      <c r="F48" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3657,29 +3707,29 @@
       <c r="A49" s="5">
         <v>3</v>
       </c>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>4</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="C50" s="50" t="s">
+      <c r="C50" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="50">
+      <c r="D50" s="53">
         <v>0.01</v>
       </c>
-      <c r="E50" s="50" t="s">
+      <c r="E50" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="F50" s="50" t="s">
+      <c r="F50" s="53" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3687,11 +3737,11 @@
       <c r="A51" s="5">
         <v>5</v>
       </c>
-      <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
@@ -3747,35 +3797,35 @@
       <c r="A55" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="48" t="s">
+      <c r="B55" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="C55" s="48"/>
+      <c r="C55" s="55"/>
       <c r="D55" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E55" s="48">
+      <c r="E55" s="55">
         <v>8</v>
       </c>
-      <c r="F55" s="48"/>
+      <c r="F55" s="55"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>0</v>
       </c>
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="50" t="s">
+      <c r="C56" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="50">
+      <c r="D56" s="53">
         <v>0.01</v>
       </c>
-      <c r="E56" s="50" t="s">
+      <c r="E56" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="F56" s="50" t="s">
+      <c r="F56" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3783,29 +3833,29 @@
       <c r="A57" s="5">
         <v>1</v>
       </c>
-      <c r="B57" s="50"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>2</v>
       </c>
-      <c r="B58" s="50" t="s">
+      <c r="B58" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="C58" s="50" t="s">
+      <c r="C58" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="50">
+      <c r="D58" s="53">
         <v>0.01</v>
       </c>
-      <c r="E58" s="50" t="s">
+      <c r="E58" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="F58" s="50" t="s">
+      <c r="F58" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3813,29 +3863,29 @@
       <c r="A59" s="5">
         <v>3</v>
       </c>
-      <c r="B59" s="50"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>4</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="C60" s="50" t="s">
+      <c r="C60" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="50">
+      <c r="D60" s="53">
         <v>0.01</v>
       </c>
-      <c r="E60" s="50" t="s">
+      <c r="E60" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="F60" s="50" t="s">
+      <c r="F60" s="53" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3843,11 +3893,11 @@
       <c r="A61" s="5">
         <v>5</v>
       </c>
-      <c r="B61" s="50"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
@@ -3903,35 +3953,35 @@
       <c r="A65" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="48" t="s">
+      <c r="B65" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="C65" s="48"/>
+      <c r="C65" s="55"/>
       <c r="D65" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E65" s="48">
+      <c r="E65" s="55">
         <v>8</v>
       </c>
-      <c r="F65" s="48"/>
+      <c r="F65" s="55"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>0</v>
       </c>
-      <c r="B66" s="50" t="s">
+      <c r="B66" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="C66" s="50" t="s">
+      <c r="C66" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="50">
+      <c r="D66" s="53">
         <v>0.01</v>
       </c>
-      <c r="E66" s="50" t="s">
+      <c r="E66" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="F66" s="50" t="s">
+      <c r="F66" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3939,29 +3989,29 @@
       <c r="A67" s="5">
         <v>1</v>
       </c>
-      <c r="B67" s="50"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="50"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="53"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>2</v>
       </c>
-      <c r="B68" s="50" t="s">
+      <c r="B68" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="C68" s="50" t="s">
+      <c r="C68" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="50">
+      <c r="D68" s="53">
         <v>0.01</v>
       </c>
-      <c r="E68" s="50" t="s">
+      <c r="E68" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="F68" s="50" t="s">
+      <c r="F68" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3969,29 +4019,29 @@
       <c r="A69" s="5">
         <v>3</v>
       </c>
-      <c r="B69" s="50"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="50"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>4</v>
       </c>
-      <c r="B70" s="50" t="s">
+      <c r="B70" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="C70" s="50" t="s">
+      <c r="C70" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="50">
+      <c r="D70" s="53">
         <v>0.1</v>
       </c>
-      <c r="E70" s="50" t="s">
+      <c r="E70" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="F70" s="50" t="s">
+      <c r="F70" s="53" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3999,11 +4049,11 @@
       <c r="A71" s="5">
         <v>5</v>
       </c>
-      <c r="B71" s="50"/>
-      <c r="C71" s="50"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="50"/>
-      <c r="F71" s="50"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="53"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="53"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
@@ -4049,35 +4099,35 @@
       <c r="A75" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="48" t="s">
+      <c r="B75" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="C75" s="48"/>
+      <c r="C75" s="55"/>
       <c r="D75" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E75" s="48">
+      <c r="E75" s="55">
         <v>8</v>
       </c>
-      <c r="F75" s="48"/>
+      <c r="F75" s="55"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>0</v>
       </c>
-      <c r="B76" s="50" t="s">
+      <c r="B76" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="C76" s="50" t="s">
+      <c r="C76" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D76" s="50">
+      <c r="D76" s="53">
         <v>0.01</v>
       </c>
-      <c r="E76" s="50" t="s">
+      <c r="E76" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="F76" s="50" t="s">
+      <c r="F76" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4085,29 +4135,29 @@
       <c r="A77" s="5">
         <v>1</v>
       </c>
-      <c r="B77" s="50"/>
-      <c r="C77" s="50"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="50"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="53"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>2</v>
       </c>
-      <c r="B78" s="50" t="s">
+      <c r="B78" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="C78" s="50" t="s">
+      <c r="C78" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="50">
+      <c r="D78" s="53">
         <v>0.01</v>
       </c>
-      <c r="E78" s="50" t="s">
+      <c r="E78" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="F78" s="50" t="s">
+      <c r="F78" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4115,31 +4165,31 @@
       <c r="A79" s="5">
         <v>3</v>
       </c>
-      <c r="B79" s="50"/>
-      <c r="C79" s="50"/>
-      <c r="D79" s="50"/>
-      <c r="E79" s="50"/>
-      <c r="F79" s="50"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="53"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="53"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>4</v>
       </c>
-      <c r="B80" s="50"/>
-      <c r="C80" s="50"/>
-      <c r="D80" s="50"/>
-      <c r="E80" s="50"/>
-      <c r="F80" s="50"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="53"/>
+      <c r="E80" s="53"/>
+      <c r="F80" s="53"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>5</v>
       </c>
-      <c r="B81" s="50"/>
-      <c r="C81" s="50"/>
-      <c r="D81" s="50"/>
-      <c r="E81" s="50"/>
-      <c r="F81" s="50"/>
+      <c r="B81" s="53"/>
+      <c r="C81" s="53"/>
+      <c r="D81" s="53"/>
+      <c r="E81" s="53"/>
+      <c r="F81" s="53"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
@@ -4175,17 +4225,17 @@
       <c r="A85" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="48" t="s">
+      <c r="B85" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="C85" s="48"/>
+      <c r="C85" s="55"/>
       <c r="D85" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E85" s="48">
+      <c r="E85" s="55">
         <v>8</v>
       </c>
-      <c r="F85" s="48"/>
+      <c r="F85" s="55"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
@@ -4281,17 +4331,17 @@
       <c r="A94" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B94" s="77" t="s">
+      <c r="B94" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="C94" s="78"/>
+      <c r="C94" s="73"/>
       <c r="D94" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E94" s="77">
+      <c r="E94" s="72">
         <v>8</v>
       </c>
-      <c r="F94" s="78"/>
+      <c r="F94" s="73"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
@@ -4385,6 +4435,147 @@
     </row>
   </sheetData>
   <mergeCells count="165">
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
     <mergeCell ref="B94:C94"/>
     <mergeCell ref="E94:F94"/>
     <mergeCell ref="A84:F84"/>
@@ -4409,147 +4600,6 @@
     <mergeCell ref="E76:E77"/>
     <mergeCell ref="F76:F77"/>
     <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4604,35 +4654,35 @@
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="55">
         <v>8</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="53">
         <v>0.01</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4640,29 +4690,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="53">
         <v>0.01</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4670,29 +4720,29 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="53">
         <v>0.01</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="53" t="s">
         <v>267</v>
       </c>
     </row>
@@ -4700,29 +4750,29 @@
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="53">
         <v>0.01</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4730,11 +4780,11 @@
       <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
     </row>
     <row r="12" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="64" t="s">
@@ -4750,35 +4800,35 @@
       <c r="A13" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="48"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="55">
         <v>8</v>
       </c>
-      <c r="F13" s="48"/>
+      <c r="F13" s="55"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>0</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="50">
+      <c r="D14" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="50" t="s">
+      <c r="F14" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4786,29 +4836,29 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4816,29 +4866,29 @@
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4846,29 +4896,29 @@
       <c r="A19" s="5">
         <v>5</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>6</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="53" t="s">
         <v>176</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4876,19 +4926,39 @@
       <c r="A21" s="5">
         <v>7</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="B20:B21"/>
@@ -4905,31 +4975,11 @@
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4981,17 +5031,17 @@
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="78"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="77">
+      <c r="E3" s="72">
         <v>8</v>
       </c>
-      <c r="F3" s="78"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -5212,35 +5262,35 @@
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="55">
         <v>8</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>0</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="50">
-        <v>1</v>
-      </c>
-      <c r="E4" s="50" t="s">
+      <c r="D4" s="53">
+        <v>1</v>
+      </c>
+      <c r="E4" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="53" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5248,49 +5298,49 @@
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="50">
-        <v>1</v>
-      </c>
-      <c r="E8" s="50" t="s">
+      <c r="D8" s="53">
+        <v>1</v>
+      </c>
+      <c r="E8" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="53" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5298,65 +5348,65 @@
       <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="55">
         <v>8</v>
       </c>
-      <c r="F12" s="48"/>
+      <c r="F12" s="55"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>0</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="50">
-        <v>1</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="50" t="s">
+      <c r="D13" s="53">
+        <v>1</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="53" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5364,49 +5414,49 @@
       <c r="A14" s="4">
         <v>1</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>3</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>4</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="50">
-        <v>1</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="50" t="s">
+      <c r="D17" s="53">
+        <v>1</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="53" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5414,65 +5464,65 @@
       <c r="A18" s="4">
         <v>5</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>6</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>7</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="48"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E21" s="48">
+      <c r="E21" s="55">
         <v>8</v>
       </c>
-      <c r="F21" s="48"/>
+      <c r="F21" s="55"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>0</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="50">
-        <v>1</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="50" t="s">
+      <c r="D22" s="53">
+        <v>1</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="53" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5480,49 +5530,49 @@
       <c r="A23" s="4">
         <v>1</v>
       </c>
-      <c r="B23" s="73"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>2</v>
       </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>4</v>
       </c>
-      <c r="B26" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="50" t="s">
+      <c r="B26" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="E26" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="50" t="s">
+      <c r="E26" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="53" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5530,50 +5580,39 @@
       <c r="A27" s="4">
         <v>5</v>
       </c>
-      <c r="B27" s="73"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>6</v>
       </c>
-      <c r="B28" s="73"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>7</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -5590,11 +5629,22 @@
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="F4:F7"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5646,17 +5696,17 @@
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="72" t="s">
         <v>256</v>
       </c>
-      <c r="C3" s="78"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="77">
+      <c r="E3" s="72">
         <v>8</v>
       </c>
-      <c r="F3" s="78"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -5841,14 +5891,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
-        <v>287</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="A1" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -5874,35 +5924,35 @@
       <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="55">
         <v>8</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="50">
-        <v>1</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="50" t="s">
+      <c r="D4" s="53">
+        <v>1</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="53" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5910,29 +5960,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="50">
-        <v>1</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="50" t="s">
+      <c r="D6" s="53">
+        <v>1</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5940,11 +5990,11 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
@@ -6027,23 +6077,17 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="91" t="s">
-        <v>288</v>
-      </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
+      <c r="A12" s="96" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -6052,6 +6096,12 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6073,14 +6123,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -6106,35 +6156,35 @@
       <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="55" t="s">
         <v>273</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="55">
         <v>8</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="53" t="s">
         <v>270</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -6142,29 +6192,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="53" t="s">
         <v>270</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -6172,11 +6222,11 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
@@ -6209,22 +6259,22 @@
       <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="58">
+      <c r="A11" s="68">
         <v>7</v>
       </c>
-      <c r="B11" s="92" t="s">
-        <v>289</v>
-      </c>
-      <c r="C11" s="92" t="s">
+      <c r="B11" s="97" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="92">
-        <v>1</v>
-      </c>
-      <c r="E11" s="92" t="s">
-        <v>291</v>
-      </c>
-      <c r="F11" s="92" t="s">
+      <c r="D11" s="97">
+        <v>1</v>
+      </c>
+      <c r="E11" s="97" t="s">
+        <v>288</v>
+      </c>
+      <c r="F11" s="97" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="4">
@@ -6241,27 +6291,38 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
       <c r="G12" s="4" t="s">
         <v>67</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -6270,17 +6331,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6302,14 +6352,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="54" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -6335,35 +6385,35 @@
       <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="55">
         <v>8</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="53">
         <v>0.01</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="53" t="s">
         <v>270</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -6371,29 +6421,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="53">
         <v>0.01</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="53" t="s">
         <v>270</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -6401,11 +6451,11 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
@@ -6438,23 +6488,23 @@
       <c r="F10" s="43"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="58">
+      <c r="A11" s="68">
         <v>7</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="97" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="97" t="s">
+        <v>287</v>
+      </c>
+      <c r="D11" s="97">
+        <v>1</v>
+      </c>
+      <c r="E11" s="97" t="s">
+        <v>288</v>
+      </c>
+      <c r="F11" s="97" t="s">
         <v>289</v>
-      </c>
-      <c r="C11" s="92" t="s">
-        <v>290</v>
-      </c>
-      <c r="D11" s="92">
-        <v>1</v>
-      </c>
-      <c r="E11" s="92" t="s">
-        <v>291</v>
-      </c>
-      <c r="F11" s="92" t="s">
-        <v>292</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -6470,27 +6520,38 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
       <c r="G12" s="4" t="s">
         <v>67</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -6499,17 +6560,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6528,14 +6578,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -6561,35 +6611,35 @@
       <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="55">
         <v>8</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>0</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="50">
-        <v>1</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="50" t="s">
+      <c r="D4" s="53">
+        <v>1</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="53" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6597,29 +6647,29 @@
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="50">
-        <v>1</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="50" t="s">
+      <c r="D6" s="53">
+        <v>1</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6627,11 +6677,11 @@
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -6715,11 +6765,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -6728,6 +6773,11 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6738,7 +6788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485B570D-AF19-4CD7-ADE4-FC7A998D53D9}">
   <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C41" sqref="C41:C44"/>
     </sheetView>
   </sheetViews>
@@ -6784,45 +6834,45 @@
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="55">
         <v>8</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="59" t="s">
+      <c r="F3" s="55"/>
+      <c r="G3" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="61"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="71"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="58">
+      <c r="A4" s="68">
         <v>0</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="50">
-        <v>1</v>
-      </c>
-      <c r="E4" s="50" t="s">
+      <c r="D4" s="53">
+        <v>1</v>
+      </c>
+      <c r="E4" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="53" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="28" t="s">
@@ -6851,12 +6901,12 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="4">
         <v>0</v>
       </c>
@@ -6883,22 +6933,22 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="51">
+      <c r="A6" s="66">
         <v>1</v>
       </c>
       <c r="B6" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="54" t="s">
+      <c r="D6" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="59" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="44" t="s">
@@ -6927,12 +6977,12 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="10" t="s">
         <v>93</v>
       </c>
@@ -6960,19 +7010,19 @@
       <c r="A8" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="53">
         <v>0.1</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="53" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6980,29 +7030,29 @@
       <c r="A9" s="5">
         <v>3</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>4</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="53">
         <v>0.01</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="53" t="s">
         <v>44</v>
       </c>
     </row>
@@ -7010,31 +7060,31 @@
       <c r="A11" s="5">
         <v>5</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>6</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>7</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="93"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
     </row>
     <row r="14" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="64" t="s">
@@ -7070,35 +7120,35 @@
       <c r="A16" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="48"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="55">
         <v>8</v>
       </c>
-      <c r="F16" s="48"/>
+      <c r="F16" s="55"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="47">
         <v>0</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="53" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7106,29 +7156,29 @@
       <c r="A18" s="47">
         <v>1</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="47">
         <v>2</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="53" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7136,29 +7186,29 @@
       <c r="A20" s="47">
         <v>3</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="47">
         <v>4</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="53" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7166,29 +7216,29 @@
       <c r="A22" s="47">
         <v>5</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="47">
         <v>6</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="50">
+      <c r="D23" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E23" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="53" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7196,15 +7246,15 @@
       <c r="A24" s="47">
         <v>7</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
     </row>
     <row r="25" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="64" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B25" s="64"/>
       <c r="C25" s="64"/>
@@ -7216,17 +7266,17 @@
       <c r="A26" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="48" t="s">
-        <v>298</v>
-      </c>
-      <c r="C26" s="48"/>
+      <c r="B26" s="55" t="s">
+        <v>295</v>
+      </c>
+      <c r="C26" s="55"/>
       <c r="D26" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E26" s="48">
+      <c r="E26" s="55">
         <v>8</v>
       </c>
-      <c r="F26" s="48"/>
+      <c r="F26" s="55"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="47">
@@ -7235,16 +7285,16 @@
       <c r="B27" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="54">
-        <v>1</v>
-      </c>
-      <c r="E27" s="54" t="s">
-        <v>296</v>
-      </c>
-      <c r="F27" s="54">
+      <c r="D27" s="59">
+        <v>1</v>
+      </c>
+      <c r="E27" s="59" t="s">
+        <v>293</v>
+      </c>
+      <c r="F27" s="59">
         <v>1</v>
       </c>
     </row>
@@ -7252,11 +7302,11 @@
       <c r="A28" s="47">
         <v>1</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="47">
@@ -7265,16 +7315,16 @@
       <c r="B29" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="54">
-        <v>1</v>
-      </c>
-      <c r="E29" s="54" t="s">
-        <v>296</v>
-      </c>
-      <c r="F29" s="54">
+      <c r="D29" s="59">
+        <v>1</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>293</v>
+      </c>
+      <c r="F29" s="59">
         <v>1</v>
       </c>
     </row>
@@ -7282,11 +7332,11 @@
       <c r="A30" s="47">
         <v>3</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="47">
@@ -7295,16 +7345,16 @@
       <c r="B31" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="54">
-        <v>1</v>
-      </c>
-      <c r="E31" s="54" t="s">
-        <v>296</v>
-      </c>
-      <c r="F31" s="54">
+      <c r="D31" s="59">
+        <v>1</v>
+      </c>
+      <c r="E31" s="59" t="s">
+        <v>293</v>
+      </c>
+      <c r="F31" s="59">
         <v>1</v>
       </c>
     </row>
@@ -7312,11 +7362,11 @@
       <c r="A32" s="47">
         <v>5</v>
       </c>
-      <c r="B32" s="57"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="47">
@@ -7325,16 +7375,16 @@
       <c r="B33" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="54">
-        <v>1</v>
-      </c>
-      <c r="E33" s="54" t="s">
-        <v>296</v>
-      </c>
-      <c r="F33" s="54">
+      <c r="D33" s="59">
+        <v>1</v>
+      </c>
+      <c r="E33" s="59" t="s">
+        <v>293</v>
+      </c>
+      <c r="F33" s="59">
         <v>1</v>
       </c>
     </row>
@@ -7342,15 +7392,15 @@
       <c r="A34" s="47">
         <v>7</v>
       </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
     </row>
     <row r="35" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="64" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B35" s="64"/>
       <c r="C35" s="64"/>
@@ -7362,35 +7412,35 @@
       <c r="A36" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="94" t="s">
-        <v>299</v>
-      </c>
-      <c r="C36" s="94"/>
-      <c r="D36" s="95" t="s">
+      <c r="B36" s="65" t="s">
+        <v>296</v>
+      </c>
+      <c r="C36" s="65"/>
+      <c r="D36" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="94">
+      <c r="E36" s="65">
         <v>8</v>
       </c>
-      <c r="F36" s="94"/>
+      <c r="F36" s="65"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="47">
         <v>0</v>
       </c>
       <c r="B37" s="56" t="s">
-        <v>301</v>
-      </c>
-      <c r="C37" s="54" t="s">
-        <v>306</v>
-      </c>
-      <c r="D37" s="54">
-        <v>1</v>
-      </c>
-      <c r="E37" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="54">
+        <v>298</v>
+      </c>
+      <c r="C37" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="D37" s="59">
+        <v>1</v>
+      </c>
+      <c r="E37" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="59">
         <v>1</v>
       </c>
     </row>
@@ -7398,49 +7448,49 @@
       <c r="A38" s="47">
         <v>1</v>
       </c>
-      <c r="B38" s="96"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="47">
         <v>2</v>
       </c>
-      <c r="B39" s="96"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="47">
         <v>3</v>
       </c>
-      <c r="B40" s="57"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="47">
         <v>4</v>
       </c>
       <c r="B41" s="56" t="s">
-        <v>302</v>
-      </c>
-      <c r="C41" s="54" t="s">
-        <v>306</v>
-      </c>
-      <c r="D41" s="54">
-        <v>1</v>
-      </c>
-      <c r="E41" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="54">
+        <v>299</v>
+      </c>
+      <c r="C41" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="D41" s="59">
+        <v>1</v>
+      </c>
+      <c r="E41" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="59">
         <v>1</v>
       </c>
     </row>
@@ -7448,65 +7498,65 @@
       <c r="A42" s="47">
         <v>5</v>
       </c>
-      <c r="B42" s="96"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="47">
         <v>6</v>
       </c>
-      <c r="B43" s="96"/>
-      <c r="C43" s="97"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="47">
         <v>7</v>
       </c>
-      <c r="B44" s="57"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="77" t="s">
-        <v>303</v>
-      </c>
-      <c r="C45" s="78"/>
+      <c r="B45" s="72" t="s">
+        <v>300</v>
+      </c>
+      <c r="C45" s="73"/>
       <c r="D45" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E45" s="77">
+      <c r="E45" s="72">
         <v>8</v>
       </c>
-      <c r="F45" s="78"/>
+      <c r="F45" s="73"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="51">
+      <c r="A46" s="66">
         <v>0</v>
       </c>
       <c r="B46" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="54" t="s">
+      <c r="C46" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="54">
-        <v>1</v>
-      </c>
-      <c r="E46" s="54" t="s">
+      <c r="D46" s="59">
+        <v>1</v>
+      </c>
+      <c r="E46" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="89" t="s">
+      <c r="F46" s="74" t="s">
         <v>45</v>
       </c>
       <c r="G46" s="18" t="s">
@@ -7535,22 +7585,22 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="52"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="90"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="75"/>
       <c r="G47" s="27" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H47" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="I47" s="53" t="s">
+      <c r="I47" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="J47" s="53"/>
+      <c r="J47" s="76"/>
       <c r="K47" s="27" t="s">
         <v>139</v>
       </c>
@@ -7565,22 +7615,22 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="51">
+      <c r="A48" s="66">
         <v>1</v>
       </c>
       <c r="B48" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="D48" s="54">
-        <v>1</v>
-      </c>
-      <c r="E48" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="89" t="s">
+      <c r="D48" s="59">
+        <v>1</v>
+      </c>
+      <c r="E48" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="74" t="s">
         <v>18</v>
       </c>
       <c r="G48" s="44" t="s">
@@ -7609,12 +7659,12 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="52"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="90"/>
+      <c r="A49" s="67"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="75"/>
       <c r="G49" s="10" t="s">
         <v>93</v>
       </c>
@@ -7645,16 +7695,16 @@
       <c r="B50" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="54" t="s">
+      <c r="C50" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="54">
+      <c r="D50" s="59">
         <v>0.01</v>
       </c>
-      <c r="E50" s="54" t="s">
+      <c r="E50" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="54" t="s">
+      <c r="F50" s="59" t="s">
         <v>138</v>
       </c>
     </row>
@@ -7662,11 +7712,11 @@
       <c r="A51" s="46">
         <v>3</v>
       </c>
-      <c r="B51" s="57"/>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="47">
@@ -7675,16 +7725,16 @@
       <c r="B52" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="54" t="s">
+      <c r="C52" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="54">
+      <c r="D52" s="59">
         <v>0.01</v>
       </c>
-      <c r="E52" s="54" t="s">
+      <c r="E52" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="F52" s="54" t="s">
+      <c r="F52" s="59" t="s">
         <v>138</v>
       </c>
     </row>
@@ -7692,29 +7742,29 @@
       <c r="A53" s="46">
         <v>5</v>
       </c>
-      <c r="B53" s="57"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>6</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="C54" s="50" t="s">
+      <c r="C54" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="D54" s="50">
+      <c r="D54" s="53">
         <v>0.01</v>
       </c>
-      <c r="E54" s="50" t="s">
+      <c r="E54" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="F54" s="50" t="s">
+      <c r="F54" s="53" t="s">
         <v>215</v>
       </c>
     </row>
@@ -7722,11 +7772,11 @@
       <c r="A55" s="32">
         <v>7</v>
       </c>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="50"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
@@ -7815,16 +7865,89 @@
     </row>
   </sheetData>
   <mergeCells count="117">
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="E41:E44"/>
-    <mergeCell ref="F41:F44"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="A35:F35"/>
     <mergeCell ref="B36:C36"/>
@@ -7849,89 +7972,16 @@
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G3:N3"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="E41:E44"/>
+    <mergeCell ref="F41:F44"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="F37:F40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7986,45 +8036,45 @@
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="55">
         <v>8</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="58">
+      <c r="A4" s="68">
         <v>0</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="50">
-        <v>1</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="50" t="s">
+      <c r="D4" s="53">
+        <v>1</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="53" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
@@ -8050,19 +8100,19 @@
       <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="53">
         <v>0.1</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="F7" s="50" t="s">
+      <c r="F7" s="53" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8070,29 +8120,29 @@
       <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="53">
         <v>0.01</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="53" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8100,29 +8150,29 @@
       <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>6</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="53">
         <v>0.01</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="53" t="s">
         <v>43</v>
       </c>
     </row>
@@ -8130,11 +8180,11 @@
       <c r="A12" s="5">
         <v>7</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
     </row>
     <row r="13" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="64" t="s">
@@ -8170,35 +8220,35 @@
       <c r="A15" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="48" t="s">
-        <v>304</v>
-      </c>
-      <c r="C15" s="48"/>
+      <c r="B15" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15" s="55"/>
       <c r="D15" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="55">
         <v>8</v>
       </c>
-      <c r="F15" s="48"/>
+      <c r="F15" s="55"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="47">
         <v>0</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="50">
+      <c r="D16" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="53" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8206,29 +8256,29 @@
       <c r="A17" s="47">
         <v>1</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="47">
         <v>2</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E18" s="50" t="s">
+      <c r="E18" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="53" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8236,29 +8286,29 @@
       <c r="A19" s="47">
         <v>3</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="47">
         <v>4</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E20" s="50" t="s">
+      <c r="E20" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="53" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8266,29 +8316,29 @@
       <c r="A21" s="47">
         <v>5</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="47">
         <v>6</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="50">
+      <c r="D22" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="E22" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F22" s="50" t="s">
+      <c r="F22" s="53" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8296,52 +8346,14 @@
       <c r="A23" s="47">
         <v>7</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -8351,6 +8363,44 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8360,10 +8410,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1A9E13-87C1-4307-9B11-1AB0387C93D9}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34:N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8372,6 +8422,8 @@
     <col min="7" max="7" width="11.4140625" customWidth="1"/>
     <col min="12" max="12" width="8.08203125" customWidth="1"/>
     <col min="13" max="13" width="10.9140625" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -8408,35 +8460,35 @@
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="55">
         <v>8</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71">
+      <c r="A4" s="81">
         <v>0</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="50">
-        <v>1</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="50">
+      <c r="D4" s="53">
+        <v>1</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="53">
         <v>1</v>
       </c>
       <c r="G4" s="15" t="s">
@@ -8465,12 +8517,12 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="72"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="8">
         <v>0</v>
       </c>
@@ -8497,96 +8549,52 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="71">
-        <v>1</v>
-      </c>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="81">
+        <v>1</v>
+      </c>
+      <c r="B6" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="50">
-        <v>1</v>
-      </c>
-      <c r="E6" s="50" t="s">
+      <c r="D6" s="53">
+        <v>1</v>
+      </c>
+      <c r="E6" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="50">
-        <v>1</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="N6" s="14" t="s">
-        <v>106</v>
+      <c r="F6" s="53">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="72"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="M7" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="N7" s="63"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="53">
         <v>0.1</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="53" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8594,29 +8602,29 @@
       <c r="A9" s="4">
         <v>3</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>4</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="53">
         <v>0.01</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="53" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8624,11 +8632,11 @@
       <c r="A11" s="4">
         <v>5</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
@@ -8669,50 +8677,50 @@
       <c r="F13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="68" t="s">
+      <c r="G13" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="70"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="80"/>
     </row>
     <row r="14" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="48"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="55">
         <v>8</v>
       </c>
-      <c r="F14" s="48"/>
+      <c r="F14" s="55"/>
     </row>
     <row r="15" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>0</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="53" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8720,29 +8728,29 @@
       <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="53" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8750,29 +8758,29 @@
       <c r="A18" s="4">
         <v>3</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>4</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="50" t="s">
+      <c r="F19" s="53" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8780,11 +8788,11 @@
       <c r="A20" s="4">
         <v>5</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
@@ -8825,26 +8833,26 @@
       <c r="F22" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="74" t="s">
+      <c r="G22" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="103"/>
+      <c r="N22" s="103"/>
     </row>
     <row r="23" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
     </row>
     <row r="24" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
@@ -8870,35 +8878,35 @@
       <c r="A25" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="55" t="s">
         <v>278</v>
       </c>
-      <c r="C25" s="48"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E25" s="48">
+      <c r="E25" s="55">
         <v>8</v>
       </c>
-      <c r="F25" s="48"/>
+      <c r="F25" s="55"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>0</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="53">
         <v>0.1</v>
       </c>
-      <c r="E26" s="50" t="s">
+      <c r="E26" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="F26" s="53" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8906,11 +8914,11 @@
       <c r="A27" s="5">
         <v>1</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
@@ -8926,7 +8934,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>29</v>
@@ -8956,19 +8964,19 @@
       <c r="A30" s="5">
         <v>4</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="50">
+      <c r="D30" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E30" s="50" t="s">
+      <c r="E30" s="53" t="s">
         <v>270</v>
       </c>
-      <c r="F30" s="50" t="s">
+      <c r="F30" s="53" t="s">
         <v>165</v>
       </c>
     </row>
@@ -8976,162 +8984,227 @@
       <c r="A31" s="5">
         <v>5</v>
       </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="51">
+      <c r="A32" s="66">
         <v>6</v>
       </c>
-      <c r="B32" s="65" t="s">
-        <v>282</v>
-      </c>
-      <c r="C32" s="54" t="s">
+      <c r="B32" s="83" t="s">
+        <v>306</v>
+      </c>
+      <c r="C32" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="54">
-        <v>1</v>
-      </c>
-      <c r="E32" s="54" t="s">
+      <c r="D32" s="59">
+        <v>1</v>
+      </c>
+      <c r="E32" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="F32" s="59">
+        <v>1</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N32" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="67"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="50">
+        <v>0</v>
+      </c>
+      <c r="H33" s="50">
+        <v>0</v>
+      </c>
+      <c r="I33" s="102" t="s">
         <v>283</v>
       </c>
-      <c r="F32" s="54">
-        <v>1</v>
-      </c>
-      <c r="G32" s="12" t="s">
+      <c r="J33" s="102"/>
+      <c r="K33" s="101" t="s">
+        <v>216</v>
+      </c>
+      <c r="L33" s="101"/>
+      <c r="M33" s="101"/>
+      <c r="N33" s="101"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="49">
+        <v>7</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="103" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="103"/>
+      <c r="L34" s="103"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="103"/>
+    </row>
+    <row r="36" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G36" s="100" t="s">
+        <v>216</v>
+      </c>
+      <c r="H36" s="100"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="100"/>
+      <c r="K36" s="100"/>
+      <c r="L36" s="100"/>
+      <c r="M36" s="100"/>
+      <c r="N36" s="100"/>
+    </row>
+    <row r="37" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H37" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="I32" s="13" t="s">
+      <c r="I37" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="J32" s="13" t="s">
+      <c r="J37" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="K32" s="13" t="s">
+      <c r="K37" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="L32" s="13" t="s">
+      <c r="L37" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="M32" s="13" t="s">
+      <c r="M37" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="N32" s="14" t="s">
+      <c r="N37" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="52"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="42" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G38" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="H33" s="42" t="s">
+      <c r="H38" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="I33" s="42" t="s">
+      <c r="I38" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="J33" s="42" t="s">
+      <c r="J38" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="K33" s="42" t="s">
+      <c r="K38" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="L33" s="11" t="s">
+      <c r="L38" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="M33" s="62" t="s">
+      <c r="M38" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="N33" s="63"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="51">
-        <v>7</v>
-      </c>
-      <c r="B34" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" s="54">
-        <v>1</v>
-      </c>
-      <c r="E34" s="54" t="s">
-        <v>284</v>
-      </c>
-      <c r="F34" s="54">
-        <v>1</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="J34" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K34" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="L34" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="M34" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="N34" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="52"/>
-      <c r="B35" s="66"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="8">
-        <v>0</v>
-      </c>
-      <c r="H35" s="8">
-        <v>0</v>
-      </c>
-      <c r="I35" s="8">
-        <v>0</v>
-      </c>
-      <c r="J35" s="8">
-        <v>0</v>
-      </c>
-      <c r="K35" s="8">
-        <v>0</v>
-      </c>
-      <c r="L35" s="8">
-        <v>0</v>
-      </c>
-      <c r="M35" s="67" t="s">
-        <v>286</v>
-      </c>
-      <c r="N35" s="67"/>
+      <c r="N38" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="69">
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G36:N36"/>
+    <mergeCell ref="G34:N34"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G22:N22"/>
@@ -9148,62 +9221,6 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="B32:B33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9255,35 +9272,35 @@
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="55">
         <v>8</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="53" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9291,29 +9308,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="53" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9321,29 +9338,29 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="53" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9351,29 +9368,29 @@
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="53" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9381,27 +9398,27 @@
       <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="48"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="55">
         <v>8</v>
       </c>
-      <c r="F12" s="48"/>
+      <c r="F12" s="55"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
@@ -9410,16 +9427,16 @@
       <c r="B13" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="54">
-        <v>1</v>
-      </c>
-      <c r="E13" s="54" t="s">
-        <v>296</v>
-      </c>
-      <c r="F13" s="54">
+      <c r="D13" s="59">
+        <v>1</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>293</v>
+      </c>
+      <c r="F13" s="59">
         <v>1</v>
       </c>
     </row>
@@ -9427,11 +9444,11 @@
       <c r="A14" s="5">
         <v>1</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
@@ -9440,16 +9457,16 @@
       <c r="B15" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="54">
-        <v>1</v>
-      </c>
-      <c r="E15" s="54" t="s">
-        <v>296</v>
-      </c>
-      <c r="F15" s="54">
+      <c r="D15" s="59">
+        <v>1</v>
+      </c>
+      <c r="E15" s="59" t="s">
+        <v>293</v>
+      </c>
+      <c r="F15" s="59">
         <v>1</v>
       </c>
     </row>
@@ -9457,11 +9474,11 @@
       <c r="A16" s="5">
         <v>3</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
@@ -9470,16 +9487,16 @@
       <c r="B17" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="54">
-        <v>1</v>
-      </c>
-      <c r="E17" s="54" t="s">
-        <v>296</v>
-      </c>
-      <c r="F17" s="54">
+      <c r="D17" s="59">
+        <v>1</v>
+      </c>
+      <c r="E17" s="59" t="s">
+        <v>293</v>
+      </c>
+      <c r="F17" s="59">
         <v>1</v>
       </c>
     </row>
@@ -9487,11 +9504,11 @@
       <c r="A18" s="5">
         <v>5</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
@@ -9500,16 +9517,16 @@
       <c r="B19" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="54">
-        <v>1</v>
-      </c>
-      <c r="E19" s="54" t="s">
-        <v>296</v>
-      </c>
-      <c r="F19" s="54">
+      <c r="D19" s="59">
+        <v>1</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>293</v>
+      </c>
+      <c r="F19" s="59">
         <v>1</v>
       </c>
     </row>
@@ -9517,41 +9534,22 @@
       <c r="A20" s="5">
         <v>7</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
@@ -9562,14 +9560,33 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9621,35 +9638,35 @@
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="55">
         <v>8</v>
       </c>
-      <c r="F3" s="48"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F4" s="50" t="s">
+      <c r="F4" s="53" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9657,29 +9674,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="53" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9687,29 +9704,29 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="53" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9717,29 +9734,29 @@
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="53">
         <v>1E-3</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="53" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9747,29 +9764,14 @@
       <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -9778,6 +9780,21 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9810,14 +9827,14 @@
       <c r="E1" s="64"/>
       <c r="F1" s="64"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76" t="s">
+      <c r="I1" s="85"/>
+      <c r="J1" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="76"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
@@ -9839,10 +9856,10 @@
         <v>17</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="76">
+      <c r="H2" s="85">
         <v>0</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="85" t="s">
         <v>64</v>
       </c>
       <c r="J2" s="2">
@@ -9856,20 +9873,20 @@
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="78"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="77">
+      <c r="E3" s="72">
         <v>8</v>
       </c>
-      <c r="F3" s="78"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
       <c r="J3" s="2">
         <v>1</v>
       </c>
@@ -9897,8 +9914,8 @@
         <v>1</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
       <c r="J4" s="2">
         <v>2</v>
       </c>
@@ -9926,10 +9943,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="76">
-        <v>1</v>
-      </c>
-      <c r="I5" s="76" t="s">
+      <c r="H5" s="85">
+        <v>1</v>
+      </c>
+      <c r="I5" s="85" t="s">
         <v>66</v>
       </c>
       <c r="J5" s="2">
@@ -9959,8 +9976,8 @@
         <v>135</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
       <c r="J6" s="2">
         <v>1</v>
       </c>
@@ -9988,8 +10005,8 @@
         <v>135</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
       <c r="J7" s="2">
         <v>2</v>
       </c>
@@ -10017,10 +10034,10 @@
         <v>135</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="76">
+      <c r="H8" s="85">
         <v>2</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="85" t="s">
         <v>65</v>
       </c>
       <c r="J8" s="2">
@@ -10050,8 +10067,8 @@
         <v>135</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="J9" s="2">
         <v>1</v>
       </c>
@@ -10079,8 +10096,8 @@
         <v>135</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
       <c r="J10" s="2">
         <v>2</v>
       </c>
@@ -10108,8 +10125,8 @@
         <v>135</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
       <c r="J11" s="2">
         <v>3</v>
       </c>
@@ -10119,10 +10136,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G12" s="3"/>
-      <c r="H12" s="76">
+      <c r="H12" s="85">
         <v>3</v>
       </c>
-      <c r="I12" s="76" t="s">
+      <c r="I12" s="85" t="s">
         <v>67</v>
       </c>
       <c r="J12" s="2">
@@ -10134,8 +10151,8 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G13" s="3"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
       <c r="J13" s="2">
         <v>1</v>
       </c>
@@ -10145,8 +10162,8 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G14" s="3"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
       <c r="J14" s="2">
         <v>2</v>
       </c>
@@ -10156,8 +10173,8 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G15" s="3"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
       <c r="J15" s="2">
         <v>3</v>
       </c>
@@ -10167,8 +10184,8 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G16" s="3"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
       <c r="J16" s="2">
         <v>4</v>
       </c>
@@ -10178,11 +10195,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="I8:I11"/>
     <mergeCell ref="H12:H16"/>
     <mergeCell ref="I12:I16"/>
     <mergeCell ref="H1:I1"/>
@@ -10191,6 +10203,11 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="I5:I7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I8:I11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10251,17 +10268,17 @@
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="78"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="77">
+      <c r="E3" s="72">
         <v>8</v>
       </c>
-      <c r="F3" s="78"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="1:22" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
@@ -10282,7 +10299,7 @@
       <c r="F4" s="19">
         <v>1</v>
       </c>
-      <c r="H4" s="76" t="s">
+      <c r="H4" s="85" t="s">
         <v>193</v>
       </c>
       <c r="I4" s="36" t="s">
@@ -10311,7 +10328,7 @@
       <c r="F5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="76"/>
+      <c r="H5" s="85"/>
       <c r="I5" s="36" t="s">
         <v>253</v>
       </c>
@@ -10338,7 +10355,7 @@
       <c r="F6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="76"/>
+      <c r="H6" s="85"/>
       <c r="I6" s="36" t="s">
         <v>226</v>
       </c>
@@ -10371,7 +10388,7 @@
       <c r="F7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="76"/>
+      <c r="H7" s="85"/>
       <c r="I7" s="36" t="s">
         <v>227</v>
       </c>
@@ -10398,7 +10415,7 @@
       <c r="F8" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="76"/>
+      <c r="H8" s="85"/>
       <c r="I8" s="36" t="s">
         <v>233</v>
       </c>
@@ -10476,17 +10493,17 @@
       <c r="A12" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="78"/>
+      <c r="C12" s="73"/>
       <c r="D12" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="77">
+      <c r="E12" s="72">
         <v>8</v>
       </c>
-      <c r="F12" s="78"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="3"/>
       <c r="H12" s="2" t="s">
         <v>63</v>
@@ -10513,7 +10530,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="76">
+      <c r="H13" s="85">
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
@@ -10544,8 +10561,8 @@
         <v>1</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76" t="s">
+      <c r="H14" s="85"/>
+      <c r="I14" s="85" t="s">
         <v>64</v>
       </c>
       <c r="J14" s="2">
@@ -10575,8 +10592,8 @@
         <v>135</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
       <c r="J15" s="2">
         <v>1</v>
       </c>
@@ -10604,10 +10621,10 @@
         <v>135</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="76">
-        <v>1</v>
-      </c>
-      <c r="I16" s="76"/>
+      <c r="H16" s="85">
+        <v>1</v>
+      </c>
+      <c r="I16" s="85"/>
       <c r="J16" s="2">
         <v>2</v>
       </c>
@@ -10635,8 +10652,8 @@
         <v>135</v>
       </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76" t="s">
+      <c r="H17" s="85"/>
+      <c r="I17" s="85" t="s">
         <v>66</v>
       </c>
       <c r="J17" s="2">
@@ -10666,8 +10683,8 @@
         <v>135</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
       <c r="J18" s="2">
         <v>1</v>
       </c>
@@ -10695,10 +10712,10 @@
         <v>135</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="76">
+      <c r="H19" s="85">
         <v>2</v>
       </c>
-      <c r="I19" s="76"/>
+      <c r="I19" s="85"/>
       <c r="J19" s="2">
         <v>2</v>
       </c>
@@ -10726,8 +10743,8 @@
         <v>135</v>
       </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76" t="s">
+      <c r="H20" s="85"/>
+      <c r="I20" s="85" t="s">
         <v>65</v>
       </c>
       <c r="J20" s="2">
@@ -10747,8 +10764,8 @@
       <c r="E21" s="64"/>
       <c r="F21" s="64"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
       <c r="J21" s="2">
         <v>1</v>
       </c>
@@ -10760,20 +10777,20 @@
       <c r="A22" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="72" t="s">
         <v>231</v>
       </c>
-      <c r="C22" s="78"/>
+      <c r="C22" s="73"/>
       <c r="D22" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E22" s="77">
+      <c r="E22" s="72">
         <v>8</v>
       </c>
-      <c r="F22" s="78"/>
+      <c r="F22" s="73"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
       <c r="J22" s="2">
         <v>2</v>
       </c>
@@ -10801,10 +10818,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="76">
+      <c r="H23" s="85">
         <v>3</v>
       </c>
-      <c r="I23" s="76"/>
+      <c r="I23" s="85"/>
       <c r="J23" s="2">
         <v>3</v>
       </c>
@@ -10832,8 +10849,8 @@
         <v>18</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76" t="s">
+      <c r="H24" s="85"/>
+      <c r="I24" s="85" t="s">
         <v>67</v>
       </c>
       <c r="J24" s="2">
@@ -10863,8 +10880,8 @@
         <v>18</v>
       </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
       <c r="J25" s="2">
         <v>1</v>
       </c>
@@ -10892,8 +10909,8 @@
         <v>18</v>
       </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
       <c r="J26" s="2">
         <v>2</v>
       </c>
@@ -10921,8 +10938,8 @@
         <v>18</v>
       </c>
       <c r="G27" s="3"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
       <c r="J27" s="2">
         <v>3</v>
       </c>
@@ -10949,7 +10966,7 @@
       <c r="F28" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="76"/>
+      <c r="I28" s="85"/>
       <c r="J28" s="2">
         <v>4</v>
       </c>
@@ -10995,13 +11012,13 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="79" t="s">
+      <c r="A31" s="86" t="s">
         <v>237</v>
       </c>
-      <c r="B31" s="81" t="s">
+      <c r="B31" s="88" t="s">
         <v>246</v>
       </c>
-      <c r="C31" s="82"/>
+      <c r="C31" s="89"/>
       <c r="D31" s="38" t="s">
         <v>238</v>
       </c>
@@ -11009,11 +11026,11 @@
       <c r="F31" s="37"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="80"/>
-      <c r="B32" s="83" t="s">
+      <c r="A32" s="87"/>
+      <c r="B32" s="90" t="s">
         <v>244</v>
       </c>
-      <c r="C32" s="84"/>
+      <c r="C32" s="91"/>
       <c r="D32" s="39" t="s">
         <v>239</v>
       </c>
@@ -11021,11 +11038,11 @@
       <c r="F32" s="37"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="80"/>
-      <c r="B33" s="83" t="s">
+      <c r="A33" s="87"/>
+      <c r="B33" s="90" t="s">
         <v>245</v>
       </c>
-      <c r="C33" s="84"/>
+      <c r="C33" s="91"/>
       <c r="D33" s="39" t="s">
         <v>243</v>
       </c>
@@ -11033,11 +11050,11 @@
       <c r="F33" s="37"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="80"/>
-      <c r="B34" s="85" t="s">
+      <c r="A34" s="87"/>
+      <c r="B34" s="92" t="s">
         <v>241</v>
       </c>
-      <c r="C34" s="86"/>
+      <c r="C34" s="93"/>
       <c r="D34" s="40" t="s">
         <v>240</v>
       </c>
@@ -11045,11 +11062,11 @@
       <c r="F34" s="37"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="80"/>
-      <c r="B35" s="85" t="s">
+      <c r="A35" s="87"/>
+      <c r="B35" s="92" t="s">
         <v>248</v>
       </c>
-      <c r="C35" s="86"/>
+      <c r="C35" s="93"/>
       <c r="D35" s="40" t="s">
         <v>247</v>
       </c>
@@ -11057,11 +11074,11 @@
       <c r="F35" s="37"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="80"/>
-      <c r="B36" s="87" t="s">
+      <c r="A36" s="87"/>
+      <c r="B36" s="94" t="s">
         <v>249</v>
       </c>
-      <c r="C36" s="88"/>
+      <c r="C36" s="95"/>
       <c r="D36" s="41" t="s">
         <v>242</v>
       </c>
@@ -11070,6 +11087,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H22"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="B12:C12"/>
@@ -11081,19 +11111,6 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="H4:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/Protocol/CAN总线协议.xlsx
+++ b/Doc/Protocol/CAN总线协议.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2032E574-0C63-4379-B512-442B651BCD93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0018F7-F485-45F7-8FD4-5C4D6343FBCC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="超声波原始数据(RX)" sheetId="12" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="334">
   <si>
     <t>字节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1245,6 +1245,114 @@
   </si>
   <si>
     <t>使能/挡位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>障碍物检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xC0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角定位障碍物坐标(地面坐标系)[6~7号传感器]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角定位障碍物坐标(地面坐标系)[11~12号传感器]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x50C~0x50D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x50E~0x50F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据注入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超声波障碍物定位控制命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x533</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始定位数据采集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端车位点计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端车位点计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ready</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Push</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calculate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x449</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Front_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Front_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rear_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rear_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x44A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超声障碍物定位库位信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x5A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1933,7 +2041,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2088,74 +2196,118 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="11" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="19" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="31" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="21" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="22" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="30" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="31" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="21" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="22" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2175,15 +2327,49 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="33" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="28" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2196,12 +2382,6 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="26" xfId="17" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="27" xfId="18" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2215,25 +2395,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="33" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="19" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="20" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2539,20 +2700,20 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F22" sqref="A12:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -2578,35 +2739,35 @@
       <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="68">
         <v>8</v>
       </c>
-      <c r="F3" s="55"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="53">
-        <v>1</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="53" t="s">
+      <c r="D4" s="66">
+        <v>1</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="66" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2614,29 +2775,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="53">
-        <v>1</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="53" t="s">
+      <c r="D6" s="66">
+        <v>1</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="66" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2644,11 +2805,11 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
@@ -2731,14 +2892,14 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="67" t="s">
         <v>250</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
     </row>
     <row r="13" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
@@ -2764,35 +2925,35 @@
       <c r="A14" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="55"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="55">
+      <c r="E14" s="68">
         <v>8</v>
       </c>
-      <c r="F14" s="55"/>
+      <c r="F14" s="68"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>0</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="66" t="s">
         <v>251</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="66">
         <v>0.01</v>
       </c>
-      <c r="E15" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="53" t="s">
+      <c r="E15" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2800,29 +2961,29 @@
       <c r="A16" s="5">
         <v>1</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="66" t="s">
         <v>252</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="66">
         <v>0.01</v>
       </c>
-      <c r="E17" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="53" t="s">
+      <c r="E17" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2830,11 +2991,11 @@
       <c r="A18" s="5">
         <v>3</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
@@ -2953,10 +3114,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035C941A-BCE1-46E3-89DE-EEDC1055935D}">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94:F94"/>
+    <sheetView topLeftCell="A91" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105:F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2982,48 +3143,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="77" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="68">
         <v>8</v>
       </c>
-      <c r="F3" s="55"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="66">
         <v>0.01</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3031,29 +3192,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="66">
         <v>0.01</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3061,29 +3222,29 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="66">
         <v>0.01</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="66" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3091,29 +3252,29 @@
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="66">
+      <c r="A10" s="79">
         <v>6</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="D10" s="59">
-        <v>1</v>
-      </c>
-      <c r="E10" s="59" t="s">
+      <c r="D10" s="72">
+        <v>1</v>
+      </c>
+      <c r="E10" s="72" t="s">
         <v>302</v>
       </c>
-      <c r="F10" s="74">
+      <c r="F10" s="88">
         <v>1</v>
       </c>
       <c r="G10" s="34">
@@ -3130,12 +3291,12 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="67"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="75"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="89"/>
       <c r="G11" s="34" t="s">
         <v>204</v>
       </c>
@@ -3160,48 +3321,48 @@
       <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="55"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="55">
+      <c r="E14" s="68">
         <v>8</v>
       </c>
-      <c r="F14" s="55"/>
+      <c r="F14" s="68"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>0</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="66" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="66">
         <v>1E-3</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3209,29 +3370,29 @@
       <c r="A16" s="5">
         <v>1</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="66">
         <v>1E-3</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3239,29 +3400,29 @@
       <c r="A18" s="5">
         <v>3</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>4</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="66">
         <v>1E-3</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3269,29 +3430,29 @@
       <c r="A20" s="5">
         <v>5</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>6</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="53">
+      <c r="D21" s="66">
         <v>1E-3</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3299,21 +3460,21 @@
       <c r="A22" s="5">
         <v>7</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
     </row>
     <row r="23" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
@@ -3339,35 +3500,35 @@
       <c r="A25" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="C25" s="55"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E25" s="55">
+      <c r="E25" s="68">
         <v>8</v>
       </c>
-      <c r="F25" s="55"/>
+      <c r="F25" s="68"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>0</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="53">
+      <c r="D26" s="66">
         <v>0.01</v>
       </c>
-      <c r="E26" s="53" t="s">
+      <c r="E26" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="F26" s="53" t="s">
+      <c r="F26" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3375,29 +3536,29 @@
       <c r="A27" s="5">
         <v>1</v>
       </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>2</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="53">
+      <c r="D28" s="66">
         <v>0.01</v>
       </c>
-      <c r="E28" s="53" t="s">
+      <c r="E28" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="F28" s="53" t="s">
+      <c r="F28" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3405,29 +3566,29 @@
       <c r="A29" s="5">
         <v>3</v>
       </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>4</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="53">
+      <c r="D30" s="66">
         <v>0.01</v>
       </c>
-      <c r="E30" s="53" t="s">
+      <c r="E30" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="F30" s="53" t="s">
+      <c r="F30" s="66" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3435,29 +3596,29 @@
       <c r="A31" s="5">
         <v>5</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>6</v>
       </c>
-      <c r="B32" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="53" t="s">
+      <c r="B32" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="66" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3465,55 +3626,55 @@
       <c r="A33" s="5">
         <v>7</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
     </row>
     <row r="34" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="64" t="s">
+      <c r="A34" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="C35" s="55"/>
+      <c r="C35" s="68"/>
       <c r="D35" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E35" s="55">
+      <c r="E35" s="68">
         <v>8</v>
       </c>
-      <c r="F35" s="55"/>
+      <c r="F35" s="68"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>0</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="53">
+      <c r="D36" s="66">
         <v>0.01</v>
       </c>
-      <c r="E36" s="53" t="s">
+      <c r="E36" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="53" t="s">
+      <c r="F36" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3521,29 +3682,29 @@
       <c r="A37" s="5">
         <v>1</v>
       </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>2</v>
       </c>
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="C38" s="53" t="s">
+      <c r="C38" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="53">
+      <c r="D38" s="66">
         <v>0.01</v>
       </c>
-      <c r="E38" s="53" t="s">
+      <c r="E38" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="F38" s="53" t="s">
+      <c r="F38" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3551,29 +3712,29 @@
       <c r="A39" s="5">
         <v>3</v>
       </c>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>4</v>
       </c>
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="C40" s="53" t="s">
+      <c r="C40" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="53">
+      <c r="D40" s="66">
         <v>0.01</v>
       </c>
-      <c r="E40" s="53" t="s">
+      <c r="E40" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="F40" s="53" t="s">
+      <c r="F40" s="66" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3581,11 +3742,11 @@
       <c r="A41" s="5">
         <v>5</v>
       </c>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="53"/>
-      <c r="F41" s="53"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
@@ -3628,48 +3789,48 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="64" t="s">
+      <c r="A44" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="B44" s="64"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="64"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="68" t="s">
         <v>196</v>
       </c>
-      <c r="C45" s="55"/>
+      <c r="C45" s="68"/>
       <c r="D45" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E45" s="55">
+      <c r="E45" s="68">
         <v>8</v>
       </c>
-      <c r="F45" s="55"/>
+      <c r="F45" s="68"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>0</v>
       </c>
-      <c r="B46" s="53" t="s">
+      <c r="B46" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="C46" s="53" t="s">
+      <c r="C46" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="53">
+      <c r="D46" s="66">
         <v>0.01</v>
       </c>
-      <c r="E46" s="53" t="s">
+      <c r="E46" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="F46" s="53" t="s">
+      <c r="F46" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3677,29 +3838,29 @@
       <c r="A47" s="5">
         <v>1</v>
       </c>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>2</v>
       </c>
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="53">
+      <c r="D48" s="66">
         <v>0.01</v>
       </c>
-      <c r="E48" s="53" t="s">
+      <c r="E48" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="F48" s="53" t="s">
+      <c r="F48" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3707,29 +3868,29 @@
       <c r="A49" s="5">
         <v>3</v>
       </c>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>4</v>
       </c>
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="C50" s="53" t="s">
+      <c r="C50" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="53">
+      <c r="D50" s="66">
         <v>0.01</v>
       </c>
-      <c r="E50" s="53" t="s">
+      <c r="E50" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="F50" s="53" t="s">
+      <c r="F50" s="66" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3737,11 +3898,11 @@
       <c r="A51" s="5">
         <v>5</v>
       </c>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
@@ -3784,48 +3945,48 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="64" t="s">
+      <c r="A54" s="77" t="s">
         <v>197</v>
       </c>
-      <c r="B54" s="64"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="55" t="s">
+      <c r="B55" s="68" t="s">
         <v>198</v>
       </c>
-      <c r="C55" s="55"/>
+      <c r="C55" s="68"/>
       <c r="D55" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E55" s="55">
+      <c r="E55" s="68">
         <v>8</v>
       </c>
-      <c r="F55" s="55"/>
+      <c r="F55" s="68"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>0</v>
       </c>
-      <c r="B56" s="53" t="s">
+      <c r="B56" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="53" t="s">
+      <c r="C56" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="53">
+      <c r="D56" s="66">
         <v>0.01</v>
       </c>
-      <c r="E56" s="53" t="s">
+      <c r="E56" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="F56" s="53" t="s">
+      <c r="F56" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3833,29 +3994,29 @@
       <c r="A57" s="5">
         <v>1</v>
       </c>
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>2</v>
       </c>
-      <c r="B58" s="53" t="s">
+      <c r="B58" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="C58" s="53" t="s">
+      <c r="C58" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="53">
+      <c r="D58" s="66">
         <v>0.01</v>
       </c>
-      <c r="E58" s="53" t="s">
+      <c r="E58" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="F58" s="53" t="s">
+      <c r="F58" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3863,29 +4024,29 @@
       <c r="A59" s="5">
         <v>3</v>
       </c>
-      <c r="B59" s="53"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="53"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="66"/>
+      <c r="F59" s="66"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>4</v>
       </c>
-      <c r="B60" s="53" t="s">
+      <c r="B60" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="C60" s="53" t="s">
+      <c r="C60" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="53">
+      <c r="D60" s="66">
         <v>0.01</v>
       </c>
-      <c r="E60" s="53" t="s">
+      <c r="E60" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="F60" s="53" t="s">
+      <c r="F60" s="66" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3893,11 +4054,11 @@
       <c r="A61" s="5">
         <v>5</v>
       </c>
-      <c r="B61" s="53"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
@@ -3940,48 +4101,48 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="64" t="s">
+      <c r="A64" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="B64" s="64"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
+      <c r="B64" s="77"/>
+      <c r="C64" s="77"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="55" t="s">
+      <c r="B65" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="C65" s="55"/>
+      <c r="C65" s="68"/>
       <c r="D65" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E65" s="55">
+      <c r="E65" s="68">
         <v>8</v>
       </c>
-      <c r="F65" s="55"/>
+      <c r="F65" s="68"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>0</v>
       </c>
-      <c r="B66" s="53" t="s">
+      <c r="B66" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="C66" s="53" t="s">
+      <c r="C66" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="53">
+      <c r="D66" s="66">
         <v>0.01</v>
       </c>
-      <c r="E66" s="53" t="s">
+      <c r="E66" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="F66" s="53" t="s">
+      <c r="F66" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3989,29 +4150,29 @@
       <c r="A67" s="5">
         <v>1</v>
       </c>
-      <c r="B67" s="53"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="53"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>2</v>
       </c>
-      <c r="B68" s="53" t="s">
+      <c r="B68" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="C68" s="53" t="s">
+      <c r="C68" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="53">
+      <c r="D68" s="66">
         <v>0.01</v>
       </c>
-      <c r="E68" s="53" t="s">
+      <c r="E68" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="F68" s="53" t="s">
+      <c r="F68" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4019,29 +4180,29 @@
       <c r="A69" s="5">
         <v>3</v>
       </c>
-      <c r="B69" s="53"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="66"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="66"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>4</v>
       </c>
-      <c r="B70" s="53" t="s">
+      <c r="B70" s="66" t="s">
         <v>209</v>
       </c>
-      <c r="C70" s="53" t="s">
+      <c r="C70" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="53">
+      <c r="D70" s="66">
         <v>0.1</v>
       </c>
-      <c r="E70" s="53" t="s">
+      <c r="E70" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="F70" s="53" t="s">
+      <c r="F70" s="66" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4049,11 +4210,11 @@
       <c r="A71" s="5">
         <v>5</v>
       </c>
-      <c r="B71" s="53"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="53"/>
-      <c r="F71" s="53"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
@@ -4086,48 +4247,48 @@
       <c r="F73" s="19"/>
     </row>
     <row r="74" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="64" t="s">
+      <c r="A74" s="77" t="s">
         <v>220</v>
       </c>
-      <c r="B74" s="64"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
+      <c r="B74" s="77"/>
+      <c r="C74" s="77"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="77"/>
+      <c r="F74" s="77"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="55" t="s">
+      <c r="B75" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="C75" s="55"/>
+      <c r="C75" s="68"/>
       <c r="D75" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E75" s="55">
+      <c r="E75" s="68">
         <v>8</v>
       </c>
-      <c r="F75" s="55"/>
+      <c r="F75" s="68"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>0</v>
       </c>
-      <c r="B76" s="53" t="s">
+      <c r="B76" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="C76" s="53" t="s">
+      <c r="C76" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D76" s="53">
+      <c r="D76" s="66">
         <v>0.01</v>
       </c>
-      <c r="E76" s="53" t="s">
+      <c r="E76" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="F76" s="53" t="s">
+      <c r="F76" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4135,29 +4296,29 @@
       <c r="A77" s="5">
         <v>1</v>
       </c>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
+      <c r="B77" s="66"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>2</v>
       </c>
-      <c r="B78" s="53" t="s">
+      <c r="B78" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="C78" s="53" t="s">
+      <c r="C78" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="53">
+      <c r="D78" s="66">
         <v>0.01</v>
       </c>
-      <c r="E78" s="53" t="s">
+      <c r="E78" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="F78" s="53" t="s">
+      <c r="F78" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4165,31 +4326,31 @@
       <c r="A79" s="5">
         <v>3</v>
       </c>
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="53"/>
-      <c r="E79" s="53"/>
-      <c r="F79" s="53"/>
+      <c r="B79" s="66"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>4</v>
       </c>
-      <c r="B80" s="53"/>
-      <c r="C80" s="53"/>
-      <c r="D80" s="53"/>
-      <c r="E80" s="53"/>
-      <c r="F80" s="53"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="66"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="66"/>
+      <c r="F80" s="66"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>5</v>
       </c>
-      <c r="B81" s="53"/>
-      <c r="C81" s="53"/>
-      <c r="D81" s="53"/>
-      <c r="E81" s="53"/>
-      <c r="F81" s="53"/>
+      <c r="B81" s="66"/>
+      <c r="C81" s="66"/>
+      <c r="D81" s="66"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
@@ -4212,30 +4373,30 @@
       <c r="F83" s="19"/>
     </row>
     <row r="84" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="64" t="s">
+      <c r="A84" s="77" t="s">
         <v>221</v>
       </c>
-      <c r="B84" s="64"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="64"/>
+      <c r="B84" s="77"/>
+      <c r="C84" s="77"/>
+      <c r="D84" s="77"/>
+      <c r="E84" s="77"/>
+      <c r="F84" s="77"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="55" t="s">
+      <c r="B85" s="68" t="s">
         <v>225</v>
       </c>
-      <c r="C85" s="55"/>
+      <c r="C85" s="68"/>
       <c r="D85" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E85" s="55">
+      <c r="E85" s="68">
         <v>8</v>
       </c>
-      <c r="F85" s="55"/>
+      <c r="F85" s="68"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
@@ -4327,116 +4488,306 @@
       <c r="E93" s="19"/>
       <c r="F93" s="19"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B94" s="72" t="s">
-        <v>225</v>
-      </c>
-      <c r="C94" s="73"/>
-      <c r="D94" s="22" t="s">
+    <row r="94" spans="1:6" s="59" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="77" t="s">
+        <v>331</v>
+      </c>
+      <c r="B94" s="77"/>
+      <c r="C94" s="77"/>
+      <c r="D94" s="77"/>
+      <c r="E94" s="77"/>
+      <c r="F94" s="77"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="86" t="s">
+        <v>325</v>
+      </c>
+      <c r="C95" s="87"/>
+      <c r="D95" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E94" s="72">
+      <c r="E95" s="86">
         <v>8</v>
       </c>
-      <c r="F94" s="73"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="5">
-        <v>0</v>
-      </c>
-      <c r="B95" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C95" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D95" s="19">
-        <v>1</v>
-      </c>
-      <c r="E95" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F95" s="19" t="s">
-        <v>18</v>
-      </c>
+      <c r="F95" s="87"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
-        <v>1</v>
-      </c>
-      <c r="B96" s="35"/>
-      <c r="C96" s="35"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="35"/>
-      <c r="F96" s="35"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="B96" s="66" t="s">
+        <v>326</v>
+      </c>
+      <c r="C96" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96" s="66">
+        <v>1E-3</v>
+      </c>
+      <c r="E96" s="66" t="s">
+        <v>270</v>
+      </c>
+      <c r="F96" s="66" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
+        <v>1</v>
+      </c>
+      <c r="B97" s="66"/>
+      <c r="C97" s="66"/>
+      <c r="D97" s="66"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="66"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="5">
         <v>2</v>
       </c>
-      <c r="B97" s="35"/>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="5">
+      <c r="B98" s="66" t="s">
+        <v>327</v>
+      </c>
+      <c r="C98" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" s="66">
+        <v>1E-3</v>
+      </c>
+      <c r="E98" s="66" t="s">
+        <v>270</v>
+      </c>
+      <c r="F98" s="66" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="5">
         <v>3</v>
       </c>
-      <c r="B98" s="35"/>
-      <c r="C98" s="35"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="5">
+      <c r="B99" s="66"/>
+      <c r="C99" s="66"/>
+      <c r="D99" s="66"/>
+      <c r="E99" s="66"/>
+      <c r="F99" s="66"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" s="5">
         <v>4</v>
       </c>
-      <c r="B99" s="35"/>
-      <c r="C99" s="35"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="35"/>
-      <c r="F99" s="35"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="5">
+      <c r="B100" s="66" t="s">
+        <v>328</v>
+      </c>
+      <c r="C100" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="66">
+        <v>1E-3</v>
+      </c>
+      <c r="E100" s="66" t="s">
+        <v>270</v>
+      </c>
+      <c r="F100" s="66" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" s="5">
         <v>5</v>
       </c>
-      <c r="B100" s="35"/>
-      <c r="C100" s="35"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="35"/>
-      <c r="F100" s="35"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="5">
+      <c r="B101" s="66"/>
+      <c r="C101" s="66"/>
+      <c r="D101" s="66"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="66"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" s="5">
         <v>6</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="5">
+      <c r="B102" s="66" t="s">
+        <v>329</v>
+      </c>
+      <c r="C102" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D102" s="66">
+        <v>1E-3</v>
+      </c>
+      <c r="E102" s="66" t="s">
+        <v>270</v>
+      </c>
+      <c r="F102" s="66" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" s="55">
         <v>7</v>
       </c>
-      <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
+      <c r="B103" s="66"/>
+      <c r="C103" s="66"/>
+      <c r="D103" s="66"/>
+      <c r="E103" s="66"/>
+      <c r="F103" s="66"/>
+    </row>
+    <row r="104" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="77" t="s">
+        <v>221</v>
+      </c>
+      <c r="B104" s="77"/>
+      <c r="C104" s="77"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="77"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105" s="68" t="s">
+        <v>330</v>
+      </c>
+      <c r="C105" s="68"/>
+      <c r="D105" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E105" s="68">
+        <v>8</v>
+      </c>
+      <c r="F105" s="68"/>
+    </row>
+    <row r="106" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="79">
+        <v>0</v>
+      </c>
+      <c r="B106" s="81" t="s">
+        <v>320</v>
+      </c>
+      <c r="C106" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="D106" s="72">
+        <v>1</v>
+      </c>
+      <c r="E106" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="G106" s="4">
+        <v>0</v>
+      </c>
+      <c r="H106" s="4">
+        <v>1</v>
+      </c>
+      <c r="I106" s="4">
+        <v>2</v>
+      </c>
+      <c r="J106" s="4">
+        <v>3</v>
+      </c>
+      <c r="K106" s="65"/>
+      <c r="L106" s="65"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="80"/>
+      <c r="B107" s="82"/>
+      <c r="C107" s="74"/>
+      <c r="D107" s="74"/>
+      <c r="E107" s="74"/>
+      <c r="F107" s="74"/>
+      <c r="G107" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="K107" s="65"/>
+      <c r="L107" s="65"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="55">
+        <v>1</v>
+      </c>
+      <c r="B108" s="35"/>
+      <c r="C108" s="35"/>
+      <c r="D108" s="35"/>
+      <c r="E108" s="35"/>
+      <c r="F108" s="35"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" s="55">
+        <v>2</v>
+      </c>
+      <c r="B109" s="35"/>
+      <c r="C109" s="35"/>
+      <c r="D109" s="35"/>
+      <c r="E109" s="35"/>
+      <c r="F109" s="35"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A110" s="55">
+        <v>3</v>
+      </c>
+      <c r="B110" s="35"/>
+      <c r="C110" s="35"/>
+      <c r="D110" s="35"/>
+      <c r="E110" s="35"/>
+      <c r="F110" s="35"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111" s="55">
+        <v>4</v>
+      </c>
+      <c r="B111" s="35"/>
+      <c r="C111" s="35"/>
+      <c r="D111" s="35"/>
+      <c r="E111" s="35"/>
+      <c r="F111" s="35"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A112" s="55">
+        <v>5</v>
+      </c>
+      <c r="B112" s="35"/>
+      <c r="C112" s="35"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="35"/>
+      <c r="F112" s="35"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="55">
+        <v>6</v>
+      </c>
+      <c r="B113" s="53"/>
+      <c r="C113" s="53"/>
+      <c r="D113" s="53"/>
+      <c r="E113" s="53"/>
+      <c r="F113" s="53"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="55">
+        <v>7</v>
+      </c>
+      <c r="B114" s="53"/>
+      <c r="C114" s="53"/>
+      <c r="D114" s="53"/>
+      <c r="E114" s="53"/>
+      <c r="F114" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="165">
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
+  <mergeCells count="195">
     <mergeCell ref="E78:E79"/>
     <mergeCell ref="F78:F79"/>
     <mergeCell ref="A23:F23"/>
@@ -4576,8 +4927,6 @@
     <mergeCell ref="D68:D69"/>
     <mergeCell ref="E68:E69"/>
     <mergeCell ref="F68:F69"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="E94:F94"/>
     <mergeCell ref="A84:F84"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="E85:F85"/>
@@ -4600,6 +4949,40 @@
     <mergeCell ref="E76:E77"/>
     <mergeCell ref="F76:F77"/>
     <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="A104:F104"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4641,48 +5024,48 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="68">
         <v>8</v>
       </c>
-      <c r="F3" s="55"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="66">
         <v>0.01</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4690,29 +5073,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="66">
         <v>0.01</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4720,29 +5103,29 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="66">
         <v>0.01</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="66" t="s">
         <v>268</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="66" t="s">
         <v>267</v>
       </c>
     </row>
@@ -4750,29 +5133,29 @@
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="66">
         <v>0.01</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4780,55 +5163,55 @@
       <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
     </row>
     <row r="12" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="55"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="68">
         <v>8</v>
       </c>
-      <c r="F13" s="55"/>
+      <c r="F13" s="68"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>0</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="66" t="s">
         <v>173</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="53">
+      <c r="D14" s="66">
         <v>1E-3</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4836,29 +5219,29 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="66">
         <v>1E-3</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4866,29 +5249,29 @@
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="66">
         <v>1E-3</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4896,29 +5279,29 @@
       <c r="A19" s="5">
         <v>5</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>6</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="53">
+      <c r="D20" s="66">
         <v>1E-3</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4926,11 +5309,11 @@
       <c r="A21" s="5">
         <v>7</v>
       </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="46">
@@ -4989,23 +5372,23 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987AFC64-1F61-4893-BCF1-55964C99EF0C}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C7"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
@@ -5031,17 +5414,17 @@
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="73"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="86">
         <v>8</v>
       </c>
-      <c r="F3" s="73"/>
+      <c r="F3" s="87"/>
     </row>
     <row r="4" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -5203,11 +5586,220 @@
         <v>18</v>
       </c>
     </row>
+    <row r="13" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="86" t="s">
+        <v>332</v>
+      </c>
+      <c r="C15" s="87"/>
+      <c r="D15" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="86">
+        <v>8</v>
+      </c>
+      <c r="F15" s="87"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="62">
+        <v>0</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>333</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="60">
+        <v>1</v>
+      </c>
+      <c r="E16" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="62">
+        <v>1</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="61">
+        <v>1</v>
+      </c>
+      <c r="E17" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="62">
+        <v>2</v>
+      </c>
+      <c r="B18" s="63">
+        <v>0</v>
+      </c>
+      <c r="C18" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="62">
+        <v>3</v>
+      </c>
+      <c r="B19" s="63">
+        <v>0</v>
+      </c>
+      <c r="C19" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="62">
+        <v>4</v>
+      </c>
+      <c r="B20" s="63">
+        <v>0</v>
+      </c>
+      <c r="C20" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="62">
+        <v>5</v>
+      </c>
+      <c r="B21" s="63">
+        <v>0</v>
+      </c>
+      <c r="C21" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="62">
+        <v>6</v>
+      </c>
+      <c r="B22" s="63">
+        <v>0</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="62">
+        <v>7</v>
+      </c>
+      <c r="B23" s="63">
+        <v>0</v>
+      </c>
+      <c r="C23" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="63" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5229,14 +5821,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -5262,35 +5854,35 @@
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="68">
         <v>8</v>
       </c>
-      <c r="F3" s="55"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>0</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="53">
-        <v>1</v>
-      </c>
-      <c r="E4" s="53" t="s">
+      <c r="D4" s="66">
+        <v>1</v>
+      </c>
+      <c r="E4" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="66" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5298,49 +5890,49 @@
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="53">
-        <v>1</v>
-      </c>
-      <c r="E8" s="53" t="s">
+      <c r="D8" s="66">
+        <v>1</v>
+      </c>
+      <c r="E8" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="66" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5348,65 +5940,65 @@
       <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="55"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="68">
         <v>8</v>
       </c>
-      <c r="F12" s="55"/>
+      <c r="F12" s="68"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>0</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="53">
-        <v>1</v>
-      </c>
-      <c r="E13" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="53" t="s">
+      <c r="D13" s="66">
+        <v>1</v>
+      </c>
+      <c r="E13" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="66" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5414,49 +6006,49 @@
       <c r="A14" s="4">
         <v>1</v>
       </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>3</v>
       </c>
-      <c r="B16" s="77"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>4</v>
       </c>
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="53">
-        <v>1</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="53" t="s">
+      <c r="D17" s="66">
+        <v>1</v>
+      </c>
+      <c r="E17" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="66" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5464,65 +6056,65 @@
       <c r="A18" s="4">
         <v>5</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>6</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>7</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="55"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E21" s="55">
+      <c r="E21" s="68">
         <v>8</v>
       </c>
-      <c r="F21" s="55"/>
+      <c r="F21" s="68"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>0</v>
       </c>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="53">
-        <v>1</v>
-      </c>
-      <c r="E22" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="53" t="s">
+      <c r="D22" s="66">
+        <v>1</v>
+      </c>
+      <c r="E22" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="66" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5530,49 +6122,49 @@
       <c r="A23" s="4">
         <v>1</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>2</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>4</v>
       </c>
-      <c r="B26" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="53" t="s">
+      <c r="B26" s="93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="E26" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="53" t="s">
+      <c r="E26" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="66" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5580,31 +6172,31 @@
       <c r="A27" s="4">
         <v>5</v>
       </c>
-      <c r="B27" s="77"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>6</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>7</v>
       </c>
-      <c r="B29" s="77"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -5663,14 +6255,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="77" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
@@ -5696,17 +6288,17 @@
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="86" t="s">
         <v>256</v>
       </c>
-      <c r="C3" s="73"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="86">
         <v>8</v>
       </c>
-      <c r="F3" s="73"/>
+      <c r="F3" s="87"/>
     </row>
     <row r="4" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -5891,14 +6483,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="67" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -5924,35 +6516,35 @@
       <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="68" t="s">
         <v>269</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="68">
         <v>8</v>
       </c>
-      <c r="F3" s="55"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="53">
-        <v>1</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="53" t="s">
+      <c r="D4" s="66">
+        <v>1</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="66" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5960,29 +6552,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="53">
-        <v>1</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="53" t="s">
+      <c r="D6" s="66">
+        <v>1</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="66" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5990,11 +6582,11 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
@@ -6077,14 +6669,14 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="122" t="s">
         <v>285</v>
       </c>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -6123,14 +6715,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="67" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
     </row>
     <row r="2" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -6156,35 +6748,35 @@
       <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="68" t="s">
         <v>273</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="68">
         <v>8</v>
       </c>
-      <c r="F3" s="55"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="66">
         <v>1E-3</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="66" t="s">
         <v>270</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -6192,29 +6784,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="66" t="s">
         <v>272</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="66">
         <v>1E-3</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="66" t="s">
         <v>270</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -6222,11 +6814,11 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
@@ -6259,22 +6851,22 @@
       <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="68">
+      <c r="A11" s="71">
         <v>7</v>
       </c>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="69" t="s">
         <v>286</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="97">
-        <v>1</v>
-      </c>
-      <c r="E11" s="97" t="s">
+      <c r="D11" s="69">
+        <v>1</v>
+      </c>
+      <c r="E11" s="69" t="s">
         <v>288</v>
       </c>
-      <c r="F11" s="97" t="s">
+      <c r="F11" s="69" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="4">
@@ -6291,12 +6883,12 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="68"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
       <c r="G12" s="4" t="s">
         <v>67</v>
       </c>
@@ -6343,7 +6935,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:J12"/>
+      <selection activeCell="J12" sqref="A1:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6352,14 +6944,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="67" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
     </row>
     <row r="2" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -6385,35 +6977,35 @@
       <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="68" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="68">
         <v>8</v>
       </c>
-      <c r="F3" s="55"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="66">
         <v>0.01</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="66" t="s">
         <v>270</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -6421,29 +7013,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="66" t="s">
         <v>272</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="66">
         <v>0.01</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="66" t="s">
         <v>270</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -6451,11 +7043,11 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
@@ -6488,22 +7080,22 @@
       <c r="F10" s="43"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="68">
+      <c r="A11" s="71">
         <v>7</v>
       </c>
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="69" t="s">
         <v>286</v>
       </c>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="69" t="s">
         <v>287</v>
       </c>
-      <c r="D11" s="97">
-        <v>1</v>
-      </c>
-      <c r="E11" s="97" t="s">
+      <c r="D11" s="69">
+        <v>1</v>
+      </c>
+      <c r="E11" s="69" t="s">
         <v>288</v>
       </c>
-      <c r="F11" s="97" t="s">
+      <c r="F11" s="69" t="s">
         <v>289</v>
       </c>
       <c r="G11" s="4">
@@ -6520,12 +7112,12 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="68"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
       <c r="G12" s="4" t="s">
         <v>67</v>
       </c>
@@ -6569,166 +7161,156 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49368B5F-FF1A-4CA0-AC71-CB4FF4B34D51}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F11"/>
+    <sheetView topLeftCell="A28" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:10" s="59" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="70" t="s">
+        <v>313</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="55" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="22" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E4" s="68">
         <v>8</v>
       </c>
-      <c r="F3" s="55"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="F4" s="68"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B5" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C5" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="53">
-        <v>1</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="53" t="s">
+      <c r="D5" s="66">
+        <v>1</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="66" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B7" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C7" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="53">
-        <v>1</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="53" t="s">
+      <c r="D7" s="66">
+        <v>1</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="66" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B9" s="29" t="s">
         <v>125</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="19">
-        <v>1.29E-2</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>5</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>126</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>109</v>
       </c>
       <c r="D9" s="19">
-        <v>1</v>
+        <v>1.29E-2</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>6</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>127</v>
+        <v>5</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>126</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>109</v>
@@ -6740,44 +7322,758 @@
         <v>18</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="19">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B12" s="19">
         <v>0</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>18</v>
+      <c r="C12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="67" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="68"/>
+      <c r="D15" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="68">
+        <v>8</v>
+      </c>
+      <c r="F15" s="68"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="55">
+        <v>0</v>
+      </c>
+      <c r="B16" s="66" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="66">
+        <v>0.01</v>
+      </c>
+      <c r="E16" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="55">
+        <v>1</v>
+      </c>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="55">
+        <v>2</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="66">
+        <v>0.01</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="55">
+        <v>3</v>
+      </c>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="55">
+        <v>4</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="53">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="55">
+        <v>5</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="53">
+        <v>1</v>
+      </c>
+      <c r="E21" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="55">
+        <v>6</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="53">
+        <v>1</v>
+      </c>
+      <c r="E22" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="55">
+        <v>7</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="53">
+        <v>5</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>305</v>
+      </c>
+      <c r="F23" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+    </row>
+    <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="67" t="s">
+        <v>309</v>
+      </c>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+    </row>
+    <row r="26" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="68" t="s">
+        <v>311</v>
+      </c>
+      <c r="C27" s="68"/>
+      <c r="D27" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="68">
+        <v>8</v>
+      </c>
+      <c r="F27" s="68"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="55">
+        <v>0</v>
+      </c>
+      <c r="B28" s="66" t="s">
+        <v>271</v>
+      </c>
+      <c r="C28" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="66">
+        <v>0.01</v>
+      </c>
+      <c r="E28" s="66" t="s">
+        <v>270</v>
+      </c>
+      <c r="F28" s="66" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="55">
+        <v>1</v>
+      </c>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="55">
+        <v>2</v>
+      </c>
+      <c r="B30" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C30" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" s="66">
+        <v>0.01</v>
+      </c>
+      <c r="E30" s="66" t="s">
+        <v>270</v>
+      </c>
+      <c r="F30" s="66" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="55">
+        <v>3</v>
+      </c>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="55">
+        <v>4</v>
+      </c>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="55">
+        <v>5</v>
+      </c>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="54">
+        <v>6</v>
+      </c>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="71">
+        <v>7</v>
+      </c>
+      <c r="B35" s="69" t="s">
+        <v>286</v>
+      </c>
+      <c r="C35" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="69">
+        <v>1</v>
+      </c>
+      <c r="E35" s="69" t="s">
+        <v>288</v>
+      </c>
+      <c r="F35" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1</v>
+      </c>
+      <c r="I35" s="4">
+        <v>2</v>
+      </c>
+      <c r="J35" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="71"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="67" t="s">
+        <v>310</v>
+      </c>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+    </row>
+    <row r="39" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="68" t="s">
+        <v>312</v>
+      </c>
+      <c r="C40" s="68"/>
+      <c r="D40" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="68">
+        <v>8</v>
+      </c>
+      <c r="F40" s="68"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="55">
+        <v>0</v>
+      </c>
+      <c r="B41" s="66" t="s">
+        <v>271</v>
+      </c>
+      <c r="C41" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="66">
+        <v>0.01</v>
+      </c>
+      <c r="E41" s="66" t="s">
+        <v>270</v>
+      </c>
+      <c r="F41" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="55">
+        <v>1</v>
+      </c>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="55">
+        <v>2</v>
+      </c>
+      <c r="B43" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C43" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="66">
+        <v>0.01</v>
+      </c>
+      <c r="E43" s="66" t="s">
+        <v>270</v>
+      </c>
+      <c r="F43" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="55">
+        <v>3</v>
+      </c>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="55">
+        <v>4</v>
+      </c>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="55">
+        <v>5</v>
+      </c>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="54">
+        <v>6</v>
+      </c>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="71">
+        <v>7</v>
+      </c>
+      <c r="B48" s="69" t="s">
+        <v>286</v>
+      </c>
+      <c r="C48" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" s="69">
+        <v>1</v>
+      </c>
+      <c r="E48" s="69" t="s">
+        <v>288</v>
+      </c>
+      <c r="F48" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0</v>
+      </c>
+      <c r="H48" s="4">
+        <v>1</v>
+      </c>
+      <c r="I48" s="4">
+        <v>2</v>
+      </c>
+      <c r="J48" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="71"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="65">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F48:F49"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="B41:B42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6788,7 +8084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485B570D-AF19-4CD7-ADE4-FC7A998D53D9}">
   <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C41" sqref="C41:C44"/>
     </sheetView>
   </sheetViews>
@@ -6801,14 +8097,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -6834,45 +8130,45 @@
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="68">
         <v>8</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="69" t="s">
+      <c r="F3" s="68"/>
+      <c r="G3" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="71"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="85"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="68">
+      <c r="A4" s="71">
         <v>0</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="53">
-        <v>1</v>
-      </c>
-      <c r="E4" s="53" t="s">
+      <c r="D4" s="66">
+        <v>1</v>
+      </c>
+      <c r="E4" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="66" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="28" t="s">
@@ -6901,12 +8197,12 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="68"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="4">
         <v>0</v>
       </c>
@@ -6933,22 +8229,22 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="66">
-        <v>1</v>
-      </c>
-      <c r="B6" s="56" t="s">
+      <c r="A6" s="79">
+        <v>1</v>
+      </c>
+      <c r="B6" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="59" t="s">
+      <c r="D6" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="72" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="44" t="s">
@@ -6977,12 +8273,12 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="67"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="10" t="s">
         <v>93</v>
       </c>
@@ -7001,28 +8297,28 @@
       <c r="L7" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="M7" s="62" t="s">
+      <c r="M7" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="N7" s="63"/>
+      <c r="N7" s="76"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="66">
         <v>0.1</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="66" t="s">
         <v>37</v>
       </c>
     </row>
@@ -7030,29 +8326,29 @@
       <c r="A9" s="5">
         <v>3</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>4</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="66">
         <v>0.01</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="66" t="s">
         <v>44</v>
       </c>
     </row>
@@ -7060,11 +8356,11 @@
       <c r="A11" s="5">
         <v>5</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
@@ -7087,14 +8383,14 @@
       <c r="F13" s="51"/>
     </row>
     <row r="14" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
@@ -7120,35 +8416,35 @@
       <c r="A16" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="55"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E16" s="55">
+      <c r="E16" s="68">
         <v>8</v>
       </c>
-      <c r="F16" s="55"/>
+      <c r="F16" s="68"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="47">
         <v>0</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="66">
         <v>1E-3</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="66" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7156,29 +8452,29 @@
       <c r="A18" s="47">
         <v>1</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="47">
         <v>2</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="66">
         <v>1E-3</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="66" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7186,29 +8482,29 @@
       <c r="A20" s="47">
         <v>3</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="47">
         <v>4</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="53">
+      <c r="D21" s="66">
         <v>1E-3</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="66" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7216,29 +8512,29 @@
       <c r="A22" s="47">
         <v>5</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="47">
         <v>6</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="53">
+      <c r="D23" s="66">
         <v>1E-3</v>
       </c>
-      <c r="E23" s="53" t="s">
+      <c r="E23" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="F23" s="53" t="s">
+      <c r="F23" s="66" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7246,55 +8542,55 @@
       <c r="A24" s="47">
         <v>7</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
     </row>
     <row r="25" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="77" t="s">
         <v>294</v>
       </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="68" t="s">
         <v>295</v>
       </c>
-      <c r="C26" s="55"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E26" s="55">
+      <c r="E26" s="68">
         <v>8</v>
       </c>
-      <c r="F26" s="55"/>
+      <c r="F26" s="68"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="47">
         <v>0</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="59">
-        <v>1</v>
-      </c>
-      <c r="E27" s="59" t="s">
+      <c r="D27" s="72">
+        <v>1</v>
+      </c>
+      <c r="E27" s="72" t="s">
         <v>293</v>
       </c>
-      <c r="F27" s="59">
+      <c r="F27" s="72">
         <v>1</v>
       </c>
     </row>
@@ -7302,29 +8598,29 @@
       <c r="A28" s="47">
         <v>1</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="47">
         <v>2</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="59">
-        <v>1</v>
-      </c>
-      <c r="E29" s="59" t="s">
+      <c r="D29" s="72">
+        <v>1</v>
+      </c>
+      <c r="E29" s="72" t="s">
         <v>293</v>
       </c>
-      <c r="F29" s="59">
+      <c r="F29" s="72">
         <v>1</v>
       </c>
     </row>
@@ -7332,29 +8628,29 @@
       <c r="A30" s="47">
         <v>3</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="47">
         <v>4</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="59">
-        <v>1</v>
-      </c>
-      <c r="E31" s="59" t="s">
+      <c r="D31" s="72">
+        <v>1</v>
+      </c>
+      <c r="E31" s="72" t="s">
         <v>293</v>
       </c>
-      <c r="F31" s="59">
+      <c r="F31" s="72">
         <v>1</v>
       </c>
     </row>
@@ -7362,29 +8658,29 @@
       <c r="A32" s="47">
         <v>5</v>
       </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="47">
         <v>6</v>
       </c>
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="59">
-        <v>1</v>
-      </c>
-      <c r="E33" s="59" t="s">
+      <c r="D33" s="72">
+        <v>1</v>
+      </c>
+      <c r="E33" s="72" t="s">
         <v>293</v>
       </c>
-      <c r="F33" s="59">
+      <c r="F33" s="72">
         <v>1</v>
       </c>
     </row>
@@ -7392,55 +8688,55 @@
       <c r="A34" s="47">
         <v>7</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="74"/>
     </row>
     <row r="35" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="64" t="s">
+      <c r="A35" s="77" t="s">
         <v>294</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="C36" s="65"/>
+      <c r="C36" s="78"/>
       <c r="D36" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="65">
+      <c r="E36" s="78">
         <v>8</v>
       </c>
-      <c r="F36" s="65"/>
+      <c r="F36" s="78"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="47">
         <v>0</v>
       </c>
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="81" t="s">
         <v>298</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="72" t="s">
         <v>303</v>
       </c>
-      <c r="D37" s="59">
-        <v>1</v>
-      </c>
-      <c r="E37" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="59">
+      <c r="D37" s="72">
+        <v>1</v>
+      </c>
+      <c r="E37" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="72">
         <v>1</v>
       </c>
     </row>
@@ -7448,49 +8744,49 @@
       <c r="A38" s="47">
         <v>1</v>
       </c>
-      <c r="B38" s="57"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="47">
         <v>2</v>
       </c>
-      <c r="B39" s="57"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="47">
         <v>3</v>
       </c>
-      <c r="B40" s="58"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="61"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="47">
         <v>4</v>
       </c>
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="81" t="s">
         <v>299</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="72" t="s">
         <v>303</v>
       </c>
-      <c r="D41" s="59">
-        <v>1</v>
-      </c>
-      <c r="E41" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="59">
+      <c r="D41" s="72">
+        <v>1</v>
+      </c>
+      <c r="E41" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="72">
         <v>1</v>
       </c>
     </row>
@@ -7498,65 +8794,65 @@
       <c r="A42" s="47">
         <v>5</v>
       </c>
-      <c r="B42" s="57"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="47">
         <v>6</v>
       </c>
-      <c r="B43" s="57"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="47">
         <v>7</v>
       </c>
-      <c r="B44" s="58"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="72" t="s">
+      <c r="B45" s="86" t="s">
         <v>300</v>
       </c>
-      <c r="C45" s="73"/>
+      <c r="C45" s="87"/>
       <c r="D45" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E45" s="72">
+      <c r="E45" s="86">
         <v>8</v>
       </c>
-      <c r="F45" s="73"/>
+      <c r="F45" s="87"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="66">
+      <c r="A46" s="79">
         <v>0</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="59">
-        <v>1</v>
-      </c>
-      <c r="E46" s="59" t="s">
+      <c r="D46" s="72">
+        <v>1</v>
+      </c>
+      <c r="E46" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="74" t="s">
+      <c r="F46" s="88" t="s">
         <v>45</v>
       </c>
       <c r="G46" s="18" t="s">
@@ -7585,22 +8881,22 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="67"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="75"/>
+      <c r="A47" s="80"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="89"/>
       <c r="G47" s="27" t="s">
         <v>297</v>
       </c>
       <c r="H47" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="I47" s="76" t="s">
+      <c r="I47" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="J47" s="76"/>
+      <c r="J47" s="90"/>
       <c r="K47" s="27" t="s">
         <v>139</v>
       </c>
@@ -7615,22 +8911,22 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="66">
-        <v>1</v>
-      </c>
-      <c r="B48" s="56" t="s">
+      <c r="A48" s="79">
+        <v>1</v>
+      </c>
+      <c r="B48" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="C48" s="59" t="s">
+      <c r="C48" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="D48" s="59">
-        <v>1</v>
-      </c>
-      <c r="E48" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="74" t="s">
+      <c r="D48" s="72">
+        <v>1</v>
+      </c>
+      <c r="E48" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="88" t="s">
         <v>18</v>
       </c>
       <c r="G48" s="44" t="s">
@@ -7659,12 +8955,12 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="67"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="75"/>
+      <c r="A49" s="80"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="89"/>
       <c r="G49" s="10" t="s">
         <v>93</v>
       </c>
@@ -7683,28 +8979,28 @@
       <c r="L49" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="M49" s="62" t="s">
+      <c r="M49" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="N49" s="63"/>
+      <c r="N49" s="76"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="47">
         <v>2</v>
       </c>
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="59" t="s">
+      <c r="C50" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="59">
+      <c r="D50" s="72">
         <v>0.01</v>
       </c>
-      <c r="E50" s="59" t="s">
+      <c r="E50" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="59" t="s">
+      <c r="F50" s="72" t="s">
         <v>138</v>
       </c>
     </row>
@@ -7712,29 +9008,29 @@
       <c r="A51" s="46">
         <v>3</v>
       </c>
-      <c r="B51" s="58"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="47">
         <v>4</v>
       </c>
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="59" t="s">
+      <c r="C52" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="59">
+      <c r="D52" s="72">
         <v>0.01</v>
       </c>
-      <c r="E52" s="59" t="s">
+      <c r="E52" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="F52" s="59" t="s">
+      <c r="F52" s="72" t="s">
         <v>138</v>
       </c>
     </row>
@@ -7742,29 +9038,29 @@
       <c r="A53" s="46">
         <v>5</v>
       </c>
-      <c r="B53" s="58"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>6</v>
       </c>
-      <c r="B54" s="53" t="s">
+      <c r="B54" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="C54" s="53" t="s">
+      <c r="C54" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="D54" s="53">
+      <c r="D54" s="66">
         <v>0.01</v>
       </c>
-      <c r="E54" s="53" t="s">
+      <c r="E54" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="F54" s="53" t="s">
+      <c r="F54" s="66" t="s">
         <v>215</v>
       </c>
     </row>
@@ -7772,11 +9068,11 @@
       <c r="A55" s="32">
         <v>7</v>
       </c>
-      <c r="B55" s="53"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
@@ -7881,6 +9177,14 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="E41:E44"/>
+    <mergeCell ref="F41:F44"/>
+    <mergeCell ref="B37:B40"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="E50:E51"/>
@@ -7901,6 +9205,10 @@
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
     <mergeCell ref="M49:N49"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="C54:C55"/>
@@ -7925,12 +9233,10 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="E16:F16"/>
@@ -7948,6 +9254,10 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F27:F28"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="F37:F40"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="A35:F35"/>
     <mergeCell ref="B36:C36"/>
@@ -7968,20 +9278,6 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="E41:E44"/>
-    <mergeCell ref="F41:F44"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="F37:F40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7993,8 +9289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C997F42E-EA4A-4979-AA96-A392CF351B94}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C17"/>
+    <sheetView topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8003,14 +9299,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -8036,45 +9332,45 @@
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="68">
         <v>8</v>
       </c>
-      <c r="F3" s="55"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="68">
+      <c r="A4" s="71">
         <v>0</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="53">
-        <v>1</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="53" t="s">
+      <c r="D4" s="66">
+        <v>1</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="66" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="68"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
@@ -8100,19 +9396,19 @@
       <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="66">
         <v>0.1</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="66" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8120,29 +9416,29 @@
       <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="66">
         <v>0.01</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="66" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8150,29 +9446,29 @@
       <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>6</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="66">
         <v>0.01</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="66" t="s">
         <v>43</v>
       </c>
     </row>
@@ -8180,21 +9476,21 @@
       <c r="A12" s="5">
         <v>7</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
     </row>
     <row r="13" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
@@ -8220,35 +9516,35 @@
       <c r="A15" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="68" t="s">
         <v>301</v>
       </c>
-      <c r="C15" s="55"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="55">
+      <c r="E15" s="68">
         <v>8</v>
       </c>
-      <c r="F15" s="55"/>
+      <c r="F15" s="68"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="47">
         <v>0</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="53" t="s">
+      <c r="C16" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="53">
+      <c r="D16" s="66">
         <v>1E-3</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="66" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8256,29 +9552,29 @@
       <c r="A17" s="47">
         <v>1</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="47">
         <v>2</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="53">
+      <c r="D18" s="66">
         <v>1E-3</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="F18" s="66" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8286,29 +9582,29 @@
       <c r="A19" s="47">
         <v>3</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="47">
         <v>4</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="53">
+      <c r="D20" s="66">
         <v>1E-3</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="66" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8316,29 +9612,29 @@
       <c r="A21" s="47">
         <v>5</v>
       </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="47">
         <v>6</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="53">
+      <c r="D22" s="66">
         <v>1E-3</v>
       </c>
-      <c r="E22" s="53" t="s">
+      <c r="E22" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="F22" s="53" t="s">
+      <c r="F22" s="66" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8346,11 +9642,11 @@
       <c r="A23" s="47">
         <v>7</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="47">
@@ -8412,7 +9708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1A9E13-87C1-4307-9B11-1AB0387C93D9}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G34" sqref="G34:N34"/>
     </sheetView>
   </sheetViews>
@@ -8427,14 +9723,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
@@ -8460,35 +9756,35 @@
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="68">
         <v>8</v>
       </c>
-      <c r="F3" s="55"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="81">
+      <c r="A4" s="97">
         <v>0</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="53">
-        <v>1</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="53">
+      <c r="D4" s="66">
+        <v>1</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="66">
         <v>1</v>
       </c>
       <c r="G4" s="15" t="s">
@@ -8517,12 +9813,12 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="8">
         <v>0</v>
       </c>
@@ -8549,32 +9845,32 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="81">
-        <v>1</v>
-      </c>
-      <c r="B6" s="53" t="s">
+      <c r="A6" s="97">
+        <v>1</v>
+      </c>
+      <c r="B6" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="53">
-        <v>1</v>
-      </c>
-      <c r="E6" s="53" t="s">
+      <c r="D6" s="66">
+        <v>1</v>
+      </c>
+      <c r="E6" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="66">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="82"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
       <c r="M7" s="99"/>
       <c r="N7" s="99"/>
     </row>
@@ -8582,19 +9878,19 @@
       <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="66">
         <v>0.1</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="66" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8602,29 +9898,29 @@
       <c r="A9" s="4">
         <v>3</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>4</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="66">
         <v>0.01</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="66" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8632,11 +9928,11 @@
       <c r="A11" s="4">
         <v>5</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
@@ -8677,50 +9973,50 @@
       <c r="F13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="78" t="s">
+      <c r="G13" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="80"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="96"/>
     </row>
     <row r="14" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="55"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="55">
+      <c r="E14" s="68">
         <v>8</v>
       </c>
-      <c r="F14" s="55"/>
+      <c r="F14" s="68"/>
     </row>
     <row r="15" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>0</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="66">
         <v>1E-3</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="66" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8728,29 +10024,29 @@
       <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="53">
+      <c r="D17" s="66">
         <v>1E-3</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="66" t="s">
         <v>20</v>
       </c>
     </row>
@@ -8758,29 +10054,29 @@
       <c r="A18" s="4">
         <v>3</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>4</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="53" t="s">
+      <c r="C19" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="53">
+      <c r="D19" s="66">
         <v>1E-3</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="F19" s="66" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8788,11 +10084,11 @@
       <c r="A20" s="4">
         <v>5</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
@@ -8833,26 +10129,26 @@
       <c r="F22" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="103" t="s">
+      <c r="G22" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="103"/>
-      <c r="M22" s="103"/>
-      <c r="N22" s="103"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
     </row>
     <row r="23" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
     </row>
     <row r="24" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
@@ -8878,35 +10174,35 @@
       <c r="A25" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="C25" s="55"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E25" s="55">
+      <c r="E25" s="68">
         <v>8</v>
       </c>
-      <c r="F25" s="55"/>
+      <c r="F25" s="68"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>0</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="53">
+      <c r="D26" s="66">
         <v>0.1</v>
       </c>
-      <c r="E26" s="53" t="s">
+      <c r="E26" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="F26" s="53" t="s">
+      <c r="F26" s="66" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8914,11 +10210,11 @@
       <c r="A27" s="5">
         <v>1</v>
       </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
@@ -8964,19 +10260,19 @@
       <c r="A30" s="5">
         <v>4</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="66" t="s">
         <v>280</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="53">
+      <c r="D30" s="66">
         <v>1E-3</v>
       </c>
-      <c r="E30" s="53" t="s">
+      <c r="E30" s="66" t="s">
         <v>270</v>
       </c>
-      <c r="F30" s="53" t="s">
+      <c r="F30" s="66" t="s">
         <v>165</v>
       </c>
     </row>
@@ -8984,29 +10280,29 @@
       <c r="A31" s="5">
         <v>5</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="66">
+      <c r="A32" s="79">
         <v>6</v>
       </c>
-      <c r="B32" s="83" t="s">
+      <c r="B32" s="102" t="s">
         <v>306</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="59">
-        <v>1</v>
-      </c>
-      <c r="E32" s="59" t="s">
+      <c r="D32" s="72">
+        <v>1</v>
+      </c>
+      <c r="E32" s="72" t="s">
         <v>305</v>
       </c>
-      <c r="F32" s="59">
+      <c r="F32" s="72">
         <v>1</v>
       </c>
       <c r="G32" s="15" t="s">
@@ -9035,28 +10331,28 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="67"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="98"/>
+      <c r="A33" s="80"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="101"/>
       <c r="G33" s="50">
         <v>0</v>
       </c>
       <c r="H33" s="50">
         <v>0</v>
       </c>
-      <c r="I33" s="102" t="s">
+      <c r="I33" s="100" t="s">
         <v>283</v>
       </c>
-      <c r="J33" s="102"/>
-      <c r="K33" s="101" t="s">
+      <c r="J33" s="100"/>
+      <c r="K33" s="104" t="s">
         <v>216</v>
       </c>
-      <c r="L33" s="101"/>
-      <c r="M33" s="101"/>
-      <c r="N33" s="101"/>
+      <c r="L33" s="104"/>
+      <c r="M33" s="104"/>
+      <c r="N33" s="104"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="49">
@@ -9077,28 +10373,28 @@
       <c r="F34" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="103" t="s">
+      <c r="G34" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="103"/>
-      <c r="L34" s="103"/>
-      <c r="M34" s="103"/>
-      <c r="N34" s="103"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="92"/>
+      <c r="M34" s="92"/>
+      <c r="N34" s="92"/>
     </row>
     <row r="36" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G36" s="100" t="s">
+      <c r="G36" s="70" t="s">
         <v>216</v>
       </c>
-      <c r="H36" s="100"/>
-      <c r="I36" s="100"/>
-      <c r="J36" s="100"/>
-      <c r="K36" s="100"/>
-      <c r="L36" s="100"/>
-      <c r="M36" s="100"/>
-      <c r="N36" s="100"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="70"/>
     </row>
     <row r="37" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="G37" s="12" t="s">
@@ -9145,10 +10441,10 @@
       <c r="L38" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="M38" s="62" t="s">
+      <c r="M38" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="N38" s="63"/>
+      <c r="N38" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="69">
@@ -9239,14 +10535,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -9272,35 +10568,35 @@
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="68">
         <v>8</v>
       </c>
-      <c r="F3" s="55"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="66">
         <v>1E-3</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="66" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9308,29 +10604,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="66">
         <v>1E-3</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="66" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9338,29 +10634,29 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="66">
         <v>1E-3</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="66" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9368,29 +10664,29 @@
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="66">
         <v>1E-3</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="66" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9398,45 +10694,45 @@
       <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="55"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="55">
+      <c r="E12" s="68">
         <v>8</v>
       </c>
-      <c r="F12" s="55"/>
+      <c r="F12" s="68"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>0</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="59">
-        <v>1</v>
-      </c>
-      <c r="E13" s="59" t="s">
+      <c r="D13" s="72">
+        <v>1</v>
+      </c>
+      <c r="E13" s="72" t="s">
         <v>293</v>
       </c>
-      <c r="F13" s="59">
+      <c r="F13" s="72">
         <v>1</v>
       </c>
     </row>
@@ -9444,29 +10740,29 @@
       <c r="A14" s="5">
         <v>1</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>2</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="59">
-        <v>1</v>
-      </c>
-      <c r="E15" s="59" t="s">
+      <c r="D15" s="72">
+        <v>1</v>
+      </c>
+      <c r="E15" s="72" t="s">
         <v>293</v>
       </c>
-      <c r="F15" s="59">
+      <c r="F15" s="72">
         <v>1</v>
       </c>
     </row>
@@ -9474,29 +10770,29 @@
       <c r="A16" s="5">
         <v>3</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>4</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="59">
-        <v>1</v>
-      </c>
-      <c r="E17" s="59" t="s">
+      <c r="D17" s="72">
+        <v>1</v>
+      </c>
+      <c r="E17" s="72" t="s">
         <v>293</v>
       </c>
-      <c r="F17" s="59">
+      <c r="F17" s="72">
         <v>1</v>
       </c>
     </row>
@@ -9504,29 +10800,29 @@
       <c r="A18" s="5">
         <v>5</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>6</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="59">
-        <v>1</v>
-      </c>
-      <c r="E19" s="59" t="s">
+      <c r="D19" s="72">
+        <v>1</v>
+      </c>
+      <c r="E19" s="72" t="s">
         <v>293</v>
       </c>
-      <c r="F19" s="59">
+      <c r="F19" s="72">
         <v>1</v>
       </c>
     </row>
@@ -9534,11 +10830,11 @@
       <c r="A20" s="5">
         <v>7</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="45">
@@ -9605,14 +10901,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -9638,35 +10934,35 @@
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="68">
         <v>8</v>
       </c>
-      <c r="F3" s="55"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="66">
         <v>1E-3</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="66" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9674,29 +10970,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="66">
         <v>1E-3</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="66" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9704,29 +11000,29 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="66">
         <v>1E-3</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="66" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9734,29 +11030,29 @@
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="66">
         <v>1E-3</v>
       </c>
-      <c r="E10" s="53" t="s">
+      <c r="E10" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="F10" s="66" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9764,11 +11060,11 @@
       <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -9818,23 +11114,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="85" t="s">
+      <c r="H1" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85" t="s">
+      <c r="I1" s="105"/>
+      <c r="J1" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="85"/>
+      <c r="K1" s="105"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
@@ -9856,10 +11152,10 @@
         <v>17</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="85">
+      <c r="H2" s="105">
         <v>0</v>
       </c>
-      <c r="I2" s="85" t="s">
+      <c r="I2" s="105" t="s">
         <v>64</v>
       </c>
       <c r="J2" s="2">
@@ -9873,20 +11169,20 @@
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="86" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="73"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="86">
         <v>8</v>
       </c>
-      <c r="F3" s="73"/>
+      <c r="F3" s="87"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
       <c r="J3" s="2">
         <v>1</v>
       </c>
@@ -9914,8 +11210,8 @@
         <v>1</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
       <c r="J4" s="2">
         <v>2</v>
       </c>
@@ -9943,10 +11239,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="85">
-        <v>1</v>
-      </c>
-      <c r="I5" s="85" t="s">
+      <c r="H5" s="105">
+        <v>1</v>
+      </c>
+      <c r="I5" s="105" t="s">
         <v>66</v>
       </c>
       <c r="J5" s="2">
@@ -9976,8 +11272,8 @@
         <v>135</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
       <c r="J6" s="2">
         <v>1</v>
       </c>
@@ -10005,8 +11301,8 @@
         <v>135</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
       <c r="J7" s="2">
         <v>2</v>
       </c>
@@ -10034,10 +11330,10 @@
         <v>135</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="85">
+      <c r="H8" s="105">
         <v>2</v>
       </c>
-      <c r="I8" s="85" t="s">
+      <c r="I8" s="105" t="s">
         <v>65</v>
       </c>
       <c r="J8" s="2">
@@ -10067,8 +11363,8 @@
         <v>135</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
       <c r="J9" s="2">
         <v>1</v>
       </c>
@@ -10096,8 +11392,8 @@
         <v>135</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
       <c r="J10" s="2">
         <v>2</v>
       </c>
@@ -10125,8 +11421,8 @@
         <v>135</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
       <c r="J11" s="2">
         <v>3</v>
       </c>
@@ -10136,10 +11432,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G12" s="3"/>
-      <c r="H12" s="85">
+      <c r="H12" s="105">
         <v>3</v>
       </c>
-      <c r="I12" s="85" t="s">
+      <c r="I12" s="105" t="s">
         <v>67</v>
       </c>
       <c r="J12" s="2">
@@ -10151,8 +11447,8 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G13" s="3"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
       <c r="J13" s="2">
         <v>1</v>
       </c>
@@ -10162,8 +11458,8 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G14" s="3"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
       <c r="J14" s="2">
         <v>2</v>
       </c>
@@ -10173,8 +11469,8 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G15" s="3"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
       <c r="J15" s="2">
         <v>3</v>
       </c>
@@ -10184,8 +11480,8 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G16" s="3"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
       <c r="J16" s="2">
         <v>4</v>
       </c>
@@ -10217,17 +11513,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8238FD7-9016-4AA5-B4BA-2804821B8803}">
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="B32:F36"/>
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="6.5" customWidth="1"/>
     <col min="8" max="8" width="5.9140625" customWidth="1"/>
-    <col min="9" max="9" width="8.58203125" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="6.08203125" customWidth="1"/>
     <col min="11" max="11" width="16.75" customWidth="1"/>
     <col min="12" max="12" width="7.75" customWidth="1"/>
@@ -10255,30 +11551,30 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
     </row>
     <row r="3" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="73"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="86">
         <v>8</v>
       </c>
-      <c r="F3" s="73"/>
+      <c r="F3" s="87"/>
     </row>
     <row r="4" spans="1:22" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
@@ -10299,7 +11595,7 @@
       <c r="F4" s="19">
         <v>1</v>
       </c>
-      <c r="H4" s="85" t="s">
+      <c r="H4" s="105" t="s">
         <v>193</v>
       </c>
       <c r="I4" s="36" t="s">
@@ -10328,7 +11624,7 @@
       <c r="F5" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="85"/>
+      <c r="H5" s="105"/>
       <c r="I5" s="36" t="s">
         <v>253</v>
       </c>
@@ -10355,14 +11651,13 @@
       <c r="F6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="85"/>
+      <c r="H6" s="105"/>
       <c r="I6" s="36" t="s">
-        <v>226</v>
+        <v>307</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="L6" s="1"/>
+        <v>308</v>
+      </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="T6" s="1"/>
@@ -10388,12 +11683,12 @@
       <c r="F7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="85"/>
+      <c r="H7" s="105"/>
       <c r="I7" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -10415,12 +11710,12 @@
       <c r="F8" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="85"/>
+      <c r="H8" s="105"/>
       <c r="I8" s="36" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -10442,11 +11737,12 @@
       <c r="F9" s="31" t="s">
         <v>18</v>
       </c>
+      <c r="H9" s="105"/>
       <c r="I9" s="36" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -10468,6 +11764,13 @@
       <c r="F10" s="31" t="s">
         <v>18</v>
       </c>
+      <c r="H10" s="105"/>
+      <c r="I10" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
@@ -10493,22 +11796,26 @@
       <c r="A12" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="73"/>
+      <c r="C12" s="87"/>
       <c r="D12" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="72">
+      <c r="E12" s="86">
         <v>8</v>
       </c>
-      <c r="F12" s="73"/>
+      <c r="F12" s="87"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="110" t="s">
         <v>63</v>
       </c>
-      <c r="K12" s="2"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="110" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="111"/>
     </row>
     <row r="13" spans="1:22" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
@@ -10530,14 +11837,16 @@
         <v>1</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="85">
+      <c r="H13" s="105">
         <v>0</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="I13" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="57">
+        <v>0</v>
+      </c>
+      <c r="K13" s="57" t="s">
         <v>68</v>
       </c>
     </row>
@@ -10561,14 +11870,12 @@
         <v>1</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="H14" s="105"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57">
+        <v>1</v>
+      </c>
+      <c r="K14" s="57" t="s">
         <v>80</v>
       </c>
     </row>
@@ -10592,12 +11899,12 @@
         <v>135</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="2">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="H15" s="105"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57">
+        <v>2</v>
+      </c>
+      <c r="K15" s="57" t="s">
         <v>81</v>
       </c>
     </row>
@@ -10621,14 +11928,16 @@
         <v>135</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="85">
-        <v>1</v>
-      </c>
-      <c r="I16" s="85"/>
-      <c r="J16" s="2">
-        <v>2</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="H16" s="105">
+        <v>1</v>
+      </c>
+      <c r="I16" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="57">
+        <v>0</v>
+      </c>
+      <c r="K16" s="57" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10652,14 +11961,12 @@
         <v>135</v>
       </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="H17" s="105"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57">
+        <v>1</v>
+      </c>
+      <c r="K17" s="57" t="s">
         <v>70</v>
       </c>
     </row>
@@ -10683,12 +11990,12 @@
         <v>135</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="2">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="H18" s="105"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57">
+        <v>2</v>
+      </c>
+      <c r="K18" s="57" t="s">
         <v>82</v>
       </c>
     </row>
@@ -10712,14 +12019,16 @@
         <v>135</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="85">
+      <c r="H19" s="105">
         <v>2</v>
       </c>
-      <c r="I19" s="85"/>
-      <c r="J19" s="2">
-        <v>2</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="I19" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="57">
+        <v>0</v>
+      </c>
+      <c r="K19" s="57" t="s">
         <v>71</v>
       </c>
     </row>
@@ -10743,33 +12052,31 @@
         <v>135</v>
       </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="H20" s="105"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57">
+        <v>1</v>
+      </c>
+      <c r="K20" s="57" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="77" t="s">
         <v>232</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="2">
-        <v>1</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="H21" s="105"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57">
+        <v>2</v>
+      </c>
+      <c r="K21" s="57" t="s">
         <v>73</v>
       </c>
     </row>
@@ -10777,24 +12084,24 @@
       <c r="A22" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="86" t="s">
         <v>231</v>
       </c>
-      <c r="C22" s="73"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E22" s="72">
+      <c r="E22" s="86">
         <v>8</v>
       </c>
-      <c r="F22" s="73"/>
+      <c r="F22" s="87"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="2">
-        <v>2</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="H22" s="105"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57">
+        <v>3</v>
+      </c>
+      <c r="K22" s="57" t="s">
         <v>74</v>
       </c>
     </row>
@@ -10818,14 +12125,16 @@
         <v>1</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="85">
+      <c r="H23" s="105">
         <v>3</v>
       </c>
-      <c r="I23" s="85"/>
-      <c r="J23" s="2">
-        <v>3</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="I23" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="57">
+        <v>0</v>
+      </c>
+      <c r="K23" s="57" t="s">
         <v>75</v>
       </c>
     </row>
@@ -10849,14 +12158,12 @@
         <v>18</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="H24" s="105"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57">
+        <v>1</v>
+      </c>
+      <c r="K24" s="57" t="s">
         <v>76</v>
       </c>
     </row>
@@ -10880,12 +12187,12 @@
         <v>18</v>
       </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="2">
-        <v>1</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="H25" s="105"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57">
+        <v>2</v>
+      </c>
+      <c r="K25" s="57" t="s">
         <v>77</v>
       </c>
     </row>
@@ -10909,12 +12216,12 @@
         <v>18</v>
       </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="2">
-        <v>2</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="H26" s="105"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57">
+        <v>3</v>
+      </c>
+      <c r="K26" s="57" t="s">
         <v>78</v>
       </c>
     </row>
@@ -10938,12 +12245,12 @@
         <v>18</v>
       </c>
       <c r="G27" s="3"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="2">
-        <v>3</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="H27" s="105"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57">
+        <v>4</v>
+      </c>
+      <c r="K27" s="57" t="s">
         <v>79</v>
       </c>
     </row>
@@ -10966,10 +12273,6 @@
       <c r="F28" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="85"/>
-      <c r="J28" s="2">
-        <v>4</v>
-      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
@@ -11012,13 +12315,13 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="114" t="s">
         <v>237</v>
       </c>
-      <c r="B31" s="88" t="s">
+      <c r="B31" s="116" t="s">
         <v>246</v>
       </c>
-      <c r="C31" s="89"/>
+      <c r="C31" s="117"/>
       <c r="D31" s="38" t="s">
         <v>238</v>
       </c>
@@ -11026,11 +12329,11 @@
       <c r="F31" s="37"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="87"/>
-      <c r="B32" s="90" t="s">
+      <c r="A32" s="115"/>
+      <c r="B32" s="108" t="s">
         <v>244</v>
       </c>
-      <c r="C32" s="91"/>
+      <c r="C32" s="109"/>
       <c r="D32" s="39" t="s">
         <v>239</v>
       </c>
@@ -11038,11 +12341,11 @@
       <c r="F32" s="37"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="87"/>
-      <c r="B33" s="90" t="s">
+      <c r="A33" s="115"/>
+      <c r="B33" s="108" t="s">
         <v>245</v>
       </c>
-      <c r="C33" s="91"/>
+      <c r="C33" s="109"/>
       <c r="D33" s="39" t="s">
         <v>243</v>
       </c>
@@ -11050,11 +12353,11 @@
       <c r="F33" s="37"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="87"/>
-      <c r="B34" s="92" t="s">
+      <c r="A34" s="115"/>
+      <c r="B34" s="118" t="s">
         <v>241</v>
       </c>
-      <c r="C34" s="93"/>
+      <c r="C34" s="119"/>
       <c r="D34" s="40" t="s">
         <v>240</v>
       </c>
@@ -11062,11 +12365,11 @@
       <c r="F34" s="37"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="87"/>
-      <c r="B35" s="92" t="s">
+      <c r="A35" s="115"/>
+      <c r="B35" s="118" t="s">
         <v>248</v>
       </c>
-      <c r="C35" s="93"/>
+      <c r="C35" s="119"/>
       <c r="D35" s="40" t="s">
         <v>247</v>
       </c>
@@ -11074,32 +12377,270 @@
       <c r="F35" s="37"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="87"/>
-      <c r="B36" s="94" t="s">
+      <c r="A36" s="115"/>
+      <c r="B36" s="120" t="s">
         <v>249</v>
       </c>
-      <c r="C36" s="95"/>
+      <c r="C36" s="121"/>
       <c r="D36" s="41" t="s">
         <v>242</v>
       </c>
       <c r="E36" s="37"/>
       <c r="F36" s="37"/>
     </row>
+    <row r="38" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="77" t="s">
+        <v>314</v>
+      </c>
+      <c r="B38" s="77"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="86" t="s">
+        <v>315</v>
+      </c>
+      <c r="C39" s="87"/>
+      <c r="D39" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="86">
+        <v>8</v>
+      </c>
+      <c r="F39" s="87"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>0</v>
+      </c>
+      <c r="B40" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="53">
+        <v>1</v>
+      </c>
+      <c r="E40" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>1</v>
+      </c>
+      <c r="B41" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>2</v>
+      </c>
+      <c r="B42" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>3</v>
+      </c>
+      <c r="B43" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>4</v>
+      </c>
+      <c r="B44" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>5</v>
+      </c>
+      <c r="B45" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>6</v>
+      </c>
+      <c r="B46" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>7</v>
+      </c>
+      <c r="B47" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="112" t="s">
+        <v>316</v>
+      </c>
+      <c r="B48" s="113"/>
+      <c r="C48" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="106" t="s">
+        <v>317</v>
+      </c>
+      <c r="B49" s="107"/>
+      <c r="C49" s="64" t="s">
+        <v>239</v>
+      </c>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="108" t="s">
+        <v>318</v>
+      </c>
+      <c r="B50" s="109"/>
+      <c r="C50" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="108" t="s">
+        <v>319</v>
+      </c>
+      <c r="B51" s="109"/>
+      <c r="C51" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="29">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="A21:F21"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="H4:H10"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="H23:H27"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="I20:I23"/>
     <mergeCell ref="H13:H15"/>
     <mergeCell ref="H16:H18"/>
     <mergeCell ref="H19:H22"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="A48:B48"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="B12:C12"/>
@@ -11108,9 +12649,6 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/Protocol/CAN总线协议.xlsx
+++ b/Doc/Protocol/CAN总线协议.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0018F7-F485-45F7-8FD4-5C4D6343FBCC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83ADCE50-B47D-4E8F-86FB-DFB3840F68BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="超声波原始数据(RX)" sheetId="12" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="339">
   <si>
     <t>字节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1353,6 +1353,28 @@
   </si>
   <si>
     <t>0x5A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,65535]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后库位
+定位计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前库位
+位置计数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2228,14 +2250,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="11" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="8" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="11" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2243,17 +2268,44 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="19" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="21" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="22" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="30" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="31" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2264,106 +2316,88 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="9" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="21" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="22" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="30" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="33" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="33" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="20" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="27" xfId="18" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="28" xfId="18" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="28" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2380,18 +2414,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="26" xfId="17" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="27" xfId="18" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="28" xfId="18" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2739,35 +2761,35 @@
       <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="68"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="66">
         <v>8</v>
       </c>
-      <c r="F3" s="68"/>
+      <c r="F3" s="66"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="66">
-        <v>1</v>
-      </c>
-      <c r="E4" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="66" t="s">
+      <c r="D4" s="68">
+        <v>1</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="68" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2775,29 +2797,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="66">
-        <v>1</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="66" t="s">
+      <c r="D6" s="68">
+        <v>1</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="68" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2805,11 +2827,11 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
@@ -2925,35 +2947,35 @@
       <c r="A14" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="68"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="68">
+      <c r="E14" s="66">
         <v>8</v>
       </c>
-      <c r="F14" s="68"/>
+      <c r="F14" s="66"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>0</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="68" t="s">
         <v>251</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="66">
+      <c r="D15" s="68">
         <v>0.01</v>
       </c>
-      <c r="E15" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="66" t="s">
+      <c r="E15" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2961,29 +2983,29 @@
       <c r="A16" s="5">
         <v>1</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="68" t="s">
         <v>252</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="66">
+      <c r="D17" s="68">
         <v>0.01</v>
       </c>
-      <c r="E17" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="66" t="s">
+      <c r="E17" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2991,11 +3013,11 @@
       <c r="A18" s="5">
         <v>3</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
@@ -3079,6 +3101,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="A1:F1"/>
@@ -3087,24 +3127,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3116,8 +3138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035C941A-BCE1-46E3-89DE-EEDC1055935D}">
   <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105:F114"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3143,48 +3165,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="68"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="66">
         <v>8</v>
       </c>
-      <c r="F3" s="68"/>
+      <c r="F3" s="66"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="68">
         <v>0.01</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3192,29 +3214,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="68">
         <v>0.01</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3222,29 +3244,29 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="68">
         <v>0.01</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="68" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3252,29 +3274,29 @@
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="79">
+      <c r="A10" s="72">
         <v>6</v>
       </c>
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="77" t="s">
         <v>202</v>
       </c>
-      <c r="D10" s="72">
-        <v>1</v>
-      </c>
-      <c r="E10" s="72" t="s">
+      <c r="D10" s="77">
+        <v>1</v>
+      </c>
+      <c r="E10" s="77" t="s">
         <v>302</v>
       </c>
-      <c r="F10" s="88">
+      <c r="F10" s="79">
         <v>1</v>
       </c>
       <c r="G10" s="34">
@@ -3291,12 +3313,12 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="80"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="89"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="80"/>
       <c r="G11" s="34" t="s">
         <v>204</v>
       </c>
@@ -3321,48 +3343,48 @@
       <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="87" t="s">
         <v>185</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="66" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="68"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="68">
+      <c r="E14" s="66">
         <v>8</v>
       </c>
-      <c r="F14" s="68"/>
+      <c r="F14" s="66"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>0</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="68" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="66">
+      <c r="D15" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E15" s="66" t="s">
+      <c r="E15" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3370,29 +3392,29 @@
       <c r="A16" s="5">
         <v>1</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="66">
+      <c r="D17" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3400,29 +3422,29 @@
       <c r="A18" s="5">
         <v>3</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>4</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="68" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="66">
+      <c r="D19" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E19" s="66" t="s">
+      <c r="E19" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3430,29 +3452,29 @@
       <c r="A20" s="5">
         <v>5</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>6</v>
       </c>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="66">
+      <c r="D21" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E21" s="66" t="s">
+      <c r="E21" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="66" t="s">
+      <c r="F21" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3460,21 +3482,21 @@
       <c r="A22" s="5">
         <v>7</v>
       </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
     </row>
     <row r="23" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="87" t="s">
         <v>182</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
@@ -3500,35 +3522,35 @@
       <c r="A25" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="C25" s="68"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E25" s="68">
+      <c r="E25" s="66">
         <v>8</v>
       </c>
-      <c r="F25" s="68"/>
+      <c r="F25" s="66"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>0</v>
       </c>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="66">
+      <c r="D26" s="68">
         <v>0.01</v>
       </c>
-      <c r="E26" s="66" t="s">
+      <c r="E26" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="F26" s="66" t="s">
+      <c r="F26" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3536,29 +3558,29 @@
       <c r="A27" s="5">
         <v>1</v>
       </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>2</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="66">
+      <c r="D28" s="68">
         <v>0.01</v>
       </c>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="F28" s="66" t="s">
+      <c r="F28" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3566,29 +3588,29 @@
       <c r="A29" s="5">
         <v>3</v>
       </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>4</v>
       </c>
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="66">
+      <c r="D30" s="68">
         <v>0.01</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="F30" s="66" t="s">
+      <c r="F30" s="68" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3596,29 +3618,29 @@
       <c r="A31" s="5">
         <v>5</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>6</v>
       </c>
-      <c r="B32" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="66" t="s">
+      <c r="B32" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="68" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3626,55 +3648,55 @@
       <c r="A33" s="5">
         <v>7</v>
       </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
     </row>
     <row r="34" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="87" t="s">
         <v>181</v>
       </c>
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="66" t="s">
         <v>188</v>
       </c>
-      <c r="C35" s="68"/>
+      <c r="C35" s="66"/>
       <c r="D35" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E35" s="68">
+      <c r="E35" s="66">
         <v>8</v>
       </c>
-      <c r="F35" s="68"/>
+      <c r="F35" s="66"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>0</v>
       </c>
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="66">
+      <c r="D36" s="68">
         <v>0.01</v>
       </c>
-      <c r="E36" s="66" t="s">
+      <c r="E36" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="F36" s="66" t="s">
+      <c r="F36" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3682,29 +3704,29 @@
       <c r="A37" s="5">
         <v>1</v>
       </c>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>2</v>
       </c>
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="66">
+      <c r="D38" s="68">
         <v>0.01</v>
       </c>
-      <c r="E38" s="66" t="s">
+      <c r="E38" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="F38" s="66" t="s">
+      <c r="F38" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3712,29 +3734,29 @@
       <c r="A39" s="5">
         <v>3</v>
       </c>
-      <c r="B39" s="66"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>4</v>
       </c>
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="66">
+      <c r="D40" s="68">
         <v>0.01</v>
       </c>
-      <c r="E40" s="66" t="s">
+      <c r="E40" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="F40" s="66" t="s">
+      <c r="F40" s="68" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3742,11 +3764,11 @@
       <c r="A41" s="5">
         <v>5</v>
       </c>
-      <c r="B41" s="66"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
@@ -3789,48 +3811,48 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="77" t="s">
+      <c r="A44" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="68" t="s">
+      <c r="B45" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="C45" s="68"/>
+      <c r="C45" s="66"/>
       <c r="D45" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E45" s="68">
+      <c r="E45" s="66">
         <v>8</v>
       </c>
-      <c r="F45" s="68"/>
+      <c r="F45" s="66"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>0</v>
       </c>
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="C46" s="66" t="s">
+      <c r="C46" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="66">
+      <c r="D46" s="68">
         <v>0.01</v>
       </c>
-      <c r="E46" s="66" t="s">
+      <c r="E46" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="F46" s="66" t="s">
+      <c r="F46" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3838,29 +3860,29 @@
       <c r="A47" s="5">
         <v>1</v>
       </c>
-      <c r="B47" s="66"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>2</v>
       </c>
-      <c r="B48" s="66" t="s">
+      <c r="B48" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="C48" s="66" t="s">
+      <c r="C48" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="66">
+      <c r="D48" s="68">
         <v>0.01</v>
       </c>
-      <c r="E48" s="66" t="s">
+      <c r="E48" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="F48" s="66" t="s">
+      <c r="F48" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3868,29 +3890,29 @@
       <c r="A49" s="5">
         <v>3</v>
       </c>
-      <c r="B49" s="66"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>4</v>
       </c>
-      <c r="B50" s="66" t="s">
+      <c r="B50" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="C50" s="66" t="s">
+      <c r="C50" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="66">
+      <c r="D50" s="68">
         <v>0.01</v>
       </c>
-      <c r="E50" s="66" t="s">
+      <c r="E50" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="F50" s="66" t="s">
+      <c r="F50" s="68" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3898,11 +3920,11 @@
       <c r="A51" s="5">
         <v>5</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
@@ -3945,48 +3967,48 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="77" t="s">
+      <c r="A54" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="B54" s="77"/>
-      <c r="C54" s="77"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="77"/>
+      <c r="B54" s="87"/>
+      <c r="C54" s="87"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="87"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="68" t="s">
+      <c r="B55" s="66" t="s">
         <v>198</v>
       </c>
-      <c r="C55" s="68"/>
+      <c r="C55" s="66"/>
       <c r="D55" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E55" s="68">
+      <c r="E55" s="66">
         <v>8</v>
       </c>
-      <c r="F55" s="68"/>
+      <c r="F55" s="66"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>0</v>
       </c>
-      <c r="B56" s="66" t="s">
+      <c r="B56" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="66" t="s">
+      <c r="C56" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="66">
+      <c r="D56" s="68">
         <v>0.01</v>
       </c>
-      <c r="E56" s="66" t="s">
+      <c r="E56" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="F56" s="66" t="s">
+      <c r="F56" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3994,29 +4016,29 @@
       <c r="A57" s="5">
         <v>1</v>
       </c>
-      <c r="B57" s="66"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>2</v>
       </c>
-      <c r="B58" s="66" t="s">
+      <c r="B58" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="C58" s="66" t="s">
+      <c r="C58" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="66">
+      <c r="D58" s="68">
         <v>0.01</v>
       </c>
-      <c r="E58" s="66" t="s">
+      <c r="E58" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="F58" s="66" t="s">
+      <c r="F58" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4024,29 +4046,29 @@
       <c r="A59" s="5">
         <v>3</v>
       </c>
-      <c r="B59" s="66"/>
-      <c r="C59" s="66"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>4</v>
       </c>
-      <c r="B60" s="66" t="s">
+      <c r="B60" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="C60" s="66" t="s">
+      <c r="C60" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="66">
+      <c r="D60" s="68">
         <v>0.01</v>
       </c>
-      <c r="E60" s="66" t="s">
+      <c r="E60" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="F60" s="66" t="s">
+      <c r="F60" s="68" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4054,11 +4076,11 @@
       <c r="A61" s="5">
         <v>5</v>
       </c>
-      <c r="B61" s="66"/>
-      <c r="C61" s="66"/>
-      <c r="D61" s="66"/>
-      <c r="E61" s="66"/>
-      <c r="F61" s="66"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="68"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
@@ -4101,48 +4123,48 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="77" t="s">
+      <c r="A64" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="B64" s="77"/>
-      <c r="C64" s="77"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77"/>
+      <c r="B64" s="87"/>
+      <c r="C64" s="87"/>
+      <c r="D64" s="87"/>
+      <c r="E64" s="87"/>
+      <c r="F64" s="87"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="68" t="s">
+      <c r="B65" s="66" t="s">
         <v>208</v>
       </c>
-      <c r="C65" s="68"/>
+      <c r="C65" s="66"/>
       <c r="D65" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E65" s="68">
+      <c r="E65" s="66">
         <v>8</v>
       </c>
-      <c r="F65" s="68"/>
+      <c r="F65" s="66"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>0</v>
       </c>
-      <c r="B66" s="66" t="s">
+      <c r="B66" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="C66" s="66" t="s">
+      <c r="C66" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="66">
+      <c r="D66" s="68">
         <v>0.01</v>
       </c>
-      <c r="E66" s="66" t="s">
+      <c r="E66" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="F66" s="66" t="s">
+      <c r="F66" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4150,29 +4172,29 @@
       <c r="A67" s="5">
         <v>1</v>
       </c>
-      <c r="B67" s="66"/>
-      <c r="C67" s="66"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="66"/>
-      <c r="F67" s="66"/>
+      <c r="B67" s="68"/>
+      <c r="C67" s="68"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="68"/>
+      <c r="F67" s="68"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>2</v>
       </c>
-      <c r="B68" s="66" t="s">
+      <c r="B68" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="C68" s="66" t="s">
+      <c r="C68" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="66">
+      <c r="D68" s="68">
         <v>0.01</v>
       </c>
-      <c r="E68" s="66" t="s">
+      <c r="E68" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="F68" s="66" t="s">
+      <c r="F68" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4180,29 +4202,29 @@
       <c r="A69" s="5">
         <v>3</v>
       </c>
-      <c r="B69" s="66"/>
-      <c r="C69" s="66"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="66"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="68"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="68"/>
+      <c r="F69" s="68"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>4</v>
       </c>
-      <c r="B70" s="66" t="s">
+      <c r="B70" s="68" t="s">
         <v>209</v>
       </c>
-      <c r="C70" s="66" t="s">
+      <c r="C70" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="66">
+      <c r="D70" s="68">
         <v>0.1</v>
       </c>
-      <c r="E70" s="66" t="s">
+      <c r="E70" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="F70" s="66" t="s">
+      <c r="F70" s="68" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4210,11 +4232,11 @@
       <c r="A71" s="5">
         <v>5</v>
       </c>
-      <c r="B71" s="66"/>
-      <c r="C71" s="66"/>
-      <c r="D71" s="66"/>
-      <c r="E71" s="66"/>
-      <c r="F71" s="66"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
@@ -4247,48 +4269,48 @@
       <c r="F73" s="19"/>
     </row>
     <row r="74" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="77" t="s">
+      <c r="A74" s="87" t="s">
         <v>220</v>
       </c>
-      <c r="B74" s="77"/>
-      <c r="C74" s="77"/>
-      <c r="D74" s="77"/>
-      <c r="E74" s="77"/>
-      <c r="F74" s="77"/>
+      <c r="B74" s="87"/>
+      <c r="C74" s="87"/>
+      <c r="D74" s="87"/>
+      <c r="E74" s="87"/>
+      <c r="F74" s="87"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="68" t="s">
+      <c r="B75" s="66" t="s">
         <v>219</v>
       </c>
-      <c r="C75" s="68"/>
+      <c r="C75" s="66"/>
       <c r="D75" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E75" s="68">
+      <c r="E75" s="66">
         <v>8</v>
       </c>
-      <c r="F75" s="68"/>
+      <c r="F75" s="66"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>0</v>
       </c>
-      <c r="B76" s="66" t="s">
+      <c r="B76" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="C76" s="66" t="s">
+      <c r="C76" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D76" s="66">
+      <c r="D76" s="68">
         <v>0.01</v>
       </c>
-      <c r="E76" s="66" t="s">
+      <c r="E76" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="F76" s="66" t="s">
+      <c r="F76" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4296,29 +4318,29 @@
       <c r="A77" s="5">
         <v>1</v>
       </c>
-      <c r="B77" s="66"/>
-      <c r="C77" s="66"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
+      <c r="B77" s="68"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="68"/>
+      <c r="F77" s="68"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>2</v>
       </c>
-      <c r="B78" s="66" t="s">
+      <c r="B78" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="C78" s="66" t="s">
+      <c r="C78" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D78" s="66">
+      <c r="D78" s="68">
         <v>0.01</v>
       </c>
-      <c r="E78" s="66" t="s">
+      <c r="E78" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="F78" s="66" t="s">
+      <c r="F78" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4326,31 +4348,31 @@
       <c r="A79" s="5">
         <v>3</v>
       </c>
-      <c r="B79" s="66"/>
-      <c r="C79" s="66"/>
-      <c r="D79" s="66"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="66"/>
+      <c r="B79" s="68"/>
+      <c r="C79" s="68"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="68"/>
+      <c r="F79" s="68"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>4</v>
       </c>
-      <c r="B80" s="66"/>
-      <c r="C80" s="66"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="66"/>
-      <c r="F80" s="66"/>
+      <c r="B80" s="68"/>
+      <c r="C80" s="68"/>
+      <c r="D80" s="68"/>
+      <c r="E80" s="68"/>
+      <c r="F80" s="68"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>5</v>
       </c>
-      <c r="B81" s="66"/>
-      <c r="C81" s="66"/>
-      <c r="D81" s="66"/>
-      <c r="E81" s="66"/>
-      <c r="F81" s="66"/>
+      <c r="B81" s="68"/>
+      <c r="C81" s="68"/>
+      <c r="D81" s="68"/>
+      <c r="E81" s="68"/>
+      <c r="F81" s="68"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
@@ -4373,30 +4395,30 @@
       <c r="F83" s="19"/>
     </row>
     <row r="84" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="77" t="s">
+      <c r="A84" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="B84" s="77"/>
-      <c r="C84" s="77"/>
-      <c r="D84" s="77"/>
-      <c r="E84" s="77"/>
-      <c r="F84" s="77"/>
+      <c r="B84" s="87"/>
+      <c r="C84" s="87"/>
+      <c r="D84" s="87"/>
+      <c r="E84" s="87"/>
+      <c r="F84" s="87"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="68" t="s">
+      <c r="B85" s="66" t="s">
         <v>225</v>
       </c>
-      <c r="C85" s="68"/>
+      <c r="C85" s="66"/>
       <c r="D85" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E85" s="68">
+      <c r="E85" s="66">
         <v>8</v>
       </c>
-      <c r="F85" s="68"/>
+      <c r="F85" s="66"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
@@ -4489,48 +4511,48 @@
       <c r="F93" s="19"/>
     </row>
     <row r="94" spans="1:6" s="59" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="77" t="s">
+      <c r="A94" s="87" t="s">
         <v>331</v>
       </c>
-      <c r="B94" s="77"/>
-      <c r="C94" s="77"/>
-      <c r="D94" s="77"/>
-      <c r="E94" s="77"/>
-      <c r="F94" s="77"/>
+      <c r="B94" s="87"/>
+      <c r="C94" s="87"/>
+      <c r="D94" s="87"/>
+      <c r="E94" s="87"/>
+      <c r="F94" s="87"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B95" s="86" t="s">
+      <c r="B95" s="83" t="s">
         <v>325</v>
       </c>
-      <c r="C95" s="87"/>
+      <c r="C95" s="84"/>
       <c r="D95" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E95" s="86">
+      <c r="E95" s="83">
         <v>8</v>
       </c>
-      <c r="F95" s="87"/>
+      <c r="F95" s="84"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>0</v>
       </c>
-      <c r="B96" s="66" t="s">
+      <c r="B96" s="68" t="s">
         <v>326</v>
       </c>
-      <c r="C96" s="66" t="s">
+      <c r="C96" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D96" s="66">
+      <c r="D96" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E96" s="66" t="s">
+      <c r="E96" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="F96" s="66" t="s">
+      <c r="F96" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4538,29 +4560,29 @@
       <c r="A97" s="5">
         <v>1</v>
       </c>
-      <c r="B97" s="66"/>
-      <c r="C97" s="66"/>
-      <c r="D97" s="66"/>
-      <c r="E97" s="66"/>
-      <c r="F97" s="66"/>
+      <c r="B97" s="68"/>
+      <c r="C97" s="68"/>
+      <c r="D97" s="68"/>
+      <c r="E97" s="68"/>
+      <c r="F97" s="68"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>2</v>
       </c>
-      <c r="B98" s="66" t="s">
+      <c r="B98" s="68" t="s">
         <v>327</v>
       </c>
-      <c r="C98" s="66" t="s">
+      <c r="C98" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D98" s="66">
+      <c r="D98" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E98" s="66" t="s">
+      <c r="E98" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="F98" s="66" t="s">
+      <c r="F98" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4568,29 +4590,29 @@
       <c r="A99" s="5">
         <v>3</v>
       </c>
-      <c r="B99" s="66"/>
-      <c r="C99" s="66"/>
-      <c r="D99" s="66"/>
-      <c r="E99" s="66"/>
-      <c r="F99" s="66"/>
+      <c r="B99" s="68"/>
+      <c r="C99" s="68"/>
+      <c r="D99" s="68"/>
+      <c r="E99" s="68"/>
+      <c r="F99" s="68"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>4</v>
       </c>
-      <c r="B100" s="66" t="s">
+      <c r="B100" s="68" t="s">
         <v>328</v>
       </c>
-      <c r="C100" s="66" t="s">
+      <c r="C100" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D100" s="66">
+      <c r="D100" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E100" s="66" t="s">
+      <c r="E100" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="F100" s="66" t="s">
+      <c r="F100" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4598,29 +4620,29 @@
       <c r="A101" s="5">
         <v>5</v>
       </c>
-      <c r="B101" s="66"/>
-      <c r="C101" s="66"/>
-      <c r="D101" s="66"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
+      <c r="B101" s="68"/>
+      <c r="C101" s="68"/>
+      <c r="D101" s="68"/>
+      <c r="E101" s="68"/>
+      <c r="F101" s="68"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>6</v>
       </c>
-      <c r="B102" s="66" t="s">
+      <c r="B102" s="68" t="s">
         <v>329</v>
       </c>
-      <c r="C102" s="66" t="s">
+      <c r="C102" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D102" s="66">
+      <c r="D102" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E102" s="66" t="s">
+      <c r="E102" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="F102" s="66" t="s">
+      <c r="F102" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4628,55 +4650,55 @@
       <c r="A103" s="55">
         <v>7</v>
       </c>
-      <c r="B103" s="66"/>
-      <c r="C103" s="66"/>
-      <c r="D103" s="66"/>
-      <c r="E103" s="66"/>
-      <c r="F103" s="66"/>
+      <c r="B103" s="68"/>
+      <c r="C103" s="68"/>
+      <c r="D103" s="68"/>
+      <c r="E103" s="68"/>
+      <c r="F103" s="68"/>
     </row>
     <row r="104" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="77" t="s">
+      <c r="A104" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="B104" s="77"/>
-      <c r="C104" s="77"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="77"/>
-      <c r="F104" s="77"/>
+      <c r="B104" s="87"/>
+      <c r="C104" s="87"/>
+      <c r="D104" s="87"/>
+      <c r="E104" s="87"/>
+      <c r="F104" s="87"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B105" s="68" t="s">
+      <c r="B105" s="66" t="s">
         <v>330</v>
       </c>
-      <c r="C105" s="68"/>
+      <c r="C105" s="66"/>
       <c r="D105" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E105" s="68">
+      <c r="E105" s="66">
         <v>8</v>
       </c>
-      <c r="F105" s="68"/>
+      <c r="F105" s="66"/>
     </row>
     <row r="106" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="79">
+      <c r="A106" s="72">
         <v>0</v>
       </c>
-      <c r="B106" s="81" t="s">
+      <c r="B106" s="75" t="s">
         <v>320</v>
       </c>
-      <c r="C106" s="72" t="s">
+      <c r="C106" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="D106" s="72">
-        <v>1</v>
-      </c>
-      <c r="E106" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="F106" s="72" t="s">
+      <c r="D106" s="77">
+        <v>1</v>
+      </c>
+      <c r="E106" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" s="77" t="s">
         <v>18</v>
       </c>
       <c r="G106" s="4">
@@ -4695,12 +4717,12 @@
       <c r="L106" s="65"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A107" s="80"/>
-      <c r="B107" s="82"/>
-      <c r="C107" s="74"/>
-      <c r="D107" s="74"/>
-      <c r="E107" s="74"/>
-      <c r="F107" s="74"/>
+      <c r="A107" s="73"/>
+      <c r="B107" s="76"/>
+      <c r="C107" s="78"/>
+      <c r="D107" s="78"/>
+      <c r="E107" s="78"/>
+      <c r="F107" s="78"/>
       <c r="G107" s="4" t="s">
         <v>321</v>
       </c>
@@ -4750,44 +4772,245 @@
       <c r="A111" s="55">
         <v>4</v>
       </c>
-      <c r="B111" s="35"/>
-      <c r="C111" s="35"/>
-      <c r="D111" s="35"/>
-      <c r="E111" s="35"/>
-      <c r="F111" s="35"/>
+      <c r="B111" s="95" t="s">
+        <v>338</v>
+      </c>
+      <c r="C111" s="77" t="s">
+        <v>334</v>
+      </c>
+      <c r="D111" s="77">
+        <v>1</v>
+      </c>
+      <c r="E111" s="77" t="s">
+        <v>335</v>
+      </c>
+      <c r="F111" s="77" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="55">
         <v>5</v>
       </c>
-      <c r="B112" s="35"/>
-      <c r="C112" s="35"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="35"/>
-      <c r="F112" s="35"/>
+      <c r="B112" s="96"/>
+      <c r="C112" s="78"/>
+      <c r="D112" s="78"/>
+      <c r="E112" s="78"/>
+      <c r="F112" s="78"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="55">
         <v>6</v>
       </c>
-      <c r="B113" s="53"/>
-      <c r="C113" s="53"/>
-      <c r="D113" s="53"/>
-      <c r="E113" s="53"/>
-      <c r="F113" s="53"/>
+      <c r="B113" s="95" t="s">
+        <v>337</v>
+      </c>
+      <c r="C113" s="77" t="s">
+        <v>334</v>
+      </c>
+      <c r="D113" s="77">
+        <v>1</v>
+      </c>
+      <c r="E113" s="77" t="s">
+        <v>335</v>
+      </c>
+      <c r="F113" s="77" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="55">
         <v>7</v>
       </c>
-      <c r="B114" s="53"/>
-      <c r="C114" s="53"/>
-      <c r="D114" s="53"/>
-      <c r="E114" s="53"/>
-      <c r="F114" s="53"/>
+      <c r="B114" s="96"/>
+      <c r="C114" s="78"/>
+      <c r="D114" s="78"/>
+      <c r="E114" s="78"/>
+      <c r="F114" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="195">
+  <mergeCells count="205">
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
     <mergeCell ref="E78:E79"/>
     <mergeCell ref="F78:F79"/>
     <mergeCell ref="A23:F23"/>
@@ -4812,177 +5035,6 @@
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="A104:F104"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5024,48 +5076,48 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="68"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="66">
         <v>8</v>
       </c>
-      <c r="F3" s="68"/>
+      <c r="F3" s="66"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="68">
         <v>0.01</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5073,29 +5125,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="68">
         <v>0.01</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5103,29 +5155,29 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="68">
         <v>0.01</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="68" t="s">
         <v>268</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="68" t="s">
         <v>267</v>
       </c>
     </row>
@@ -5133,29 +5185,29 @@
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="68" t="s">
         <v>172</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="68">
         <v>0.01</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5163,55 +5215,55 @@
       <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
     </row>
     <row r="12" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="87" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="68"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="66">
         <v>8</v>
       </c>
-      <c r="F13" s="68"/>
+      <c r="F13" s="66"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>0</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="68" t="s">
         <v>173</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="66">
+      <c r="D14" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="66" t="s">
+      <c r="F14" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5219,29 +5271,29 @@
       <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="66">
+      <c r="D16" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E16" s="66" t="s">
+      <c r="E16" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="66" t="s">
+      <c r="F16" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5249,29 +5301,29 @@
       <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="68" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="66">
+      <c r="D18" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E18" s="66" t="s">
+      <c r="E18" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5279,29 +5331,29 @@
       <c r="A19" s="5">
         <v>5</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>6</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="66">
+      <c r="D20" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E20" s="66" t="s">
+      <c r="E20" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5309,23 +5361,35 @@
       <c r="A21" s="5">
         <v>7</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="B14:B15"/>
@@ -5342,27 +5406,15 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5374,21 +5426,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987AFC64-1F61-4893-BCF1-55964C99EF0C}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="87" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
@@ -5414,17 +5466,17 @@
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="87"/>
+      <c r="C3" s="84"/>
       <c r="D3" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="86">
+      <c r="E3" s="83">
         <v>8</v>
       </c>
-      <c r="F3" s="87"/>
+      <c r="F3" s="84"/>
     </row>
     <row r="4" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -5587,14 +5639,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="87" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
@@ -5620,17 +5672,17 @@
       <c r="A15" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="83" t="s">
         <v>332</v>
       </c>
-      <c r="C15" s="87"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="86">
+      <c r="E15" s="83">
         <v>8</v>
       </c>
-      <c r="F15" s="87"/>
+      <c r="F15" s="84"/>
     </row>
     <row r="16" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16" s="62">
@@ -5821,14 +5873,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="87" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -5854,35 +5906,35 @@
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="68"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="66">
         <v>8</v>
       </c>
-      <c r="F3" s="68"/>
+      <c r="F3" s="66"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="66">
-        <v>1</v>
-      </c>
-      <c r="E4" s="66" t="s">
+      <c r="D4" s="68">
+        <v>1</v>
+      </c>
+      <c r="E4" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="68" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5890,49 +5942,49 @@
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="66">
-        <v>1</v>
-      </c>
-      <c r="E8" s="66" t="s">
+      <c r="D8" s="68">
+        <v>1</v>
+      </c>
+      <c r="E8" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="68" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5940,65 +5992,65 @@
       <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="68"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="66">
         <v>8</v>
       </c>
-      <c r="F12" s="68"/>
+      <c r="F12" s="66"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>0</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="66">
-        <v>1</v>
-      </c>
-      <c r="E13" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="66" t="s">
+      <c r="D13" s="68">
+        <v>1</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="68" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6006,49 +6058,49 @@
       <c r="A14" s="4">
         <v>1</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B15" s="93"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>3</v>
       </c>
-      <c r="B16" s="93"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>4</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="66">
-        <v>1</v>
-      </c>
-      <c r="E17" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="66" t="s">
+      <c r="D17" s="68">
+        <v>1</v>
+      </c>
+      <c r="E17" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="68" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6056,65 +6108,65 @@
       <c r="A18" s="4">
         <v>5</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>6</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>7</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="68"/>
+      <c r="C21" s="66"/>
       <c r="D21" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E21" s="68">
+      <c r="E21" s="66">
         <v>8</v>
       </c>
-      <c r="F21" s="68"/>
+      <c r="F21" s="66"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>0</v>
       </c>
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="66">
-        <v>1</v>
-      </c>
-      <c r="E22" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="66" t="s">
+      <c r="D22" s="68">
+        <v>1</v>
+      </c>
+      <c r="E22" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="68" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6122,49 +6174,49 @@
       <c r="A23" s="4">
         <v>1</v>
       </c>
-      <c r="B23" s="93"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>2</v>
       </c>
-      <c r="B24" s="93"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="93"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>4</v>
       </c>
-      <c r="B26" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="66" t="s">
+      <c r="B26" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="E26" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="66" t="s">
+      <c r="E26" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="68" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6172,39 +6224,50 @@
       <c r="A27" s="4">
         <v>5</v>
       </c>
-      <c r="B27" s="93"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>6</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>7</v>
       </c>
-      <c r="B29" s="93"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -6221,22 +6284,11 @@
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="F4:F7"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6255,14 +6307,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="87" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
@@ -6288,17 +6340,17 @@
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>256</v>
       </c>
-      <c r="C3" s="87"/>
+      <c r="C3" s="84"/>
       <c r="D3" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="86">
+      <c r="E3" s="83">
         <v>8</v>
       </c>
-      <c r="F3" s="87"/>
+      <c r="F3" s="84"/>
     </row>
     <row r="4" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -6516,35 +6568,35 @@
       <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="66" t="s">
         <v>269</v>
       </c>
-      <c r="C3" s="68"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="66">
         <v>8</v>
       </c>
-      <c r="F3" s="68"/>
+      <c r="F3" s="66"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="66">
-        <v>1</v>
-      </c>
-      <c r="E4" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="66" t="s">
+      <c r="D4" s="68">
+        <v>1</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="68" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6552,29 +6604,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="66">
-        <v>1</v>
-      </c>
-      <c r="E6" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="66" t="s">
+      <c r="D6" s="68">
+        <v>1</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="68" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6582,11 +6634,11 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
@@ -6680,6 +6732,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -6688,12 +6746,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6748,35 +6800,35 @@
       <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="66" t="s">
         <v>273</v>
       </c>
-      <c r="C3" s="68"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="66">
         <v>8</v>
       </c>
-      <c r="F3" s="68"/>
+      <c r="F3" s="66"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="68" t="s">
         <v>271</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -6784,29 +6836,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="68" t="s">
         <v>272</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -6814,11 +6866,11 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
@@ -6851,22 +6903,22 @@
       <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="71">
+      <c r="A11" s="69">
         <v>7</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="69">
-        <v>1</v>
-      </c>
-      <c r="E11" s="69" t="s">
+      <c r="D11" s="70">
+        <v>1</v>
+      </c>
+      <c r="E11" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="70" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="4">
@@ -6883,12 +6935,12 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
       <c r="G12" s="4" t="s">
         <v>67</v>
       </c>
@@ -6904,17 +6956,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -6923,6 +6964,17 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6977,35 +7029,35 @@
       <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="66" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="68"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="66">
         <v>8</v>
       </c>
-      <c r="F3" s="68"/>
+      <c r="F3" s="66"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="68" t="s">
         <v>271</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="68">
         <v>0.01</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -7013,29 +7065,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="68" t="s">
         <v>272</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="68">
         <v>0.01</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -7043,11 +7095,11 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
@@ -7080,22 +7132,22 @@
       <c r="F10" s="43"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="71">
+      <c r="A11" s="69">
         <v>7</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="D11" s="69">
-        <v>1</v>
-      </c>
-      <c r="E11" s="69" t="s">
+      <c r="D11" s="70">
+        <v>1</v>
+      </c>
+      <c r="E11" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="70" t="s">
         <v>289</v>
       </c>
       <c r="G11" s="4">
@@ -7112,12 +7164,12 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
       <c r="G12" s="4" t="s">
         <v>67</v>
       </c>
@@ -7133,17 +7185,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -7152,6 +7193,17 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7170,14 +7222,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" s="59" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>313</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
     </row>
     <row r="2" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="67" t="s">
@@ -7213,35 +7265,35 @@
       <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="68"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="66">
         <v>8</v>
       </c>
-      <c r="F4" s="68"/>
+      <c r="F4" s="66"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>0</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="66">
-        <v>1</v>
-      </c>
-      <c r="E5" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="66" t="s">
+      <c r="D5" s="68">
+        <v>1</v>
+      </c>
+      <c r="E5" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="68" t="s">
         <v>124</v>
       </c>
     </row>
@@ -7249,29 +7301,29 @@
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="66">
-        <v>1</v>
-      </c>
-      <c r="E7" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="66" t="s">
+      <c r="D7" s="68">
+        <v>1</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="68" t="s">
         <v>124</v>
       </c>
     </row>
@@ -7279,11 +7331,11 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
@@ -7403,17 +7455,17 @@
       <c r="A15" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="68"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="68">
+      <c r="E15" s="66">
         <v>8</v>
       </c>
-      <c r="F15" s="68"/>
+      <c r="F15" s="66"/>
       <c r="G15" s="59"/>
       <c r="H15" s="59"/>
       <c r="I15" s="59"/>
@@ -7423,19 +7475,19 @@
       <c r="A16" s="55">
         <v>0</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="68" t="s">
         <v>251</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="66">
+      <c r="D16" s="68">
         <v>0.01</v>
       </c>
-      <c r="E16" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="66" t="s">
+      <c r="E16" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="68" t="s">
         <v>165</v>
       </c>
       <c r="G16" s="59"/>
@@ -7447,11 +7499,11 @@
       <c r="A17" s="55">
         <v>1</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
       <c r="G17" s="59"/>
       <c r="H17" s="59"/>
       <c r="I17" s="59"/>
@@ -7461,19 +7513,19 @@
       <c r="A18" s="55">
         <v>2</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="68" t="s">
         <v>252</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="66">
+      <c r="D18" s="68">
         <v>0.01</v>
       </c>
-      <c r="E18" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="66" t="s">
+      <c r="E18" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="68" t="s">
         <v>165</v>
       </c>
       <c r="G18" s="59"/>
@@ -7485,11 +7537,11 @@
       <c r="A19" s="55">
         <v>3</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
       <c r="G19" s="59"/>
       <c r="H19" s="59"/>
       <c r="I19" s="59"/>
@@ -7625,35 +7677,35 @@
       <c r="A27" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="66" t="s">
         <v>311</v>
       </c>
-      <c r="C27" s="68"/>
+      <c r="C27" s="66"/>
       <c r="D27" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="68">
+      <c r="E27" s="66">
         <v>8</v>
       </c>
-      <c r="F27" s="68"/>
+      <c r="F27" s="66"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="55">
         <v>0</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="68" t="s">
         <v>271</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="66">
+      <c r="D28" s="68">
         <v>0.01</v>
       </c>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="F28" s="66" t="s">
+      <c r="F28" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -7661,29 +7713,29 @@
       <c r="A29" s="55">
         <v>1</v>
       </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="55">
         <v>2</v>
       </c>
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="68" t="s">
         <v>272</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="66">
+      <c r="D30" s="68">
         <v>0.01</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="F30" s="66" t="s">
+      <c r="F30" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -7691,11 +7743,11 @@
       <c r="A31" s="55">
         <v>3</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="55">
@@ -7728,22 +7780,22 @@
       <c r="F34" s="43"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="71">
+      <c r="A35" s="69">
         <v>7</v>
       </c>
-      <c r="B35" s="69" t="s">
+      <c r="B35" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="C35" s="69" t="s">
+      <c r="C35" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="69">
-        <v>1</v>
-      </c>
-      <c r="E35" s="69" t="s">
+      <c r="D35" s="70">
+        <v>1</v>
+      </c>
+      <c r="E35" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="F35" s="69" t="s">
+      <c r="F35" s="70" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="4">
@@ -7760,12 +7812,12 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="71"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
+      <c r="A36" s="69"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
       <c r="G36" s="4" t="s">
         <v>67</v>
       </c>
@@ -7821,17 +7873,17 @@
       <c r="A40" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="68" t="s">
+      <c r="B40" s="66" t="s">
         <v>312</v>
       </c>
-      <c r="C40" s="68"/>
+      <c r="C40" s="66"/>
       <c r="D40" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E40" s="68">
+      <c r="E40" s="66">
         <v>8</v>
       </c>
-      <c r="F40" s="68"/>
+      <c r="F40" s="66"/>
       <c r="G40" s="59"/>
       <c r="H40" s="59"/>
       <c r="I40" s="59"/>
@@ -7841,19 +7893,19 @@
       <c r="A41" s="55">
         <v>0</v>
       </c>
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="68" t="s">
         <v>271</v>
       </c>
-      <c r="C41" s="66" t="s">
+      <c r="C41" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="66">
+      <c r="D41" s="68">
         <v>0.01</v>
       </c>
-      <c r="E41" s="66" t="s">
+      <c r="E41" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="F41" s="66" t="s">
+      <c r="F41" s="68" t="s">
         <v>165</v>
       </c>
       <c r="G41" s="59"/>
@@ -7865,11 +7917,11 @@
       <c r="A42" s="55">
         <v>1</v>
       </c>
-      <c r="B42" s="66"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
       <c r="G42" s="59"/>
       <c r="H42" s="59"/>
       <c r="I42" s="59"/>
@@ -7879,19 +7931,19 @@
       <c r="A43" s="55">
         <v>2</v>
       </c>
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="68" t="s">
         <v>272</v>
       </c>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="66">
+      <c r="D43" s="68">
         <v>0.01</v>
       </c>
-      <c r="E43" s="66" t="s">
+      <c r="E43" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="F43" s="66" t="s">
+      <c r="F43" s="68" t="s">
         <v>165</v>
       </c>
       <c r="G43" s="59"/>
@@ -7903,11 +7955,11 @@
       <c r="A44" s="55">
         <v>3</v>
       </c>
-      <c r="B44" s="66"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
       <c r="G44" s="59"/>
       <c r="H44" s="59"/>
       <c r="I44" s="59"/>
@@ -7956,22 +8008,22 @@
       <c r="J47" s="59"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="71">
+      <c r="A48" s="69">
         <v>7</v>
       </c>
-      <c r="B48" s="69" t="s">
+      <c r="B48" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="C48" s="69" t="s">
+      <c r="C48" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="D48" s="69">
-        <v>1</v>
-      </c>
-      <c r="E48" s="69" t="s">
+      <c r="D48" s="70">
+        <v>1</v>
+      </c>
+      <c r="E48" s="70" t="s">
         <v>288</v>
       </c>
-      <c r="F48" s="69" t="s">
+      <c r="F48" s="70" t="s">
         <v>18</v>
       </c>
       <c r="G48" s="4">
@@ -7988,12 +8040,12 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="71"/>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
+      <c r="A49" s="69"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
       <c r="G49" s="4" t="s">
         <v>67</v>
       </c>
@@ -8009,55 +8061,6 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F35:F36"/>
     <mergeCell ref="F48:F49"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A48:A49"/>
@@ -8074,6 +8077,55 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8097,14 +8149,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -8130,45 +8182,45 @@
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="68"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="66">
         <v>8</v>
       </c>
-      <c r="F3" s="68"/>
-      <c r="G3" s="83" t="s">
+      <c r="F3" s="66"/>
+      <c r="G3" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="85"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="71">
+      <c r="A4" s="69">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="66">
-        <v>1</v>
-      </c>
-      <c r="E4" s="66" t="s">
+      <c r="D4" s="68">
+        <v>1</v>
+      </c>
+      <c r="E4" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="68" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="28" t="s">
@@ -8197,12 +8249,12 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="4">
         <v>0</v>
       </c>
@@ -8229,22 +8281,22 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="79">
-        <v>1</v>
-      </c>
-      <c r="B6" s="81" t="s">
+      <c r="A6" s="72">
+        <v>1</v>
+      </c>
+      <c r="B6" s="75" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="72" t="s">
+      <c r="D6" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="44" t="s">
@@ -8273,12 +8325,12 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="80"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="10" t="s">
         <v>93</v>
       </c>
@@ -8297,28 +8349,28 @@
       <c r="L7" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="M7" s="75" t="s">
+      <c r="M7" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="N7" s="76"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="68">
         <v>0.1</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="68" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8326,29 +8378,29 @@
       <c r="A9" s="5">
         <v>3</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>4</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="68">
         <v>0.01</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="68" t="s">
         <v>44</v>
       </c>
     </row>
@@ -8356,11 +8408,11 @@
       <c r="A11" s="5">
         <v>5</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
@@ -8383,14 +8435,14 @@
       <c r="F13" s="51"/>
     </row>
     <row r="14" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="77" t="s">
+      <c r="A14" s="87" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
@@ -8416,35 +8468,35 @@
       <c r="A16" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="68"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E16" s="68">
+      <c r="E16" s="66">
         <v>8</v>
       </c>
-      <c r="F16" s="68"/>
+      <c r="F16" s="66"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="47">
         <v>0</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="66">
+      <c r="D17" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="68" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8452,29 +8504,29 @@
       <c r="A18" s="47">
         <v>1</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="47">
         <v>2</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="66">
+      <c r="D19" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E19" s="66" t="s">
+      <c r="E19" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="68" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8482,29 +8534,29 @@
       <c r="A20" s="47">
         <v>3</v>
       </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="47">
         <v>4</v>
       </c>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="66">
+      <c r="D21" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E21" s="66" t="s">
+      <c r="E21" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="66" t="s">
+      <c r="F21" s="68" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8512,29 +8564,29 @@
       <c r="A22" s="47">
         <v>5</v>
       </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="47">
         <v>6</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="66">
+      <c r="D23" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E23" s="66" t="s">
+      <c r="E23" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="F23" s="66" t="s">
+      <c r="F23" s="68" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8542,55 +8594,55 @@
       <c r="A24" s="47">
         <v>7</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
     </row>
     <row r="25" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="87" t="s">
         <v>294</v>
       </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="66" t="s">
         <v>295</v>
       </c>
-      <c r="C26" s="68"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E26" s="68">
+      <c r="E26" s="66">
         <v>8</v>
       </c>
-      <c r="F26" s="68"/>
+      <c r="F26" s="66"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="47">
         <v>0</v>
       </c>
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="72" t="s">
+      <c r="C27" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="72">
-        <v>1</v>
-      </c>
-      <c r="E27" s="72" t="s">
+      <c r="D27" s="77">
+        <v>1</v>
+      </c>
+      <c r="E27" s="77" t="s">
         <v>293</v>
       </c>
-      <c r="F27" s="72">
+      <c r="F27" s="77">
         <v>1</v>
       </c>
     </row>
@@ -8598,29 +8650,29 @@
       <c r="A28" s="47">
         <v>1</v>
       </c>
-      <c r="B28" s="82"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="47">
         <v>2</v>
       </c>
-      <c r="B29" s="81" t="s">
+      <c r="B29" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="72" t="s">
+      <c r="C29" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="72">
-        <v>1</v>
-      </c>
-      <c r="E29" s="72" t="s">
+      <c r="D29" s="77">
+        <v>1</v>
+      </c>
+      <c r="E29" s="77" t="s">
         <v>293</v>
       </c>
-      <c r="F29" s="72">
+      <c r="F29" s="77">
         <v>1</v>
       </c>
     </row>
@@ -8628,29 +8680,29 @@
       <c r="A30" s="47">
         <v>3</v>
       </c>
-      <c r="B30" s="82"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="47">
         <v>4</v>
       </c>
-      <c r="B31" s="81" t="s">
+      <c r="B31" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="72" t="s">
+      <c r="C31" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="72">
-        <v>1</v>
-      </c>
-      <c r="E31" s="72" t="s">
+      <c r="D31" s="77">
+        <v>1</v>
+      </c>
+      <c r="E31" s="77" t="s">
         <v>293</v>
       </c>
-      <c r="F31" s="72">
+      <c r="F31" s="77">
         <v>1</v>
       </c>
     </row>
@@ -8658,29 +8710,29 @@
       <c r="A32" s="47">
         <v>5</v>
       </c>
-      <c r="B32" s="82"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="47">
         <v>6</v>
       </c>
-      <c r="B33" s="81" t="s">
+      <c r="B33" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="72" t="s">
+      <c r="C33" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="72">
-        <v>1</v>
-      </c>
-      <c r="E33" s="72" t="s">
+      <c r="D33" s="77">
+        <v>1</v>
+      </c>
+      <c r="E33" s="77" t="s">
         <v>293</v>
       </c>
-      <c r="F33" s="72">
+      <c r="F33" s="77">
         <v>1</v>
       </c>
     </row>
@@ -8688,55 +8740,55 @@
       <c r="A34" s="47">
         <v>7</v>
       </c>
-      <c r="B34" s="82"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
     </row>
     <row r="35" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="77" t="s">
+      <c r="A35" s="87" t="s">
         <v>294</v>
       </c>
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="78" t="s">
+      <c r="B36" s="91" t="s">
         <v>296</v>
       </c>
-      <c r="C36" s="78"/>
+      <c r="C36" s="91"/>
       <c r="D36" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="78">
+      <c r="E36" s="91">
         <v>8</v>
       </c>
-      <c r="F36" s="78"/>
+      <c r="F36" s="91"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="47">
         <v>0</v>
       </c>
-      <c r="B37" s="81" t="s">
+      <c r="B37" s="75" t="s">
         <v>298</v>
       </c>
-      <c r="C37" s="72" t="s">
+      <c r="C37" s="77" t="s">
         <v>303</v>
       </c>
-      <c r="D37" s="72">
-        <v>1</v>
-      </c>
-      <c r="E37" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="72">
+      <c r="D37" s="77">
+        <v>1</v>
+      </c>
+      <c r="E37" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="77">
         <v>1</v>
       </c>
     </row>
@@ -8744,49 +8796,49 @@
       <c r="A38" s="47">
         <v>1</v>
       </c>
-      <c r="B38" s="91"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="47">
         <v>2</v>
       </c>
-      <c r="B39" s="91"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="47">
         <v>3</v>
       </c>
-      <c r="B40" s="82"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="47">
         <v>4</v>
       </c>
-      <c r="B41" s="81" t="s">
+      <c r="B41" s="75" t="s">
         <v>299</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="77" t="s">
         <v>303</v>
       </c>
-      <c r="D41" s="72">
-        <v>1</v>
-      </c>
-      <c r="E41" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="72">
+      <c r="D41" s="77">
+        <v>1</v>
+      </c>
+      <c r="E41" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="77">
         <v>1</v>
       </c>
     </row>
@@ -8794,65 +8846,65 @@
       <c r="A42" s="47">
         <v>5</v>
       </c>
-      <c r="B42" s="91"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="47">
         <v>6</v>
       </c>
-      <c r="B43" s="91"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="47">
         <v>7</v>
       </c>
-      <c r="B44" s="82"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="86" t="s">
+      <c r="B45" s="83" t="s">
         <v>300</v>
       </c>
-      <c r="C45" s="87"/>
+      <c r="C45" s="84"/>
       <c r="D45" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E45" s="86">
+      <c r="E45" s="83">
         <v>8</v>
       </c>
-      <c r="F45" s="87"/>
+      <c r="F45" s="84"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="79">
+      <c r="A46" s="72">
         <v>0</v>
       </c>
-      <c r="B46" s="81" t="s">
+      <c r="B46" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="72" t="s">
+      <c r="C46" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="72">
-        <v>1</v>
-      </c>
-      <c r="E46" s="72" t="s">
+      <c r="D46" s="77">
+        <v>1</v>
+      </c>
+      <c r="E46" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="88" t="s">
+      <c r="F46" s="79" t="s">
         <v>45</v>
       </c>
       <c r="G46" s="18" t="s">
@@ -8881,22 +8933,22 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="80"/>
-      <c r="B47" s="82"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="89"/>
+      <c r="A47" s="73"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="80"/>
       <c r="G47" s="27" t="s">
         <v>297</v>
       </c>
       <c r="H47" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="I47" s="90" t="s">
+      <c r="I47" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="J47" s="90"/>
+      <c r="J47" s="74"/>
       <c r="K47" s="27" t="s">
         <v>139</v>
       </c>
@@ -8911,22 +8963,22 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="79">
-        <v>1</v>
-      </c>
-      <c r="B48" s="81" t="s">
+      <c r="A48" s="72">
+        <v>1</v>
+      </c>
+      <c r="B48" s="75" t="s">
         <v>216</v>
       </c>
-      <c r="C48" s="72" t="s">
+      <c r="C48" s="77" t="s">
         <v>109</v>
       </c>
-      <c r="D48" s="72">
-        <v>1</v>
-      </c>
-      <c r="E48" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="88" t="s">
+      <c r="D48" s="77">
+        <v>1</v>
+      </c>
+      <c r="E48" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="79" t="s">
         <v>18</v>
       </c>
       <c r="G48" s="44" t="s">
@@ -8955,12 +9007,12 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="80"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="89"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="76"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="80"/>
       <c r="G49" s="10" t="s">
         <v>93</v>
       </c>
@@ -8979,28 +9031,28 @@
       <c r="L49" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="M49" s="75" t="s">
+      <c r="M49" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="N49" s="76"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="47">
         <v>2</v>
       </c>
-      <c r="B50" s="81" t="s">
+      <c r="B50" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="72" t="s">
+      <c r="C50" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="72">
+      <c r="D50" s="77">
         <v>0.01</v>
       </c>
-      <c r="E50" s="72" t="s">
+      <c r="E50" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="72" t="s">
+      <c r="F50" s="77" t="s">
         <v>138</v>
       </c>
     </row>
@@ -9008,29 +9060,29 @@
       <c r="A51" s="46">
         <v>3</v>
       </c>
-      <c r="B51" s="82"/>
-      <c r="C51" s="74"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
+      <c r="B51" s="76"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="78"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="47">
         <v>4</v>
       </c>
-      <c r="B52" s="81" t="s">
+      <c r="B52" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="72" t="s">
+      <c r="C52" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="72">
+      <c r="D52" s="77">
         <v>0.01</v>
       </c>
-      <c r="E52" s="72" t="s">
+      <c r="E52" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="F52" s="72" t="s">
+      <c r="F52" s="77" t="s">
         <v>138</v>
       </c>
     </row>
@@ -9038,29 +9090,29 @@
       <c r="A53" s="46">
         <v>5</v>
       </c>
-      <c r="B53" s="82"/>
-      <c r="C53" s="74"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
+      <c r="B53" s="76"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="78"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>6</v>
       </c>
-      <c r="B54" s="66" t="s">
+      <c r="B54" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="C54" s="66" t="s">
+      <c r="C54" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="D54" s="66">
+      <c r="D54" s="68">
         <v>0.01</v>
       </c>
-      <c r="E54" s="66" t="s">
+      <c r="E54" s="68" t="s">
         <v>217</v>
       </c>
-      <c r="F54" s="66" t="s">
+      <c r="F54" s="68" t="s">
         <v>215</v>
       </c>
     </row>
@@ -9068,11 +9120,11 @@
       <c r="A55" s="32">
         <v>7</v>
       </c>
-      <c r="B55" s="66"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="66"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
@@ -9161,6 +9213,99 @@
     </row>
   </sheetData>
   <mergeCells count="117">
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="B46:B47"/>
@@ -9185,99 +9330,6 @@
     <mergeCell ref="E41:E44"/>
     <mergeCell ref="F41:F44"/>
     <mergeCell ref="B37:B40"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G3:N3"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9299,14 +9351,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -9332,45 +9384,45 @@
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="68"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="66">
         <v>8</v>
       </c>
-      <c r="F3" s="68"/>
+      <c r="F3" s="66"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="71">
+      <c r="A4" s="69">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="66">
-        <v>1</v>
-      </c>
-      <c r="E4" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="66" t="s">
+      <c r="D4" s="68">
+        <v>1</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="68" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
@@ -9396,19 +9448,19 @@
       <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="66">
+      <c r="D7" s="68">
         <v>0.1</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="68" t="s">
         <v>37</v>
       </c>
     </row>
@@ -9416,29 +9468,29 @@
       <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="66">
+      <c r="D9" s="68">
         <v>0.01</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="66" t="s">
+      <c r="F9" s="68" t="s">
         <v>29</v>
       </c>
     </row>
@@ -9446,29 +9498,29 @@
       <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>6</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="66">
+      <c r="D11" s="68">
         <v>0.01</v>
       </c>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="68" t="s">
         <v>43</v>
       </c>
     </row>
@@ -9476,21 +9528,21 @@
       <c r="A12" s="5">
         <v>7</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
     </row>
     <row r="13" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="87" t="s">
         <v>147</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
@@ -9516,35 +9568,35 @@
       <c r="A15" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="68" t="s">
+      <c r="B15" s="66" t="s">
         <v>301</v>
       </c>
-      <c r="C15" s="68"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="68">
+      <c r="E15" s="66">
         <v>8</v>
       </c>
-      <c r="F15" s="68"/>
+      <c r="F15" s="66"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="47">
         <v>0</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="66">
+      <c r="D16" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E16" s="66" t="s">
+      <c r="E16" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="66" t="s">
+      <c r="F16" s="68" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9552,29 +9604,29 @@
       <c r="A17" s="47">
         <v>1</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="47">
         <v>2</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="66">
+      <c r="D18" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E18" s="66" t="s">
+      <c r="E18" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="68" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9582,29 +9634,29 @@
       <c r="A19" s="47">
         <v>3</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="47">
         <v>4</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="66">
+      <c r="D20" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E20" s="66" t="s">
+      <c r="E20" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="68" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9612,29 +9664,29 @@
       <c r="A21" s="47">
         <v>5</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="47">
         <v>6</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="66">
+      <c r="D22" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E22" s="66" t="s">
+      <c r="E22" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="F22" s="66" t="s">
+      <c r="F22" s="68" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9642,14 +9694,52 @@
       <c r="A23" s="47">
         <v>7</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -9659,44 +9749,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9723,14 +9775,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="87" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
@@ -9756,35 +9808,35 @@
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="68"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="66">
         <v>8</v>
       </c>
-      <c r="F3" s="68"/>
+      <c r="F3" s="66"/>
     </row>
     <row r="4" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="97">
+      <c r="A4" s="101">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="66">
-        <v>1</v>
-      </c>
-      <c r="E4" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="66">
+      <c r="D4" s="68">
+        <v>1</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="68">
         <v>1</v>
       </c>
       <c r="G4" s="15" t="s">
@@ -9813,12 +9865,12 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="98"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="8">
         <v>0</v>
       </c>
@@ -9845,52 +9897,52 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="97">
-        <v>1</v>
-      </c>
-      <c r="B6" s="66" t="s">
+      <c r="A6" s="101">
+        <v>1</v>
+      </c>
+      <c r="B6" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="66">
-        <v>1</v>
-      </c>
-      <c r="E6" s="66" t="s">
+      <c r="D6" s="68">
+        <v>1</v>
+      </c>
+      <c r="E6" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="66">
+      <c r="F6" s="68">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="98"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="68">
         <v>0.1</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="68" t="s">
         <v>29</v>
       </c>
     </row>
@@ -9898,29 +9950,29 @@
       <c r="A9" s="4">
         <v>3</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>4</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="68">
         <v>0.01</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="68" t="s">
         <v>29</v>
       </c>
     </row>
@@ -9928,11 +9980,11 @@
       <c r="A11" s="4">
         <v>5</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
@@ -9973,50 +10025,50 @@
       <c r="F13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="94" t="s">
+      <c r="G13" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="96"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="100"/>
     </row>
     <row r="14" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="68"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="68">
+      <c r="E14" s="66">
         <v>8</v>
       </c>
-      <c r="F14" s="68"/>
+      <c r="F14" s="66"/>
     </row>
     <row r="15" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>0</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="66">
+      <c r="D15" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E15" s="66" t="s">
+      <c r="E15" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="68" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10024,29 +10076,29 @@
       <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="66">
+      <c r="D17" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="68" t="s">
         <v>20</v>
       </c>
     </row>
@@ -10054,29 +10106,29 @@
       <c r="A18" s="4">
         <v>3</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>4</v>
       </c>
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="66">
+      <c r="D19" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E19" s="66" t="s">
+      <c r="E19" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="68" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10084,11 +10136,11 @@
       <c r="A20" s="4">
         <v>5</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
@@ -10129,16 +10181,16 @@
       <c r="F22" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="92" t="s">
+      <c r="G22" s="93" t="s">
         <v>122</v>
       </c>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
     </row>
     <row r="23" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="67" t="s">
@@ -10174,35 +10226,35 @@
       <c r="A25" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="66" t="s">
         <v>278</v>
       </c>
-      <c r="C25" s="68"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E25" s="68">
+      <c r="E25" s="66">
         <v>8</v>
       </c>
-      <c r="F25" s="68"/>
+      <c r="F25" s="66"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>0</v>
       </c>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="66">
+      <c r="D26" s="68">
         <v>0.1</v>
       </c>
-      <c r="E26" s="66" t="s">
+      <c r="E26" s="68" t="s">
         <v>279</v>
       </c>
-      <c r="F26" s="66" t="s">
+      <c r="F26" s="68" t="s">
         <v>37</v>
       </c>
     </row>
@@ -10210,11 +10262,11 @@
       <c r="A27" s="5">
         <v>1</v>
       </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
@@ -10260,19 +10312,19 @@
       <c r="A30" s="5">
         <v>4</v>
       </c>
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="68" t="s">
         <v>280</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="66">
+      <c r="D30" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="F30" s="66" t="s">
+      <c r="F30" s="68" t="s">
         <v>165</v>
       </c>
     </row>
@@ -10280,29 +10332,29 @@
       <c r="A31" s="5">
         <v>5</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="79">
+      <c r="A32" s="72">
         <v>6</v>
       </c>
-      <c r="B32" s="102" t="s">
+      <c r="B32" s="95" t="s">
         <v>306</v>
       </c>
-      <c r="C32" s="72" t="s">
+      <c r="C32" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="72">
-        <v>1</v>
-      </c>
-      <c r="E32" s="72" t="s">
+      <c r="D32" s="77">
+        <v>1</v>
+      </c>
+      <c r="E32" s="77" t="s">
         <v>305</v>
       </c>
-      <c r="F32" s="72">
+      <c r="F32" s="77">
         <v>1</v>
       </c>
       <c r="G32" s="15" t="s">
@@ -10331,28 +10383,28 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="80"/>
-      <c r="B33" s="103"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="101"/>
+      <c r="A33" s="73"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="94"/>
       <c r="G33" s="50">
         <v>0</v>
       </c>
       <c r="H33" s="50">
         <v>0</v>
       </c>
-      <c r="I33" s="100" t="s">
+      <c r="I33" s="92" t="s">
         <v>283</v>
       </c>
-      <c r="J33" s="100"/>
-      <c r="K33" s="104" t="s">
+      <c r="J33" s="92"/>
+      <c r="K33" s="97" t="s">
         <v>216</v>
       </c>
-      <c r="L33" s="104"/>
-      <c r="M33" s="104"/>
-      <c r="N33" s="104"/>
+      <c r="L33" s="97"/>
+      <c r="M33" s="97"/>
+      <c r="N33" s="97"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="49">
@@ -10373,28 +10425,28 @@
       <c r="F34" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="92" t="s">
+      <c r="G34" s="93" t="s">
         <v>122</v>
       </c>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="92"/>
-      <c r="N34" s="92"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="93"/>
+      <c r="N34" s="93"/>
     </row>
     <row r="36" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G36" s="70" t="s">
+      <c r="G36" s="71" t="s">
         <v>216</v>
       </c>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="70"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="70"/>
-      <c r="N36" s="70"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
     </row>
     <row r="37" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="G37" s="12" t="s">
@@ -10441,37 +10493,42 @@
       <c r="L38" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="M38" s="75" t="s">
+      <c r="M38" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="N38" s="76"/>
+      <c r="N38" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G36:N36"/>
-    <mergeCell ref="G34:N34"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G22:N22"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="G13:N13"/>
@@ -10488,35 +10545,30 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G22:N22"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G36:N36"/>
+    <mergeCell ref="G34:N34"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="K33:N33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10535,14 +10587,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="87" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -10568,35 +10620,35 @@
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="68"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="66">
         <v>8</v>
       </c>
-      <c r="F3" s="68"/>
+      <c r="F3" s="66"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="68" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10604,29 +10656,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="68" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10634,29 +10686,29 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="68" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10664,29 +10716,29 @@
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="68" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10694,45 +10746,45 @@
       <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="68"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="66">
         <v>8</v>
       </c>
-      <c r="F12" s="68"/>
+      <c r="F12" s="66"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>0</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="72">
-        <v>1</v>
-      </c>
-      <c r="E13" s="72" t="s">
+      <c r="D13" s="77">
+        <v>1</v>
+      </c>
+      <c r="E13" s="77" t="s">
         <v>293</v>
       </c>
-      <c r="F13" s="72">
+      <c r="F13" s="77">
         <v>1</v>
       </c>
     </row>
@@ -10740,29 +10792,29 @@
       <c r="A14" s="5">
         <v>1</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>2</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="72">
-        <v>1</v>
-      </c>
-      <c r="E15" s="72" t="s">
+      <c r="D15" s="77">
+        <v>1</v>
+      </c>
+      <c r="E15" s="77" t="s">
         <v>293</v>
       </c>
-      <c r="F15" s="72">
+      <c r="F15" s="77">
         <v>1</v>
       </c>
     </row>
@@ -10770,29 +10822,29 @@
       <c r="A16" s="5">
         <v>3</v>
       </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>4</v>
       </c>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="72">
-        <v>1</v>
-      </c>
-      <c r="E17" s="72" t="s">
+      <c r="D17" s="77">
+        <v>1</v>
+      </c>
+      <c r="E17" s="77" t="s">
         <v>293</v>
       </c>
-      <c r="F17" s="72">
+      <c r="F17" s="77">
         <v>1</v>
       </c>
     </row>
@@ -10800,29 +10852,29 @@
       <c r="A18" s="5">
         <v>5</v>
       </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>6</v>
       </c>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="72">
-        <v>1</v>
-      </c>
-      <c r="E19" s="72" t="s">
+      <c r="D19" s="77">
+        <v>1</v>
+      </c>
+      <c r="E19" s="77" t="s">
         <v>293</v>
       </c>
-      <c r="F19" s="72">
+      <c r="F19" s="77">
         <v>1</v>
       </c>
     </row>
@@ -10830,22 +10882,41 @@
       <c r="A20" s="5">
         <v>7</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
@@ -10856,33 +10927,14 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10901,14 +10953,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="87" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -10934,35 +10986,35 @@
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="68"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="66">
         <v>8</v>
       </c>
-      <c r="F3" s="68"/>
+      <c r="F3" s="66"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="68" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10970,29 +11022,29 @@
       <c r="A5" s="5">
         <v>1</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>2</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="68" t="s">
         <v>59</v>
       </c>
     </row>
@@ -11000,29 +11052,29 @@
       <c r="A7" s="5">
         <v>3</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="F8" s="68" t="s">
         <v>59</v>
       </c>
     </row>
@@ -11030,29 +11082,29 @@
       <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>6</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="68">
         <v>1E-3</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="68" t="s">
         <v>59</v>
       </c>
     </row>
@@ -11060,14 +11112,29 @@
       <c r="A11" s="5">
         <v>7</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -11076,21 +11143,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11114,14 +11166,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
       <c r="G1" s="3"/>
       <c r="H1" s="105" t="s">
         <v>63</v>
@@ -11169,17 +11221,17 @@
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="87"/>
+      <c r="C3" s="84"/>
       <c r="D3" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="86">
+      <c r="E3" s="83">
         <v>8</v>
       </c>
-      <c r="F3" s="87"/>
+      <c r="F3" s="84"/>
       <c r="G3" s="3"/>
       <c r="H3" s="105"/>
       <c r="I3" s="105"/>
@@ -11491,6 +11543,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I8:I11"/>
     <mergeCell ref="H12:H16"/>
     <mergeCell ref="I12:I16"/>
     <mergeCell ref="H1:I1"/>
@@ -11499,11 +11556,6 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="I5:I7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="I8:I11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11551,30 +11603,30 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="87" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
     </row>
     <row r="3" spans="1:22" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="87"/>
+      <c r="C3" s="84"/>
       <c r="D3" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="86">
+      <c r="E3" s="83">
         <v>8</v>
       </c>
-      <c r="F3" s="87"/>
+      <c r="F3" s="84"/>
     </row>
     <row r="4" spans="1:22" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
@@ -11796,26 +11848,26 @@
       <c r="A12" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="83" t="s">
         <v>178</v>
       </c>
-      <c r="C12" s="87"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="86">
+      <c r="E12" s="83">
         <v>8</v>
       </c>
-      <c r="F12" s="87"/>
+      <c r="F12" s="84"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="110" t="s">
+      <c r="H12" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="111"/>
-      <c r="J12" s="110" t="s">
+      <c r="I12" s="107"/>
+      <c r="J12" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="K12" s="111"/>
+      <c r="K12" s="107"/>
     </row>
     <row r="13" spans="1:22" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
@@ -12062,14 +12114,14 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="87" t="s">
         <v>232</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
       <c r="G21" s="3"/>
       <c r="H21" s="105"/>
       <c r="I21" s="57"/>
@@ -12084,17 +12136,17 @@
       <c r="A22" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="83" t="s">
         <v>231</v>
       </c>
-      <c r="C22" s="87"/>
+      <c r="C22" s="84"/>
       <c r="D22" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E22" s="86">
+      <c r="E22" s="83">
         <v>8</v>
       </c>
-      <c r="F22" s="87"/>
+      <c r="F22" s="84"/>
       <c r="G22" s="3"/>
       <c r="H22" s="105"/>
       <c r="I22" s="57"/>
@@ -12315,13 +12367,13 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="114" t="s">
+      <c r="A31" s="118" t="s">
         <v>237</v>
       </c>
-      <c r="B31" s="116" t="s">
+      <c r="B31" s="120" t="s">
         <v>246</v>
       </c>
-      <c r="C31" s="117"/>
+      <c r="C31" s="121"/>
       <c r="D31" s="38" t="s">
         <v>238</v>
       </c>
@@ -12329,7 +12381,7 @@
       <c r="F31" s="37"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="115"/>
+      <c r="A32" s="119"/>
       <c r="B32" s="108" t="s">
         <v>244</v>
       </c>
@@ -12341,7 +12393,7 @@
       <c r="F32" s="37"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="115"/>
+      <c r="A33" s="119"/>
       <c r="B33" s="108" t="s">
         <v>245</v>
       </c>
@@ -12353,11 +12405,11 @@
       <c r="F33" s="37"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="115"/>
-      <c r="B34" s="118" t="s">
+      <c r="A34" s="119"/>
+      <c r="B34" s="110" t="s">
         <v>241</v>
       </c>
-      <c r="C34" s="119"/>
+      <c r="C34" s="111"/>
       <c r="D34" s="40" t="s">
         <v>240</v>
       </c>
@@ -12365,11 +12417,11 @@
       <c r="F34" s="37"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="115"/>
-      <c r="B35" s="118" t="s">
+      <c r="A35" s="119"/>
+      <c r="B35" s="110" t="s">
         <v>248</v>
       </c>
-      <c r="C35" s="119"/>
+      <c r="C35" s="111"/>
       <c r="D35" s="40" t="s">
         <v>247</v>
       </c>
@@ -12377,11 +12429,11 @@
       <c r="F35" s="37"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="115"/>
-      <c r="B36" s="120" t="s">
+      <c r="A36" s="119"/>
+      <c r="B36" s="112" t="s">
         <v>249</v>
       </c>
-      <c r="C36" s="121"/>
+      <c r="C36" s="113"/>
       <c r="D36" s="41" t="s">
         <v>242</v>
       </c>
@@ -12389,30 +12441,30 @@
       <c r="F36" s="37"/>
     </row>
     <row r="38" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="77" t="s">
+      <c r="A38" s="87" t="s">
         <v>314</v>
       </c>
-      <c r="B38" s="77"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
     </row>
     <row r="39" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="86" t="s">
+      <c r="B39" s="83" t="s">
         <v>315</v>
       </c>
-      <c r="C39" s="87"/>
+      <c r="C39" s="84"/>
       <c r="D39" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="86">
+      <c r="E39" s="83">
         <v>8</v>
       </c>
-      <c r="F39" s="87"/>
+      <c r="F39" s="84"/>
     </row>
     <row r="40" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
@@ -12575,10 +12627,10 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="112" t="s">
+      <c r="A48" s="116" t="s">
         <v>316</v>
       </c>
-      <c r="B48" s="113"/>
+      <c r="B48" s="117"/>
       <c r="C48" s="64" t="s">
         <v>238</v>
       </c>
@@ -12586,10 +12638,10 @@
       <c r="E48" s="37"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="106" t="s">
+      <c r="A49" s="114" t="s">
         <v>317</v>
       </c>
-      <c r="B49" s="107"/>
+      <c r="B49" s="115"/>
       <c r="C49" s="64" t="s">
         <v>239</v>
       </c>
@@ -12620,19 +12672,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="H4:H10"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="H23:H27"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="H19:H22"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A51:B51"/>
@@ -12649,6 +12688,19 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="H23:H27"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="H4:H10"/>
+    <mergeCell ref="H12:I12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/Protocol/CAN总线协议.xlsx
+++ b/Doc/Protocol/CAN总线协议.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83ADCE50-B47D-4E8F-86FB-DFB3840F68BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8488C69A-2A74-484B-813E-4ACE4F19D976}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="超声波原始数据(RX)" sheetId="12" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="343">
   <si>
     <t>字节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -885,10 +885,6 @@
   </si>
   <si>
     <t>挡位信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.30]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1375,6 +1371,26 @@
   <si>
     <t>前库位
 位置计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆控制信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x415</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,65]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2063,7 +2079,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2250,22 +2266,47 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="11" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="19" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="31" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="9" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="11" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
@@ -2274,66 +2315,64 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="11" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="21" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="22" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="15" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="18" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="19" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="16" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="20" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="21" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="22" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="30" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="31" xfId="10" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="9" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="11" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="33" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2346,38 +2385,43 @@
     <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="20" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="13" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="28" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="27" xfId="13" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="28" xfId="13" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="25" xfId="17" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="26" xfId="17" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="27" xfId="18" applyBorder="1" applyAlignment="1">
@@ -2390,30 +2434,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="28" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="28" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="25" xfId="17" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="26" xfId="17" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2728,14 +2748,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -2761,17 +2781,17 @@
       <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="66"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="70">
         <v>8</v>
       </c>
-      <c r="F3" s="66"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -2914,14 +2934,14 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="67" t="s">
-        <v>250</v>
-      </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
+      <c r="A12" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
     </row>
     <row r="13" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
@@ -2947,24 +2967,24 @@
       <c r="A14" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="66"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="66">
+      <c r="E14" s="70">
         <v>8</v>
       </c>
-      <c r="F14" s="66"/>
+      <c r="F14" s="70"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>0</v>
       </c>
       <c r="B15" s="68" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C15" s="68" t="s">
         <v>24</v>
@@ -2994,7 +3014,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C17" s="68" t="s">
         <v>24</v>
@@ -3084,7 +3104,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C22" s="48" t="s">
         <v>109</v>
@@ -3093,7 +3113,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>187</v>
@@ -3101,11 +3121,19 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="E14:F14"/>
@@ -3114,19 +3142,11 @@
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3138,8 +3158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035C941A-BCE1-46E3-89DE-EEDC1055935D}">
   <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView topLeftCell="A58" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F113" sqref="F113:F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3165,30 +3185,30 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="70" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="66"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="70">
         <v>8</v>
       </c>
-      <c r="F3" s="66"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -3281,22 +3301,22 @@
       <c r="F9" s="68"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="72">
+      <c r="A10" s="81">
         <v>6</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="83" t="s">
         <v>201</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="74" t="s">
         <v>202</v>
       </c>
-      <c r="D10" s="77">
-        <v>1</v>
-      </c>
-      <c r="E10" s="77" t="s">
-        <v>302</v>
-      </c>
-      <c r="F10" s="79">
+      <c r="D10" s="74">
+        <v>1</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>301</v>
+      </c>
+      <c r="F10" s="90">
         <v>1</v>
       </c>
       <c r="G10" s="34">
@@ -3313,12 +3333,12 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="73"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="80"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="91"/>
       <c r="G11" s="34" t="s">
         <v>204</v>
       </c>
@@ -3343,30 +3363,30 @@
       <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="66"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="66">
+      <c r="E14" s="70">
         <v>8</v>
       </c>
-      <c r="F14" s="66"/>
+      <c r="F14" s="70"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
@@ -3489,14 +3509,14 @@
       <c r="F22" s="68"/>
     </row>
     <row r="23" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="87" t="s">
+      <c r="A23" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
@@ -3522,17 +3542,17 @@
       <c r="A25" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="C25" s="66"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E25" s="66">
+      <c r="E25" s="70">
         <v>8</v>
       </c>
-      <c r="F25" s="66"/>
+      <c r="F25" s="70"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
@@ -3655,30 +3675,30 @@
       <c r="F33" s="68"/>
     </row>
     <row r="34" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="87" t="s">
+      <c r="A34" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="66" t="s">
+      <c r="B35" s="70" t="s">
         <v>188</v>
       </c>
-      <c r="C35" s="66"/>
+      <c r="C35" s="70"/>
       <c r="D35" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E35" s="66">
+      <c r="E35" s="70">
         <v>8</v>
       </c>
-      <c r="F35" s="66"/>
+      <c r="F35" s="70"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
@@ -3811,30 +3831,30 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="87" t="s">
+      <c r="A44" s="79" t="s">
         <v>183</v>
       </c>
-      <c r="B44" s="87"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="87"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="87"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="66" t="s">
+      <c r="B45" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="C45" s="66"/>
+      <c r="C45" s="70"/>
       <c r="D45" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E45" s="66">
+      <c r="E45" s="70">
         <v>8</v>
       </c>
-      <c r="F45" s="66"/>
+      <c r="F45" s="70"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
@@ -3967,30 +3987,30 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="87" t="s">
+      <c r="A54" s="79" t="s">
         <v>197</v>
       </c>
-      <c r="B54" s="87"/>
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
+      <c r="B54" s="79"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="79"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="66" t="s">
+      <c r="B55" s="70" t="s">
         <v>198</v>
       </c>
-      <c r="C55" s="66"/>
+      <c r="C55" s="70"/>
       <c r="D55" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E55" s="66">
+      <c r="E55" s="70">
         <v>8</v>
       </c>
-      <c r="F55" s="66"/>
+      <c r="F55" s="70"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
@@ -4123,30 +4143,30 @@
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="87" t="s">
+      <c r="A64" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="B64" s="87"/>
-      <c r="C64" s="87"/>
-      <c r="D64" s="87"/>
-      <c r="E64" s="87"/>
-      <c r="F64" s="87"/>
+      <c r="B64" s="79"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="66" t="s">
+      <c r="B65" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="C65" s="66"/>
+      <c r="C65" s="70"/>
       <c r="D65" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E65" s="66">
+      <c r="E65" s="70">
         <v>8</v>
       </c>
-      <c r="F65" s="66"/>
+      <c r="F65" s="70"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
@@ -4269,30 +4289,30 @@
       <c r="F73" s="19"/>
     </row>
     <row r="74" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="87" t="s">
-        <v>220</v>
-      </c>
-      <c r="B74" s="87"/>
-      <c r="C74" s="87"/>
-      <c r="D74" s="87"/>
-      <c r="E74" s="87"/>
-      <c r="F74" s="87"/>
+      <c r="A74" s="79" t="s">
+        <v>219</v>
+      </c>
+      <c r="B74" s="79"/>
+      <c r="C74" s="79"/>
+      <c r="D74" s="79"/>
+      <c r="E74" s="79"/>
+      <c r="F74" s="79"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="66" t="s">
-        <v>219</v>
-      </c>
-      <c r="C75" s="66"/>
+      <c r="B75" s="70" t="s">
+        <v>218</v>
+      </c>
+      <c r="C75" s="70"/>
       <c r="D75" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E75" s="66">
+      <c r="E75" s="70">
         <v>8</v>
       </c>
-      <c r="F75" s="66"/>
+      <c r="F75" s="70"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
@@ -4395,49 +4415,49 @@
       <c r="F83" s="19"/>
     </row>
     <row r="84" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="B84" s="87"/>
-      <c r="C84" s="87"/>
-      <c r="D84" s="87"/>
-      <c r="E84" s="87"/>
-      <c r="F84" s="87"/>
+      <c r="A84" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="B84" s="79"/>
+      <c r="C84" s="79"/>
+      <c r="D84" s="79"/>
+      <c r="E84" s="79"/>
+      <c r="F84" s="79"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="66" t="s">
-        <v>225</v>
-      </c>
-      <c r="C85" s="66"/>
+      <c r="B85" s="70" t="s">
+        <v>224</v>
+      </c>
+      <c r="C85" s="70"/>
       <c r="D85" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E85" s="66">
+      <c r="E85" s="70">
         <v>8</v>
       </c>
-      <c r="F85" s="66"/>
+      <c r="F85" s="70"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>0</v>
       </c>
       <c r="B86" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C86" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="C86" s="19" t="s">
+      <c r="D86" s="19">
+        <v>1</v>
+      </c>
+      <c r="E86" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="D86" s="19">
-        <v>1</v>
-      </c>
-      <c r="E86" s="19" t="s">
-        <v>224</v>
-      </c>
       <c r="F86" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -4511,37 +4531,37 @@
       <c r="F93" s="19"/>
     </row>
     <row r="94" spans="1:6" s="59" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="87" t="s">
-        <v>331</v>
-      </c>
-      <c r="B94" s="87"/>
-      <c r="C94" s="87"/>
-      <c r="D94" s="87"/>
-      <c r="E94" s="87"/>
-      <c r="F94" s="87"/>
+      <c r="A94" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="B94" s="79"/>
+      <c r="C94" s="79"/>
+      <c r="D94" s="79"/>
+      <c r="E94" s="79"/>
+      <c r="F94" s="79"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B95" s="83" t="s">
-        <v>325</v>
-      </c>
-      <c r="C95" s="84"/>
+      <c r="B95" s="88" t="s">
+        <v>324</v>
+      </c>
+      <c r="C95" s="89"/>
       <c r="D95" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E95" s="83">
+      <c r="E95" s="88">
         <v>8</v>
       </c>
-      <c r="F95" s="84"/>
+      <c r="F95" s="89"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>0</v>
       </c>
       <c r="B96" s="68" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C96" s="68" t="s">
         <v>22</v>
@@ -4550,7 +4570,7 @@
         <v>1E-3</v>
       </c>
       <c r="E96" s="68" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F96" s="68" t="s">
         <v>165</v>
@@ -4571,7 +4591,7 @@
         <v>2</v>
       </c>
       <c r="B98" s="68" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C98" s="68" t="s">
         <v>22</v>
@@ -4580,7 +4600,7 @@
         <v>1E-3</v>
       </c>
       <c r="E98" s="68" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F98" s="68" t="s">
         <v>165</v>
@@ -4601,7 +4621,7 @@
         <v>4</v>
       </c>
       <c r="B100" s="68" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C100" s="68" t="s">
         <v>22</v>
@@ -4610,7 +4630,7 @@
         <v>1E-3</v>
       </c>
       <c r="E100" s="68" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F100" s="68" t="s">
         <v>165</v>
@@ -4631,7 +4651,7 @@
         <v>6</v>
       </c>
       <c r="B102" s="68" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C102" s="68" t="s">
         <v>22</v>
@@ -4640,7 +4660,7 @@
         <v>1E-3</v>
       </c>
       <c r="E102" s="68" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F102" s="68" t="s">
         <v>165</v>
@@ -4657,48 +4677,48 @@
       <c r="F103" s="68"/>
     </row>
     <row r="104" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="B104" s="87"/>
-      <c r="C104" s="87"/>
-      <c r="D104" s="87"/>
-      <c r="E104" s="87"/>
-      <c r="F104" s="87"/>
+      <c r="A104" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="B104" s="79"/>
+      <c r="C104" s="79"/>
+      <c r="D104" s="79"/>
+      <c r="E104" s="79"/>
+      <c r="F104" s="79"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B105" s="66" t="s">
-        <v>330</v>
-      </c>
-      <c r="C105" s="66"/>
+      <c r="B105" s="70" t="s">
+        <v>329</v>
+      </c>
+      <c r="C105" s="70"/>
       <c r="D105" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E105" s="66">
+      <c r="E105" s="70">
         <v>8</v>
       </c>
-      <c r="F105" s="66"/>
+      <c r="F105" s="70"/>
     </row>
     <row r="106" spans="1:12" s="59" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="72">
+      <c r="A106" s="81">
         <v>0</v>
       </c>
-      <c r="B106" s="75" t="s">
-        <v>320</v>
-      </c>
-      <c r="C106" s="77" t="s">
+      <c r="B106" s="83" t="s">
+        <v>319</v>
+      </c>
+      <c r="C106" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="D106" s="77">
-        <v>1</v>
-      </c>
-      <c r="E106" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="F106" s="77" t="s">
+      <c r="D106" s="74">
+        <v>1</v>
+      </c>
+      <c r="E106" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" s="74" t="s">
         <v>18</v>
       </c>
       <c r="G106" s="4">
@@ -4717,23 +4737,23 @@
       <c r="L106" s="65"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A107" s="73"/>
-      <c r="B107" s="76"/>
-      <c r="C107" s="78"/>
-      <c r="D107" s="78"/>
-      <c r="E107" s="78"/>
-      <c r="F107" s="78"/>
+      <c r="A107" s="82"/>
+      <c r="B107" s="84"/>
+      <c r="C107" s="76"/>
+      <c r="D107" s="76"/>
+      <c r="E107" s="76"/>
+      <c r="F107" s="76"/>
       <c r="G107" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="H107" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="H107" s="4" t="s">
+      <c r="I107" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="I107" s="4" t="s">
+      <c r="J107" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="J107" s="4" t="s">
-        <v>324</v>
       </c>
       <c r="K107" s="65"/>
       <c r="L107" s="65"/>
@@ -4772,106 +4792,203 @@
       <c r="A111" s="55">
         <v>4</v>
       </c>
-      <c r="B111" s="95" t="s">
-        <v>338</v>
-      </c>
-      <c r="C111" s="77" t="s">
+      <c r="B111" s="104" t="s">
+        <v>337</v>
+      </c>
+      <c r="C111" s="74" t="s">
+        <v>333</v>
+      </c>
+      <c r="D111" s="74">
+        <v>1</v>
+      </c>
+      <c r="E111" s="74" t="s">
         <v>334</v>
       </c>
-      <c r="D111" s="77">
-        <v>1</v>
-      </c>
-      <c r="E111" s="77" t="s">
+      <c r="F111" s="74" t="s">
         <v>335</v>
-      </c>
-      <c r="F111" s="77" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="55">
         <v>5</v>
       </c>
-      <c r="B112" s="96"/>
-      <c r="C112" s="78"/>
-      <c r="D112" s="78"/>
-      <c r="E112" s="78"/>
-      <c r="F112" s="78"/>
+      <c r="B112" s="105"/>
+      <c r="C112" s="76"/>
+      <c r="D112" s="76"/>
+      <c r="E112" s="76"/>
+      <c r="F112" s="76"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="55">
         <v>6</v>
       </c>
-      <c r="B113" s="95" t="s">
-        <v>337</v>
-      </c>
-      <c r="C113" s="77" t="s">
+      <c r="B113" s="104" t="s">
+        <v>336</v>
+      </c>
+      <c r="C113" s="74" t="s">
+        <v>333</v>
+      </c>
+      <c r="D113" s="74">
+        <v>1</v>
+      </c>
+      <c r="E113" s="74" t="s">
         <v>334</v>
       </c>
-      <c r="D113" s="77">
-        <v>1</v>
-      </c>
-      <c r="E113" s="77" t="s">
+      <c r="F113" s="74" t="s">
         <v>335</v>
-      </c>
-      <c r="F113" s="77" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="55">
         <v>7</v>
       </c>
-      <c r="B114" s="96"/>
-      <c r="C114" s="78"/>
-      <c r="D114" s="78"/>
-      <c r="E114" s="78"/>
-      <c r="F114" s="78"/>
+      <c r="B114" s="105"/>
+      <c r="C114" s="76"/>
+      <c r="D114" s="76"/>
+      <c r="E114" s="76"/>
+      <c r="F114" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="205">
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="E111:E112"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="F113:F114"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="E105:F105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="D100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F100:F101"/>
-    <mergeCell ref="F102:F103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
     <mergeCell ref="A84:F84"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="E85:F85"/>
@@ -4896,145 +5013,48 @@
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="C78:C79"/>
     <mergeCell ref="D78:D79"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="D106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:F107"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="D100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F102:F103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="F113:F114"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5046,7 +5066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3B3C39-6194-4D88-96DE-4A9D4173FD26}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F15"/>
     </sheetView>
   </sheetViews>
@@ -5076,30 +5096,30 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="79" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="66"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="70">
         <v>8</v>
       </c>
-      <c r="F3" s="66"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -5175,10 +5195,10 @@
         <v>0.01</v>
       </c>
       <c r="E8" s="68" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F8" s="68" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -5222,30 +5242,30 @@
       <c r="F11" s="68"/>
     </row>
     <row r="12" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="70" t="s">
         <v>171</v>
       </c>
-      <c r="C13" s="66"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="66">
+      <c r="E13" s="70">
         <v>8</v>
       </c>
-      <c r="F13" s="66"/>
+      <c r="F13" s="70"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
@@ -5369,11 +5389,31 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="B20:B21"/>
@@ -5390,31 +5430,11 @@
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5426,21 +5446,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987AFC64-1F61-4893-BCF1-55964C99EF0C}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
@@ -5466,17 +5486,17 @@
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="88" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="84"/>
+      <c r="C3" s="89"/>
       <c r="D3" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="83">
+      <c r="E3" s="88">
         <v>8</v>
       </c>
-      <c r="F3" s="84"/>
+      <c r="F3" s="89"/>
     </row>
     <row r="4" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -5639,14 +5659,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
@@ -5672,24 +5692,24 @@
       <c r="A15" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="83" t="s">
-        <v>332</v>
-      </c>
-      <c r="C15" s="84"/>
+      <c r="B15" s="88" t="s">
+        <v>331</v>
+      </c>
+      <c r="C15" s="89"/>
       <c r="D15" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="83">
+      <c r="E15" s="88">
         <v>8</v>
       </c>
-      <c r="F15" s="84"/>
+      <c r="F15" s="89"/>
     </row>
     <row r="16" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16" s="62">
         <v>0</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C16" s="60" t="s">
         <v>110</v>
@@ -5873,14 +5893,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -5906,17 +5926,17 @@
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="70" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="66"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="70">
         <v>8</v>
       </c>
-      <c r="F3" s="66"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
@@ -6022,23 +6042,23 @@
       <c r="A12" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="70" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="66"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="66">
+      <c r="E12" s="70">
         <v>8</v>
       </c>
-      <c r="F12" s="66"/>
+      <c r="F12" s="70"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>0</v>
       </c>
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="95" t="s">
         <v>58</v>
       </c>
       <c r="C13" s="68" t="s">
@@ -6058,7 +6078,7 @@
       <c r="A14" s="4">
         <v>1</v>
       </c>
-      <c r="B14" s="104"/>
+      <c r="B14" s="95"/>
       <c r="C14" s="68"/>
       <c r="D14" s="68"/>
       <c r="E14" s="68"/>
@@ -6068,7 +6088,7 @@
       <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B15" s="104"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="68"/>
       <c r="D15" s="68"/>
       <c r="E15" s="68"/>
@@ -6078,7 +6098,7 @@
       <c r="A16" s="4">
         <v>3</v>
       </c>
-      <c r="B16" s="104"/>
+      <c r="B16" s="95"/>
       <c r="C16" s="68"/>
       <c r="D16" s="68"/>
       <c r="E16" s="68"/>
@@ -6088,7 +6108,7 @@
       <c r="A17" s="4">
         <v>4</v>
       </c>
-      <c r="B17" s="104" t="s">
+      <c r="B17" s="95" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="68" t="s">
@@ -6108,7 +6128,7 @@
       <c r="A18" s="4">
         <v>5</v>
       </c>
-      <c r="B18" s="104"/>
+      <c r="B18" s="95"/>
       <c r="C18" s="68"/>
       <c r="D18" s="68"/>
       <c r="E18" s="68"/>
@@ -6118,7 +6138,7 @@
       <c r="A19" s="4">
         <v>6</v>
       </c>
-      <c r="B19" s="104"/>
+      <c r="B19" s="95"/>
       <c r="C19" s="68"/>
       <c r="D19" s="68"/>
       <c r="E19" s="68"/>
@@ -6128,7 +6148,7 @@
       <c r="A20" s="4">
         <v>7</v>
       </c>
-      <c r="B20" s="104"/>
+      <c r="B20" s="95"/>
       <c r="C20" s="68"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
@@ -6138,23 +6158,23 @@
       <c r="A21" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="66"/>
+      <c r="C21" s="70"/>
       <c r="D21" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E21" s="66">
+      <c r="E21" s="70">
         <v>8</v>
       </c>
-      <c r="F21" s="66"/>
+      <c r="F21" s="70"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>0</v>
       </c>
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="95" t="s">
         <v>84</v>
       </c>
       <c r="C22" s="68" t="s">
@@ -6174,7 +6194,7 @@
       <c r="A23" s="4">
         <v>1</v>
       </c>
-      <c r="B23" s="104"/>
+      <c r="B23" s="95"/>
       <c r="C23" s="68"/>
       <c r="D23" s="68"/>
       <c r="E23" s="68"/>
@@ -6184,7 +6204,7 @@
       <c r="A24" s="4">
         <v>2</v>
       </c>
-      <c r="B24" s="104"/>
+      <c r="B24" s="95"/>
       <c r="C24" s="68"/>
       <c r="D24" s="68"/>
       <c r="E24" s="68"/>
@@ -6194,7 +6214,7 @@
       <c r="A25" s="4">
         <v>3</v>
       </c>
-      <c r="B25" s="104"/>
+      <c r="B25" s="95"/>
       <c r="C25" s="68"/>
       <c r="D25" s="68"/>
       <c r="E25" s="68"/>
@@ -6204,7 +6224,7 @@
       <c r="A26" s="4">
         <v>4</v>
       </c>
-      <c r="B26" s="104" t="s">
+      <c r="B26" s="95" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="68" t="s">
@@ -6224,7 +6244,7 @@
       <c r="A27" s="4">
         <v>5</v>
       </c>
-      <c r="B27" s="104"/>
+      <c r="B27" s="95"/>
       <c r="C27" s="68"/>
       <c r="D27" s="68"/>
       <c r="E27" s="68"/>
@@ -6234,7 +6254,7 @@
       <c r="A28" s="4">
         <v>6</v>
       </c>
-      <c r="B28" s="104"/>
+      <c r="B28" s="95"/>
       <c r="C28" s="68"/>
       <c r="D28" s="68"/>
       <c r="E28" s="68"/>
@@ -6244,7 +6264,7 @@
       <c r="A29" s="4">
         <v>7</v>
       </c>
-      <c r="B29" s="104"/>
+      <c r="B29" s="95"/>
       <c r="C29" s="68"/>
       <c r="D29" s="68"/>
       <c r="E29" s="68"/>
@@ -6252,22 +6272,11 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -6284,11 +6293,22 @@
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="F4:F7"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6307,14 +6327,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="87" t="s">
-        <v>266</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
+      <c r="A1" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
@@ -6340,17 +6360,17 @@
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="83" t="s">
-        <v>256</v>
-      </c>
-      <c r="C3" s="84"/>
+      <c r="B3" s="88" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="89"/>
       <c r="D3" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="83">
+      <c r="E3" s="88">
         <v>8</v>
       </c>
-      <c r="F3" s="84"/>
+      <c r="F3" s="89"/>
     </row>
     <row r="4" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -6360,13 +6380,13 @@
         <v>86</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D4" s="19">
         <v>0.1</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>20</v>
@@ -6380,13 +6400,13 @@
         <v>87</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D5" s="19">
         <v>0.1</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>20</v>
@@ -6397,7 +6417,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>110</v>
@@ -6406,10 +6426,10 @@
         <v>0.01</v>
       </c>
       <c r="E6" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="F6" s="31" t="s">
         <v>260</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6417,7 +6437,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>110</v>
@@ -6426,10 +6446,10 @@
         <v>0.01</v>
       </c>
       <c r="E7" s="31" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" s="31" t="s">
         <v>260</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6437,7 +6457,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>110</v>
@@ -6446,7 +6466,7 @@
         <v>0.01</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F8" s="31" t="s">
         <v>165</v>
@@ -6457,7 +6477,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>110</v>
@@ -6466,7 +6486,7 @@
         <v>0.01</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F9" s="31" t="s">
         <v>165</v>
@@ -6477,7 +6497,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>110</v>
@@ -6486,7 +6506,7 @@
         <v>0.01</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F10" s="31" t="s">
         <v>165</v>
@@ -6535,14 +6555,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="67" t="s">
-        <v>284</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
+      <c r="A1" s="69" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -6568,17 +6588,17 @@
       <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66" t="s">
-        <v>269</v>
-      </c>
-      <c r="C3" s="66"/>
+      <c r="B3" s="70" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" s="70"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="70">
         <v>8</v>
       </c>
-      <c r="F3" s="66"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
@@ -6721,23 +6741,17 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="122" t="s">
-        <v>285</v>
-      </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
+      <c r="A12" s="124" t="s">
+        <v>284</v>
+      </c>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -6746,6 +6760,12 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6767,14 +6787,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="67" t="s">
-        <v>274</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
+      <c r="A1" s="69" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
     </row>
     <row r="2" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -6800,24 +6820,24 @@
       <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="C3" s="66"/>
+      <c r="B3" s="70" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="70"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="70">
         <v>8</v>
       </c>
-      <c r="F3" s="66"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
       <c r="B4" s="68" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C4" s="68" t="s">
         <v>22</v>
@@ -6826,7 +6846,7 @@
         <v>1E-3</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F4" s="68" t="s">
         <v>165</v>
@@ -6847,7 +6867,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C6" s="68" t="s">
         <v>22</v>
@@ -6856,7 +6876,7 @@
         <v>1E-3</v>
       </c>
       <c r="E6" s="68" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F6" s="68" t="s">
         <v>165</v>
@@ -6903,22 +6923,22 @@
       <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="69">
+      <c r="A11" s="73">
         <v>7</v>
       </c>
-      <c r="B11" s="70" t="s">
-        <v>286</v>
-      </c>
-      <c r="C11" s="70" t="s">
+      <c r="B11" s="71" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="70">
-        <v>1</v>
-      </c>
-      <c r="E11" s="70" t="s">
-        <v>288</v>
-      </c>
-      <c r="F11" s="70" t="s">
+      <c r="D11" s="71">
+        <v>1</v>
+      </c>
+      <c r="E11" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="F11" s="71" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="4">
@@ -6935,27 +6955,38 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="69"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
       <c r="G12" s="4" t="s">
         <v>67</v>
       </c>
       <c r="H12" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>291</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -6964,17 +6995,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6996,14 +7016,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="67" t="s">
-        <v>276</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
+      <c r="A1" s="69" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
     </row>
     <row r="2" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
@@ -7029,24 +7049,24 @@
       <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66" t="s">
-        <v>275</v>
-      </c>
-      <c r="C3" s="66"/>
+      <c r="B3" s="70" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" s="70"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="70">
         <v>8</v>
       </c>
-      <c r="F3" s="66"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0</v>
       </c>
       <c r="B4" s="68" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C4" s="68" t="s">
         <v>22</v>
@@ -7055,7 +7075,7 @@
         <v>0.01</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F4" s="68" t="s">
         <v>165</v>
@@ -7076,7 +7096,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C6" s="68" t="s">
         <v>22</v>
@@ -7085,7 +7105,7 @@
         <v>0.01</v>
       </c>
       <c r="E6" s="68" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F6" s="68" t="s">
         <v>165</v>
@@ -7132,23 +7152,23 @@
       <c r="F10" s="43"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="69">
+      <c r="A11" s="73">
         <v>7</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="71" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="71" t="s">
         <v>286</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="D11" s="71">
+        <v>1</v>
+      </c>
+      <c r="E11" s="71" t="s">
         <v>287</v>
       </c>
-      <c r="D11" s="70">
-        <v>1</v>
-      </c>
-      <c r="E11" s="70" t="s">
+      <c r="F11" s="71" t="s">
         <v>288</v>
-      </c>
-      <c r="F11" s="70" t="s">
-        <v>289</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -7164,27 +7184,38 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="69"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
       <c r="G12" s="4" t="s">
         <v>67</v>
       </c>
       <c r="H12" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>291</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -7193,17 +7224,6 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7222,24 +7242,24 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" s="59" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="71" t="s">
-        <v>313</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
+      <c r="A1" s="72" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
     </row>
     <row r="2" spans="1:10" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
@@ -7265,17 +7285,17 @@
       <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="66"/>
+      <c r="C4" s="70"/>
       <c r="D4" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="66">
+      <c r="E4" s="70">
         <v>8</v>
       </c>
-      <c r="F4" s="66"/>
+      <c r="F4" s="70"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
@@ -7418,14 +7438,14 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="67" t="s">
-        <v>250</v>
-      </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
+      <c r="A13" s="69" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
     </row>
     <row r="14" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
@@ -7455,17 +7475,17 @@
       <c r="A15" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="66"/>
+      <c r="C15" s="70"/>
       <c r="D15" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="66">
+      <c r="E15" s="70">
         <v>8</v>
       </c>
-      <c r="F15" s="66"/>
+      <c r="F15" s="70"/>
       <c r="G15" s="59"/>
       <c r="H15" s="59"/>
       <c r="I15" s="59"/>
@@ -7476,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="68" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C16" s="68" t="s">
         <v>24</v>
@@ -7514,7 +7534,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="68" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C18" s="68" t="s">
         <v>24</v>
@@ -7624,7 +7644,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="53" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C23" s="53" t="s">
         <v>109</v>
@@ -7633,7 +7653,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="53" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F23" s="53" t="s">
         <v>187</v>
@@ -7644,14 +7664,14 @@
       <c r="J23" s="59"/>
     </row>
     <row r="25" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="67" t="s">
-        <v>309</v>
-      </c>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
+      <c r="A25" s="69" t="s">
+        <v>308</v>
+      </c>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
     </row>
     <row r="26" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
@@ -7677,24 +7697,24 @@
       <c r="A27" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="66" t="s">
-        <v>311</v>
-      </c>
-      <c r="C27" s="66"/>
+      <c r="B27" s="70" t="s">
+        <v>310</v>
+      </c>
+      <c r="C27" s="70"/>
       <c r="D27" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="66">
+      <c r="E27" s="70">
         <v>8</v>
       </c>
-      <c r="F27" s="66"/>
+      <c r="F27" s="70"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="55">
         <v>0</v>
       </c>
       <c r="B28" s="68" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C28" s="68" t="s">
         <v>22</v>
@@ -7703,7 +7723,7 @@
         <v>0.01</v>
       </c>
       <c r="E28" s="68" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F28" s="68" t="s">
         <v>165</v>
@@ -7724,7 +7744,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="68" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C30" s="68" t="s">
         <v>22</v>
@@ -7733,7 +7753,7 @@
         <v>0.01</v>
       </c>
       <c r="E30" s="68" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F30" s="68" t="s">
         <v>165</v>
@@ -7780,22 +7800,22 @@
       <c r="F34" s="43"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="69">
+      <c r="A35" s="73">
         <v>7</v>
       </c>
-      <c r="B35" s="70" t="s">
-        <v>286</v>
-      </c>
-      <c r="C35" s="70" t="s">
+      <c r="B35" s="71" t="s">
+        <v>285</v>
+      </c>
+      <c r="C35" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="70">
-        <v>1</v>
-      </c>
-      <c r="E35" s="70" t="s">
-        <v>288</v>
-      </c>
-      <c r="F35" s="70" t="s">
+      <c r="D35" s="71">
+        <v>1</v>
+      </c>
+      <c r="E35" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="F35" s="71" t="s">
         <v>18</v>
       </c>
       <c r="G35" s="4">
@@ -7812,34 +7832,34 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="69"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
+      <c r="A36" s="73"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
       <c r="G36" s="4" t="s">
         <v>67</v>
       </c>
       <c r="H36" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="J36" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="I36" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>291</v>
-      </c>
     </row>
     <row r="38" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="67" t="s">
-        <v>310</v>
-      </c>
-      <c r="B38" s="67"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
+      <c r="A38" s="69" t="s">
+        <v>309</v>
+      </c>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
       <c r="G38" s="59"/>
       <c r="H38" s="59"/>
       <c r="I38" s="59"/>
@@ -7873,17 +7893,17 @@
       <c r="A40" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="66" t="s">
-        <v>312</v>
-      </c>
-      <c r="C40" s="66"/>
+      <c r="B40" s="70" t="s">
+        <v>311</v>
+      </c>
+      <c r="C40" s="70"/>
       <c r="D40" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E40" s="66">
+      <c r="E40" s="70">
         <v>8</v>
       </c>
-      <c r="F40" s="66"/>
+      <c r="F40" s="70"/>
       <c r="G40" s="59"/>
       <c r="H40" s="59"/>
       <c r="I40" s="59"/>
@@ -7894,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="68" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C41" s="68" t="s">
         <v>22</v>
@@ -7903,7 +7923,7 @@
         <v>0.01</v>
       </c>
       <c r="E41" s="68" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F41" s="68" t="s">
         <v>165</v>
@@ -7932,7 +7952,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="68" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C43" s="68" t="s">
         <v>22</v>
@@ -7941,7 +7961,7 @@
         <v>0.01</v>
       </c>
       <c r="E43" s="68" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F43" s="68" t="s">
         <v>165</v>
@@ -8008,22 +8028,22 @@
       <c r="J47" s="59"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="69">
+      <c r="A48" s="73">
         <v>7</v>
       </c>
-      <c r="B48" s="70" t="s">
-        <v>286</v>
-      </c>
-      <c r="C48" s="70" t="s">
+      <c r="B48" s="71" t="s">
+        <v>285</v>
+      </c>
+      <c r="C48" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="D48" s="70">
-        <v>1</v>
-      </c>
-      <c r="E48" s="70" t="s">
-        <v>288</v>
-      </c>
-      <c r="F48" s="70" t="s">
+      <c r="D48" s="71">
+        <v>1</v>
+      </c>
+      <c r="E48" s="71" t="s">
+        <v>287</v>
+      </c>
+      <c r="F48" s="71" t="s">
         <v>18</v>
       </c>
       <c r="G48" s="4">
@@ -8040,27 +8060,76 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="69"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="71"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
       <c r="G49" s="4" t="s">
         <v>67</v>
       </c>
       <c r="H49" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="J49" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>291</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F35:F36"/>
     <mergeCell ref="F48:F49"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A48:A49"/>
@@ -8077,55 +8146,6 @@
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8134,10 +8154,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485B570D-AF19-4CD7-ADE4-FC7A998D53D9}">
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:C44"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59:C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8149,14 +8169,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -8182,30 +8202,30 @@
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="C3" s="66"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="70">
         <v>8</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="88" t="s">
+      <c r="F3" s="70"/>
+      <c r="G3" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="90"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="87"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="69">
+      <c r="A4" s="73">
         <v>0</v>
       </c>
       <c r="B4" s="68" t="s">
@@ -8249,7 +8269,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="68"/>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
@@ -8281,22 +8301,22 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="72">
-        <v>1</v>
-      </c>
-      <c r="B6" s="75" t="s">
+      <c r="A6" s="81">
+        <v>1</v>
+      </c>
+      <c r="B6" s="83" t="s">
         <v>216</v>
       </c>
       <c r="C6" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="77" t="s">
+      <c r="D6" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="74" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="44" t="s">
@@ -8325,12 +8345,12 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="73"/>
-      <c r="B7" s="76"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="68"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="10" t="s">
         <v>93</v>
       </c>
@@ -8349,10 +8369,10 @@
       <c r="L7" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="M7" s="85" t="s">
+      <c r="M7" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="N7" s="86"/>
+      <c r="N7" s="78"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
@@ -8435,14 +8455,14 @@
       <c r="F13" s="51"/>
     </row>
     <row r="14" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
@@ -8468,17 +8488,17 @@
       <c r="A16" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="66"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E16" s="66">
+      <c r="E16" s="70">
         <v>8</v>
       </c>
-      <c r="F16" s="66"/>
+      <c r="F16" s="70"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="47">
@@ -8601,48 +8621,48 @@
       <c r="F24" s="68"/>
     </row>
     <row r="25" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="87" t="s">
-        <v>294</v>
-      </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
+      <c r="A25" s="79" t="s">
+        <v>293</v>
+      </c>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="66" t="s">
-        <v>295</v>
-      </c>
-      <c r="C26" s="66"/>
+      <c r="B26" s="70" t="s">
+        <v>294</v>
+      </c>
+      <c r="C26" s="70"/>
       <c r="D26" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E26" s="66">
+      <c r="E26" s="70">
         <v>8</v>
       </c>
-      <c r="F26" s="66"/>
+      <c r="F26" s="70"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="47">
         <v>0</v>
       </c>
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="77">
-        <v>1</v>
-      </c>
-      <c r="E27" s="77" t="s">
-        <v>293</v>
-      </c>
-      <c r="F27" s="77">
+      <c r="D27" s="74">
+        <v>1</v>
+      </c>
+      <c r="E27" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="F27" s="74">
         <v>1</v>
       </c>
     </row>
@@ -8650,29 +8670,29 @@
       <c r="A28" s="47">
         <v>1</v>
       </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="47">
         <v>2</v>
       </c>
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="77">
-        <v>1</v>
-      </c>
-      <c r="E29" s="77" t="s">
-        <v>293</v>
-      </c>
-      <c r="F29" s="77">
+      <c r="D29" s="74">
+        <v>1</v>
+      </c>
+      <c r="E29" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="F29" s="74">
         <v>1</v>
       </c>
     </row>
@@ -8680,29 +8700,29 @@
       <c r="A30" s="47">
         <v>3</v>
       </c>
-      <c r="B30" s="76"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="47">
         <v>4</v>
       </c>
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="77" t="s">
+      <c r="C31" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="77">
-        <v>1</v>
-      </c>
-      <c r="E31" s="77" t="s">
-        <v>293</v>
-      </c>
-      <c r="F31" s="77">
+      <c r="D31" s="74">
+        <v>1</v>
+      </c>
+      <c r="E31" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="F31" s="74">
         <v>1</v>
       </c>
     </row>
@@ -8710,29 +8730,29 @@
       <c r="A32" s="47">
         <v>5</v>
       </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="47">
         <v>6</v>
       </c>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="77" t="s">
+      <c r="C33" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="77">
-        <v>1</v>
-      </c>
-      <c r="E33" s="77" t="s">
-        <v>293</v>
-      </c>
-      <c r="F33" s="77">
+      <c r="D33" s="74">
+        <v>1</v>
+      </c>
+      <c r="E33" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="F33" s="74">
         <v>1</v>
       </c>
     </row>
@@ -8740,55 +8760,55 @@
       <c r="A34" s="47">
         <v>7</v>
       </c>
-      <c r="B34" s="76"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
     </row>
     <row r="35" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="87" t="s">
-        <v>294</v>
-      </c>
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
+      <c r="A35" s="79" t="s">
+        <v>293</v>
+      </c>
+      <c r="B35" s="79"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="91" t="s">
-        <v>296</v>
-      </c>
-      <c r="C36" s="91"/>
+      <c r="B36" s="80" t="s">
+        <v>295</v>
+      </c>
+      <c r="C36" s="80"/>
       <c r="D36" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="91">
+      <c r="E36" s="80">
         <v>8</v>
       </c>
-      <c r="F36" s="91"/>
+      <c r="F36" s="80"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="47">
         <v>0</v>
       </c>
-      <c r="B37" s="75" t="s">
-        <v>298</v>
-      </c>
-      <c r="C37" s="77" t="s">
-        <v>303</v>
-      </c>
-      <c r="D37" s="77">
-        <v>1</v>
-      </c>
-      <c r="E37" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="77">
+      <c r="B37" s="83" t="s">
+        <v>297</v>
+      </c>
+      <c r="C37" s="74" t="s">
+        <v>302</v>
+      </c>
+      <c r="D37" s="74">
+        <v>1</v>
+      </c>
+      <c r="E37" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="74">
         <v>1</v>
       </c>
     </row>
@@ -8796,49 +8816,49 @@
       <c r="A38" s="47">
         <v>1</v>
       </c>
-      <c r="B38" s="81"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
+      <c r="B38" s="93"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="47">
         <v>2</v>
       </c>
-      <c r="B39" s="81"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="47">
         <v>3</v>
       </c>
-      <c r="B40" s="76"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="47">
         <v>4</v>
       </c>
-      <c r="B41" s="75" t="s">
-        <v>299</v>
-      </c>
-      <c r="C41" s="77" t="s">
-        <v>303</v>
-      </c>
-      <c r="D41" s="77">
-        <v>1</v>
-      </c>
-      <c r="E41" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="77">
+      <c r="B41" s="83" t="s">
+        <v>298</v>
+      </c>
+      <c r="C41" s="74" t="s">
+        <v>302</v>
+      </c>
+      <c r="D41" s="74">
+        <v>1</v>
+      </c>
+      <c r="E41" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" s="74">
         <v>1</v>
       </c>
     </row>
@@ -8846,373 +8866,541 @@
       <c r="A42" s="47">
         <v>5</v>
       </c>
-      <c r="B42" s="81"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="82"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="47">
         <v>6</v>
       </c>
-      <c r="B43" s="81"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="47">
         <v>7</v>
       </c>
-      <c r="B44" s="76"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="83" t="s">
-        <v>300</v>
-      </c>
-      <c r="C45" s="84"/>
-      <c r="D45" s="22" t="s">
+      <c r="B44" s="84"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+    </row>
+    <row r="45" spans="1:14" s="67" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="79" t="s">
+        <v>338</v>
+      </c>
+      <c r="B45" s="79"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="C46" s="89"/>
+      <c r="D46" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E45" s="83">
+      <c r="E46" s="88">
         <v>8</v>
       </c>
-      <c r="F45" s="84"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="72">
+      <c r="F46" s="89"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="81">
         <v>0</v>
       </c>
-      <c r="B46" s="75" t="s">
+      <c r="B47" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="77" t="s">
+      <c r="C47" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="77">
-        <v>1</v>
-      </c>
-      <c r="E46" s="77" t="s">
+      <c r="D47" s="74">
+        <v>1</v>
+      </c>
+      <c r="E47" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="79" t="s">
+      <c r="F47" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G47" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H46" s="18" t="s">
+      <c r="H47" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="18" t="s">
+      <c r="I47" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J46" s="18" t="s">
+      <c r="J47" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K46" s="18" t="s">
+      <c r="K47" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L46" s="18" t="s">
+      <c r="L47" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M46" s="18" t="s">
+      <c r="M47" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N46" s="18" t="s">
+      <c r="N47" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="73"/>
-      <c r="B47" s="76"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="H47" s="27" t="s">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="82"/>
+      <c r="B48" s="84"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="91"/>
+      <c r="G48" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="H48" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="I47" s="74" t="s">
+      <c r="I48" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="J47" s="74"/>
-      <c r="K47" s="27" t="s">
+      <c r="J48" s="92"/>
+      <c r="K48" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="L47" s="27" t="s">
+      <c r="L48" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="M47" s="27" t="s">
+      <c r="M48" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="N47" s="27" t="s">
+      <c r="N48" s="27" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="72">
-        <v>1</v>
-      </c>
-      <c r="B48" s="75" t="s">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="81">
+        <v>1</v>
+      </c>
+      <c r="B49" s="83" t="s">
         <v>216</v>
       </c>
-      <c r="C48" s="77" t="s">
+      <c r="C49" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="D48" s="77">
-        <v>1</v>
-      </c>
-      <c r="E48" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="44" t="s">
+      <c r="D49" s="74">
+        <v>1</v>
+      </c>
+      <c r="E49" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="H48" s="13" t="s">
+      <c r="H49" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="I48" s="13" t="s">
+      <c r="I49" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="J48" s="13" t="s">
+      <c r="J49" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="K48" s="13" t="s">
+      <c r="K49" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="L48" s="13" t="s">
+      <c r="L49" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="M48" s="13" t="s">
+      <c r="M49" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="N48" s="45" t="s">
+      <c r="N49" s="45" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="73"/>
-      <c r="B49" s="76"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="10" t="s">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="82"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="91"/>
+      <c r="G50" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H49" s="11" t="s">
+      <c r="H50" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I49" s="11" t="s">
+      <c r="I50" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="J49" s="11" t="s">
+      <c r="J50" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="K49" s="11" t="s">
+      <c r="K50" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="L49" s="11" t="s">
+      <c r="L50" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="M49" s="85" t="s">
+      <c r="M50" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="N49" s="86"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="47">
+      <c r="N50" s="78"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="47">
         <v>2</v>
       </c>
-      <c r="B50" s="75" t="s">
+      <c r="B51" s="83" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="77" t="s">
+      <c r="C51" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="77">
+      <c r="D51" s="74">
         <v>0.01</v>
       </c>
-      <c r="E50" s="77" t="s">
+      <c r="E51" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="77" t="s">
+      <c r="F51" s="74" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="46">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="46">
         <v>3</v>
       </c>
-      <c r="B51" s="76"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="47">
+      <c r="B52" s="84"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="47">
         <v>4</v>
       </c>
-      <c r="B52" s="75" t="s">
+      <c r="B53" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="77" t="s">
+      <c r="C53" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="77">
+      <c r="D53" s="74">
         <v>0.01</v>
       </c>
-      <c r="E52" s="77" t="s">
+      <c r="E53" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="F52" s="77" t="s">
+      <c r="F53" s="74" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="46">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="46">
         <v>5</v>
       </c>
-      <c r="B53" s="76"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="78"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="5">
+      <c r="B54" s="84"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
         <v>6</v>
       </c>
-      <c r="B54" s="68" t="s">
+      <c r="B55" s="68" t="s">
         <v>214</v>
       </c>
-      <c r="C54" s="68" t="s">
-        <v>218</v>
-      </c>
-      <c r="D54" s="68">
+      <c r="C55" s="68" t="s">
+        <v>217</v>
+      </c>
+      <c r="D55" s="68">
         <v>0.01</v>
       </c>
-      <c r="E54" s="68" t="s">
-        <v>217</v>
-      </c>
-      <c r="F54" s="68" t="s">
+      <c r="E55" s="68" t="s">
+        <v>342</v>
+      </c>
+      <c r="F55" s="68" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="32">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="32">
         <v>7</v>
       </c>
-      <c r="B55" s="68"/>
-      <c r="C55" s="68"/>
-      <c r="D55" s="68"/>
-      <c r="E55" s="68"/>
-      <c r="F55" s="68"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+    </row>
+    <row r="57" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="79" t="s">
+        <v>338</v>
+      </c>
+      <c r="B57" s="79"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+      <c r="A58" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="88" t="s">
+        <v>339</v>
+      </c>
+      <c r="C58" s="89"/>
+      <c r="D58" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" s="88">
+        <v>8</v>
+      </c>
+      <c r="F58" s="89"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="A59" s="66">
+        <v>0</v>
+      </c>
+      <c r="B59" s="68" t="s">
+        <v>340</v>
+      </c>
+      <c r="C59" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="68">
+        <v>1E-3</v>
+      </c>
+      <c r="E59" s="68" t="s">
+        <v>342</v>
+      </c>
+      <c r="F59" s="68" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="A60" s="66">
+        <v>1</v>
+      </c>
+      <c r="B60" s="68"/>
+      <c r="C60" s="68"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="68"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="A61" s="66">
+        <v>2</v>
+      </c>
+      <c r="B61" s="51"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
+      <c r="A62" s="66">
+        <v>3</v>
+      </c>
+      <c r="B62" s="51"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
+      <c r="A63" s="66">
+        <v>4</v>
+      </c>
+      <c r="B63" s="51"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="66">
+        <v>5</v>
+      </c>
+      <c r="B64" s="51"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="66">
+        <v>6</v>
+      </c>
+      <c r="B65" s="51"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="66">
+        <v>7</v>
+      </c>
+      <c r="B66" s="51"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="126">
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="E41:E44"/>
+    <mergeCell ref="F41:F44"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G3:N3"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
     <mergeCell ref="C37:C40"/>
     <mergeCell ref="D37:D40"/>
     <mergeCell ref="E37:E40"/>
@@ -9237,99 +9425,6 @@
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G3:N3"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="E41:E44"/>
-    <mergeCell ref="F41:F44"/>
-    <mergeCell ref="B37:B40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9341,7 +9436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C997F42E-EA4A-4979-AA96-A392CF351B94}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:F23"/>
     </sheetView>
   </sheetViews>
@@ -9351,14 +9446,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -9384,20 +9479,20 @@
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="66"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="70">
         <v>8</v>
       </c>
-      <c r="F3" s="66"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="69">
+      <c r="A4" s="73">
         <v>0</v>
       </c>
       <c r="B4" s="68" t="s">
@@ -9417,7 +9512,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="68"/>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
@@ -9535,14 +9630,14 @@
       <c r="F12" s="68"/>
     </row>
     <row r="13" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
@@ -9568,17 +9663,17 @@
       <c r="A15" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="66" t="s">
-        <v>301</v>
-      </c>
-      <c r="C15" s="66"/>
+      <c r="B15" s="70" t="s">
+        <v>300</v>
+      </c>
+      <c r="C15" s="70"/>
       <c r="D15" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="66">
+      <c r="E15" s="70">
         <v>8</v>
       </c>
-      <c r="F15" s="66"/>
+      <c r="F15" s="70"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="47">
@@ -9702,44 +9797,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -9749,6 +9806,44 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9760,7 +9855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1A9E13-87C1-4307-9B11-1AB0387C93D9}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G34" sqref="G34:N34"/>
     </sheetView>
   </sheetViews>
@@ -9775,14 +9870,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
@@ -9808,20 +9903,20 @@
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="66"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="70">
         <v>8</v>
       </c>
-      <c r="F3" s="66"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="101">
+      <c r="A4" s="99">
         <v>0</v>
       </c>
       <c r="B4" s="68" t="s">
@@ -9865,7 +9960,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="102"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="68"/>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
@@ -9897,7 +9992,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="101">
+      <c r="A6" s="99">
         <v>1</v>
       </c>
       <c r="B6" s="68" t="s">
@@ -9917,14 +10012,14 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="102"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="68"/>
       <c r="C7" s="68"/>
       <c r="D7" s="68"/>
       <c r="E7" s="68"/>
       <c r="F7" s="68"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -9960,7 +10055,7 @@
       <c r="A10" s="4">
         <v>4</v>
       </c>
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="95" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="68" t="s">
@@ -9980,7 +10075,7 @@
       <c r="A11" s="4">
         <v>5</v>
       </c>
-      <c r="B11" s="104"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="68"/>
       <c r="D11" s="68"/>
       <c r="E11" s="68"/>
@@ -10025,32 +10120,32 @@
       <c r="F13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="98" t="s">
+      <c r="G13" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="100"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="98"/>
     </row>
     <row r="14" spans="1:14" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="66"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="66">
+      <c r="E14" s="70">
         <v>8</v>
       </c>
-      <c r="F14" s="66"/>
+      <c r="F14" s="70"/>
     </row>
     <row r="15" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
@@ -10116,7 +10211,7 @@
       <c r="A19" s="4">
         <v>4</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="95" t="s">
         <v>120</v>
       </c>
       <c r="C19" s="68" t="s">
@@ -10136,7 +10231,7 @@
       <c r="A20" s="4">
         <v>5</v>
       </c>
-      <c r="B20" s="104"/>
+      <c r="B20" s="95"/>
       <c r="C20" s="68"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
@@ -10181,26 +10276,26 @@
       <c r="F22" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="93" t="s">
+      <c r="G22" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
     </row>
     <row r="23" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="67" t="s">
-        <v>277</v>
-      </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
+      <c r="A23" s="69" t="s">
+        <v>276</v>
+      </c>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
     </row>
     <row r="24" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
@@ -10226,17 +10321,17 @@
       <c r="A25" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="66" t="s">
-        <v>278</v>
-      </c>
-      <c r="C25" s="66"/>
+      <c r="B25" s="70" t="s">
+        <v>277</v>
+      </c>
+      <c r="C25" s="70"/>
       <c r="D25" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E25" s="66">
+      <c r="E25" s="70">
         <v>8</v>
       </c>
-      <c r="F25" s="66"/>
+      <c r="F25" s="70"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
@@ -10252,7 +10347,7 @@
         <v>0.1</v>
       </c>
       <c r="E26" s="68" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F26" s="68" t="s">
         <v>37</v>
@@ -10282,7 +10377,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F28" s="19" t="s">
         <v>29</v>
@@ -10302,7 +10397,7 @@
         <v>0.1</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>59</v>
@@ -10313,7 +10408,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="68" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C30" s="68" t="s">
         <v>23</v>
@@ -10322,7 +10417,7 @@
         <v>1E-3</v>
       </c>
       <c r="E30" s="68" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F30" s="68" t="s">
         <v>165</v>
@@ -10339,22 +10434,22 @@
       <c r="F31" s="68"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="72">
+      <c r="A32" s="81">
         <v>6</v>
       </c>
-      <c r="B32" s="95" t="s">
-        <v>306</v>
-      </c>
-      <c r="C32" s="77" t="s">
+      <c r="B32" s="104" t="s">
+        <v>305</v>
+      </c>
+      <c r="C32" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="77">
-        <v>1</v>
-      </c>
-      <c r="E32" s="77" t="s">
-        <v>305</v>
-      </c>
-      <c r="F32" s="77">
+      <c r="D32" s="74">
+        <v>1</v>
+      </c>
+      <c r="E32" s="74" t="s">
+        <v>304</v>
+      </c>
+      <c r="F32" s="74">
         <v>1</v>
       </c>
       <c r="G32" s="15" t="s">
@@ -10383,28 +10478,28 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="73"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="94"/>
+      <c r="A33" s="82"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="103"/>
       <c r="G33" s="50">
         <v>0</v>
       </c>
       <c r="H33" s="50">
         <v>0</v>
       </c>
-      <c r="I33" s="92" t="s">
-        <v>283</v>
-      </c>
-      <c r="J33" s="92"/>
-      <c r="K33" s="97" t="s">
+      <c r="I33" s="102" t="s">
+        <v>282</v>
+      </c>
+      <c r="J33" s="102"/>
+      <c r="K33" s="106" t="s">
         <v>216</v>
       </c>
-      <c r="L33" s="97"/>
-      <c r="M33" s="97"/>
-      <c r="N33" s="97"/>
+      <c r="L33" s="106"/>
+      <c r="M33" s="106"/>
+      <c r="N33" s="106"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="49">
@@ -10425,28 +10520,28 @@
       <c r="F34" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="93" t="s">
+      <c r="G34" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="H34" s="93"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="93"/>
-      <c r="M34" s="93"/>
-      <c r="N34" s="93"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
     </row>
     <row r="36" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="G36" s="71" t="s">
+      <c r="G36" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
     </row>
     <row r="37" spans="1:14" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="G37" s="12" t="s">
@@ -10493,13 +10588,66 @@
       <c r="L38" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="M38" s="85" t="s">
+      <c r="M38" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="N38" s="86"/>
+      <c r="N38" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="G36:N36"/>
+    <mergeCell ref="G34:N34"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G22:N22"/>
@@ -10516,59 +10664,6 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="G36:N36"/>
-    <mergeCell ref="G34:N34"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="K33:N33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10587,14 +10682,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
@@ -10620,17 +10715,17 @@
       <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="66"/>
+      <c r="C3" s="70"/>
       <c r="D3" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="70">
         <v>8</v>
       </c>
-      <c r="F3" s="66"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescen